--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,18 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['3', '51']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['65', '80']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -752,6 +764,15 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['23', '45+1', '69']</t>
+  </si>
+  <si>
+    <t>['51', '74']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK124"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1378,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1447,7 +1468,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1548,7 +1569,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1739,7 +1760,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1930,7 +1951,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2017,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT5">
         <v>0.25</v>
@@ -2312,7 +2333,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2590,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT8">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2781,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT9">
         <v>1.25</v>
@@ -2885,7 +2906,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -2975,7 +2996,7 @@
         <v>1.57</v>
       </c>
       <c r="AT10">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3163,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT11">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3267,7 +3288,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3548,7 +3569,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3840,7 +3861,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4031,7 +4052,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4118,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>0.29</v>
@@ -4222,7 +4243,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4413,7 +4434,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4604,7 +4625,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4795,7 +4816,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4885,7 +4906,7 @@
         <v>1.38</v>
       </c>
       <c r="AT20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>2.61</v>
@@ -5073,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT21">
         <v>1.25</v>
@@ -5368,7 +5389,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5455,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT23">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU23">
         <v>2.05</v>
@@ -5837,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT25">
         <v>0.25</v>
@@ -5941,7 +5962,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6132,7 +6153,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6323,7 +6344,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6514,7 +6535,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6705,7 +6726,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6896,7 +6917,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -6986,7 +7007,7 @@
         <v>1.43</v>
       </c>
       <c r="AT31">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU31">
         <v>2.53</v>
@@ -7177,7 +7198,7 @@
         <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU32">
         <v>1.39</v>
@@ -7278,7 +7299,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7368,7 +7389,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU33">
         <v>1.26</v>
@@ -7556,7 +7577,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT34">
         <v>1.14</v>
@@ -7851,7 +7872,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8129,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8233,7 +8254,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8424,7 +8445,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8514,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU39">
         <v>1.5</v>
@@ -8615,7 +8636,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8702,7 +8723,7 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT40">
         <v>1.29</v>
@@ -8806,7 +8827,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8896,7 +8917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.34</v>
@@ -8997,7 +9018,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9084,7 +9105,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9188,7 +9209,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9379,7 +9400,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9657,7 +9678,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT45">
         <v>0.29</v>
@@ -9761,7 +9782,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9952,7 +9973,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10042,7 +10063,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU47">
         <v>1.44</v>
@@ -10334,7 +10355,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10421,7 +10442,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT49">
         <v>1.25</v>
@@ -10525,7 +10546,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10907,7 +10928,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10997,7 +11018,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU52">
         <v>1.36</v>
@@ -11098,7 +11119,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11289,7 +11310,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11376,7 +11397,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>0.33</v>
@@ -11570,7 +11591,7 @@
         <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU55">
         <v>1.78</v>
@@ -11671,7 +11692,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11862,7 +11883,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12053,7 +12074,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12522,7 +12543,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12716,7 +12737,7 @@
         <v>1.43</v>
       </c>
       <c r="AT61">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.67</v>
@@ -12817,7 +12838,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -12904,10 +12925,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT62">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -13008,7 +13029,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13095,7 +13116,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT63">
         <v>0.25</v>
@@ -13286,7 +13307,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT64">
         <v>1.67</v>
@@ -13581,7 +13602,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13671,7 +13692,7 @@
         <v>1.57</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU66">
         <v>1.58</v>
@@ -13859,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -14050,10 +14071,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT68">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU68">
         <v>1.63</v>
@@ -14345,7 +14366,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14536,7 +14557,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -14626,7 +14647,7 @@
         <v>1.86</v>
       </c>
       <c r="AT71">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU71">
         <v>2.15</v>
@@ -14918,7 +14939,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15109,7 +15130,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15196,10 +15217,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT74">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU74">
         <v>1.22</v>
@@ -15300,7 +15321,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15390,7 +15411,7 @@
         <v>1.57</v>
       </c>
       <c r="AT75">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.73</v>
@@ -15578,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15682,7 +15703,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15873,7 +15894,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -15960,7 +15981,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16637,7 +16658,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16828,7 +16849,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16915,7 +16936,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT83">
         <v>2</v>
@@ -17019,7 +17040,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17106,10 +17127,10 @@
         <v>3</v>
       </c>
       <c r="AS84">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT84">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17210,7 +17231,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17300,7 +17321,7 @@
         <v>1.38</v>
       </c>
       <c r="AT85">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17401,7 +17422,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17592,7 +17613,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18064,7 +18085,7 @@
         <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU89">
         <v>1.36</v>
@@ -18547,7 +18568,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18637,7 +18658,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18738,7 +18759,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18929,7 +18950,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19016,7 +19037,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT94">
         <v>1.33</v>
@@ -19207,7 +19228,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT95">
         <v>1.25</v>
@@ -19502,7 +19523,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19780,7 +19801,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19884,7 +19905,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19974,7 +19995,7 @@
         <v>2.33</v>
       </c>
       <c r="AT99">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -20075,7 +20096,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20266,7 +20287,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20547,7 +20568,7 @@
         <v>1.86</v>
       </c>
       <c r="AT102">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU102">
         <v>2.09</v>
@@ -20648,7 +20669,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20839,7 +20860,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21030,7 +21051,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21120,7 +21141,7 @@
         <v>1</v>
       </c>
       <c r="AT105">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU105">
         <v>1.78</v>
@@ -21308,7 +21329,7 @@
         <v>0.33</v>
       </c>
       <c r="AS106">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT106">
         <v>0.25</v>
@@ -21412,7 +21433,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21690,10 +21711,10 @@
         <v>0.4</v>
       </c>
       <c r="AS108">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT108">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU108">
         <v>2.51</v>
@@ -21794,7 +21815,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21985,7 +22006,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22072,7 +22093,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT110">
         <v>1.29</v>
@@ -22176,7 +22197,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22263,7 +22284,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT111">
         <v>1.67</v>
@@ -22367,7 +22388,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22457,7 +22478,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU112">
         <v>1.19</v>
@@ -22648,7 +22669,7 @@
         <v>1.17</v>
       </c>
       <c r="AT113">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU113">
         <v>1.91</v>
@@ -23131,7 +23152,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23513,7 +23534,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23704,7 +23725,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24086,7 +24107,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24277,7 +24298,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24659,7 +24680,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24801,6 +24822,961 @@
       </c>
       <c r="BK124">
         <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2467699</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44864.39583333334</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>81</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125" t="s">
+        <v>176</v>
+      </c>
+      <c r="P125" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>4</v>
+      </c>
+      <c r="S125">
+        <v>9</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>2.4</v>
+      </c>
+      <c r="V125">
+        <v>3.2</v>
+      </c>
+      <c r="W125">
+        <v>1.25</v>
+      </c>
+      <c r="X125">
+        <v>3.75</v>
+      </c>
+      <c r="Y125">
+        <v>2.2</v>
+      </c>
+      <c r="Z125">
+        <v>1.62</v>
+      </c>
+      <c r="AA125">
+        <v>5</v>
+      </c>
+      <c r="AB125">
+        <v>1.17</v>
+      </c>
+      <c r="AC125">
+        <v>2.25</v>
+      </c>
+      <c r="AD125">
+        <v>3.6</v>
+      </c>
+      <c r="AE125">
+        <v>2.95</v>
+      </c>
+      <c r="AF125">
+        <v>1.02</v>
+      </c>
+      <c r="AG125">
+        <v>12</v>
+      </c>
+      <c r="AH125">
+        <v>1.15</v>
+      </c>
+      <c r="AI125">
+        <v>4.75</v>
+      </c>
+      <c r="AJ125">
+        <v>1.53</v>
+      </c>
+      <c r="AK125">
+        <v>2.35</v>
+      </c>
+      <c r="AL125">
+        <v>1.44</v>
+      </c>
+      <c r="AM125">
+        <v>2.63</v>
+      </c>
+      <c r="AN125">
+        <v>1.41</v>
+      </c>
+      <c r="AO125">
+        <v>1.26</v>
+      </c>
+      <c r="AP125">
+        <v>1.6</v>
+      </c>
+      <c r="AQ125">
+        <v>2.57</v>
+      </c>
+      <c r="AR125">
+        <v>2.5</v>
+      </c>
+      <c r="AS125">
+        <v>2.25</v>
+      </c>
+      <c r="AT125">
+        <v>2.57</v>
+      </c>
+      <c r="AU125">
+        <v>2.42</v>
+      </c>
+      <c r="AV125">
+        <v>1.78</v>
+      </c>
+      <c r="AW125">
+        <v>4.2</v>
+      </c>
+      <c r="AX125">
+        <v>2.01</v>
+      </c>
+      <c r="AY125">
+        <v>7.9</v>
+      </c>
+      <c r="AZ125">
+        <v>2.16</v>
+      </c>
+      <c r="BA125">
+        <v>1.18</v>
+      </c>
+      <c r="BB125">
+        <v>1.29</v>
+      </c>
+      <c r="BC125">
+        <v>1.56</v>
+      </c>
+      <c r="BD125">
+        <v>1.95</v>
+      </c>
+      <c r="BE125">
+        <v>2.53</v>
+      </c>
+      <c r="BF125">
+        <v>6</v>
+      </c>
+      <c r="BG125">
+        <v>9</v>
+      </c>
+      <c r="BH125">
+        <v>12</v>
+      </c>
+      <c r="BI125">
+        <v>9</v>
+      </c>
+      <c r="BJ125">
+        <v>18</v>
+      </c>
+      <c r="BK125">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2467701</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44864.39583333334</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>79</v>
+      </c>
+      <c r="H126" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>177</v>
+      </c>
+      <c r="P126" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q126">
+        <v>6</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>7</v>
+      </c>
+      <c r="T126">
+        <v>3</v>
+      </c>
+      <c r="U126">
+        <v>2.2</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>3</v>
+      </c>
+      <c r="Y126">
+        <v>2.63</v>
+      </c>
+      <c r="Z126">
+        <v>1.44</v>
+      </c>
+      <c r="AA126">
+        <v>7</v>
+      </c>
+      <c r="AB126">
+        <v>1.1</v>
+      </c>
+      <c r="AC126">
+        <v>2.25</v>
+      </c>
+      <c r="AD126">
+        <v>3.3</v>
+      </c>
+      <c r="AE126">
+        <v>3.15</v>
+      </c>
+      <c r="AF126">
+        <v>1.05</v>
+      </c>
+      <c r="AG126">
+        <v>9</v>
+      </c>
+      <c r="AH126">
+        <v>1.25</v>
+      </c>
+      <c r="AI126">
+        <v>3.75</v>
+      </c>
+      <c r="AJ126">
+        <v>1.74</v>
+      </c>
+      <c r="AK126">
+        <v>2.04</v>
+      </c>
+      <c r="AL126">
+        <v>1.67</v>
+      </c>
+      <c r="AM126">
+        <v>2.1</v>
+      </c>
+      <c r="AN126">
+        <v>1.39</v>
+      </c>
+      <c r="AO126">
+        <v>1.31</v>
+      </c>
+      <c r="AP126">
+        <v>1.57</v>
+      </c>
+      <c r="AQ126">
+        <v>1.83</v>
+      </c>
+      <c r="AR126">
+        <v>1.17</v>
+      </c>
+      <c r="AS126">
+        <v>2</v>
+      </c>
+      <c r="AT126">
+        <v>1</v>
+      </c>
+      <c r="AU126">
+        <v>1.41</v>
+      </c>
+      <c r="AV126">
+        <v>1.5</v>
+      </c>
+      <c r="AW126">
+        <v>2.91</v>
+      </c>
+      <c r="AX126">
+        <v>2.25</v>
+      </c>
+      <c r="AY126">
+        <v>7.7</v>
+      </c>
+      <c r="AZ126">
+        <v>1.95</v>
+      </c>
+      <c r="BA126">
+        <v>1.2</v>
+      </c>
+      <c r="BB126">
+        <v>1.4</v>
+      </c>
+      <c r="BC126">
+        <v>1.74</v>
+      </c>
+      <c r="BD126">
+        <v>2.18</v>
+      </c>
+      <c r="BE126">
+        <v>2.88</v>
+      </c>
+      <c r="BF126">
+        <v>8</v>
+      </c>
+      <c r="BG126">
+        <v>5</v>
+      </c>
+      <c r="BH126">
+        <v>10</v>
+      </c>
+      <c r="BI126">
+        <v>14</v>
+      </c>
+      <c r="BJ126">
+        <v>18</v>
+      </c>
+      <c r="BK126">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2467702</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44864.39583333334</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" t="s">
+        <v>73</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>178</v>
+      </c>
+      <c r="P127" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q127">
+        <v>9</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>9</v>
+      </c>
+      <c r="T127">
+        <v>3.25</v>
+      </c>
+      <c r="U127">
+        <v>2.2</v>
+      </c>
+      <c r="V127">
+        <v>3.25</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>2.75</v>
+      </c>
+      <c r="Y127">
+        <v>2.75</v>
+      </c>
+      <c r="Z127">
+        <v>1.4</v>
+      </c>
+      <c r="AA127">
+        <v>8</v>
+      </c>
+      <c r="AB127">
+        <v>1.08</v>
+      </c>
+      <c r="AC127">
+        <v>2.75</v>
+      </c>
+      <c r="AD127">
+        <v>3.05</v>
+      </c>
+      <c r="AE127">
+        <v>2.7</v>
+      </c>
+      <c r="AF127">
+        <v>1.06</v>
+      </c>
+      <c r="AG127">
+        <v>8</v>
+      </c>
+      <c r="AH127">
+        <v>1.3</v>
+      </c>
+      <c r="AI127">
+        <v>3.3</v>
+      </c>
+      <c r="AJ127">
+        <v>1.92</v>
+      </c>
+      <c r="AK127">
+        <v>1.84</v>
+      </c>
+      <c r="AL127">
+        <v>1.73</v>
+      </c>
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>1.44</v>
+      </c>
+      <c r="AO127">
+        <v>1.34</v>
+      </c>
+      <c r="AP127">
+        <v>1.46</v>
+      </c>
+      <c r="AQ127">
+        <v>1.67</v>
+      </c>
+      <c r="AR127">
+        <v>0.83</v>
+      </c>
+      <c r="AS127">
+        <v>1.57</v>
+      </c>
+      <c r="AT127">
+        <v>0.86</v>
+      </c>
+      <c r="AU127">
+        <v>1.42</v>
+      </c>
+      <c r="AV127">
+        <v>1.66</v>
+      </c>
+      <c r="AW127">
+        <v>3.08</v>
+      </c>
+      <c r="AX127">
+        <v>2.31</v>
+      </c>
+      <c r="AY127">
+        <v>7.9</v>
+      </c>
+      <c r="AZ127">
+        <v>1.92</v>
+      </c>
+      <c r="BA127">
+        <v>1.22</v>
+      </c>
+      <c r="BB127">
+        <v>1.29</v>
+      </c>
+      <c r="BC127">
+        <v>1.56</v>
+      </c>
+      <c r="BD127">
+        <v>1.95</v>
+      </c>
+      <c r="BE127">
+        <v>2.53</v>
+      </c>
+      <c r="BF127">
+        <v>6</v>
+      </c>
+      <c r="BG127">
+        <v>4</v>
+      </c>
+      <c r="BH127">
+        <v>14</v>
+      </c>
+      <c r="BI127">
+        <v>3</v>
+      </c>
+      <c r="BJ127">
+        <v>20</v>
+      </c>
+      <c r="BK127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2467708</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44869.60416666666</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>74</v>
+      </c>
+      <c r="H128" t="s">
+        <v>79</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>179</v>
+      </c>
+      <c r="P128" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q128">
+        <v>12</v>
+      </c>
+      <c r="R128">
+        <v>6</v>
+      </c>
+      <c r="S128">
+        <v>18</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
+        <v>2.25</v>
+      </c>
+      <c r="V128">
+        <v>4.2</v>
+      </c>
+      <c r="W128">
+        <v>1.31</v>
+      </c>
+      <c r="X128">
+        <v>3.1</v>
+      </c>
+      <c r="Y128">
+        <v>2.35</v>
+      </c>
+      <c r="Z128">
+        <v>1.51</v>
+      </c>
+      <c r="AA128">
+        <v>5.5</v>
+      </c>
+      <c r="AB128">
+        <v>1.12</v>
+      </c>
+      <c r="AC128">
+        <v>1.73</v>
+      </c>
+      <c r="AD128">
+        <v>3.9</v>
+      </c>
+      <c r="AE128">
+        <v>3.9</v>
+      </c>
+      <c r="AF128">
+        <v>1.04</v>
+      </c>
+      <c r="AG128">
+        <v>10</v>
+      </c>
+      <c r="AH128">
+        <v>1.22</v>
+      </c>
+      <c r="AI128">
+        <v>4</v>
+      </c>
+      <c r="AJ128">
+        <v>1.7</v>
+      </c>
+      <c r="AK128">
+        <v>2</v>
+      </c>
+      <c r="AL128">
+        <v>1.6</v>
+      </c>
+      <c r="AM128">
+        <v>2.15</v>
+      </c>
+      <c r="AN128">
+        <v>1.21</v>
+      </c>
+      <c r="AO128">
+        <v>1.25</v>
+      </c>
+      <c r="AP128">
+        <v>2</v>
+      </c>
+      <c r="AQ128">
+        <v>2.14</v>
+      </c>
+      <c r="AR128">
+        <v>1.43</v>
+      </c>
+      <c r="AS128">
+        <v>2.25</v>
+      </c>
+      <c r="AT128">
+        <v>1.25</v>
+      </c>
+      <c r="AU128">
+        <v>1.68</v>
+      </c>
+      <c r="AV128">
+        <v>1.56</v>
+      </c>
+      <c r="AW128">
+        <v>3.24</v>
+      </c>
+      <c r="AX128">
+        <v>1.29</v>
+      </c>
+      <c r="AY128">
+        <v>9.6</v>
+      </c>
+      <c r="AZ128">
+        <v>4.96</v>
+      </c>
+      <c r="BA128">
+        <v>1.27</v>
+      </c>
+      <c r="BB128">
+        <v>1.5</v>
+      </c>
+      <c r="BC128">
+        <v>1.9</v>
+      </c>
+      <c r="BD128">
+        <v>2.45</v>
+      </c>
+      <c r="BE128">
+        <v>3.4</v>
+      </c>
+      <c r="BF128">
+        <v>6</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>17</v>
+      </c>
+      <c r="BI128">
+        <v>6</v>
+      </c>
+      <c r="BJ128">
+        <v>23</v>
+      </c>
+      <c r="BK128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2467713</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44869.60416666666</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>90</v>
+      </c>
+      <c r="P129" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q129">
+        <v>8</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>10</v>
+      </c>
+      <c r="T129">
+        <v>2.6</v>
+      </c>
+      <c r="U129">
+        <v>2.1</v>
+      </c>
+      <c r="V129">
+        <v>4</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>2.75</v>
+      </c>
+      <c r="Y129">
+        <v>2.8</v>
+      </c>
+      <c r="Z129">
+        <v>1.39</v>
+      </c>
+      <c r="AA129">
+        <v>6.95</v>
+      </c>
+      <c r="AB129">
+        <v>1.07</v>
+      </c>
+      <c r="AC129">
+        <v>1.91</v>
+      </c>
+      <c r="AD129">
+        <v>3.45</v>
+      </c>
+      <c r="AE129">
+        <v>3.6</v>
+      </c>
+      <c r="AF129">
+        <v>1.06</v>
+      </c>
+      <c r="AG129">
+        <v>8</v>
+      </c>
+      <c r="AH129">
+        <v>1.3</v>
+      </c>
+      <c r="AI129">
+        <v>3.3</v>
+      </c>
+      <c r="AJ129">
+        <v>1.85</v>
+      </c>
+      <c r="AK129">
+        <v>1.85</v>
+      </c>
+      <c r="AL129">
+        <v>1.75</v>
+      </c>
+      <c r="AM129">
+        <v>2</v>
+      </c>
+      <c r="AN129">
+        <v>1.22</v>
+      </c>
+      <c r="AO129">
+        <v>1.25</v>
+      </c>
+      <c r="AP129">
+        <v>1.78</v>
+      </c>
+      <c r="AQ129">
+        <v>1.29</v>
+      </c>
+      <c r="AR129">
+        <v>0.29</v>
+      </c>
+      <c r="AS129">
+        <v>1.13</v>
+      </c>
+      <c r="AT129">
+        <v>0.63</v>
+      </c>
+      <c r="AU129">
+        <v>1.54</v>
+      </c>
+      <c r="AV129">
+        <v>1.08</v>
+      </c>
+      <c r="AW129">
+        <v>2.62</v>
+      </c>
+      <c r="AX129">
+        <v>1.45</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>3.19</v>
+      </c>
+      <c r="BA129">
+        <v>1.2</v>
+      </c>
+      <c r="BB129">
+        <v>1.38</v>
+      </c>
+      <c r="BC129">
+        <v>1.67</v>
+      </c>
+      <c r="BD129">
+        <v>2.12</v>
+      </c>
+      <c r="BE129">
+        <v>2.85</v>
+      </c>
+      <c r="BF129">
+        <v>5</v>
+      </c>
+      <c r="BG129">
+        <v>7</v>
+      </c>
+      <c r="BH129">
+        <v>14</v>
+      </c>
+      <c r="BI129">
+        <v>9</v>
+      </c>
+      <c r="BJ129">
+        <v>19</v>
+      </c>
+      <c r="BK129">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,60 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['35', '76', '90+1']</t>
+  </si>
+  <si>
+    <t>['60', '73']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['12', '79', '90']</t>
+  </si>
+  <si>
+    <t>['34', '43']</t>
+  </si>
+  <si>
+    <t>['34', '86']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['50', '76', '80']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['12', '16', '31', '50']</t>
+  </si>
+  <si>
+    <t>['27', '56', '74', '79']</t>
+  </si>
+  <si>
+    <t>['21', '36', '39', '76', '90+4']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['30', '65', '72']</t>
+  </si>
+  <si>
+    <t>['36', '55']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -773,6 +827,51 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['15', '30', '67', '90+2']</t>
+  </si>
+  <si>
+    <t>['54', '57', '88']</t>
+  </si>
+  <si>
+    <t>['58', '76']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['40', '45+2']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['31', '40', '48', '73']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['50', '90+6']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['24', '35', '43', '61']</t>
+  </si>
+  <si>
+    <t>['49', '68']</t>
+  </si>
+  <si>
+    <t>['13', '45+1', '55', '90+2']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1477,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1465,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1569,7 +1668,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1656,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT3">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1760,7 +1859,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1847,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1951,7 +2050,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2038,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2229,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2333,7 +2432,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2420,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2611,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2802,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2906,7 +3005,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -2993,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AT10">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3184,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT11">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3288,7 +3387,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3375,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3566,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3757,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT14">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3861,7 +3960,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3948,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4052,7 +4151,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4139,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT16">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4243,7 +4342,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4330,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4434,7 +4533,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4521,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT18">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4625,7 +4724,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4715,7 +4814,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4816,7 +4915,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4903,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU20">
         <v>2.61</v>
@@ -5094,10 +5193,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT21">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU21">
         <v>1.65</v>
@@ -5285,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5389,7 +5488,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5476,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU23">
         <v>2.05</v>
@@ -5667,10 +5766,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT24">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU24">
         <v>1.84</v>
@@ -5858,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT25">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU25">
         <v>1.57</v>
@@ -5962,7 +6061,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6049,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT26">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AU26">
         <v>1.69</v>
@@ -6153,7 +6252,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6240,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6344,7 +6443,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6431,10 +6530,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT28">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU28">
         <v>1.36</v>
@@ -6535,7 +6634,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6622,10 +6721,10 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU29">
         <v>1.57</v>
@@ -6726,7 +6825,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6813,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT30">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.3</v>
@@ -6917,7 +7016,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7004,10 +7103,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT31">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU31">
         <v>2.53</v>
@@ -7195,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU32">
         <v>1.39</v>
@@ -7299,7 +7398,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7389,7 +7488,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU33">
         <v>1.26</v>
@@ -7577,10 +7676,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT34">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU34">
         <v>1.15</v>
@@ -7768,10 +7867,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU35">
         <v>1.9</v>
@@ -7872,7 +7971,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7959,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT36">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AU36">
         <v>1.07</v>
@@ -8150,10 +8249,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8254,7 +8353,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8341,10 +8440,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU38">
         <v>1.68</v>
@@ -8445,7 +8544,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8532,10 +8631,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT39">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU39">
         <v>1.5</v>
@@ -8636,7 +8735,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8723,10 +8822,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT40">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AU40">
         <v>2.68</v>
@@ -8827,7 +8926,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8914,10 +9013,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU41">
         <v>1.34</v>
@@ -9018,7 +9117,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9105,7 +9204,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9209,7 +9308,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9296,10 +9395,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU43">
         <v>1.57</v>
@@ -9400,7 +9499,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9487,10 +9586,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -9678,10 +9777,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT45">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU45">
         <v>1.61</v>
@@ -9782,7 +9881,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9869,10 +9968,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT46">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.96</v>
@@ -9973,7 +10072,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10063,7 +10162,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU47">
         <v>1.44</v>
@@ -10251,10 +10350,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -10355,7 +10454,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10442,10 +10541,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT49">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU49">
         <v>1.48</v>
@@ -10546,7 +10645,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10633,10 +10732,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>2.15</v>
@@ -10824,10 +10923,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU51">
         <v>2.57</v>
@@ -10928,7 +11027,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11015,10 +11114,10 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT52">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU52">
         <v>1.36</v>
@@ -11119,7 +11218,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11206,10 +11305,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU53">
         <v>1.15</v>
@@ -11310,7 +11409,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11397,10 +11496,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT54">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AU54">
         <v>1.75</v>
@@ -11588,10 +11687,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU55">
         <v>1.78</v>
@@ -11692,7 +11791,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11779,7 +11878,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -11883,7 +11982,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11970,10 +12069,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT57">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU57">
         <v>2.18</v>
@@ -12074,7 +12173,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12161,10 +12260,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU58">
         <v>2.14</v>
@@ -12352,10 +12451,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT59">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AU59">
         <v>1.15</v>
@@ -12543,10 +12642,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU60">
         <v>2.49</v>
@@ -12734,10 +12833,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU61">
         <v>1.67</v>
@@ -12838,7 +12937,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -12925,10 +13024,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -13029,7 +13128,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13116,10 +13215,10 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT63">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU63">
         <v>1.68</v>
@@ -13307,10 +13406,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT64">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>1.15</v>
@@ -13498,10 +13597,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU65">
         <v>1.51</v>
@@ -13602,7 +13701,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13689,10 +13788,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU66">
         <v>1.58</v>
@@ -13880,10 +13979,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>2.64</v>
@@ -14071,10 +14170,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT68">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU68">
         <v>1.63</v>
@@ -14262,10 +14361,10 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT69">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU69">
         <v>2.53</v>
@@ -14366,7 +14465,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14453,10 +14552,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU70">
         <v>1.62</v>
@@ -14557,7 +14656,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -14644,10 +14743,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU71">
         <v>2.15</v>
@@ -14835,10 +14934,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT72">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AU72">
         <v>1.7</v>
@@ -14939,7 +15038,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15026,10 +15125,10 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT73">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU73">
         <v>1.23</v>
@@ -15130,7 +15229,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15217,10 +15316,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU74">
         <v>1.22</v>
@@ -15321,7 +15420,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15408,10 +15507,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU75">
         <v>1.73</v>
@@ -15599,7 +15698,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15703,7 +15802,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15793,7 +15892,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AU77">
         <v>1.52</v>
@@ -15894,7 +15993,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -15981,10 +16080,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU78">
         <v>1.62</v>
@@ -16172,10 +16271,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU79">
         <v>1.76</v>
@@ -16363,10 +16462,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT80">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU80">
         <v>1.9</v>
@@ -16554,10 +16653,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT81">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU81">
         <v>1.13</v>
@@ -16658,7 +16757,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16745,10 +16844,10 @@
         <v>1.33</v>
       </c>
       <c r="AS82">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT82">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.98</v>
@@ -16849,7 +16948,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16936,10 +17035,10 @@
         <v>1.75</v>
       </c>
       <c r="AS83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU83">
         <v>2.6</v>
@@ -17040,7 +17139,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17127,10 +17226,10 @@
         <v>3</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT84">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17231,7 +17330,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17318,10 +17417,10 @@
         <v>0.25</v>
       </c>
       <c r="AS85">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT85">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17422,7 +17521,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17509,10 +17608,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU86">
         <v>1.96</v>
@@ -17613,7 +17712,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17700,10 +17799,10 @@
         <v>0.4</v>
       </c>
       <c r="AS87">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT87">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU87">
         <v>1.61</v>
@@ -17891,10 +17990,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT88">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU88">
         <v>2.32</v>
@@ -18082,10 +18181,10 @@
         <v>0.25</v>
       </c>
       <c r="AS89">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT89">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU89">
         <v>1.36</v>
@@ -18273,7 +18372,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
         <v>1</v>
@@ -18464,10 +18563,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU91">
         <v>1.73</v>
@@ -18568,7 +18667,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18658,7 +18757,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18759,7 +18858,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18846,10 +18945,10 @@
         <v>0.25</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT93">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AU93">
         <v>1.11</v>
@@ -18950,7 +19049,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19037,10 +19136,10 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT94">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.72</v>
@@ -19228,10 +19327,10 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT95">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU95">
         <v>1.59</v>
@@ -19419,10 +19518,10 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AT96">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU96">
         <v>1.83</v>
@@ -19523,7 +19622,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19610,10 +19709,10 @@
         <v>1.5</v>
       </c>
       <c r="AS97">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT97">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>1.56</v>
@@ -19801,10 +19900,10 @@
         <v>0.8</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU98">
         <v>1.45</v>
@@ -19905,7 +20004,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -19992,10 +20091,10 @@
         <v>1.8</v>
       </c>
       <c r="AS99">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT99">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -20096,7 +20195,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20183,10 +20282,10 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT100">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AU100">
         <v>1.7</v>
@@ -20287,7 +20386,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20374,10 +20473,10 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
+        <v>1.56</v>
+      </c>
+      <c r="AT101">
         <v>1.38</v>
-      </c>
-      <c r="AT101">
-        <v>1.14</v>
       </c>
       <c r="AU101">
         <v>1.81</v>
@@ -20565,10 +20664,10 @@
         <v>3</v>
       </c>
       <c r="AS102">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT102">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AU102">
         <v>2.09</v>
@@ -20669,7 +20768,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20756,7 +20855,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20860,7 +20959,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20947,10 +21046,10 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT104">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU104">
         <v>2.36</v>
@@ -21051,7 +21150,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21138,10 +21237,10 @@
         <v>0.4</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT105">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU105">
         <v>1.78</v>
@@ -21329,10 +21428,10 @@
         <v>0.33</v>
       </c>
       <c r="AS106">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT106">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21433,7 +21532,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21520,10 +21619,10 @@
         <v>0.6</v>
       </c>
       <c r="AS107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -21711,10 +21810,10 @@
         <v>0.4</v>
       </c>
       <c r="AS108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT108">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU108">
         <v>2.51</v>
@@ -21815,7 +21914,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21902,10 +22001,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU109">
         <v>1.99</v>
@@ -22006,7 +22105,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22093,10 +22192,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT110">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AU110">
         <v>1.62</v>
@@ -22197,7 +22296,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22284,10 +22383,10 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT111">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU111">
         <v>1.61</v>
@@ -22388,7 +22487,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22475,10 +22574,10 @@
         <v>0.33</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT112">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU112">
         <v>1.19</v>
@@ -22666,10 +22765,10 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT113">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU113">
         <v>1.91</v>
@@ -22857,10 +22956,10 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -23051,7 +23150,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU115">
         <v>1.51</v>
@@ -23152,7 +23251,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23239,10 +23338,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT116">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU116">
         <v>2.15</v>
@@ -23430,10 +23529,10 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT117">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AU117">
         <v>1.86</v>
@@ -23534,7 +23633,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23621,10 +23720,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU118">
         <v>1.67</v>
@@ -23725,7 +23824,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -23812,10 +23911,10 @@
         <v>1.29</v>
       </c>
       <c r="AS119">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT119">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU119">
         <v>1.7</v>
@@ -24003,10 +24102,10 @@
         <v>0.29</v>
       </c>
       <c r="AS120">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT120">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU120">
         <v>1.86</v>
@@ -24107,7 +24206,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24194,10 +24293,10 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU121">
         <v>1.92</v>
@@ -24298,7 +24397,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24385,10 +24484,10 @@
         <v>0.83</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT122">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU122">
         <v>1.23</v>
@@ -24576,7 +24675,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT123">
         <v>1</v>
@@ -24680,7 +24779,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24767,10 +24866,10 @@
         <v>2.17</v>
       </c>
       <c r="AS124">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT124">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU124">
         <v>2.13</v>
@@ -24871,7 +24970,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -24958,10 +25057,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
+        <v>2</v>
+      </c>
+      <c r="AT125">
         <v>2.25</v>
-      </c>
-      <c r="AT125">
-        <v>2.57</v>
       </c>
       <c r="AU125">
         <v>2.42</v>
@@ -25149,10 +25248,10 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -25253,7 +25352,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25340,10 +25439,10 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT127">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU127">
         <v>1.42</v>
@@ -25531,10 +25630,10 @@
         <v>1.43</v>
       </c>
       <c r="AS128">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT128">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -25635,7 +25734,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25722,10 +25821,10 @@
         <v>0.29</v>
       </c>
       <c r="AS129">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT129">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU129">
         <v>1.54</v>
@@ -25777,6 +25876,4781 @@
       </c>
       <c r="BK129">
         <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2467711</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44870.375</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>67</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>180</v>
+      </c>
+      <c r="P130" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q130">
+        <v>5</v>
+      </c>
+      <c r="R130">
+        <v>10</v>
+      </c>
+      <c r="S130">
+        <v>15</v>
+      </c>
+      <c r="T130">
+        <v>2.55</v>
+      </c>
+      <c r="U130">
+        <v>2.15</v>
+      </c>
+      <c r="V130">
+        <v>3.7</v>
+      </c>
+      <c r="W130">
+        <v>1.33</v>
+      </c>
+      <c r="X130">
+        <v>3</v>
+      </c>
+      <c r="Y130">
+        <v>2.45</v>
+      </c>
+      <c r="Z130">
+        <v>1.47</v>
+      </c>
+      <c r="AA130">
+        <v>6</v>
+      </c>
+      <c r="AB130">
+        <v>1.11</v>
+      </c>
+      <c r="AC130">
+        <v>1.95</v>
+      </c>
+      <c r="AD130">
+        <v>3.55</v>
+      </c>
+      <c r="AE130">
+        <v>3.25</v>
+      </c>
+      <c r="AF130">
+        <v>1.05</v>
+      </c>
+      <c r="AG130">
+        <v>9</v>
+      </c>
+      <c r="AH130">
+        <v>1.25</v>
+      </c>
+      <c r="AI130">
+        <v>3.75</v>
+      </c>
+      <c r="AJ130">
+        <v>1.75</v>
+      </c>
+      <c r="AK130">
+        <v>1.95</v>
+      </c>
+      <c r="AL130">
+        <v>1.61</v>
+      </c>
+      <c r="AM130">
+        <v>2.15</v>
+      </c>
+      <c r="AN130">
+        <v>1.31</v>
+      </c>
+      <c r="AO130">
+        <v>1.28</v>
+      </c>
+      <c r="AP130">
+        <v>1.73</v>
+      </c>
+      <c r="AQ130">
+        <v>2.17</v>
+      </c>
+      <c r="AR130">
+        <v>0.29</v>
+      </c>
+      <c r="AS130">
+        <v>2</v>
+      </c>
+      <c r="AT130">
+        <v>0.33</v>
+      </c>
+      <c r="AU130">
+        <v>1.74</v>
+      </c>
+      <c r="AV130">
+        <v>1.57</v>
+      </c>
+      <c r="AW130">
+        <v>3.31</v>
+      </c>
+      <c r="AX130">
+        <v>1.84</v>
+      </c>
+      <c r="AY130">
+        <v>7.8</v>
+      </c>
+      <c r="AZ130">
+        <v>2.45</v>
+      </c>
+      <c r="BA130">
+        <v>1.25</v>
+      </c>
+      <c r="BB130">
+        <v>1.47</v>
+      </c>
+      <c r="BC130">
+        <v>1.8</v>
+      </c>
+      <c r="BD130">
+        <v>2.38</v>
+      </c>
+      <c r="BE130">
+        <v>3.25</v>
+      </c>
+      <c r="BF130">
+        <v>6</v>
+      </c>
+      <c r="BG130">
+        <v>8</v>
+      </c>
+      <c r="BH130">
+        <v>8</v>
+      </c>
+      <c r="BI130">
+        <v>10</v>
+      </c>
+      <c r="BJ130">
+        <v>14</v>
+      </c>
+      <c r="BK130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2467709</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44870.375</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>71</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>181</v>
+      </c>
+      <c r="P131" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q131">
+        <v>9</v>
+      </c>
+      <c r="R131">
+        <v>4</v>
+      </c>
+      <c r="S131">
+        <v>13</v>
+      </c>
+      <c r="T131">
+        <v>3.2</v>
+      </c>
+      <c r="U131">
+        <v>2.1</v>
+      </c>
+      <c r="V131">
+        <v>2.95</v>
+      </c>
+      <c r="W131">
+        <v>1.34</v>
+      </c>
+      <c r="X131">
+        <v>2.95</v>
+      </c>
+      <c r="Y131">
+        <v>2.45</v>
+      </c>
+      <c r="Z131">
+        <v>1.47</v>
+      </c>
+      <c r="AA131">
+        <v>6</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>2.55</v>
+      </c>
+      <c r="AD131">
+        <v>3.4</v>
+      </c>
+      <c r="AE131">
+        <v>2.4</v>
+      </c>
+      <c r="AF131">
+        <v>1.04</v>
+      </c>
+      <c r="AG131">
+        <v>10</v>
+      </c>
+      <c r="AH131">
+        <v>1.22</v>
+      </c>
+      <c r="AI131">
+        <v>4</v>
+      </c>
+      <c r="AJ131">
+        <v>1.7</v>
+      </c>
+      <c r="AK131">
+        <v>2</v>
+      </c>
+      <c r="AL131">
+        <v>1.57</v>
+      </c>
+      <c r="AM131">
+        <v>2.25</v>
+      </c>
+      <c r="AN131">
+        <v>1.52</v>
+      </c>
+      <c r="AO131">
+        <v>1.3</v>
+      </c>
+      <c r="AP131">
+        <v>1.43</v>
+      </c>
+      <c r="AQ131">
+        <v>2.33</v>
+      </c>
+      <c r="AR131">
+        <v>1.33</v>
+      </c>
+      <c r="AS131">
+        <v>2.5</v>
+      </c>
+      <c r="AT131">
+        <v>1</v>
+      </c>
+      <c r="AU131">
+        <v>1.8</v>
+      </c>
+      <c r="AV131">
+        <v>1.66</v>
+      </c>
+      <c r="AW131">
+        <v>3.46</v>
+      </c>
+      <c r="AX131">
+        <v>1.82</v>
+      </c>
+      <c r="AY131">
+        <v>7.9</v>
+      </c>
+      <c r="AZ131">
+        <v>2.48</v>
+      </c>
+      <c r="BA131">
+        <v>1.2</v>
+      </c>
+      <c r="BB131">
+        <v>1.38</v>
+      </c>
+      <c r="BC131">
+        <v>1.67</v>
+      </c>
+      <c r="BD131">
+        <v>2.12</v>
+      </c>
+      <c r="BE131">
+        <v>2.85</v>
+      </c>
+      <c r="BF131">
+        <v>4</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>12</v>
+      </c>
+      <c r="BI131">
+        <v>7</v>
+      </c>
+      <c r="BJ131">
+        <v>16</v>
+      </c>
+      <c r="BK131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2467712</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44870.375</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>4</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>125</v>
+      </c>
+      <c r="P132" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q132">
+        <v>5</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>7</v>
+      </c>
+      <c r="T132">
+        <v>2.55</v>
+      </c>
+      <c r="U132">
+        <v>2.2</v>
+      </c>
+      <c r="V132">
+        <v>3.6</v>
+      </c>
+      <c r="W132">
+        <v>1.31</v>
+      </c>
+      <c r="X132">
+        <v>3.2</v>
+      </c>
+      <c r="Y132">
+        <v>2.35</v>
+      </c>
+      <c r="Z132">
+        <v>1.52</v>
+      </c>
+      <c r="AA132">
+        <v>5.5</v>
+      </c>
+      <c r="AB132">
+        <v>1.13</v>
+      </c>
+      <c r="AC132">
+        <v>2.15</v>
+      </c>
+      <c r="AD132">
+        <v>3.5</v>
+      </c>
+      <c r="AE132">
+        <v>2.85</v>
+      </c>
+      <c r="AF132">
+        <v>1.03</v>
+      </c>
+      <c r="AG132">
+        <v>11</v>
+      </c>
+      <c r="AH132">
+        <v>1.2</v>
+      </c>
+      <c r="AI132">
+        <v>4.33</v>
+      </c>
+      <c r="AJ132">
+        <v>1.62</v>
+      </c>
+      <c r="AK132">
+        <v>2.15</v>
+      </c>
+      <c r="AL132">
+        <v>1.53</v>
+      </c>
+      <c r="AM132">
+        <v>2.3</v>
+      </c>
+      <c r="AN132">
+        <v>1.32</v>
+      </c>
+      <c r="AO132">
+        <v>1.27</v>
+      </c>
+      <c r="AP132">
+        <v>1.71</v>
+      </c>
+      <c r="AQ132">
+        <v>1.43</v>
+      </c>
+      <c r="AR132">
+        <v>1.29</v>
+      </c>
+      <c r="AS132">
+        <v>1.22</v>
+      </c>
+      <c r="AT132">
+        <v>1.44</v>
+      </c>
+      <c r="AU132">
+        <v>2.06</v>
+      </c>
+      <c r="AV132">
+        <v>1.7</v>
+      </c>
+      <c r="AW132">
+        <v>3.76</v>
+      </c>
+      <c r="AX132">
+        <v>1.67</v>
+      </c>
+      <c r="AY132">
+        <v>8.1</v>
+      </c>
+      <c r="AZ132">
+        <v>2.8</v>
+      </c>
+      <c r="BA132">
+        <v>1.2</v>
+      </c>
+      <c r="BB132">
+        <v>1.38</v>
+      </c>
+      <c r="BC132">
+        <v>1.67</v>
+      </c>
+      <c r="BD132">
+        <v>2.12</v>
+      </c>
+      <c r="BE132">
+        <v>2.85</v>
+      </c>
+      <c r="BF132">
+        <v>5</v>
+      </c>
+      <c r="BG132">
+        <v>8</v>
+      </c>
+      <c r="BH132">
+        <v>10</v>
+      </c>
+      <c r="BI132">
+        <v>12</v>
+      </c>
+      <c r="BJ132">
+        <v>15</v>
+      </c>
+      <c r="BK132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2467706</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44870.6875</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H133" t="s">
+        <v>65</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>182</v>
+      </c>
+      <c r="P133" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>7</v>
+      </c>
+      <c r="S133">
+        <v>10</v>
+      </c>
+      <c r="T133">
+        <v>3.2</v>
+      </c>
+      <c r="U133">
+        <v>2.1</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133">
+        <v>1.36</v>
+      </c>
+      <c r="X133">
+        <v>2.87</v>
+      </c>
+      <c r="Y133">
+        <v>2.6</v>
+      </c>
+      <c r="Z133">
+        <v>1.44</v>
+      </c>
+      <c r="AA133">
+        <v>6.5</v>
+      </c>
+      <c r="AB133">
+        <v>1.1</v>
+      </c>
+      <c r="AC133">
+        <v>2.66</v>
+      </c>
+      <c r="AD133">
+        <v>3.48</v>
+      </c>
+      <c r="AE133">
+        <v>2.52</v>
+      </c>
+      <c r="AF133">
+        <v>1.05</v>
+      </c>
+      <c r="AG133">
+        <v>9</v>
+      </c>
+      <c r="AH133">
+        <v>1.28</v>
+      </c>
+      <c r="AI133">
+        <v>3.5</v>
+      </c>
+      <c r="AJ133">
+        <v>1.85</v>
+      </c>
+      <c r="AK133">
+        <v>1.95</v>
+      </c>
+      <c r="AL133">
+        <v>1.65</v>
+      </c>
+      <c r="AM133">
+        <v>2.1</v>
+      </c>
+      <c r="AN133">
+        <v>1.45</v>
+      </c>
+      <c r="AO133">
+        <v>1.25</v>
+      </c>
+      <c r="AP133">
+        <v>1.45</v>
+      </c>
+      <c r="AQ133">
+        <v>1.5</v>
+      </c>
+      <c r="AR133">
+        <v>1.67</v>
+      </c>
+      <c r="AS133">
+        <v>1.5</v>
+      </c>
+      <c r="AT133">
+        <v>2</v>
+      </c>
+      <c r="AU133">
+        <v>1.48</v>
+      </c>
+      <c r="AV133">
+        <v>1.44</v>
+      </c>
+      <c r="AW133">
+        <v>2.92</v>
+      </c>
+      <c r="AX133">
+        <v>2.04</v>
+      </c>
+      <c r="AY133">
+        <v>7.6</v>
+      </c>
+      <c r="AZ133">
+        <v>2.15</v>
+      </c>
+      <c r="BA133">
+        <v>1.25</v>
+      </c>
+      <c r="BB133">
+        <v>1.47</v>
+      </c>
+      <c r="BC133">
+        <v>1.8</v>
+      </c>
+      <c r="BD133">
+        <v>2.38</v>
+      </c>
+      <c r="BE133">
+        <v>3.25</v>
+      </c>
+      <c r="BF133">
+        <v>8</v>
+      </c>
+      <c r="BG133">
+        <v>7</v>
+      </c>
+      <c r="BH133">
+        <v>8</v>
+      </c>
+      <c r="BI133">
+        <v>5</v>
+      </c>
+      <c r="BJ133">
+        <v>16</v>
+      </c>
+      <c r="BK133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2467714</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44871.39583333334</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>73</v>
+      </c>
+      <c r="H134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>90</v>
+      </c>
+      <c r="P134" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q134">
+        <v>5</v>
+      </c>
+      <c r="R134">
+        <v>4</v>
+      </c>
+      <c r="S134">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
+        <v>2.2</v>
+      </c>
+      <c r="V134">
+        <v>3.2</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>3</v>
+      </c>
+      <c r="Y134">
+        <v>2.75</v>
+      </c>
+      <c r="Z134">
+        <v>1.4</v>
+      </c>
+      <c r="AA134">
+        <v>7</v>
+      </c>
+      <c r="AB134">
+        <v>1.1</v>
+      </c>
+      <c r="AC134">
+        <v>2.49</v>
+      </c>
+      <c r="AD134">
+        <v>3.35</v>
+      </c>
+      <c r="AE134">
+        <v>2.74</v>
+      </c>
+      <c r="AF134">
+        <v>1.05</v>
+      </c>
+      <c r="AG134">
+        <v>9</v>
+      </c>
+      <c r="AH134">
+        <v>1.25</v>
+      </c>
+      <c r="AI134">
+        <v>3.6</v>
+      </c>
+      <c r="AJ134">
+        <v>1.82</v>
+      </c>
+      <c r="AK134">
+        <v>1.92</v>
+      </c>
+      <c r="AL134">
+        <v>1.67</v>
+      </c>
+      <c r="AM134">
+        <v>2.1</v>
+      </c>
+      <c r="AN134">
+        <v>1.42</v>
+      </c>
+      <c r="AO134">
+        <v>1.25</v>
+      </c>
+      <c r="AP134">
+        <v>1.47</v>
+      </c>
+      <c r="AQ134">
+        <v>1.57</v>
+      </c>
+      <c r="AR134">
+        <v>0.33</v>
+      </c>
+      <c r="AS134">
+        <v>1.22</v>
+      </c>
+      <c r="AT134">
+        <v>0.75</v>
+      </c>
+      <c r="AU134">
+        <v>1.75</v>
+      </c>
+      <c r="AV134">
+        <v>1.22</v>
+      </c>
+      <c r="AW134">
+        <v>2.97</v>
+      </c>
+      <c r="AX134">
+        <v>2.14</v>
+      </c>
+      <c r="AY134">
+        <v>7.8</v>
+      </c>
+      <c r="AZ134">
+        <v>2.03</v>
+      </c>
+      <c r="BA134">
+        <v>1.18</v>
+      </c>
+      <c r="BB134">
+        <v>1.34</v>
+      </c>
+      <c r="BC134">
+        <v>1.61</v>
+      </c>
+      <c r="BD134">
+        <v>2.02</v>
+      </c>
+      <c r="BE134">
+        <v>2.7</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>3</v>
+      </c>
+      <c r="BH134">
+        <v>4</v>
+      </c>
+      <c r="BI134">
+        <v>3</v>
+      </c>
+      <c r="BJ134">
+        <v>8</v>
+      </c>
+      <c r="BK134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2467710</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44871.39583333334</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>183</v>
+      </c>
+      <c r="P135" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+      <c r="S135">
+        <v>10</v>
+      </c>
+      <c r="T135">
+        <v>2.4</v>
+      </c>
+      <c r="U135">
+        <v>2.38</v>
+      </c>
+      <c r="V135">
+        <v>4</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>3.4</v>
+      </c>
+      <c r="Y135">
+        <v>2.38</v>
+      </c>
+      <c r="Z135">
+        <v>1.53</v>
+      </c>
+      <c r="AA135">
+        <v>6</v>
+      </c>
+      <c r="AB135">
+        <v>1.13</v>
+      </c>
+      <c r="AC135">
+        <v>1.82</v>
+      </c>
+      <c r="AD135">
+        <v>3.74</v>
+      </c>
+      <c r="AE135">
+        <v>4.04</v>
+      </c>
+      <c r="AF135">
+        <v>1.03</v>
+      </c>
+      <c r="AG135">
+        <v>11</v>
+      </c>
+      <c r="AH135">
+        <v>1.2</v>
+      </c>
+      <c r="AI135">
+        <v>4.2</v>
+      </c>
+      <c r="AJ135">
+        <v>1.65</v>
+      </c>
+      <c r="AK135">
+        <v>2.1</v>
+      </c>
+      <c r="AL135">
+        <v>1.57</v>
+      </c>
+      <c r="AM135">
+        <v>2.25</v>
+      </c>
+      <c r="AN135">
+        <v>1.23</v>
+      </c>
+      <c r="AO135">
+        <v>1.28</v>
+      </c>
+      <c r="AP135">
+        <v>1.88</v>
+      </c>
+      <c r="AQ135">
+        <v>1.17</v>
+      </c>
+      <c r="AR135">
+        <v>1</v>
+      </c>
+      <c r="AS135">
+        <v>1.25</v>
+      </c>
+      <c r="AT135">
+        <v>1.11</v>
+      </c>
+      <c r="AU135">
+        <v>1.77</v>
+      </c>
+      <c r="AV135">
+        <v>1.38</v>
+      </c>
+      <c r="AW135">
+        <v>3.15</v>
+      </c>
+      <c r="AX135">
+        <v>1.59</v>
+      </c>
+      <c r="AY135">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ135">
+        <v>3.03</v>
+      </c>
+      <c r="BA135">
+        <v>1.18</v>
+      </c>
+      <c r="BB135">
+        <v>1.3</v>
+      </c>
+      <c r="BC135">
+        <v>1.55</v>
+      </c>
+      <c r="BD135">
+        <v>2</v>
+      </c>
+      <c r="BE135">
+        <v>2.5</v>
+      </c>
+      <c r="BF135">
+        <v>3</v>
+      </c>
+      <c r="BG135">
+        <v>9</v>
+      </c>
+      <c r="BH135">
+        <v>8</v>
+      </c>
+      <c r="BI135">
+        <v>14</v>
+      </c>
+      <c r="BJ135">
+        <v>11</v>
+      </c>
+      <c r="BK135">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2467707</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44871.39583333334</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>81</v>
+      </c>
+      <c r="H136" t="s">
+        <v>69</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>184</v>
+      </c>
+      <c r="P136" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q136">
+        <v>8</v>
+      </c>
+      <c r="R136">
+        <v>4</v>
+      </c>
+      <c r="S136">
+        <v>12</v>
+      </c>
+      <c r="T136">
+        <v>1.91</v>
+      </c>
+      <c r="U136">
+        <v>2.6</v>
+      </c>
+      <c r="V136">
+        <v>6</v>
+      </c>
+      <c r="W136">
+        <v>1.29</v>
+      </c>
+      <c r="X136">
+        <v>3.5</v>
+      </c>
+      <c r="Y136">
+        <v>2.25</v>
+      </c>
+      <c r="Z136">
+        <v>1.57</v>
+      </c>
+      <c r="AA136">
+        <v>5.5</v>
+      </c>
+      <c r="AB136">
+        <v>1.14</v>
+      </c>
+      <c r="AC136">
+        <v>1.52</v>
+      </c>
+      <c r="AD136">
+        <v>4.25</v>
+      </c>
+      <c r="AE136">
+        <v>5.87</v>
+      </c>
+      <c r="AF136">
+        <v>1.03</v>
+      </c>
+      <c r="AG136">
+        <v>11</v>
+      </c>
+      <c r="AH136">
+        <v>1.16</v>
+      </c>
+      <c r="AI136">
+        <v>4.75</v>
+      </c>
+      <c r="AJ136">
+        <v>1.6</v>
+      </c>
+      <c r="AK136">
+        <v>2.2</v>
+      </c>
+      <c r="AL136">
+        <v>1.73</v>
+      </c>
+      <c r="AM136">
+        <v>2</v>
+      </c>
+      <c r="AN136">
+        <v>1.11</v>
+      </c>
+      <c r="AO136">
+        <v>1.19</v>
+      </c>
+      <c r="AP136">
+        <v>2.7</v>
+      </c>
+      <c r="AQ136">
+        <v>1.43</v>
+      </c>
+      <c r="AR136">
+        <v>1</v>
+      </c>
+      <c r="AS136">
+        <v>1.78</v>
+      </c>
+      <c r="AT136">
+        <v>0.75</v>
+      </c>
+      <c r="AU136">
+        <v>1.85</v>
+      </c>
+      <c r="AV136">
+        <v>1.42</v>
+      </c>
+      <c r="AW136">
+        <v>3.27</v>
+      </c>
+      <c r="AX136">
+        <v>1.3</v>
+      </c>
+      <c r="AY136">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ136">
+        <v>4.76</v>
+      </c>
+      <c r="BA136">
+        <v>1.2</v>
+      </c>
+      <c r="BB136">
+        <v>1.3</v>
+      </c>
+      <c r="BC136">
+        <v>1.55</v>
+      </c>
+      <c r="BD136">
+        <v>2</v>
+      </c>
+      <c r="BE136">
+        <v>2.5</v>
+      </c>
+      <c r="BF136">
+        <v>12</v>
+      </c>
+      <c r="BG136">
+        <v>8</v>
+      </c>
+      <c r="BH136">
+        <v>11</v>
+      </c>
+      <c r="BI136">
+        <v>5</v>
+      </c>
+      <c r="BJ136">
+        <v>23</v>
+      </c>
+      <c r="BK136">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2467716</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44873.60416666666</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>67</v>
+      </c>
+      <c r="H137" t="s">
+        <v>78</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137" t="s">
+        <v>90</v>
+      </c>
+      <c r="P137" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>10</v>
+      </c>
+      <c r="S137">
+        <v>13</v>
+      </c>
+      <c r="T137">
+        <v>2.65</v>
+      </c>
+      <c r="U137">
+        <v>2.15</v>
+      </c>
+      <c r="V137">
+        <v>3.5</v>
+      </c>
+      <c r="W137">
+        <v>1.3</v>
+      </c>
+      <c r="X137">
+        <v>3.2</v>
+      </c>
+      <c r="Y137">
+        <v>2.5</v>
+      </c>
+      <c r="Z137">
+        <v>1.5</v>
+      </c>
+      <c r="AA137">
+        <v>6</v>
+      </c>
+      <c r="AB137">
+        <v>1.11</v>
+      </c>
+      <c r="AC137">
+        <v>2.08</v>
+      </c>
+      <c r="AD137">
+        <v>3.99</v>
+      </c>
+      <c r="AE137">
+        <v>3.26</v>
+      </c>
+      <c r="AF137">
+        <v>1.04</v>
+      </c>
+      <c r="AG137">
+        <v>10</v>
+      </c>
+      <c r="AH137">
+        <v>1.22</v>
+      </c>
+      <c r="AI137">
+        <v>4</v>
+      </c>
+      <c r="AJ137">
+        <v>1.64</v>
+      </c>
+      <c r="AK137">
+        <v>2.12</v>
+      </c>
+      <c r="AL137">
+        <v>1.57</v>
+      </c>
+      <c r="AM137">
+        <v>2.25</v>
+      </c>
+      <c r="AN137">
+        <v>1.33</v>
+      </c>
+      <c r="AO137">
+        <v>1.29</v>
+      </c>
+      <c r="AP137">
+        <v>1.68</v>
+      </c>
+      <c r="AQ137">
+        <v>1.86</v>
+      </c>
+      <c r="AR137">
+        <v>1.5</v>
+      </c>
+      <c r="AS137">
+        <v>1.75</v>
+      </c>
+      <c r="AT137">
+        <v>1.44</v>
+      </c>
+      <c r="AU137">
+        <v>2.18</v>
+      </c>
+      <c r="AV137">
+        <v>1.76</v>
+      </c>
+      <c r="AW137">
+        <v>3.94</v>
+      </c>
+      <c r="AX137">
+        <v>1.57</v>
+      </c>
+      <c r="AY137">
+        <v>8.5</v>
+      </c>
+      <c r="AZ137">
+        <v>3.04</v>
+      </c>
+      <c r="BA137">
+        <v>1.19</v>
+      </c>
+      <c r="BB137">
+        <v>1.3</v>
+      </c>
+      <c r="BC137">
+        <v>1.67</v>
+      </c>
+      <c r="BD137">
+        <v>2.03</v>
+      </c>
+      <c r="BE137">
+        <v>2.52</v>
+      </c>
+      <c r="BF137">
+        <v>3</v>
+      </c>
+      <c r="BG137">
+        <v>4</v>
+      </c>
+      <c r="BH137">
+        <v>13</v>
+      </c>
+      <c r="BI137">
+        <v>15</v>
+      </c>
+      <c r="BJ137">
+        <v>16</v>
+      </c>
+      <c r="BK137">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2467717</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44873.60416666666</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>71</v>
+      </c>
+      <c r="H138" t="s">
+        <v>82</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>90</v>
+      </c>
+      <c r="P138" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q138">
+        <v>7</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>9</v>
+      </c>
+      <c r="T138">
+        <v>2.1</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>4.5</v>
+      </c>
+      <c r="W138">
+        <v>1.25</v>
+      </c>
+      <c r="X138">
+        <v>3.5</v>
+      </c>
+      <c r="Y138">
+        <v>2.25</v>
+      </c>
+      <c r="Z138">
+        <v>1.57</v>
+      </c>
+      <c r="AA138">
+        <v>5</v>
+      </c>
+      <c r="AB138">
+        <v>1.14</v>
+      </c>
+      <c r="AC138">
+        <v>1.59</v>
+      </c>
+      <c r="AD138">
+        <v>4.71</v>
+      </c>
+      <c r="AE138">
+        <v>4.93</v>
+      </c>
+      <c r="AF138">
+        <v>1.02</v>
+      </c>
+      <c r="AG138">
+        <v>12</v>
+      </c>
+      <c r="AH138">
+        <v>1.15</v>
+      </c>
+      <c r="AI138">
+        <v>4.75</v>
+      </c>
+      <c r="AJ138">
+        <v>1.53</v>
+      </c>
+      <c r="AK138">
+        <v>2.35</v>
+      </c>
+      <c r="AL138">
+        <v>1.57</v>
+      </c>
+      <c r="AM138">
+        <v>2.25</v>
+      </c>
+      <c r="AN138">
+        <v>1.15</v>
+      </c>
+      <c r="AO138">
+        <v>1.17</v>
+      </c>
+      <c r="AP138">
+        <v>2.2</v>
+      </c>
+      <c r="AQ138">
+        <v>2.25</v>
+      </c>
+      <c r="AR138">
+        <v>0.25</v>
+      </c>
+      <c r="AS138">
+        <v>2</v>
+      </c>
+      <c r="AT138">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU138">
+        <v>2.36</v>
+      </c>
+      <c r="AV138">
+        <v>1.38</v>
+      </c>
+      <c r="AW138">
+        <v>3.74</v>
+      </c>
+      <c r="AX138">
+        <v>1.39</v>
+      </c>
+      <c r="AY138">
+        <v>10</v>
+      </c>
+      <c r="AZ138">
+        <v>3.9</v>
+      </c>
+      <c r="BA138">
+        <v>1.24</v>
+      </c>
+      <c r="BB138">
+        <v>1.4</v>
+      </c>
+      <c r="BC138">
+        <v>1.76</v>
+      </c>
+      <c r="BD138">
+        <v>2.17</v>
+      </c>
+      <c r="BE138">
+        <v>2.9</v>
+      </c>
+      <c r="BF138">
+        <v>6</v>
+      </c>
+      <c r="BG138">
+        <v>6</v>
+      </c>
+      <c r="BH138">
+        <v>8</v>
+      </c>
+      <c r="BI138">
+        <v>14</v>
+      </c>
+      <c r="BJ138">
+        <v>14</v>
+      </c>
+      <c r="BK138">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2467718</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44873.60416666666</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>79</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>185</v>
+      </c>
+      <c r="P139" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q139">
+        <v>4</v>
+      </c>
+      <c r="R139">
+        <v>9</v>
+      </c>
+      <c r="S139">
+        <v>13</v>
+      </c>
+      <c r="T139">
+        <v>3.25</v>
+      </c>
+      <c r="U139">
+        <v>2.15</v>
+      </c>
+      <c r="V139">
+        <v>3</v>
+      </c>
+      <c r="W139">
+        <v>1.35</v>
+      </c>
+      <c r="X139">
+        <v>3.1</v>
+      </c>
+      <c r="Y139">
+        <v>2.63</v>
+      </c>
+      <c r="Z139">
+        <v>1.45</v>
+      </c>
+      <c r="AA139">
+        <v>6.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.11</v>
+      </c>
+      <c r="AC139">
+        <v>2.71</v>
+      </c>
+      <c r="AD139">
+        <v>3.48</v>
+      </c>
+      <c r="AE139">
+        <v>2.7</v>
+      </c>
+      <c r="AF139">
+        <v>1.04</v>
+      </c>
+      <c r="AG139">
+        <v>10</v>
+      </c>
+      <c r="AH139">
+        <v>1.22</v>
+      </c>
+      <c r="AI139">
+        <v>4</v>
+      </c>
+      <c r="AJ139">
+        <v>1.68</v>
+      </c>
+      <c r="AK139">
+        <v>2.06</v>
+      </c>
+      <c r="AL139">
+        <v>1.57</v>
+      </c>
+      <c r="AM139">
+        <v>2.3</v>
+      </c>
+      <c r="AN139">
+        <v>1.44</v>
+      </c>
+      <c r="AO139">
+        <v>1.25</v>
+      </c>
+      <c r="AP139">
+        <v>1.45</v>
+      </c>
+      <c r="AQ139">
+        <v>2</v>
+      </c>
+      <c r="AR139">
+        <v>1.25</v>
+      </c>
+      <c r="AS139">
+        <v>2.13</v>
+      </c>
+      <c r="AT139">
+        <v>1.11</v>
+      </c>
+      <c r="AU139">
+        <v>1.49</v>
+      </c>
+      <c r="AV139">
+        <v>1.51</v>
+      </c>
+      <c r="AW139">
+        <v>3</v>
+      </c>
+      <c r="AX139">
+        <v>2.1</v>
+      </c>
+      <c r="AY139">
+        <v>7.9</v>
+      </c>
+      <c r="AZ139">
+        <v>2.1</v>
+      </c>
+      <c r="BA139">
+        <v>1.21</v>
+      </c>
+      <c r="BB139">
+        <v>1.33</v>
+      </c>
+      <c r="BC139">
+        <v>1.71</v>
+      </c>
+      <c r="BD139">
+        <v>2.1</v>
+      </c>
+      <c r="BE139">
+        <v>2.62</v>
+      </c>
+      <c r="BF139">
+        <v>6</v>
+      </c>
+      <c r="BG139">
+        <v>9</v>
+      </c>
+      <c r="BH139">
+        <v>7</v>
+      </c>
+      <c r="BI139">
+        <v>13</v>
+      </c>
+      <c r="BJ139">
+        <v>13</v>
+      </c>
+      <c r="BK139">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2467723</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44873.60416666666</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>65</v>
+      </c>
+      <c r="H140" t="s">
+        <v>80</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>186</v>
+      </c>
+      <c r="P140" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+      <c r="R140">
+        <v>8</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>2.9</v>
+      </c>
+      <c r="U140">
+        <v>2.2</v>
+      </c>
+      <c r="V140">
+        <v>3.25</v>
+      </c>
+      <c r="W140">
+        <v>1.3</v>
+      </c>
+      <c r="X140">
+        <v>3.2</v>
+      </c>
+      <c r="Y140">
+        <v>2.5</v>
+      </c>
+      <c r="Z140">
+        <v>1.5</v>
+      </c>
+      <c r="AA140">
+        <v>6</v>
+      </c>
+      <c r="AB140">
+        <v>1.11</v>
+      </c>
+      <c r="AC140">
+        <v>2.28</v>
+      </c>
+      <c r="AD140">
+        <v>3.38</v>
+      </c>
+      <c r="AE140">
+        <v>3.28</v>
+      </c>
+      <c r="AF140">
+        <v>1.04</v>
+      </c>
+      <c r="AG140">
+        <v>10</v>
+      </c>
+      <c r="AH140">
+        <v>1.2</v>
+      </c>
+      <c r="AI140">
+        <v>4</v>
+      </c>
+      <c r="AJ140">
+        <v>1.63</v>
+      </c>
+      <c r="AK140">
+        <v>2.14</v>
+      </c>
+      <c r="AL140">
+        <v>1.55</v>
+      </c>
+      <c r="AM140">
+        <v>2.3</v>
+      </c>
+      <c r="AN140">
+        <v>1.36</v>
+      </c>
+      <c r="AO140">
+        <v>1.25</v>
+      </c>
+      <c r="AP140">
+        <v>1.55</v>
+      </c>
+      <c r="AQ140">
+        <v>1.25</v>
+      </c>
+      <c r="AR140">
+        <v>1</v>
+      </c>
+      <c r="AS140">
+        <v>1.44</v>
+      </c>
+      <c r="AT140">
+        <v>0.88</v>
+      </c>
+      <c r="AU140">
+        <v>1.57</v>
+      </c>
+      <c r="AV140">
+        <v>1.55</v>
+      </c>
+      <c r="AW140">
+        <v>3.12</v>
+      </c>
+      <c r="AX140">
+        <v>1.98</v>
+      </c>
+      <c r="AY140">
+        <v>7.9</v>
+      </c>
+      <c r="AZ140">
+        <v>2.2</v>
+      </c>
+      <c r="BA140">
+        <v>1.22</v>
+      </c>
+      <c r="BB140">
+        <v>1.34</v>
+      </c>
+      <c r="BC140">
+        <v>1.74</v>
+      </c>
+      <c r="BD140">
+        <v>2.13</v>
+      </c>
+      <c r="BE140">
+        <v>2.65</v>
+      </c>
+      <c r="BF140">
+        <v>4</v>
+      </c>
+      <c r="BG140">
+        <v>6</v>
+      </c>
+      <c r="BH140">
+        <v>4</v>
+      </c>
+      <c r="BI140">
+        <v>15</v>
+      </c>
+      <c r="BJ140">
+        <v>8</v>
+      </c>
+      <c r="BK140">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2467715</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44874.60416666666</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>66</v>
+      </c>
+      <c r="H141" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>130</v>
+      </c>
+      <c r="P141" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+      <c r="S141">
+        <v>9</v>
+      </c>
+      <c r="T141">
+        <v>3.75</v>
+      </c>
+      <c r="U141">
+        <v>2.3</v>
+      </c>
+      <c r="V141">
+        <v>2.63</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>3.25</v>
+      </c>
+      <c r="Y141">
+        <v>2.5</v>
+      </c>
+      <c r="Z141">
+        <v>1.5</v>
+      </c>
+      <c r="AA141">
+        <v>6.5</v>
+      </c>
+      <c r="AB141">
+        <v>1.11</v>
+      </c>
+      <c r="AC141">
+        <v>3.3</v>
+      </c>
+      <c r="AD141">
+        <v>3.65</v>
+      </c>
+      <c r="AE141">
+        <v>2.12</v>
+      </c>
+      <c r="AF141">
+        <v>1.04</v>
+      </c>
+      <c r="AG141">
+        <v>10</v>
+      </c>
+      <c r="AH141">
+        <v>1.22</v>
+      </c>
+      <c r="AI141">
+        <v>4</v>
+      </c>
+      <c r="AJ141">
+        <v>1.69</v>
+      </c>
+      <c r="AK141">
+        <v>2.09</v>
+      </c>
+      <c r="AL141">
+        <v>1.62</v>
+      </c>
+      <c r="AM141">
+        <v>2.2</v>
+      </c>
+      <c r="AN141">
+        <v>1.71</v>
+      </c>
+      <c r="AO141">
+        <v>1.27</v>
+      </c>
+      <c r="AP141">
+        <v>1.33</v>
+      </c>
+      <c r="AQ141">
+        <v>1.38</v>
+      </c>
+      <c r="AR141">
+        <v>2.57</v>
+      </c>
+      <c r="AS141">
+        <v>1.56</v>
+      </c>
+      <c r="AT141">
+        <v>2.25</v>
+      </c>
+      <c r="AU141">
+        <v>1.87</v>
+      </c>
+      <c r="AV141">
+        <v>1.82</v>
+      </c>
+      <c r="AW141">
+        <v>3.69</v>
+      </c>
+      <c r="AX141">
+        <v>1.91</v>
+      </c>
+      <c r="AY141">
+        <v>8</v>
+      </c>
+      <c r="AZ141">
+        <v>2.1</v>
+      </c>
+      <c r="BA141">
+        <v>1.22</v>
+      </c>
+      <c r="BB141">
+        <v>1.31</v>
+      </c>
+      <c r="BC141">
+        <v>1.58</v>
+      </c>
+      <c r="BD141">
+        <v>2</v>
+      </c>
+      <c r="BE141">
+        <v>2.56</v>
+      </c>
+      <c r="BF141">
+        <v>7</v>
+      </c>
+      <c r="BG141">
+        <v>4</v>
+      </c>
+      <c r="BH141">
+        <v>6</v>
+      </c>
+      <c r="BI141">
+        <v>11</v>
+      </c>
+      <c r="BJ141">
+        <v>13</v>
+      </c>
+      <c r="BK141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2467719</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44874.60416666666</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>72</v>
+      </c>
+      <c r="H142" t="s">
+        <v>77</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>187</v>
+      </c>
+      <c r="P142" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>9</v>
+      </c>
+      <c r="S142">
+        <v>13</v>
+      </c>
+      <c r="T142">
+        <v>3.1</v>
+      </c>
+      <c r="U142">
+        <v>2.2</v>
+      </c>
+      <c r="V142">
+        <v>3.25</v>
+      </c>
+      <c r="W142">
+        <v>1.36</v>
+      </c>
+      <c r="X142">
+        <v>3</v>
+      </c>
+      <c r="Y142">
+        <v>2.75</v>
+      </c>
+      <c r="Z142">
+        <v>1.4</v>
+      </c>
+      <c r="AA142">
+        <v>7</v>
+      </c>
+      <c r="AB142">
+        <v>1.1</v>
+      </c>
+      <c r="AC142">
+        <v>2.4</v>
+      </c>
+      <c r="AD142">
+        <v>3.3</v>
+      </c>
+      <c r="AE142">
+        <v>3</v>
+      </c>
+      <c r="AF142">
+        <v>1.05</v>
+      </c>
+      <c r="AG142">
+        <v>9</v>
+      </c>
+      <c r="AH142">
+        <v>1.25</v>
+      </c>
+      <c r="AI142">
+        <v>3.6</v>
+      </c>
+      <c r="AJ142">
+        <v>1.82</v>
+      </c>
+      <c r="AK142">
+        <v>1.92</v>
+      </c>
+      <c r="AL142">
+        <v>1.67</v>
+      </c>
+      <c r="AM142">
+        <v>2.1</v>
+      </c>
+      <c r="AN142">
+        <v>1.42</v>
+      </c>
+      <c r="AO142">
+        <v>1.32</v>
+      </c>
+      <c r="AP142">
+        <v>1.51</v>
+      </c>
+      <c r="AQ142">
+        <v>1.13</v>
+      </c>
+      <c r="AR142">
+        <v>1</v>
+      </c>
+      <c r="AS142">
+        <v>1.11</v>
+      </c>
+      <c r="AT142">
+        <v>1</v>
+      </c>
+      <c r="AU142">
+        <v>1.6</v>
+      </c>
+      <c r="AV142">
+        <v>1.28</v>
+      </c>
+      <c r="AW142">
+        <v>2.88</v>
+      </c>
+      <c r="AX142">
+        <v>1.91</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>2.1</v>
+      </c>
+      <c r="BA142">
+        <v>1.18</v>
+      </c>
+      <c r="BB142">
+        <v>1.34</v>
+      </c>
+      <c r="BC142">
+        <v>1.64</v>
+      </c>
+      <c r="BD142">
+        <v>2.07</v>
+      </c>
+      <c r="BE142">
+        <v>2.69</v>
+      </c>
+      <c r="BF142">
+        <v>6</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>13</v>
+      </c>
+      <c r="BI142">
+        <v>4</v>
+      </c>
+      <c r="BJ142">
+        <v>19</v>
+      </c>
+      <c r="BK142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2467720</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44874.60416666666</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>68</v>
+      </c>
+      <c r="H143" t="s">
+        <v>76</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>4</v>
+      </c>
+      <c r="N143">
+        <v>7</v>
+      </c>
+      <c r="O143" t="s">
+        <v>188</v>
+      </c>
+      <c r="P143" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>7</v>
+      </c>
+      <c r="T143">
+        <v>3.75</v>
+      </c>
+      <c r="U143">
+        <v>2.25</v>
+      </c>
+      <c r="V143">
+        <v>2.75</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>3</v>
+      </c>
+      <c r="Y143">
+        <v>2.63</v>
+      </c>
+      <c r="Z143">
+        <v>1.44</v>
+      </c>
+      <c r="AA143">
+        <v>7</v>
+      </c>
+      <c r="AB143">
+        <v>1.1</v>
+      </c>
+      <c r="AC143">
+        <v>3.7</v>
+      </c>
+      <c r="AD143">
+        <v>3.4</v>
+      </c>
+      <c r="AE143">
+        <v>2.07</v>
+      </c>
+      <c r="AF143">
+        <v>1.06</v>
+      </c>
+      <c r="AG143">
+        <v>8</v>
+      </c>
+      <c r="AH143">
+        <v>1.3</v>
+      </c>
+      <c r="AI143">
+        <v>3.3</v>
+      </c>
+      <c r="AJ143">
+        <v>2.04</v>
+      </c>
+      <c r="AK143">
+        <v>1.83</v>
+      </c>
+      <c r="AL143">
+        <v>1.67</v>
+      </c>
+      <c r="AM143">
+        <v>2.1</v>
+      </c>
+      <c r="AN143">
+        <v>1.65</v>
+      </c>
+      <c r="AO143">
+        <v>1.3</v>
+      </c>
+      <c r="AP143">
+        <v>1.33</v>
+      </c>
+      <c r="AQ143">
+        <v>1.57</v>
+      </c>
+      <c r="AR143">
+        <v>1.25</v>
+      </c>
+      <c r="AS143">
+        <v>1.38</v>
+      </c>
+      <c r="AT143">
+        <v>1.44</v>
+      </c>
+      <c r="AU143">
+        <v>1.49</v>
+      </c>
+      <c r="AV143">
+        <v>1.46</v>
+      </c>
+      <c r="AW143">
+        <v>2.95</v>
+      </c>
+      <c r="AX143">
+        <v>2.78</v>
+      </c>
+      <c r="AY143">
+        <v>8.5</v>
+      </c>
+      <c r="AZ143">
+        <v>1.59</v>
+      </c>
+      <c r="BA143">
+        <v>1.18</v>
+      </c>
+      <c r="BB143">
+        <v>1.34</v>
+      </c>
+      <c r="BC143">
+        <v>1.62</v>
+      </c>
+      <c r="BD143">
+        <v>2.04</v>
+      </c>
+      <c r="BE143">
+        <v>2.62</v>
+      </c>
+      <c r="BF143">
+        <v>7</v>
+      </c>
+      <c r="BG143">
+        <v>8</v>
+      </c>
+      <c r="BH143">
+        <v>8</v>
+      </c>
+      <c r="BI143">
+        <v>7</v>
+      </c>
+      <c r="BJ143">
+        <v>15</v>
+      </c>
+      <c r="BK143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2467721</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44874.60416666666</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>69</v>
+      </c>
+      <c r="H144" t="s">
+        <v>73</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>189</v>
+      </c>
+      <c r="P144" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="R144">
+        <v>5</v>
+      </c>
+      <c r="S144">
+        <v>13</v>
+      </c>
+      <c r="T144">
+        <v>3</v>
+      </c>
+      <c r="U144">
+        <v>2.3</v>
+      </c>
+      <c r="V144">
+        <v>3.25</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>3.25</v>
+      </c>
+      <c r="Y144">
+        <v>2.63</v>
+      </c>
+      <c r="Z144">
+        <v>1.44</v>
+      </c>
+      <c r="AA144">
+        <v>6.5</v>
+      </c>
+      <c r="AB144">
+        <v>1.11</v>
+      </c>
+      <c r="AC144">
+        <v>2.36</v>
+      </c>
+      <c r="AD144">
+        <v>3.5</v>
+      </c>
+      <c r="AE144">
+        <v>2.9</v>
+      </c>
+      <c r="AF144">
+        <v>1.04</v>
+      </c>
+      <c r="AG144">
+        <v>10</v>
+      </c>
+      <c r="AH144">
+        <v>1.22</v>
+      </c>
+      <c r="AI144">
+        <v>4</v>
+      </c>
+      <c r="AJ144">
+        <v>1.75</v>
+      </c>
+      <c r="AK144">
+        <v>2.07</v>
+      </c>
+      <c r="AL144">
+        <v>1.57</v>
+      </c>
+      <c r="AM144">
+        <v>2.25</v>
+      </c>
+      <c r="AN144">
+        <v>1.43</v>
+      </c>
+      <c r="AO144">
+        <v>1.31</v>
+      </c>
+      <c r="AP144">
+        <v>1.51</v>
+      </c>
+      <c r="AQ144">
+        <v>1.5</v>
+      </c>
+      <c r="AR144">
+        <v>0.86</v>
+      </c>
+      <c r="AS144">
+        <v>1.44</v>
+      </c>
+      <c r="AT144">
+        <v>0.88</v>
+      </c>
+      <c r="AU144">
+        <v>1.29</v>
+      </c>
+      <c r="AV144">
+        <v>1.56</v>
+      </c>
+      <c r="AW144">
+        <v>2.85</v>
+      </c>
+      <c r="AX144">
+        <v>1.95</v>
+      </c>
+      <c r="AY144">
+        <v>8</v>
+      </c>
+      <c r="AZ144">
+        <v>2.05</v>
+      </c>
+      <c r="BA144">
+        <v>1.18</v>
+      </c>
+      <c r="BB144">
+        <v>1.39</v>
+      </c>
+      <c r="BC144">
+        <v>1.7</v>
+      </c>
+      <c r="BD144">
+        <v>2.13</v>
+      </c>
+      <c r="BE144">
+        <v>2.79</v>
+      </c>
+      <c r="BF144">
+        <v>5</v>
+      </c>
+      <c r="BG144">
+        <v>2</v>
+      </c>
+      <c r="BH144">
+        <v>15</v>
+      </c>
+      <c r="BI144">
+        <v>5</v>
+      </c>
+      <c r="BJ144">
+        <v>20</v>
+      </c>
+      <c r="BK144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2467722</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44875.6875</v>
+      </c>
+      <c r="F145">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>74</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>90</v>
+      </c>
+      <c r="P145" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>6</v>
+      </c>
+      <c r="S145">
+        <v>8</v>
+      </c>
+      <c r="T145">
+        <v>4</v>
+      </c>
+      <c r="U145">
+        <v>2.38</v>
+      </c>
+      <c r="V145">
+        <v>2.4</v>
+      </c>
+      <c r="W145">
+        <v>1.3</v>
+      </c>
+      <c r="X145">
+        <v>3.4</v>
+      </c>
+      <c r="Y145">
+        <v>2.5</v>
+      </c>
+      <c r="Z145">
+        <v>1.5</v>
+      </c>
+      <c r="AA145">
+        <v>6</v>
+      </c>
+      <c r="AB145">
+        <v>1.13</v>
+      </c>
+      <c r="AC145">
+        <v>3.8</v>
+      </c>
+      <c r="AD145">
+        <v>3.6</v>
+      </c>
+      <c r="AE145">
+        <v>1.85</v>
+      </c>
+      <c r="AF145">
+        <v>1.03</v>
+      </c>
+      <c r="AG145">
+        <v>11</v>
+      </c>
+      <c r="AH145">
+        <v>1.2</v>
+      </c>
+      <c r="AI145">
+        <v>4.2</v>
+      </c>
+      <c r="AJ145">
+        <v>1.62</v>
+      </c>
+      <c r="AK145">
+        <v>2.16</v>
+      </c>
+      <c r="AL145">
+        <v>1.62</v>
+      </c>
+      <c r="AM145">
+        <v>2.2</v>
+      </c>
+      <c r="AN145">
+        <v>1.8</v>
+      </c>
+      <c r="AO145">
+        <v>1.28</v>
+      </c>
+      <c r="AP145">
+        <v>1.27</v>
+      </c>
+      <c r="AQ145">
+        <v>1</v>
+      </c>
+      <c r="AR145">
+        <v>2</v>
+      </c>
+      <c r="AS145">
+        <v>0.88</v>
+      </c>
+      <c r="AT145">
+        <v>2.13</v>
+      </c>
+      <c r="AU145">
+        <v>1.69</v>
+      </c>
+      <c r="AV145">
+        <v>1.63</v>
+      </c>
+      <c r="AW145">
+        <v>3.32</v>
+      </c>
+      <c r="AX145">
+        <v>2.54</v>
+      </c>
+      <c r="AY145">
+        <v>8</v>
+      </c>
+      <c r="AZ145">
+        <v>1.69</v>
+      </c>
+      <c r="BA145">
+        <v>1.21</v>
+      </c>
+      <c r="BB145">
+        <v>1.42</v>
+      </c>
+      <c r="BC145">
+        <v>1.76</v>
+      </c>
+      <c r="BD145">
+        <v>2.22</v>
+      </c>
+      <c r="BE145">
+        <v>2.93</v>
+      </c>
+      <c r="BF145">
+        <v>3</v>
+      </c>
+      <c r="BG145">
+        <v>9</v>
+      </c>
+      <c r="BH145">
+        <v>6</v>
+      </c>
+      <c r="BI145">
+        <v>13</v>
+      </c>
+      <c r="BJ145">
+        <v>9</v>
+      </c>
+      <c r="BK145">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2467730</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44876.60416666666</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s">
+        <v>65</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>190</v>
+      </c>
+      <c r="P146" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q146">
+        <v>3</v>
+      </c>
+      <c r="R146">
+        <v>3</v>
+      </c>
+      <c r="S146">
+        <v>6</v>
+      </c>
+      <c r="T146">
+        <v>2.4</v>
+      </c>
+      <c r="U146">
+        <v>2.25</v>
+      </c>
+      <c r="V146">
+        <v>4</v>
+      </c>
+      <c r="W146">
+        <v>1.32</v>
+      </c>
+      <c r="X146">
+        <v>3.1</v>
+      </c>
+      <c r="Y146">
+        <v>2.4</v>
+      </c>
+      <c r="Z146">
+        <v>1.5</v>
+      </c>
+      <c r="AA146">
+        <v>5.3</v>
+      </c>
+      <c r="AB146">
+        <v>1.12</v>
+      </c>
+      <c r="AC146">
+        <v>1.88</v>
+      </c>
+      <c r="AD146">
+        <v>3.78</v>
+      </c>
+      <c r="AE146">
+        <v>3.8</v>
+      </c>
+      <c r="AF146">
+        <v>1.04</v>
+      </c>
+      <c r="AG146">
+        <v>15.25</v>
+      </c>
+      <c r="AH146">
+        <v>1.22</v>
+      </c>
+      <c r="AI146">
+        <v>4.35</v>
+      </c>
+      <c r="AJ146">
+        <v>1.66</v>
+      </c>
+      <c r="AK146">
+        <v>2.1</v>
+      </c>
+      <c r="AL146">
+        <v>1.6</v>
+      </c>
+      <c r="AM146">
+        <v>2.2</v>
+      </c>
+      <c r="AN146">
+        <v>1.29</v>
+      </c>
+      <c r="AO146">
+        <v>1.29</v>
+      </c>
+      <c r="AP146">
+        <v>1.88</v>
+      </c>
+      <c r="AQ146">
+        <v>2.29</v>
+      </c>
+      <c r="AR146">
+        <v>1.86</v>
+      </c>
+      <c r="AS146">
+        <v>2</v>
+      </c>
+      <c r="AT146">
+        <v>2</v>
+      </c>
+      <c r="AU146">
+        <v>1.72</v>
+      </c>
+      <c r="AV146">
+        <v>1.45</v>
+      </c>
+      <c r="AW146">
+        <v>3.17</v>
+      </c>
+      <c r="AX146">
+        <v>1.61</v>
+      </c>
+      <c r="AY146">
+        <v>8</v>
+      </c>
+      <c r="AZ146">
+        <v>2.93</v>
+      </c>
+      <c r="BA146">
+        <v>1.24</v>
+      </c>
+      <c r="BB146">
+        <v>1.48</v>
+      </c>
+      <c r="BC146">
+        <v>1.86</v>
+      </c>
+      <c r="BD146">
+        <v>2.38</v>
+      </c>
+      <c r="BE146">
+        <v>3.2</v>
+      </c>
+      <c r="BF146">
+        <v>7</v>
+      </c>
+      <c r="BG146">
+        <v>5</v>
+      </c>
+      <c r="BH146">
+        <v>13</v>
+      </c>
+      <c r="BI146">
+        <v>6</v>
+      </c>
+      <c r="BJ146">
+        <v>20</v>
+      </c>
+      <c r="BK146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2467729</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44876.60416666666</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>78</v>
+      </c>
+      <c r="H147" t="s">
+        <v>79</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>191</v>
+      </c>
+      <c r="P147" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q147">
+        <v>6</v>
+      </c>
+      <c r="R147">
+        <v>5</v>
+      </c>
+      <c r="S147">
+        <v>11</v>
+      </c>
+      <c r="T147">
+        <v>2.65</v>
+      </c>
+      <c r="U147">
+        <v>2.15</v>
+      </c>
+      <c r="V147">
+        <v>3.5</v>
+      </c>
+      <c r="W147">
+        <v>1.3</v>
+      </c>
+      <c r="X147">
+        <v>3.2</v>
+      </c>
+      <c r="Y147">
+        <v>2.4</v>
+      </c>
+      <c r="Z147">
+        <v>1.5</v>
+      </c>
+      <c r="AA147">
+        <v>5.3</v>
+      </c>
+      <c r="AB147">
+        <v>1.12</v>
+      </c>
+      <c r="AC147">
+        <v>1.95</v>
+      </c>
+      <c r="AD147">
+        <v>4</v>
+      </c>
+      <c r="AE147">
+        <v>3.4</v>
+      </c>
+      <c r="AF147">
+        <v>1.02</v>
+      </c>
+      <c r="AG147">
+        <v>12</v>
+      </c>
+      <c r="AH147">
+        <v>1.2</v>
+      </c>
+      <c r="AI147">
+        <v>4.3</v>
+      </c>
+      <c r="AJ147">
+        <v>1.62</v>
+      </c>
+      <c r="AK147">
+        <v>2.16</v>
+      </c>
+      <c r="AL147">
+        <v>1.55</v>
+      </c>
+      <c r="AM147">
+        <v>2.3</v>
+      </c>
+      <c r="AN147">
+        <v>1.33</v>
+      </c>
+      <c r="AO147">
+        <v>1.29</v>
+      </c>
+      <c r="AP147">
+        <v>1.68</v>
+      </c>
+      <c r="AQ147">
+        <v>1.57</v>
+      </c>
+      <c r="AR147">
+        <v>1.25</v>
+      </c>
+      <c r="AS147">
+        <v>1.5</v>
+      </c>
+      <c r="AT147">
+        <v>1.22</v>
+      </c>
+      <c r="AU147">
+        <v>1.84</v>
+      </c>
+      <c r="AV147">
+        <v>1.5</v>
+      </c>
+      <c r="AW147">
+        <v>3.34</v>
+      </c>
+      <c r="AX147">
+        <v>1.53</v>
+      </c>
+      <c r="AY147">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ147">
+        <v>3.2</v>
+      </c>
+      <c r="BA147">
+        <v>1.18</v>
+      </c>
+      <c r="BB147">
+        <v>1.38</v>
+      </c>
+      <c r="BC147">
+        <v>1.7</v>
+      </c>
+      <c r="BD147">
+        <v>2.13</v>
+      </c>
+      <c r="BE147">
+        <v>2.79</v>
+      </c>
+      <c r="BF147">
+        <v>4</v>
+      </c>
+      <c r="BG147">
+        <v>5</v>
+      </c>
+      <c r="BH147">
+        <v>12</v>
+      </c>
+      <c r="BI147">
+        <v>9</v>
+      </c>
+      <c r="BJ147">
+        <v>16</v>
+      </c>
+      <c r="BK147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2467731</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44877.375</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s">
+        <v>67</v>
+      </c>
+      <c r="I148">
+        <v>3</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <v>6</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+      <c r="N148">
+        <v>8</v>
+      </c>
+      <c r="O148" t="s">
+        <v>192</v>
+      </c>
+      <c r="P148" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>2.65</v>
+      </c>
+      <c r="U148">
+        <v>2.2</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.31</v>
+      </c>
+      <c r="X148">
+        <v>3.1</v>
+      </c>
+      <c r="Y148">
+        <v>2.37</v>
+      </c>
+      <c r="Z148">
+        <v>1.51</v>
+      </c>
+      <c r="AA148">
+        <v>5.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.12</v>
+      </c>
+      <c r="AC148">
+        <v>2.21</v>
+      </c>
+      <c r="AD148">
+        <v>3.66</v>
+      </c>
+      <c r="AE148">
+        <v>3.02</v>
+      </c>
+      <c r="AF148">
+        <v>1.04</v>
+      </c>
+      <c r="AG148">
+        <v>11.5</v>
+      </c>
+      <c r="AH148">
+        <v>1.2</v>
+      </c>
+      <c r="AI148">
+        <v>4.1</v>
+      </c>
+      <c r="AJ148">
+        <v>1.61</v>
+      </c>
+      <c r="AK148">
+        <v>2.2</v>
+      </c>
+      <c r="AL148">
+        <v>1.55</v>
+      </c>
+      <c r="AM148">
+        <v>2.25</v>
+      </c>
+      <c r="AN148">
+        <v>1.36</v>
+      </c>
+      <c r="AO148">
+        <v>1.28</v>
+      </c>
+      <c r="AP148">
+        <v>1.65</v>
+      </c>
+      <c r="AQ148">
+        <v>1.25</v>
+      </c>
+      <c r="AR148">
+        <v>0.25</v>
+      </c>
+      <c r="AS148">
+        <v>1.22</v>
+      </c>
+      <c r="AT148">
+        <v>0.33</v>
+      </c>
+      <c r="AU148">
+        <v>2.02</v>
+      </c>
+      <c r="AV148">
+        <v>1.63</v>
+      </c>
+      <c r="AW148">
+        <v>3.65</v>
+      </c>
+      <c r="AX148">
+        <v>1.8</v>
+      </c>
+      <c r="AY148">
+        <v>5.5</v>
+      </c>
+      <c r="AZ148">
+        <v>2.25</v>
+      </c>
+      <c r="BA148">
+        <v>1.22</v>
+      </c>
+      <c r="BB148">
+        <v>1.42</v>
+      </c>
+      <c r="BC148">
+        <v>1.74</v>
+      </c>
+      <c r="BD148">
+        <v>2.23</v>
+      </c>
+      <c r="BE148">
+        <v>3</v>
+      </c>
+      <c r="BF148">
+        <v>7</v>
+      </c>
+      <c r="BG148">
+        <v>8</v>
+      </c>
+      <c r="BH148">
+        <v>3</v>
+      </c>
+      <c r="BI148">
+        <v>11</v>
+      </c>
+      <c r="BJ148">
+        <v>10</v>
+      </c>
+      <c r="BK148">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2467725</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44877.375</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>81</v>
+      </c>
+      <c r="H149" t="s">
+        <v>68</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>6</v>
+      </c>
+      <c r="O149" t="s">
+        <v>193</v>
+      </c>
+      <c r="P149" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q149">
+        <v>4</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>2.35</v>
+      </c>
+      <c r="V149">
+        <v>5.5</v>
+      </c>
+      <c r="W149">
+        <v>1.3</v>
+      </c>
+      <c r="X149">
+        <v>3.25</v>
+      </c>
+      <c r="Y149">
+        <v>2.4</v>
+      </c>
+      <c r="Z149">
+        <v>1.5</v>
+      </c>
+      <c r="AA149">
+        <v>5.75</v>
+      </c>
+      <c r="AB149">
+        <v>1.12</v>
+      </c>
+      <c r="AC149">
+        <v>1.62</v>
+      </c>
+      <c r="AD149">
+        <v>4.14</v>
+      </c>
+      <c r="AE149">
+        <v>5.05</v>
+      </c>
+      <c r="AF149">
+        <v>1.03</v>
+      </c>
+      <c r="AG149">
+        <v>16.25</v>
+      </c>
+      <c r="AH149">
+        <v>1.21</v>
+      </c>
+      <c r="AI149">
+        <v>4.4</v>
+      </c>
+      <c r="AJ149">
+        <v>1.61</v>
+      </c>
+      <c r="AK149">
+        <v>2.2</v>
+      </c>
+      <c r="AL149">
+        <v>1.75</v>
+      </c>
+      <c r="AM149">
+        <v>1.95</v>
+      </c>
+      <c r="AN149">
+        <v>1.16</v>
+      </c>
+      <c r="AO149">
+        <v>1.22</v>
+      </c>
+      <c r="AP149">
+        <v>2.45</v>
+      </c>
+      <c r="AQ149">
+        <v>1.63</v>
+      </c>
+      <c r="AR149">
+        <v>0.63</v>
+      </c>
+      <c r="AS149">
+        <v>1.78</v>
+      </c>
+      <c r="AT149">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU149">
+        <v>1.97</v>
+      </c>
+      <c r="AV149">
+        <v>1.16</v>
+      </c>
+      <c r="AW149">
+        <v>3.13</v>
+      </c>
+      <c r="AX149">
+        <v>1.16</v>
+      </c>
+      <c r="AY149">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149">
+        <v>6</v>
+      </c>
+      <c r="BA149">
+        <v>1.15</v>
+      </c>
+      <c r="BB149">
+        <v>1.24</v>
+      </c>
+      <c r="BC149">
+        <v>1.44</v>
+      </c>
+      <c r="BD149">
+        <v>1.83</v>
+      </c>
+      <c r="BE149">
+        <v>2.3</v>
+      </c>
+      <c r="BF149">
+        <v>8</v>
+      </c>
+      <c r="BG149">
+        <v>4</v>
+      </c>
+      <c r="BH149">
+        <v>12</v>
+      </c>
+      <c r="BI149">
+        <v>5</v>
+      </c>
+      <c r="BJ149">
+        <v>20</v>
+      </c>
+      <c r="BK149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2467727</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44877.375</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" t="s">
+        <v>69</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>5</v>
+      </c>
+      <c r="L150">
+        <v>5</v>
+      </c>
+      <c r="M150">
+        <v>4</v>
+      </c>
+      <c r="N150">
+        <v>9</v>
+      </c>
+      <c r="O150" t="s">
+        <v>194</v>
+      </c>
+      <c r="P150" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+      <c r="S150">
+        <v>7</v>
+      </c>
+      <c r="T150">
+        <v>2.2</v>
+      </c>
+      <c r="U150">
+        <v>2.2</v>
+      </c>
+      <c r="V150">
+        <v>4.8</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>2.9</v>
+      </c>
+      <c r="Y150">
+        <v>2.62</v>
+      </c>
+      <c r="Z150">
+        <v>1.42</v>
+      </c>
+      <c r="AA150">
+        <v>5.75</v>
+      </c>
+      <c r="AB150">
+        <v>1.1</v>
+      </c>
+      <c r="AC150">
+        <v>1.81</v>
+      </c>
+      <c r="AD150">
+        <v>3.8</v>
+      </c>
+      <c r="AE150">
+        <v>4.14</v>
+      </c>
+      <c r="AF150">
+        <v>1.03</v>
+      </c>
+      <c r="AG150">
+        <v>11</v>
+      </c>
+      <c r="AH150">
+        <v>1.25</v>
+      </c>
+      <c r="AI150">
+        <v>3.8</v>
+      </c>
+      <c r="AJ150">
+        <v>1.79</v>
+      </c>
+      <c r="AK150">
+        <v>2.02</v>
+      </c>
+      <c r="AL150">
+        <v>1.73</v>
+      </c>
+      <c r="AM150">
+        <v>2</v>
+      </c>
+      <c r="AN150">
+        <v>1.2</v>
+      </c>
+      <c r="AO150">
+        <v>1.29</v>
+      </c>
+      <c r="AP150">
+        <v>2.05</v>
+      </c>
+      <c r="AQ150">
+        <v>2.43</v>
+      </c>
+      <c r="AR150">
+        <v>0.86</v>
+      </c>
+      <c r="AS150">
+        <v>2.5</v>
+      </c>
+      <c r="AT150">
+        <v>0.75</v>
+      </c>
+      <c r="AU150">
+        <v>1.78</v>
+      </c>
+      <c r="AV150">
+        <v>1.46</v>
+      </c>
+      <c r="AW150">
+        <v>3.24</v>
+      </c>
+      <c r="AX150">
+        <v>1.27</v>
+      </c>
+      <c r="AY150">
+        <v>7.25</v>
+      </c>
+      <c r="AZ150">
+        <v>4.3</v>
+      </c>
+      <c r="BA150">
+        <v>1.2</v>
+      </c>
+      <c r="BB150">
+        <v>1.39</v>
+      </c>
+      <c r="BC150">
+        <v>1.74</v>
+      </c>
+      <c r="BD150">
+        <v>2.2</v>
+      </c>
+      <c r="BE150">
+        <v>3</v>
+      </c>
+      <c r="BF150">
+        <v>7</v>
+      </c>
+      <c r="BG150">
+        <v>5</v>
+      </c>
+      <c r="BH150">
+        <v>2</v>
+      </c>
+      <c r="BI150">
+        <v>12</v>
+      </c>
+      <c r="BJ150">
+        <v>9</v>
+      </c>
+      <c r="BK150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2467732</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44877.6875</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>73</v>
+      </c>
+      <c r="H151" t="s">
+        <v>72</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>90</v>
+      </c>
+      <c r="P151" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q151">
+        <v>6</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+      <c r="S151">
+        <v>7</v>
+      </c>
+      <c r="T151">
+        <v>2.85</v>
+      </c>
+      <c r="U151">
+        <v>2.1</v>
+      </c>
+      <c r="V151">
+        <v>3.3</v>
+      </c>
+      <c r="W151">
+        <v>1.35</v>
+      </c>
+      <c r="X151">
+        <v>2.9</v>
+      </c>
+      <c r="Y151">
+        <v>2.55</v>
+      </c>
+      <c r="Z151">
+        <v>1.46</v>
+      </c>
+      <c r="AA151">
+        <v>6.25</v>
+      </c>
+      <c r="AB151">
+        <v>1.1</v>
+      </c>
+      <c r="AC151">
+        <v>2.4</v>
+      </c>
+      <c r="AD151">
+        <v>3.2</v>
+      </c>
+      <c r="AE151">
+        <v>2.9</v>
+      </c>
+      <c r="AF151">
+        <v>1.05</v>
+      </c>
+      <c r="AG151">
+        <v>9.75</v>
+      </c>
+      <c r="AH151">
+        <v>1.25</v>
+      </c>
+      <c r="AI151">
+        <v>3.6</v>
+      </c>
+      <c r="AJ151">
+        <v>1.95</v>
+      </c>
+      <c r="AK151">
+        <v>1.85</v>
+      </c>
+      <c r="AL151">
+        <v>1.63</v>
+      </c>
+      <c r="AM151">
+        <v>2.1</v>
+      </c>
+      <c r="AN151">
+        <v>1.39</v>
+      </c>
+      <c r="AO151">
+        <v>1.3</v>
+      </c>
+      <c r="AP151">
+        <v>1.57</v>
+      </c>
+      <c r="AQ151">
+        <v>1.38</v>
+      </c>
+      <c r="AR151">
+        <v>1.14</v>
+      </c>
+      <c r="AS151">
+        <v>1.22</v>
+      </c>
+      <c r="AT151">
+        <v>1.38</v>
+      </c>
+      <c r="AU151">
+        <v>1.66</v>
+      </c>
+      <c r="AV151">
+        <v>1.26</v>
+      </c>
+      <c r="AW151">
+        <v>2.92</v>
+      </c>
+      <c r="AX151">
+        <v>1.8</v>
+      </c>
+      <c r="AY151">
+        <v>5.75</v>
+      </c>
+      <c r="AZ151">
+        <v>2.25</v>
+      </c>
+      <c r="BA151">
+        <v>1.18</v>
+      </c>
+      <c r="BB151">
+        <v>1.34</v>
+      </c>
+      <c r="BC151">
+        <v>1.61</v>
+      </c>
+      <c r="BD151">
+        <v>2.02</v>
+      </c>
+      <c r="BE151">
+        <v>2.7</v>
+      </c>
+      <c r="BF151">
+        <v>5</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>12</v>
+      </c>
+      <c r="BI151">
+        <v>5</v>
+      </c>
+      <c r="BJ151">
+        <v>17</v>
+      </c>
+      <c r="BK151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2467726</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44878.39583333334</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>74</v>
+      </c>
+      <c r="H152" t="s">
+        <v>66</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>195</v>
+      </c>
+      <c r="P152" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q152">
+        <v>4</v>
+      </c>
+      <c r="R152">
+        <v>5</v>
+      </c>
+      <c r="S152">
+        <v>9</v>
+      </c>
+      <c r="T152">
+        <v>2.2</v>
+      </c>
+      <c r="U152">
+        <v>2.4</v>
+      </c>
+      <c r="V152">
+        <v>4.75</v>
+      </c>
+      <c r="W152">
+        <v>1.3</v>
+      </c>
+      <c r="X152">
+        <v>3.4</v>
+      </c>
+      <c r="Y152">
+        <v>2.5</v>
+      </c>
+      <c r="Z152">
+        <v>1.5</v>
+      </c>
+      <c r="AA152">
+        <v>6</v>
+      </c>
+      <c r="AB152">
+        <v>1.13</v>
+      </c>
+      <c r="AC152">
+        <v>1.62</v>
+      </c>
+      <c r="AD152">
+        <v>4</v>
+      </c>
+      <c r="AE152">
+        <v>4.75</v>
+      </c>
+      <c r="AF152">
+        <v>1.05</v>
+      </c>
+      <c r="AG152">
+        <v>9</v>
+      </c>
+      <c r="AH152">
+        <v>1.25</v>
+      </c>
+      <c r="AI152">
+        <v>3.75</v>
+      </c>
+      <c r="AJ152">
+        <v>1.58</v>
+      </c>
+      <c r="AK152">
+        <v>2.12</v>
+      </c>
+      <c r="AL152">
+        <v>1.67</v>
+      </c>
+      <c r="AM152">
+        <v>2.1</v>
+      </c>
+      <c r="AN152">
+        <v>1.12</v>
+      </c>
+      <c r="AO152">
+        <v>1.2</v>
+      </c>
+      <c r="AP152">
+        <v>1.95</v>
+      </c>
+      <c r="AQ152">
+        <v>2.25</v>
+      </c>
+      <c r="AR152">
+        <v>0.71</v>
+      </c>
+      <c r="AS152">
+        <v>2.11</v>
+      </c>
+      <c r="AT152">
+        <v>0.75</v>
+      </c>
+      <c r="AU152">
+        <v>1.75</v>
+      </c>
+      <c r="AV152">
+        <v>1.17</v>
+      </c>
+      <c r="AW152">
+        <v>2.92</v>
+      </c>
+      <c r="AX152">
+        <v>1.61</v>
+      </c>
+      <c r="AY152">
+        <v>7.5</v>
+      </c>
+      <c r="AZ152">
+        <v>2.9</v>
+      </c>
+      <c r="BA152">
+        <v>1.24</v>
+      </c>
+      <c r="BB152">
+        <v>1.46</v>
+      </c>
+      <c r="BC152">
+        <v>1.95</v>
+      </c>
+      <c r="BD152">
+        <v>2.4</v>
+      </c>
+      <c r="BE152">
+        <v>3.3</v>
+      </c>
+      <c r="BF152">
+        <v>5</v>
+      </c>
+      <c r="BG152">
+        <v>6</v>
+      </c>
+      <c r="BH152">
+        <v>7</v>
+      </c>
+      <c r="BI152">
+        <v>4</v>
+      </c>
+      <c r="BJ152">
+        <v>12</v>
+      </c>
+      <c r="BK152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2467724</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44878.39583333334</v>
+      </c>
+      <c r="F153">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>82</v>
+      </c>
+      <c r="H153" t="s">
+        <v>70</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>196</v>
+      </c>
+      <c r="P153" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q153">
+        <v>3</v>
+      </c>
+      <c r="R153">
+        <v>13</v>
+      </c>
+      <c r="S153">
+        <v>16</v>
+      </c>
+      <c r="T153">
+        <v>2.88</v>
+      </c>
+      <c r="U153">
+        <v>2.3</v>
+      </c>
+      <c r="V153">
+        <v>3.4</v>
+      </c>
+      <c r="W153">
+        <v>1.33</v>
+      </c>
+      <c r="X153">
+        <v>3.25</v>
+      </c>
+      <c r="Y153">
+        <v>2.5</v>
+      </c>
+      <c r="Z153">
+        <v>1.5</v>
+      </c>
+      <c r="AA153">
+        <v>6.5</v>
+      </c>
+      <c r="AB153">
+        <v>1.11</v>
+      </c>
+      <c r="AC153">
+        <v>2.25</v>
+      </c>
+      <c r="AD153">
+        <v>3.5</v>
+      </c>
+      <c r="AE153">
+        <v>2.9</v>
+      </c>
+      <c r="AF153">
+        <v>1.04</v>
+      </c>
+      <c r="AG153">
+        <v>10</v>
+      </c>
+      <c r="AH153">
+        <v>1.22</v>
+      </c>
+      <c r="AI153">
+        <v>4</v>
+      </c>
+      <c r="AJ153">
+        <v>1.63</v>
+      </c>
+      <c r="AK153">
+        <v>2.04</v>
+      </c>
+      <c r="AL153">
+        <v>1.57</v>
+      </c>
+      <c r="AM153">
+        <v>2.25</v>
+      </c>
+      <c r="AN153">
+        <v>1.35</v>
+      </c>
+      <c r="AO153">
+        <v>1.25</v>
+      </c>
+      <c r="AP153">
+        <v>1.57</v>
+      </c>
+      <c r="AQ153">
+        <v>1.29</v>
+      </c>
+      <c r="AR153">
+        <v>1.25</v>
+      </c>
+      <c r="AS153">
+        <v>1.5</v>
+      </c>
+      <c r="AT153">
+        <v>1.11</v>
+      </c>
+      <c r="AU153">
+        <v>1.53</v>
+      </c>
+      <c r="AV153">
+        <v>1.5</v>
+      </c>
+      <c r="AW153">
+        <v>3.03</v>
+      </c>
+      <c r="AX153">
+        <v>1.89</v>
+      </c>
+      <c r="AY153">
+        <v>7.5</v>
+      </c>
+      <c r="AZ153">
+        <v>2.3</v>
+      </c>
+      <c r="BA153">
+        <v>1.2</v>
+      </c>
+      <c r="BB153">
+        <v>1.33</v>
+      </c>
+      <c r="BC153">
+        <v>1.6</v>
+      </c>
+      <c r="BD153">
+        <v>2</v>
+      </c>
+      <c r="BE153">
+        <v>2.7</v>
+      </c>
+      <c r="BF153">
+        <v>5</v>
+      </c>
+      <c r="BG153">
+        <v>10</v>
+      </c>
+      <c r="BH153">
+        <v>13</v>
+      </c>
+      <c r="BI153">
+        <v>12</v>
+      </c>
+      <c r="BJ153">
+        <v>18</v>
+      </c>
+      <c r="BK153">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2467728</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44878.39583333334</v>
+      </c>
+      <c r="F154">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>77</v>
+      </c>
+      <c r="H154" t="s">
+        <v>71</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>197</v>
+      </c>
+      <c r="P154" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q154">
+        <v>10</v>
+      </c>
+      <c r="R154">
+        <v>6</v>
+      </c>
+      <c r="S154">
+        <v>16</v>
+      </c>
+      <c r="T154">
+        <v>3.6</v>
+      </c>
+      <c r="U154">
+        <v>2.38</v>
+      </c>
+      <c r="V154">
+        <v>2.63</v>
+      </c>
+      <c r="W154">
+        <v>1.3</v>
+      </c>
+      <c r="X154">
+        <v>3.4</v>
+      </c>
+      <c r="Y154">
+        <v>2.5</v>
+      </c>
+      <c r="Z154">
+        <v>1.5</v>
+      </c>
+      <c r="AA154">
+        <v>6</v>
+      </c>
+      <c r="AB154">
+        <v>1.13</v>
+      </c>
+      <c r="AC154">
+        <v>3.2</v>
+      </c>
+      <c r="AD154">
+        <v>3.6</v>
+      </c>
+      <c r="AE154">
+        <v>2.05</v>
+      </c>
+      <c r="AF154">
+        <v>1.04</v>
+      </c>
+      <c r="AG154">
+        <v>10</v>
+      </c>
+      <c r="AH154">
+        <v>1.2</v>
+      </c>
+      <c r="AI154">
+        <v>4.33</v>
+      </c>
+      <c r="AJ154">
+        <v>1.56</v>
+      </c>
+      <c r="AK154">
+        <v>2.15</v>
+      </c>
+      <c r="AL154">
+        <v>1.53</v>
+      </c>
+      <c r="AM154">
+        <v>2.38</v>
+      </c>
+      <c r="AN154">
+        <v>1.6</v>
+      </c>
+      <c r="AO154">
+        <v>1.22</v>
+      </c>
+      <c r="AP154">
+        <v>1.36</v>
+      </c>
+      <c r="AQ154">
+        <v>1</v>
+      </c>
+      <c r="AR154">
+        <v>1.14</v>
+      </c>
+      <c r="AS154">
+        <v>1.25</v>
+      </c>
+      <c r="AT154">
+        <v>1</v>
+      </c>
+      <c r="AU154">
+        <v>1.68</v>
+      </c>
+      <c r="AV154">
+        <v>1.53</v>
+      </c>
+      <c r="AW154">
+        <v>3.21</v>
+      </c>
+      <c r="AX154">
+        <v>2.25</v>
+      </c>
+      <c r="AY154">
+        <v>5.75</v>
+      </c>
+      <c r="AZ154">
+        <v>1.76</v>
+      </c>
+      <c r="BA154">
+        <v>1.2</v>
+      </c>
+      <c r="BB154">
+        <v>1.31</v>
+      </c>
+      <c r="BC154">
+        <v>1.55</v>
+      </c>
+      <c r="BD154">
+        <v>1.95</v>
+      </c>
+      <c r="BE154">
+        <v>2.6</v>
+      </c>
+      <c r="BF154">
+        <v>5</v>
+      </c>
+      <c r="BG154">
+        <v>4</v>
+      </c>
+      <c r="BH154">
+        <v>14</v>
+      </c>
+      <c r="BI154">
+        <v>16</v>
+      </c>
+      <c r="BJ154">
+        <v>19</v>
+      </c>
+      <c r="BK154">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.44</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU30" t="n">
         <v>1.3</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5600000000000001</v>
@@ -7602,7 +7602,7 @@
         <v>1.75</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.9</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT36" t="n">
         <v>0.75</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT48" t="n">
         <v>0.75</v>
@@ -10647,7 +10647,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU50" t="n">
         <v>2.15</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.38</v>
@@ -11256,7 +11256,7 @@
         <v>1.44</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.15</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>2.49</v>
@@ -14501,7 +14501,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT69" t="n">
         <v>1.44</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT70" t="n">
         <v>1.38</v>
@@ -16331,7 +16331,7 @@
         <v>1.11</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.62</v>
@@ -17143,7 +17143,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU82" t="n">
         <v>1.98</v>
@@ -18155,7 +18155,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT87" t="n">
         <v>0.5600000000000001</v>
@@ -18764,7 +18764,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>1.11</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU94" t="n">
         <v>1.72</v>
@@ -20391,7 +20391,7 @@
         <v>1.38</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -21403,7 +21403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT104" t="n">
         <v>2.13</v>
@@ -23639,7 +23639,7 @@
         <v>1.22</v>
       </c>
       <c r="AT114" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT116" t="n">
         <v>1.11</v>
@@ -24451,7 +24451,7 @@
         <v>1.78</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -26884,7 +26884,7 @@
         <v>0.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT130" t="n">
         <v>0.33</v>
@@ -27090,7 +27090,7 @@
         <v>2.5</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU131" t="n">
         <v>1.8</v>
@@ -27290,7 +27290,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT132" t="n">
         <v>1.44</v>
@@ -27902,7 +27902,7 @@
         <v>1.25</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.77</v>
@@ -30132,7 +30132,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT146" t="n">
         <v>2</v>
@@ -30538,7 +30538,7 @@
         <v>0.25</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT148" t="n">
         <v>0.33</v>
@@ -31556,7 +31556,7 @@
         <v>1.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.53</v>
@@ -31759,7 +31759,7 @@
         <v>1.25</v>
       </c>
       <c r="AT154" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU154" t="n">
         <v>1.68</v>
@@ -31811,6 +31811,412 @@
       </c>
       <c r="BK154" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2467741</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44953.60416666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>5</v>
+      </c>
+      <c r="S155" t="n">
+        <v>10</v>
+      </c>
+      <c r="T155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2467739</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44953.60416666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>5</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['9', '34', '84']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['6', '59']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>11</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>13</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5600000000000001</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT13" t="n">
         <v>0.88</v>
@@ -3339,7 +3339,7 @@
         <v>1.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT16" t="n">
         <v>0.33</v>
@@ -4151,7 +4151,7 @@
         <v>1.78</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT32" t="n">
         <v>0.88</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7805,7 +7805,7 @@
         <v>2.11</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>1.07</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU37" t="n">
         <v>1.56</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT44" t="n">
         <v>0.5600000000000001</v>
@@ -9835,7 +9835,7 @@
         <v>1.56</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10241,7 +10241,7 @@
         <v>2.11</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT49" t="n">
         <v>1.44</v>
@@ -10850,7 +10850,7 @@
         <v>1.1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU51" t="n">
         <v>2.57</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5600000000000001</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT57" t="n">
         <v>1.11</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT63" t="n">
         <v>0.5600000000000001</v>
@@ -13489,7 +13489,7 @@
         <v>1.38</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU64" t="n">
         <v>1.15</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>2.25</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU67" t="n">
         <v>2.64</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT68" t="n">
         <v>0.88</v>
@@ -14707,7 +14707,7 @@
         <v>2.11</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU70" t="n">
         <v>1.62</v>
@@ -15113,7 +15113,7 @@
         <v>0.88</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU72" t="n">
         <v>1.7</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16734,10 +16734,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT80" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT84" t="n">
         <v>2.25</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU86" t="n">
         <v>1.96</v>
@@ -18970,7 +18970,7 @@
         <v>0.88</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT95" t="n">
         <v>1.11</v>
@@ -20188,7 +20188,7 @@
         <v>1.78</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU97" t="n">
         <v>1.56</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT99" t="n">
         <v>1.22</v>
@@ -21000,7 +21000,7 @@
         <v>1.56</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU101" t="n">
         <v>1.81</v>
@@ -22012,7 +22012,7 @@
         <v>0.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT106" t="n">
         <v>0.5600000000000001</v>
@@ -22218,7 +22218,7 @@
         <v>1.44</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22621,7 +22621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT109" t="n">
         <v>1.44</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT110" t="n">
         <v>1.44</v>
@@ -23030,7 +23030,7 @@
         <v>1.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU111" t="n">
         <v>1.61</v>
@@ -24245,10 +24245,10 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
         <v>1.11</v>
@@ -25263,7 +25263,7 @@
         <v>1.44</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU122" t="n">
         <v>1.23</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT126" t="n">
         <v>0.88</v>
@@ -26478,7 +26478,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT128" t="n">
         <v>1.22</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT131" t="n">
         <v>1.22</v>
@@ -27496,7 +27496,7 @@
         <v>1.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU133" t="n">
         <v>1.48</v>
@@ -27699,7 +27699,7 @@
         <v>1.22</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU134" t="n">
         <v>1.75</v>
@@ -28105,7 +28105,7 @@
         <v>1.78</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28711,7 +28711,7 @@
         <v>1.25</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT139" t="n">
         <v>1.11</v>
@@ -30135,7 +30135,7 @@
         <v>2.11</v>
       </c>
       <c r="AT146" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU146" t="n">
         <v>1.72</v>
@@ -30335,7 +30335,7 @@
         <v>1.25</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT147" t="n">
         <v>1.22</v>
@@ -30944,10 +30944,10 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU150" t="n">
         <v>1.78</v>
@@ -31150,7 +31150,7 @@
         <v>1.22</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU151" t="n">
         <v>1.66</v>
@@ -31350,10 +31350,10 @@
         <v>0.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU152" t="n">
         <v>1.75</v>
@@ -32217,6 +32217,818 @@
       </c>
       <c r="BK156" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2467736</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44954.375</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['80', '88']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>5</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2467738</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44954.375</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['46', '84']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>12</v>
+      </c>
+      <c r="R158" t="n">
+        <v>6</v>
+      </c>
+      <c r="S158" t="n">
+        <v>18</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2467735</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44954.375</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['18', '29']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>4</v>
+      </c>
+      <c r="R159" t="n">
+        <v>3</v>
+      </c>
+      <c r="S159" t="n">
+        <v>7</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2467740</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44954.6875</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['49', '66', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>7</v>
+      </c>
+      <c r="R160" t="n">
+        <v>5</v>
+      </c>
+      <c r="S160" t="n">
+        <v>12</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>2.2</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.56</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -3745,7 +3745,7 @@
         <v>1.89</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT18" t="n">
         <v>1.22</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT24" t="n">
         <v>1.44</v>
@@ -6181,7 +6181,7 @@
         <v>1.44</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU28" t="n">
         <v>1.36</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT29" t="n">
         <v>1.44</v>
@@ -6790,7 +6790,7 @@
         <v>1.1</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU31" t="n">
         <v>2.53</v>
@@ -6993,7 +6993,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU32" t="n">
         <v>1.39</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT33" t="n">
         <v>2.25</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT38" t="n">
         <v>2.13</v>
@@ -9632,7 +9632,7 @@
         <v>1.11</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU45" t="n">
         <v>1.61</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU47" t="n">
         <v>1.44</v>
@@ -11050,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT52" t="n">
         <v>2.25</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU55" t="n">
         <v>1.78</v>
@@ -12271,7 +12271,7 @@
         <v>1.56</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU58" t="n">
         <v>2.14</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT61" t="n">
         <v>0.88</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT65" t="n">
         <v>0.5600000000000001</v>
@@ -14301,7 +14301,7 @@
         <v>1.89</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU68" t="n">
         <v>1.63</v>
@@ -14910,7 +14910,7 @@
         <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU71" t="n">
         <v>2.15</v>
@@ -16125,7 +16125,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
         <v>1.44</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT79" t="n">
         <v>1.11</v>
@@ -16940,7 +16940,7 @@
         <v>1.44</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU81" t="n">
         <v>1.13</v>
@@ -17752,7 +17752,7 @@
         <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -18564,7 +18564,7 @@
         <v>1.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.36</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT92" t="n">
         <v>0.88</v>
@@ -19985,7 +19985,7 @@
         <v>1.22</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU96" t="n">
         <v>1.83</v>
@@ -20185,7 +20185,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT97" t="n">
         <v>2.11</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT100" t="n">
         <v>1.44</v>
@@ -21812,7 +21812,7 @@
         <v>0.88</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU105" t="n">
         <v>1.78</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU108" t="n">
         <v>2.51</v>
@@ -23233,7 +23233,7 @@
         <v>1.44</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU112" t="n">
         <v>1.19</v>
@@ -23433,7 +23433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT113" t="n">
         <v>1.22</v>
@@ -23839,10 +23839,10 @@
         <v>0.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU115" t="n">
         <v>1.51</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -26278,7 +26278,7 @@
         <v>1.38</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU127" t="n">
         <v>1.42</v>
@@ -26684,7 +26684,7 @@
         <v>1.11</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU129" t="n">
         <v>1.54</v>
@@ -26887,7 +26887,7 @@
         <v>2.11</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU130" t="n">
         <v>1.74</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT133" t="n">
         <v>2.11</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT136" t="n">
         <v>0.67</v>
@@ -29729,7 +29729,7 @@
         <v>1.44</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU144" t="n">
         <v>1.29</v>
@@ -30541,7 +30541,7 @@
         <v>1.1</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU148" t="n">
         <v>2.02</v>
@@ -30741,10 +30741,10 @@
         <v>0.63</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU149" t="n">
         <v>1.97</v>
@@ -31553,7 +31553,7 @@
         <v>1.25</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -31756,7 +31756,7 @@
         <v>1.14</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT154" t="n">
         <v>1.22</v>
@@ -33029,6 +33029,615 @@
       </c>
       <c r="BK160" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2467737</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44955.39583333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2</v>
+      </c>
+      <c r="S161" t="n">
+        <v>4</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2467734</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44955.39583333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>3</v>
+      </c>
+      <c r="L162" t="n">
+        <v>4</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>6</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['3', '17', '49', '90+2']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['30', '81']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>8</v>
+      </c>
+      <c r="R162" t="n">
+        <v>7</v>
+      </c>
+      <c r="S162" t="n">
+        <v>15</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V162" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2467733</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44955.39583333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2</v>
+      </c>
+      <c r="K163" t="n">
+        <v>3</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['13', '33']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>3</v>
+      </c>
+      <c r="R163" t="n">
+        <v>4</v>
+      </c>
+      <c r="S163" t="n">
+        <v>7</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>4</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT2" t="n">
         <v>1.22</v>
@@ -1106,7 +1106,7 @@
         <v>1.56</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.88</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT8" t="n">
         <v>0.88</v>
@@ -2324,7 +2324,7 @@
         <v>1.11</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.65</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT23" t="n">
         <v>1.22</v>
@@ -5369,7 +5369,7 @@
         <v>1.9</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5572,7 +5572,7 @@
         <v>1.11</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU25" t="n">
         <v>1.57</v>
@@ -5775,7 +5775,7 @@
         <v>0.88</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
         <v>0.6</v>
@@ -6384,7 +6384,7 @@
         <v>1.11</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU29" t="n">
         <v>1.57</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT30" t="n">
         <v>1.22</v>
@@ -8211,7 +8211,7 @@
         <v>1.9</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU38" t="n">
         <v>1.68</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU40" t="n">
         <v>2.68</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT41" t="n">
         <v>0.88</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.57</v>
@@ -9429,7 +9429,7 @@
         <v>2.56</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU44" t="n">
         <v>2</v>
@@ -10444,7 +10444,7 @@
         <v>2.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>2.56</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>2.18</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU59" t="n">
         <v>1.15</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -13286,7 +13286,7 @@
         <v>2.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU63" t="n">
         <v>1.68</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT64" t="n">
         <v>2.11</v>
@@ -13692,7 +13692,7 @@
         <v>1.11</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU65" t="n">
         <v>1.51</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT67" t="n">
         <v>0.67</v>
@@ -14504,7 +14504,7 @@
         <v>1.1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU69" t="n">
         <v>2.53</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU73" t="n">
         <v>1.23</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT74" t="n">
         <v>1.22</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT75" t="n">
         <v>0.88</v>
@@ -16128,7 +16128,7 @@
         <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16534,7 +16534,7 @@
         <v>1.9</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.76</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT81" t="n">
         <v>0.6</v>
@@ -17343,10 +17343,10 @@
         <v>1.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU83" t="n">
         <v>2.6</v>
@@ -18158,7 +18158,7 @@
         <v>2.11</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU87" t="n">
         <v>1.61</v>
@@ -18361,7 +18361,7 @@
         <v>1.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU88" t="n">
         <v>2.32</v>
@@ -18561,7 +18561,7 @@
         <v>0.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT89" t="n">
         <v>0.78</v>
@@ -19373,7 +19373,7 @@
         <v>0.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT93" t="n">
         <v>0.67</v>
@@ -19782,7 +19782,7 @@
         <v>2.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.59</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT96" t="n">
         <v>0.6</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>1.11</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU100" t="n">
         <v>1.7</v>
@@ -21609,7 +21609,7 @@
         <v>1.1</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU104" t="n">
         <v>2.36</v>
@@ -22015,7 +22015,7 @@
         <v>1.89</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,7 +22215,7 @@
         <v>0.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT107" t="n">
         <v>0.67</v>
@@ -22418,7 +22418,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8</v>
@@ -22624,7 +22624,7 @@
         <v>1.67</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -22827,7 +22827,7 @@
         <v>2.2</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT112" t="n">
         <v>0.8</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT114" t="n">
         <v>1.22</v>
@@ -24045,7 +24045,7 @@
         <v>1.1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU116" t="n">
         <v>2.15</v>
@@ -24654,7 +24654,7 @@
         <v>0.88</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24857,7 +24857,7 @@
         <v>1.56</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU120" t="n">
         <v>1.86</v>
@@ -25060,7 +25060,7 @@
         <v>1.67</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.92</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT122" t="n">
         <v>1.22</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25669,7 +25669,7 @@
         <v>1.75</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -25869,7 +25869,7 @@
         <v>2.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT125" t="n">
         <v>2.25</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT127" t="n">
         <v>0.78</v>
@@ -27293,7 +27293,7 @@
         <v>1.1</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU132" t="n">
         <v>2.06</v>
@@ -27696,7 +27696,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT134" t="n">
         <v>0.67</v>
@@ -28308,7 +28308,7 @@
         <v>1.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU137" t="n">
         <v>2.18</v>
@@ -28508,10 +28508,10 @@
         <v>0.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU138" t="n">
         <v>2.36</v>
@@ -28714,7 +28714,7 @@
         <v>1.89</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.49</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT140" t="n">
         <v>0.88</v>
@@ -29523,10 +29523,10 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU143" t="n">
         <v>1.49</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT144" t="n">
         <v>0.78</v>
@@ -29932,7 +29932,7 @@
         <v>0.88</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -31147,7 +31147,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT151" t="n">
         <v>1.22</v>
@@ -33638,6 +33638,1021 @@
       </c>
       <c r="BK163" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2467746</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44960.60416666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>4</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['6', '25', '55', '89']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>3</v>
+      </c>
+      <c r="R164" t="n">
+        <v>7</v>
+      </c>
+      <c r="S164" t="n">
+        <v>10</v>
+      </c>
+      <c r="T164" t="n">
+        <v>4</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2467744</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44960.60416666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>4</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>5</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['37', '62', '68', '81']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>6</v>
+      </c>
+      <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>10</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2467750</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44961.375</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['6', '71']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>8</v>
+      </c>
+      <c r="R166" t="n">
+        <v>3</v>
+      </c>
+      <c r="S166" t="n">
+        <v>11</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2467749</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44961.375</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['72', '90']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>9</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2467747</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44961.375</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3</v>
+      </c>
+      <c r="N168" t="n">
+        <v>4</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['14', '85', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2</v>
+      </c>
+      <c r="S168" t="n">
+        <v>4</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT3" t="n">
         <v>1.3</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>2.1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.3</v>
@@ -2527,7 +2527,7 @@
         <v>1.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU20" t="n">
         <v>2.61</v>
@@ -4963,7 +4963,7 @@
         <v>1.3</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU22" t="n">
         <v>1.38</v>
@@ -5166,7 +5166,7 @@
         <v>2.1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU23" t="n">
         <v>2.05</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0.8</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT26" t="n">
         <v>1.3</v>
@@ -7196,7 +7196,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU33" t="n">
         <v>1.26</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.5</v>
@@ -8820,7 +8820,7 @@
         <v>1.3</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9023,7 +9023,7 @@
         <v>1.22</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU42" t="n">
         <v>1.3</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>0.6</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT46" t="n">
         <v>2.11</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT50" t="n">
         <v>1.22</v>
@@ -11053,7 +11053,7 @@
         <v>1.11</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU52" t="n">
         <v>1.36</v>
@@ -11865,7 +11865,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT58" t="n">
         <v>0.6</v>
@@ -12880,7 +12880,7 @@
         <v>1.9</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU61" t="n">
         <v>1.67</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.54</v>
@@ -13895,7 +13895,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.58</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT71" t="n">
         <v>0.8</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT72" t="n">
         <v>0.67</v>
@@ -15519,7 +15519,7 @@
         <v>1.22</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.22</v>
@@ -15722,7 +15722,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU75" t="n">
         <v>1.73</v>
@@ -15925,7 +15925,7 @@
         <v>2.2</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU76" t="n">
         <v>1.68</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT82" t="n">
         <v>1.22</v>
@@ -17549,7 +17549,7 @@
         <v>1.89</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT85" t="n">
         <v>0.8</v>
@@ -18358,7 +18358,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT88" t="n">
         <v>1.3</v>
@@ -18767,7 +18767,7 @@
         <v>1.1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU90" t="n">
         <v>2.36</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT91" t="n">
         <v>0.67</v>
@@ -19173,7 +19173,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT94" t="n">
         <v>1.22</v>
@@ -20594,7 +20594,7 @@
         <v>2.56</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT101" t="n">
         <v>1.22</v>
@@ -21200,10 +21200,10 @@
         <v>3</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU102" t="n">
         <v>2.09</v>
@@ -21406,7 +21406,7 @@
         <v>2.11</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -21809,7 +21809,7 @@
         <v>0.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT105" t="n">
         <v>0.78</v>
@@ -23027,7 +23027,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
         <v>2.11</v>
@@ -23436,7 +23436,7 @@
         <v>1.11</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -24651,7 +24651,7 @@
         <v>1.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT119" t="n">
         <v>1.3</v>
@@ -24854,7 +24854,7 @@
         <v>0.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT120" t="n">
         <v>0.8</v>
@@ -25466,7 +25466,7 @@
         <v>1.6</v>
       </c>
       <c r="AT123" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -25666,7 +25666,7 @@
         <v>2.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT124" t="n">
         <v>2.22</v>
@@ -25872,7 +25872,7 @@
         <v>2.1</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU125" t="n">
         <v>2.42</v>
@@ -26075,7 +26075,7 @@
         <v>1.89</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26481,7 +26481,7 @@
         <v>2.2</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.68</v>
@@ -26681,7 +26681,7 @@
         <v>0.29</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
         <v>0.8</v>
@@ -28305,7 +28305,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT137" t="n">
         <v>1.3</v>
@@ -28917,7 +28917,7 @@
         <v>1.6</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU140" t="n">
         <v>1.57</v>
@@ -29117,10 +29117,10 @@
         <v>2.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU141" t="n">
         <v>1.87</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT145" t="n">
         <v>2.22</v>
@@ -30338,7 +30338,7 @@
         <v>1.67</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU147" t="n">
         <v>1.84</v>
@@ -34653,6 +34653,818 @@
       </c>
       <c r="BK168" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2467742</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44961.6875</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>4</v>
+      </c>
+      <c r="R169" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" t="n">
+        <v>7</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V169" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2467743</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44962.39583333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['17', '27']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>8</v>
+      </c>
+      <c r="R170" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" t="n">
+        <v>11</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V170" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2467745</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44962.39583333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['40', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3</v>
+      </c>
+      <c r="R171" t="n">
+        <v>7</v>
+      </c>
+      <c r="S171" t="n">
+        <v>10</v>
+      </c>
+      <c r="T171" t="n">
+        <v>4</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2467748</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44962.39583333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>8</v>
+      </c>
+      <c r="R172" t="n">
+        <v>4</v>
+      </c>
+      <c r="S172" t="n">
+        <v>12</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,9 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['36', '73']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -926,6 +929,9 @@
   </si>
   <si>
     <t>['40', '90+4']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,7 +1537,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1722,7 +1728,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1913,7 +1919,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2104,7 +2110,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2486,7 +2492,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3059,7 +3065,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3441,7 +3447,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3913,7 +3919,7 @@
         <v>1.11</v>
       </c>
       <c r="AT14">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4014,7 +4020,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4205,7 +4211,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4396,7 +4402,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4483,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4677,7 +4683,7 @@
         <v>1.9</v>
       </c>
       <c r="AT18">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4778,7 +4784,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4865,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT19">
         <v>0.67</v>
@@ -4969,7 +4975,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5542,7 +5548,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6115,7 +6121,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6306,7 +6312,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6497,7 +6503,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6688,7 +6694,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6879,7 +6885,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7070,7 +7076,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7157,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT31">
         <v>0.8</v>
@@ -7452,7 +7458,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7539,7 +7545,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT33">
         <v>2.33</v>
@@ -7733,7 +7739,7 @@
         <v>2.2</v>
       </c>
       <c r="AT34">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU34">
         <v>1.15</v>
@@ -8025,7 +8031,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8115,7 +8121,7 @@
         <v>2.11</v>
       </c>
       <c r="AT36">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU36">
         <v>1.07</v>
@@ -8407,7 +8413,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8598,7 +8604,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8789,7 +8795,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8980,7 +8986,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9171,7 +9177,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9362,7 +9368,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9553,7 +9559,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9935,7 +9941,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10126,7 +10132,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10213,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT47">
         <v>0.78</v>
@@ -10508,7 +10514,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10699,7 +10705,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10977,10 +10983,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT51">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU51">
         <v>2.57</v>
@@ -11081,7 +11087,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11272,7 +11278,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11463,7 +11469,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11553,7 +11559,7 @@
         <v>1.89</v>
       </c>
       <c r="AT54">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU54">
         <v>1.75</v>
@@ -11845,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12036,7 +12042,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12227,7 +12233,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12991,7 +12997,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13755,7 +13761,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14415,7 +14421,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
         <v>1.3</v>
@@ -14519,7 +14525,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14609,7 +14615,7 @@
         <v>2.11</v>
       </c>
       <c r="AT70">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>1.62</v>
@@ -14710,7 +14716,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -14991,7 +14997,7 @@
         <v>0.89</v>
       </c>
       <c r="AT72">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU72">
         <v>1.7</v>
@@ -15092,7 +15098,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15283,7 +15289,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15474,7 +15480,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15856,7 +15862,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15943,7 +15949,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT77">
         <v>1.3</v>
@@ -16811,7 +16817,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17002,7 +17008,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17193,7 +17199,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17384,7 +17390,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17575,7 +17581,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17665,7 +17671,7 @@
         <v>1.67</v>
       </c>
       <c r="AT86">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU86">
         <v>1.96</v>
@@ -17766,7 +17772,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18426,7 +18432,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT90">
         <v>0.9</v>
@@ -18721,7 +18727,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18808,7 +18814,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT92">
         <v>0.89</v>
@@ -18912,7 +18918,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19002,7 +19008,7 @@
         <v>1.3</v>
       </c>
       <c r="AT93">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU93">
         <v>1.11</v>
@@ -19103,7 +19109,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19676,7 +19682,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20058,7 +20064,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20249,7 +20255,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20440,7 +20446,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20530,7 +20536,7 @@
         <v>1.7</v>
       </c>
       <c r="AT101">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU101">
         <v>1.81</v>
@@ -20822,7 +20828,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21013,7 +21019,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21100,7 +21106,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT104">
         <v>2.22</v>
@@ -21204,7 +21210,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21586,7 +21592,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21968,7 +21974,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22159,7 +22165,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22350,7 +22356,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22541,7 +22547,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23201,7 +23207,7 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT115">
         <v>0.6</v>
@@ -23305,7 +23311,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23392,7 +23398,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23586,7 +23592,7 @@
         <v>2.56</v>
       </c>
       <c r="AT117">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU117">
         <v>1.86</v>
@@ -23687,7 +23693,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23878,7 +23884,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24260,7 +24266,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24451,7 +24457,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24541,7 +24547,7 @@
         <v>1.3</v>
       </c>
       <c r="AT122">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU122">
         <v>1.23</v>
@@ -24833,7 +24839,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25024,7 +25030,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25406,7 +25412,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25788,7 +25794,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -26361,7 +26367,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26448,7 +26454,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT132">
         <v>1.3</v>
@@ -26552,7 +26558,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26639,7 +26645,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT133">
         <v>2.11</v>
@@ -26743,7 +26749,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26833,7 +26839,7 @@
         <v>1.4</v>
       </c>
       <c r="AT134">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU134">
         <v>1.75</v>
@@ -26934,7 +26940,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27125,7 +27131,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27507,7 +27513,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28271,7 +28277,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28462,7 +28468,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28653,7 +28659,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28844,7 +28850,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29035,7 +29041,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29226,7 +29232,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29417,7 +29423,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29504,7 +29510,7 @@
         <v>0.25</v>
       </c>
       <c r="AS148">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT148">
         <v>0.6</v>
@@ -29608,7 +29614,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29799,7 +29805,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29990,7 +29996,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30080,7 +30086,7 @@
         <v>1.4</v>
       </c>
       <c r="AT151">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU151">
         <v>1.66</v>
@@ -30271,7 +30277,7 @@
         <v>2.2</v>
       </c>
       <c r="AT152">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU152">
         <v>1.75</v>
@@ -30372,7 +30378,7 @@
         <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30459,7 +30465,7 @@
         <v>1.25</v>
       </c>
       <c r="AS153">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT153">
         <v>1</v>
@@ -30754,7 +30760,7 @@
         <v>90</v>
       </c>
       <c r="P155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30841,7 +30847,7 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
         <v>1.22</v>
@@ -30945,7 +30951,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31226,7 +31232,7 @@
         <v>2.56</v>
       </c>
       <c r="AT157">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31417,7 +31423,7 @@
         <v>1.67</v>
       </c>
       <c r="AT158">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU158">
         <v>1.8</v>
@@ -31709,7 +31715,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32091,7 +32097,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32282,7 +32288,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32369,7 +32375,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT163">
         <v>0.8</v>
@@ -32473,7 +32479,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32664,7 +32670,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33237,7 +33243,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33810,7 +33816,7 @@
         <v>90</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34143,6 +34149,388 @@
       </c>
       <c r="BK172">
         <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2467751</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44967.60416666666</v>
+      </c>
+      <c r="F173">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>82</v>
+      </c>
+      <c r="H173" t="s">
+        <v>72</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>90</v>
+      </c>
+      <c r="P173" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q173">
+        <v>6</v>
+      </c>
+      <c r="R173">
+        <v>10</v>
+      </c>
+      <c r="S173">
+        <v>16</v>
+      </c>
+      <c r="T173">
+        <v>2.8</v>
+      </c>
+      <c r="U173">
+        <v>2.05</v>
+      </c>
+      <c r="V173">
+        <v>3.6</v>
+      </c>
+      <c r="W173">
+        <v>1.41</v>
+      </c>
+      <c r="X173">
+        <v>2.65</v>
+      </c>
+      <c r="Y173">
+        <v>2.85</v>
+      </c>
+      <c r="Z173">
+        <v>1.37</v>
+      </c>
+      <c r="AA173">
+        <v>7.25</v>
+      </c>
+      <c r="AB173">
+        <v>1.08</v>
+      </c>
+      <c r="AC173">
+        <v>2.5</v>
+      </c>
+      <c r="AD173">
+        <v>3.1</v>
+      </c>
+      <c r="AE173">
+        <v>2.5</v>
+      </c>
+      <c r="AF173">
+        <v>1.05</v>
+      </c>
+      <c r="AG173">
+        <v>9</v>
+      </c>
+      <c r="AH173">
+        <v>1.3</v>
+      </c>
+      <c r="AI173">
+        <v>3.3</v>
+      </c>
+      <c r="AJ173">
+        <v>1.77</v>
+      </c>
+      <c r="AK173">
+        <v>1.87</v>
+      </c>
+      <c r="AL173">
+        <v>1.73</v>
+      </c>
+      <c r="AM173">
+        <v>1.95</v>
+      </c>
+      <c r="AN173">
+        <v>1.35</v>
+      </c>
+      <c r="AO173">
+        <v>1.31</v>
+      </c>
+      <c r="AP173">
+        <v>1.62</v>
+      </c>
+      <c r="AQ173">
+        <v>1.33</v>
+      </c>
+      <c r="AR173">
+        <v>1.22</v>
+      </c>
+      <c r="AS173">
+        <v>1.2</v>
+      </c>
+      <c r="AT173">
+        <v>1.4</v>
+      </c>
+      <c r="AU173">
+        <v>1.62</v>
+      </c>
+      <c r="AV173">
+        <v>1.23</v>
+      </c>
+      <c r="AW173">
+        <v>2.85</v>
+      </c>
+      <c r="AX173">
+        <v>1.69</v>
+      </c>
+      <c r="AY173">
+        <v>8.5</v>
+      </c>
+      <c r="AZ173">
+        <v>2.53</v>
+      </c>
+      <c r="BA173">
+        <v>1.18</v>
+      </c>
+      <c r="BB173">
+        <v>1.43</v>
+      </c>
+      <c r="BC173">
+        <v>1.7</v>
+      </c>
+      <c r="BD173">
+        <v>2.1</v>
+      </c>
+      <c r="BE173">
+        <v>2.63</v>
+      </c>
+      <c r="BF173">
+        <v>3</v>
+      </c>
+      <c r="BG173">
+        <v>6</v>
+      </c>
+      <c r="BH173">
+        <v>9</v>
+      </c>
+      <c r="BI173">
+        <v>8</v>
+      </c>
+      <c r="BJ173">
+        <v>12</v>
+      </c>
+      <c r="BK173">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2467759</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44967.60416666666</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>80</v>
+      </c>
+      <c r="H174" t="s">
+        <v>66</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>210</v>
+      </c>
+      <c r="P174" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q174">
+        <v>4</v>
+      </c>
+      <c r="R174">
+        <v>5</v>
+      </c>
+      <c r="S174">
+        <v>9</v>
+      </c>
+      <c r="T174">
+        <v>2.9</v>
+      </c>
+      <c r="U174">
+        <v>2.15</v>
+      </c>
+      <c r="V174">
+        <v>3.3</v>
+      </c>
+      <c r="W174">
+        <v>1.37</v>
+      </c>
+      <c r="X174">
+        <v>2.85</v>
+      </c>
+      <c r="Y174">
+        <v>2.75</v>
+      </c>
+      <c r="Z174">
+        <v>1.39</v>
+      </c>
+      <c r="AA174">
+        <v>7</v>
+      </c>
+      <c r="AB174">
+        <v>1.08</v>
+      </c>
+      <c r="AC174">
+        <v>2.2</v>
+      </c>
+      <c r="AD174">
+        <v>3.3</v>
+      </c>
+      <c r="AE174">
+        <v>2.7</v>
+      </c>
+      <c r="AF174">
+        <v>1.05</v>
+      </c>
+      <c r="AG174">
+        <v>9</v>
+      </c>
+      <c r="AH174">
+        <v>1.28</v>
+      </c>
+      <c r="AI174">
+        <v>3.5</v>
+      </c>
+      <c r="AJ174">
+        <v>1.8</v>
+      </c>
+      <c r="AK174">
+        <v>1.91</v>
+      </c>
+      <c r="AL174">
+        <v>1.68</v>
+      </c>
+      <c r="AM174">
+        <v>2.1</v>
+      </c>
+      <c r="AN174">
+        <v>1.35</v>
+      </c>
+      <c r="AO174">
+        <v>1.25</v>
+      </c>
+      <c r="AP174">
+        <v>1.57</v>
+      </c>
+      <c r="AQ174">
+        <v>1.1</v>
+      </c>
+      <c r="AR174">
+        <v>0.67</v>
+      </c>
+      <c r="AS174">
+        <v>1.27</v>
+      </c>
+      <c r="AT174">
+        <v>0.6</v>
+      </c>
+      <c r="AU174">
+        <v>1.92</v>
+      </c>
+      <c r="AV174">
+        <v>1.24</v>
+      </c>
+      <c r="AW174">
+        <v>3.16</v>
+      </c>
+      <c r="AX174">
+        <v>1.75</v>
+      </c>
+      <c r="AY174">
+        <v>8</v>
+      </c>
+      <c r="AZ174">
+        <v>2.44</v>
+      </c>
+      <c r="BA174">
+        <v>1.2</v>
+      </c>
+      <c r="BB174">
+        <v>1.48</v>
+      </c>
+      <c r="BC174">
+        <v>1.73</v>
+      </c>
+      <c r="BD174">
+        <v>2.1</v>
+      </c>
+      <c r="BE174">
+        <v>2.7</v>
+      </c>
+      <c r="BF174">
+        <v>8</v>
+      </c>
+      <c r="BG174">
+        <v>6</v>
+      </c>
+      <c r="BH174">
+        <v>12</v>
+      </c>
+      <c r="BI174">
+        <v>7</v>
+      </c>
+      <c r="BJ174">
+        <v>20</v>
+      </c>
+      <c r="BK174">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="314">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,21 @@
     <t>['36', '73']</t>
   </si>
   <si>
+    <t>['2', '4', '83']</t>
+  </si>
+  <si>
+    <t>['33', '54']</t>
+  </si>
+  <si>
+    <t>['27', '30', '41']</t>
+  </si>
+  <si>
+    <t>['82', '90+1']</t>
+  </si>
+  <si>
+    <t>['85', '88']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -932,6 +947,15 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['6', '26', '55', '71']</t>
+  </si>
+  <si>
+    <t>['45', '70', '86']</t>
+  </si>
+  <si>
+    <t>['72', '79', '88']</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1561,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1728,7 +1752,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1919,7 +1943,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2006,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.9</v>
@@ -2110,7 +2134,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2492,7 +2516,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3065,7 +3089,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3155,7 +3179,7 @@
         <v>1.4</v>
       </c>
       <c r="AT10">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3343,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT11">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3447,7 +3471,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3534,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT12">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3725,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT13">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3916,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT14">
         <v>0.6</v>
@@ -4020,7 +4044,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4107,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4211,7 +4235,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4298,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT16">
         <v>0.6</v>
@@ -4402,7 +4426,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4492,7 +4516,7 @@
         <v>1.27</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4784,7 +4808,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4874,7 +4898,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4975,7 +4999,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5548,7 +5572,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6121,7 +6145,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6312,7 +6336,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6503,7 +6527,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6694,7 +6718,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6781,7 +6805,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT29">
         <v>1.3</v>
@@ -6885,7 +6909,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6975,7 +6999,7 @@
         <v>1.6</v>
       </c>
       <c r="AT30">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU30">
         <v>1.3</v>
@@ -7076,7 +7100,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7166,7 +7190,7 @@
         <v>1.27</v>
       </c>
       <c r="AT31">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU31">
         <v>2.53</v>
@@ -7354,10 +7378,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU32">
         <v>1.39</v>
@@ -7458,7 +7482,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7548,7 +7572,7 @@
         <v>1.2</v>
       </c>
       <c r="AT33">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU33">
         <v>1.26</v>
@@ -7736,7 +7760,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT34">
         <v>1.4</v>
@@ -7927,10 +7951,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU35">
         <v>1.9</v>
@@ -8031,7 +8055,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8118,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT36">
         <v>0.6</v>
@@ -8309,10 +8333,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT37">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8413,7 +8437,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8604,7 +8628,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8795,7 +8819,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8986,7 +9010,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9177,7 +9201,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9368,7 +9392,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9559,7 +9583,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9646,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT44">
         <v>0.8</v>
@@ -9941,7 +9965,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10031,7 +10055,7 @@
         <v>1.7</v>
       </c>
       <c r="AT46">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU46">
         <v>1.96</v>
@@ -10132,7 +10156,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10222,7 +10246,7 @@
         <v>1.2</v>
       </c>
       <c r="AT47">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU47">
         <v>1.44</v>
@@ -10410,10 +10434,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT48">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -10514,7 +10538,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10601,7 +10625,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT49">
         <v>1.3</v>
@@ -10705,7 +10729,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10792,10 +10816,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT50">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU50">
         <v>2.15</v>
@@ -11087,7 +11111,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11174,10 +11198,10 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT52">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU52">
         <v>1.36</v>
@@ -11278,7 +11302,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11368,7 +11392,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU53">
         <v>1.15</v>
@@ -11469,7 +11493,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11556,7 +11580,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT54">
         <v>0.6</v>
@@ -11747,10 +11771,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU55">
         <v>1.78</v>
@@ -11851,7 +11875,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12042,7 +12066,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12129,7 +12153,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12233,7 +12257,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12705,7 +12729,7 @@
         <v>2.1</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU60">
         <v>2.49</v>
@@ -12997,7 +13021,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13275,7 +13299,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT63">
         <v>0.8</v>
@@ -13469,7 +13493,7 @@
         <v>1.22</v>
       </c>
       <c r="AT64">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU64">
         <v>1.15</v>
@@ -13657,7 +13681,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT65">
         <v>0.8</v>
@@ -13761,7 +13785,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13848,10 +13872,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU66">
         <v>1.58</v>
@@ -14042,7 +14066,7 @@
         <v>2.1</v>
       </c>
       <c r="AT67">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU67">
         <v>2.64</v>
@@ -14230,10 +14254,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT68">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU68">
         <v>1.63</v>
@@ -14525,7 +14549,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14612,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT70">
         <v>1.4</v>
@@ -14716,7 +14740,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -14803,10 +14827,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU71">
         <v>2.15</v>
@@ -15098,7 +15122,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15289,7 +15313,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15480,7 +15504,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15758,7 +15782,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT76">
         <v>0.9</v>
@@ -15862,7 +15886,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16143,7 +16167,7 @@
         <v>1</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU78">
         <v>1.62</v>
@@ -16522,10 +16546,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT80">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU80">
         <v>1.9</v>
@@ -16817,7 +16841,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16907,7 +16931,7 @@
         <v>1.7</v>
       </c>
       <c r="AT82">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU82">
         <v>1.98</v>
@@ -17008,7 +17032,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17199,7 +17223,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17286,10 +17310,10 @@
         <v>3</v>
       </c>
       <c r="AS84">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT84">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17390,7 +17414,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17480,7 +17504,7 @@
         <v>1.7</v>
       </c>
       <c r="AT85">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17581,7 +17605,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17668,7 +17692,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
         <v>1.4</v>
@@ -17772,7 +17796,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17859,7 +17883,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT87">
         <v>0.8</v>
@@ -18050,7 +18074,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>1.3</v>
@@ -18244,7 +18268,7 @@
         <v>1.6</v>
       </c>
       <c r="AT89">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU89">
         <v>1.36</v>
@@ -18626,7 +18650,7 @@
         <v>0.89</v>
       </c>
       <c r="AT91">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU91">
         <v>1.73</v>
@@ -18727,7 +18751,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18918,7 +18942,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19109,7 +19133,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19199,7 +19223,7 @@
         <v>1</v>
       </c>
       <c r="AT94">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU94">
         <v>1.72</v>
@@ -19387,7 +19411,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT95">
         <v>1</v>
@@ -19682,7 +19706,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19772,7 +19796,7 @@
         <v>1.9</v>
       </c>
       <c r="AT97">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU97">
         <v>1.56</v>
@@ -19963,7 +19987,7 @@
         <v>1.22</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU98">
         <v>1.45</v>
@@ -20064,7 +20088,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20151,7 +20175,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT99">
         <v>1.1</v>
@@ -20255,7 +20279,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20342,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT100">
         <v>1.3</v>
@@ -20446,7 +20470,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20724,10 +20748,10 @@
         <v>3</v>
       </c>
       <c r="AS102">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT102">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU102">
         <v>2.09</v>
@@ -20828,7 +20852,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20915,7 +20939,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT103">
         <v>0.9</v>
@@ -21019,7 +21043,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21210,7 +21234,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21300,7 +21324,7 @@
         <v>0.89</v>
       </c>
       <c r="AT105">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU105">
         <v>1.78</v>
@@ -21488,7 +21512,7 @@
         <v>0.33</v>
       </c>
       <c r="AS106">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT106">
         <v>0.8</v>
@@ -21592,7 +21616,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21682,7 +21706,7 @@
         <v>1.6</v>
       </c>
       <c r="AT107">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -21873,7 +21897,7 @@
         <v>2.1</v>
       </c>
       <c r="AT108">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU108">
         <v>2.51</v>
@@ -21974,7 +21998,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22061,7 +22085,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
         <v>1.3</v>
@@ -22165,7 +22189,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22252,7 +22276,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT110">
         <v>1.3</v>
@@ -22356,7 +22380,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22446,7 +22470,7 @@
         <v>1</v>
       </c>
       <c r="AT111">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU111">
         <v>1.61</v>
@@ -22547,7 +22571,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22637,7 +22661,7 @@
         <v>1.3</v>
       </c>
       <c r="AT112">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU112">
         <v>1.19</v>
@@ -22825,7 +22849,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT113">
         <v>1.1</v>
@@ -23019,7 +23043,7 @@
         <v>1.4</v>
       </c>
       <c r="AT114">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -23311,7 +23335,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23589,7 +23613,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT117">
         <v>0.6</v>
@@ -23693,7 +23717,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23783,7 +23807,7 @@
         <v>1.9</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU118">
         <v>1.67</v>
@@ -23884,7 +23908,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24266,7 +24290,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24353,7 +24377,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -24457,7 +24481,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24839,7 +24863,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24926,7 +24950,7 @@
         <v>2.17</v>
       </c>
       <c r="AS124">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT124">
         <v>2.22</v>
@@ -25030,7 +25054,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25120,7 +25144,7 @@
         <v>2.1</v>
       </c>
       <c r="AT125">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU125">
         <v>2.42</v>
@@ -25308,7 +25332,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT126">
         <v>0.89</v>
@@ -25412,7 +25436,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25502,7 +25526,7 @@
         <v>1.22</v>
       </c>
       <c r="AT127">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU127">
         <v>1.42</v>
@@ -25690,7 +25714,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT128">
         <v>1.1</v>
@@ -25794,7 +25818,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25884,7 +25908,7 @@
         <v>1</v>
       </c>
       <c r="AT129">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU129">
         <v>1.54</v>
@@ -26072,7 +26096,7 @@
         <v>0.29</v>
       </c>
       <c r="AS130">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT130">
         <v>0.6</v>
@@ -26263,10 +26287,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT131">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU131">
         <v>1.8</v>
@@ -26367,7 +26391,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26558,7 +26582,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26648,7 +26672,7 @@
         <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU133">
         <v>1.48</v>
@@ -26749,7 +26773,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26940,7 +26964,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27027,10 +27051,10 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT135">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU135">
         <v>1.77</v>
@@ -27131,7 +27155,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27221,7 +27245,7 @@
         <v>1.9</v>
       </c>
       <c r="AT136">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU136">
         <v>1.85</v>
@@ -27409,7 +27433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>1.3</v>
@@ -27513,7 +27537,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27791,7 +27815,7 @@
         <v>1.25</v>
       </c>
       <c r="AS139">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -28176,7 +28200,7 @@
         <v>1.7</v>
       </c>
       <c r="AT141">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU141">
         <v>1.87</v>
@@ -28277,7 +28301,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28468,7 +28492,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28659,7 +28683,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28749,7 +28773,7 @@
         <v>1.3</v>
       </c>
       <c r="AT144">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU144">
         <v>1.29</v>
@@ -28850,7 +28874,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29041,7 +29065,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29128,10 +29152,10 @@
         <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT146">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU146">
         <v>1.72</v>
@@ -29232,7 +29256,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29319,7 +29343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS147">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT147">
         <v>1.1</v>
@@ -29423,7 +29447,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29614,7 +29638,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29704,7 +29728,7 @@
         <v>1.9</v>
       </c>
       <c r="AT149">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU149">
         <v>1.97</v>
@@ -29805,7 +29829,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29892,10 +29916,10 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT150">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU150">
         <v>1.78</v>
@@ -29996,7 +30020,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30274,7 +30298,7 @@
         <v>0.71</v>
       </c>
       <c r="AS152">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT152">
         <v>0.6</v>
@@ -30378,7 +30402,7 @@
         <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30468,7 +30492,7 @@
         <v>1.2</v>
       </c>
       <c r="AT153">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU153">
         <v>1.53</v>
@@ -30656,10 +30680,10 @@
         <v>1.14</v>
       </c>
       <c r="AS154">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT154">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU154">
         <v>1.68</v>
@@ -30760,7 +30784,7 @@
         <v>90</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30850,7 +30874,7 @@
         <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU155">
         <v>1.94</v>
@@ -30951,7 +30975,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31038,10 +31062,10 @@
         <v>1.11</v>
       </c>
       <c r="AS156">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT156">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU156">
         <v>1.78</v>
@@ -31229,7 +31253,7 @@
         <v>1.38</v>
       </c>
       <c r="AS157">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT157">
         <v>1.4</v>
@@ -31420,7 +31444,7 @@
         <v>0.75</v>
       </c>
       <c r="AS158">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT158">
         <v>0.6</v>
@@ -31611,10 +31635,10 @@
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT159">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU159">
         <v>1.72</v>
@@ -31715,7 +31739,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31802,10 +31826,10 @@
         <v>2</v>
       </c>
       <c r="AS160">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT160">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU160">
         <v>1.5</v>
@@ -31993,7 +32017,7 @@
         <v>0.33</v>
       </c>
       <c r="AS161">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT161">
         <v>0.6</v>
@@ -32097,7 +32121,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32187,7 +32211,7 @@
         <v>1.9</v>
       </c>
       <c r="AT162">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU162">
         <v>2.01</v>
@@ -32288,7 +32312,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32378,7 +32402,7 @@
         <v>1.2</v>
       </c>
       <c r="AT163">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU163">
         <v>1.55</v>
@@ -32479,7 +32503,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32670,7 +32694,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33243,7 +33267,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33712,7 +33736,7 @@
         <v>1.22</v>
       </c>
       <c r="AS170">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT170">
         <v>1.1</v>
@@ -33816,7 +33840,7 @@
         <v>90</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33906,7 +33930,7 @@
         <v>1</v>
       </c>
       <c r="AT171">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU171">
         <v>1.64</v>
@@ -34198,7 +34222,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34389,7 +34413,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34531,6 +34555,1343 @@
       </c>
       <c r="BK174">
         <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2467755</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44968.375</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>77</v>
+      </c>
+      <c r="H175" t="s">
+        <v>69</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>177</v>
+      </c>
+      <c r="P175" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q175">
+        <v>3</v>
+      </c>
+      <c r="R175">
+        <v>4</v>
+      </c>
+      <c r="S175">
+        <v>7</v>
+      </c>
+      <c r="T175">
+        <v>2.65</v>
+      </c>
+      <c r="U175">
+        <v>2.15</v>
+      </c>
+      <c r="V175">
+        <v>3.75</v>
+      </c>
+      <c r="W175">
+        <v>1.39</v>
+      </c>
+      <c r="X175">
+        <v>2.8</v>
+      </c>
+      <c r="Y175">
+        <v>2.75</v>
+      </c>
+      <c r="Z175">
+        <v>1.4</v>
+      </c>
+      <c r="AA175">
+        <v>6.95</v>
+      </c>
+      <c r="AB175">
+        <v>1.07</v>
+      </c>
+      <c r="AC175">
+        <v>1.95</v>
+      </c>
+      <c r="AD175">
+        <v>3.5</v>
+      </c>
+      <c r="AE175">
+        <v>3.17</v>
+      </c>
+      <c r="AF175">
+        <v>1.06</v>
+      </c>
+      <c r="AG175">
+        <v>8</v>
+      </c>
+      <c r="AH175">
+        <v>1.28</v>
+      </c>
+      <c r="AI175">
+        <v>3.5</v>
+      </c>
+      <c r="AJ175">
+        <v>1.91</v>
+      </c>
+      <c r="AK175">
+        <v>1.79</v>
+      </c>
+      <c r="AL175">
+        <v>1.72</v>
+      </c>
+      <c r="AM175">
+        <v>2.05</v>
+      </c>
+      <c r="AN175">
+        <v>1.25</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>1.75</v>
+      </c>
+      <c r="AQ175">
+        <v>1.11</v>
+      </c>
+      <c r="AR175">
+        <v>0.67</v>
+      </c>
+      <c r="AS175">
+        <v>1.3</v>
+      </c>
+      <c r="AT175">
+        <v>0.6</v>
+      </c>
+      <c r="AU175">
+        <v>1.79</v>
+      </c>
+      <c r="AV175">
+        <v>1.37</v>
+      </c>
+      <c r="AW175">
+        <v>3.16</v>
+      </c>
+      <c r="AX175">
+        <v>1.75</v>
+      </c>
+      <c r="AY175">
+        <v>8.5</v>
+      </c>
+      <c r="AZ175">
+        <v>2.51</v>
+      </c>
+      <c r="BA175">
+        <v>1.16</v>
+      </c>
+      <c r="BB175">
+        <v>1.31</v>
+      </c>
+      <c r="BC175">
+        <v>1.65</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>2.5</v>
+      </c>
+      <c r="BF175">
+        <v>5</v>
+      </c>
+      <c r="BG175">
+        <v>2</v>
+      </c>
+      <c r="BH175">
+        <v>3</v>
+      </c>
+      <c r="BI175">
+        <v>8</v>
+      </c>
+      <c r="BJ175">
+        <v>8</v>
+      </c>
+      <c r="BK175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2467758</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44968.375</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" t="s">
+        <v>71</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>2</v>
+      </c>
+      <c r="K176">
+        <v>4</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>4</v>
+      </c>
+      <c r="N176">
+        <v>7</v>
+      </c>
+      <c r="O176" t="s">
+        <v>211</v>
+      </c>
+      <c r="P176" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176">
+        <v>1</v>
+      </c>
+      <c r="S176">
+        <v>5</v>
+      </c>
+      <c r="T176">
+        <v>3.25</v>
+      </c>
+      <c r="U176">
+        <v>2.2</v>
+      </c>
+      <c r="V176">
+        <v>2.9</v>
+      </c>
+      <c r="W176">
+        <v>1.34</v>
+      </c>
+      <c r="X176">
+        <v>3.05</v>
+      </c>
+      <c r="Y176">
+        <v>2.5</v>
+      </c>
+      <c r="Z176">
+        <v>1.47</v>
+      </c>
+      <c r="AA176">
+        <v>5.95</v>
+      </c>
+      <c r="AB176">
+        <v>1.1</v>
+      </c>
+      <c r="AC176">
+        <v>2.65</v>
+      </c>
+      <c r="AD176">
+        <v>3.48</v>
+      </c>
+      <c r="AE176">
+        <v>2.23</v>
+      </c>
+      <c r="AF176">
+        <v>1.04</v>
+      </c>
+      <c r="AG176">
+        <v>10</v>
+      </c>
+      <c r="AH176">
+        <v>1.22</v>
+      </c>
+      <c r="AI176">
+        <v>4</v>
+      </c>
+      <c r="AJ176">
+        <v>1.73</v>
+      </c>
+      <c r="AK176">
+        <v>2.06</v>
+      </c>
+      <c r="AL176">
+        <v>1.57</v>
+      </c>
+      <c r="AM176">
+        <v>2.3</v>
+      </c>
+      <c r="AN176">
+        <v>1.47</v>
+      </c>
+      <c r="AO176">
+        <v>1.25</v>
+      </c>
+      <c r="AP176">
+        <v>1.42</v>
+      </c>
+      <c r="AQ176">
+        <v>1.89</v>
+      </c>
+      <c r="AR176">
+        <v>1.22</v>
+      </c>
+      <c r="AS176">
+        <v>1.7</v>
+      </c>
+      <c r="AT176">
+        <v>1.4</v>
+      </c>
+      <c r="AU176">
+        <v>1.51</v>
+      </c>
+      <c r="AV176">
+        <v>1.57</v>
+      </c>
+      <c r="AW176">
+        <v>3.08</v>
+      </c>
+      <c r="AX176">
+        <v>2.05</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>2</v>
+      </c>
+      <c r="BA176">
+        <v>1.18</v>
+      </c>
+      <c r="BB176">
+        <v>1.43</v>
+      </c>
+      <c r="BC176">
+        <v>1.67</v>
+      </c>
+      <c r="BD176">
+        <v>2.05</v>
+      </c>
+      <c r="BE176">
+        <v>2.6</v>
+      </c>
+      <c r="BF176">
+        <v>7</v>
+      </c>
+      <c r="BG176">
+        <v>10</v>
+      </c>
+      <c r="BH176">
+        <v>6</v>
+      </c>
+      <c r="BI176">
+        <v>4</v>
+      </c>
+      <c r="BJ176">
+        <v>13</v>
+      </c>
+      <c r="BK176">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2467756</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44968.375</v>
+      </c>
+      <c r="F177">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177" t="s">
+        <v>70</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>5</v>
+      </c>
+      <c r="O177" t="s">
+        <v>212</v>
+      </c>
+      <c r="P177" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q177">
+        <v>6</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>8</v>
+      </c>
+      <c r="T177">
+        <v>2.3</v>
+      </c>
+      <c r="U177">
+        <v>2.3</v>
+      </c>
+      <c r="V177">
+        <v>4.2</v>
+      </c>
+      <c r="W177">
+        <v>1.3</v>
+      </c>
+      <c r="X177">
+        <v>3.25</v>
+      </c>
+      <c r="Y177">
+        <v>2.34</v>
+      </c>
+      <c r="Z177">
+        <v>1.54</v>
+      </c>
+      <c r="AA177">
+        <v>5</v>
+      </c>
+      <c r="AB177">
+        <v>1.14</v>
+      </c>
+      <c r="AC177">
+        <v>1.71</v>
+      </c>
+      <c r="AD177">
+        <v>3.92</v>
+      </c>
+      <c r="AE177">
+        <v>3.68</v>
+      </c>
+      <c r="AF177">
+        <v>1.03</v>
+      </c>
+      <c r="AG177">
+        <v>11</v>
+      </c>
+      <c r="AH177">
+        <v>1.18</v>
+      </c>
+      <c r="AI177">
+        <v>4.5</v>
+      </c>
+      <c r="AJ177">
+        <v>1.61</v>
+      </c>
+      <c r="AK177">
+        <v>2.26</v>
+      </c>
+      <c r="AL177">
+        <v>1.57</v>
+      </c>
+      <c r="AM177">
+        <v>2.3</v>
+      </c>
+      <c r="AN177">
+        <v>1.18</v>
+      </c>
+      <c r="AO177">
+        <v>1.2</v>
+      </c>
+      <c r="AP177">
+        <v>2</v>
+      </c>
+      <c r="AQ177">
+        <v>1.67</v>
+      </c>
+      <c r="AR177">
+        <v>1</v>
+      </c>
+      <c r="AS177">
+        <v>1.5</v>
+      </c>
+      <c r="AT177">
+        <v>1.18</v>
+      </c>
+      <c r="AU177">
+        <v>1.86</v>
+      </c>
+      <c r="AV177">
+        <v>1.54</v>
+      </c>
+      <c r="AW177">
+        <v>3.4</v>
+      </c>
+      <c r="AX177">
+        <v>1.51</v>
+      </c>
+      <c r="AY177">
+        <v>9</v>
+      </c>
+      <c r="AZ177">
+        <v>3.06</v>
+      </c>
+      <c r="BA177">
+        <v>1.16</v>
+      </c>
+      <c r="BB177">
+        <v>1.31</v>
+      </c>
+      <c r="BC177">
+        <v>1.65</v>
+      </c>
+      <c r="BD177">
+        <v>2</v>
+      </c>
+      <c r="BE177">
+        <v>2.5</v>
+      </c>
+      <c r="BF177">
+        <v>9</v>
+      </c>
+      <c r="BG177">
+        <v>7</v>
+      </c>
+      <c r="BH177">
+        <v>21</v>
+      </c>
+      <c r="BI177">
+        <v>7</v>
+      </c>
+      <c r="BJ177">
+        <v>30</v>
+      </c>
+      <c r="BK177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2467754</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44968.6875</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>76</v>
+      </c>
+      <c r="H178" t="s">
+        <v>81</v>
+      </c>
+      <c r="I178">
+        <v>3</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>3</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>6</v>
+      </c>
+      <c r="O178" t="s">
+        <v>213</v>
+      </c>
+      <c r="P178" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q178">
+        <v>4</v>
+      </c>
+      <c r="R178">
+        <v>5</v>
+      </c>
+      <c r="S178">
+        <v>9</v>
+      </c>
+      <c r="T178">
+        <v>3.25</v>
+      </c>
+      <c r="U178">
+        <v>2.2</v>
+      </c>
+      <c r="V178">
+        <v>2.85</v>
+      </c>
+      <c r="W178">
+        <v>1.33</v>
+      </c>
+      <c r="X178">
+        <v>3.05</v>
+      </c>
+      <c r="Y178">
+        <v>2.5</v>
+      </c>
+      <c r="Z178">
+        <v>1.47</v>
+      </c>
+      <c r="AA178">
+        <v>5.95</v>
+      </c>
+      <c r="AB178">
+        <v>1.1</v>
+      </c>
+      <c r="AC178">
+        <v>2.8</v>
+      </c>
+      <c r="AD178">
+        <v>3.7</v>
+      </c>
+      <c r="AE178">
+        <v>2.32</v>
+      </c>
+      <c r="AF178">
+        <v>1.04</v>
+      </c>
+      <c r="AG178">
+        <v>10</v>
+      </c>
+      <c r="AH178">
+        <v>1.22</v>
+      </c>
+      <c r="AI178">
+        <v>4</v>
+      </c>
+      <c r="AJ178">
+        <v>1.69</v>
+      </c>
+      <c r="AK178">
+        <v>2.09</v>
+      </c>
+      <c r="AL178">
+        <v>1.57</v>
+      </c>
+      <c r="AM178">
+        <v>2.3</v>
+      </c>
+      <c r="AN178">
+        <v>1.52</v>
+      </c>
+      <c r="AO178">
+        <v>1.22</v>
+      </c>
+      <c r="AP178">
+        <v>1.42</v>
+      </c>
+      <c r="AQ178">
+        <v>2.56</v>
+      </c>
+      <c r="AR178">
+        <v>2.33</v>
+      </c>
+      <c r="AS178">
+        <v>2.4</v>
+      </c>
+      <c r="AT178">
+        <v>2.2</v>
+      </c>
+      <c r="AU178">
+        <v>1.76</v>
+      </c>
+      <c r="AV178">
+        <v>1.83</v>
+      </c>
+      <c r="AW178">
+        <v>3.59</v>
+      </c>
+      <c r="AX178">
+        <v>1.85</v>
+      </c>
+      <c r="AY178">
+        <v>8.5</v>
+      </c>
+      <c r="AZ178">
+        <v>2.27</v>
+      </c>
+      <c r="BA178">
+        <v>1.2</v>
+      </c>
+      <c r="BB178">
+        <v>1.26</v>
+      </c>
+      <c r="BC178">
+        <v>1.55</v>
+      </c>
+      <c r="BD178">
+        <v>1.88</v>
+      </c>
+      <c r="BE178">
+        <v>2.25</v>
+      </c>
+      <c r="BF178">
+        <v>10</v>
+      </c>
+      <c r="BG178">
+        <v>6</v>
+      </c>
+      <c r="BH178">
+        <v>13</v>
+      </c>
+      <c r="BI178">
+        <v>6</v>
+      </c>
+      <c r="BJ178">
+        <v>23</v>
+      </c>
+      <c r="BK178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2467752</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44969.39583333334</v>
+      </c>
+      <c r="F179">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>74</v>
+      </c>
+      <c r="H179" t="s">
+        <v>73</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>214</v>
+      </c>
+      <c r="P179" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q179">
+        <v>8</v>
+      </c>
+      <c r="R179">
+        <v>1</v>
+      </c>
+      <c r="S179">
+        <v>9</v>
+      </c>
+      <c r="T179">
+        <v>2.05</v>
+      </c>
+      <c r="U179">
+        <v>2.38</v>
+      </c>
+      <c r="V179">
+        <v>5.5</v>
+      </c>
+      <c r="W179">
+        <v>1.33</v>
+      </c>
+      <c r="X179">
+        <v>3.25</v>
+      </c>
+      <c r="Y179">
+        <v>2.5</v>
+      </c>
+      <c r="Z179">
+        <v>1.5</v>
+      </c>
+      <c r="AA179">
+        <v>6.5</v>
+      </c>
+      <c r="AB179">
+        <v>1.11</v>
+      </c>
+      <c r="AC179">
+        <v>1.53</v>
+      </c>
+      <c r="AD179">
+        <v>4.25</v>
+      </c>
+      <c r="AE179">
+        <v>6.41</v>
+      </c>
+      <c r="AF179">
+        <v>1.04</v>
+      </c>
+      <c r="AG179">
+        <v>10</v>
+      </c>
+      <c r="AH179">
+        <v>1.22</v>
+      </c>
+      <c r="AI179">
+        <v>4</v>
+      </c>
+      <c r="AJ179">
+        <v>1.69</v>
+      </c>
+      <c r="AK179">
+        <v>2.09</v>
+      </c>
+      <c r="AL179">
+        <v>1.8</v>
+      </c>
+      <c r="AM179">
+        <v>1.91</v>
+      </c>
+      <c r="AN179">
+        <v>1.14</v>
+      </c>
+      <c r="AO179">
+        <v>1.22</v>
+      </c>
+      <c r="AP179">
+        <v>2.37</v>
+      </c>
+      <c r="AQ179">
+        <v>2.2</v>
+      </c>
+      <c r="AR179">
+        <v>0.78</v>
+      </c>
+      <c r="AS179">
+        <v>2.27</v>
+      </c>
+      <c r="AT179">
+        <v>0.7</v>
+      </c>
+      <c r="AU179">
+        <v>1.72</v>
+      </c>
+      <c r="AV179">
+        <v>1.46</v>
+      </c>
+      <c r="AW179">
+        <v>3.18</v>
+      </c>
+      <c r="AX179">
+        <v>1.28</v>
+      </c>
+      <c r="AY179">
+        <v>9</v>
+      </c>
+      <c r="AZ179">
+        <v>5.05</v>
+      </c>
+      <c r="BA179">
+        <v>1.21</v>
+      </c>
+      <c r="BB179">
+        <v>1.4</v>
+      </c>
+      <c r="BC179">
+        <v>1.66</v>
+      </c>
+      <c r="BD179">
+        <v>2.07</v>
+      </c>
+      <c r="BE179">
+        <v>2.7</v>
+      </c>
+      <c r="BF179">
+        <v>11</v>
+      </c>
+      <c r="BG179">
+        <v>4</v>
+      </c>
+      <c r="BH179">
+        <v>17</v>
+      </c>
+      <c r="BI179">
+        <v>8</v>
+      </c>
+      <c r="BJ179">
+        <v>28</v>
+      </c>
+      <c r="BK179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2467753</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44969.39583333334</v>
+      </c>
+      <c r="F180">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>67</v>
+      </c>
+      <c r="H180" t="s">
+        <v>65</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>125</v>
+      </c>
+      <c r="P180" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q180">
+        <v>4</v>
+      </c>
+      <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>8</v>
+      </c>
+      <c r="T180">
+        <v>2.63</v>
+      </c>
+      <c r="U180">
+        <v>2.2</v>
+      </c>
+      <c r="V180">
+        <v>4</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>3</v>
+      </c>
+      <c r="Y180">
+        <v>2.75</v>
+      </c>
+      <c r="Z180">
+        <v>1.4</v>
+      </c>
+      <c r="AA180">
+        <v>8</v>
+      </c>
+      <c r="AB180">
+        <v>1.08</v>
+      </c>
+      <c r="AC180">
+        <v>2.05</v>
+      </c>
+      <c r="AD180">
+        <v>3.5</v>
+      </c>
+      <c r="AE180">
+        <v>3.68</v>
+      </c>
+      <c r="AF180">
+        <v>1.05</v>
+      </c>
+      <c r="AG180">
+        <v>9</v>
+      </c>
+      <c r="AH180">
+        <v>1.28</v>
+      </c>
+      <c r="AI180">
+        <v>3.5</v>
+      </c>
+      <c r="AJ180">
+        <v>1.85</v>
+      </c>
+      <c r="AK180">
+        <v>1.89</v>
+      </c>
+      <c r="AL180">
+        <v>1.73</v>
+      </c>
+      <c r="AM180">
+        <v>2</v>
+      </c>
+      <c r="AN180">
+        <v>1.32</v>
+      </c>
+      <c r="AO180">
+        <v>1.29</v>
+      </c>
+      <c r="AP180">
+        <v>1.7</v>
+      </c>
+      <c r="AQ180">
+        <v>1.89</v>
+      </c>
+      <c r="AR180">
+        <v>2.11</v>
+      </c>
+      <c r="AS180">
+        <v>2</v>
+      </c>
+      <c r="AT180">
+        <v>1.9</v>
+      </c>
+      <c r="AU180">
+        <v>2.11</v>
+      </c>
+      <c r="AV180">
+        <v>1.43</v>
+      </c>
+      <c r="AW180">
+        <v>3.54</v>
+      </c>
+      <c r="AX180">
+        <v>1.74</v>
+      </c>
+      <c r="AY180">
+        <v>7.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.6</v>
+      </c>
+      <c r="BA180">
+        <v>1.29</v>
+      </c>
+      <c r="BB180">
+        <v>1.52</v>
+      </c>
+      <c r="BC180">
+        <v>1.87</v>
+      </c>
+      <c r="BD180">
+        <v>2.4</v>
+      </c>
+      <c r="BE180">
+        <v>3.2</v>
+      </c>
+      <c r="BF180">
+        <v>4</v>
+      </c>
+      <c r="BG180">
+        <v>0</v>
+      </c>
+      <c r="BH180">
+        <v>15</v>
+      </c>
+      <c r="BI180">
+        <v>9</v>
+      </c>
+      <c r="BJ180">
+        <v>19</v>
+      </c>
+      <c r="BK180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2467757</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44969.39583333334</v>
+      </c>
+      <c r="F181">
+        <v>20</v>
+      </c>
+      <c r="G181" t="s">
+        <v>75</v>
+      </c>
+      <c r="H181" t="s">
+        <v>68</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>215</v>
+      </c>
+      <c r="P181" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q181">
+        <v>8</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181">
+        <v>9</v>
+      </c>
+      <c r="T181">
+        <v>2.2</v>
+      </c>
+      <c r="U181">
+        <v>2.25</v>
+      </c>
+      <c r="V181">
+        <v>5.5</v>
+      </c>
+      <c r="W181">
+        <v>1.36</v>
+      </c>
+      <c r="X181">
+        <v>3</v>
+      </c>
+      <c r="Y181">
+        <v>2.75</v>
+      </c>
+      <c r="Z181">
+        <v>1.4</v>
+      </c>
+      <c r="AA181">
+        <v>7</v>
+      </c>
+      <c r="AB181">
+        <v>1.1</v>
+      </c>
+      <c r="AC181">
+        <v>1.6</v>
+      </c>
+      <c r="AD181">
+        <v>3.95</v>
+      </c>
+      <c r="AE181">
+        <v>5.99</v>
+      </c>
+      <c r="AF181">
+        <v>1.05</v>
+      </c>
+      <c r="AG181">
+        <v>9</v>
+      </c>
+      <c r="AH181">
+        <v>1.25</v>
+      </c>
+      <c r="AI181">
+        <v>3.6</v>
+      </c>
+      <c r="AJ181">
+        <v>1.82</v>
+      </c>
+      <c r="AK181">
+        <v>1.92</v>
+      </c>
+      <c r="AL181">
+        <v>1.83</v>
+      </c>
+      <c r="AM181">
+        <v>1.83</v>
+      </c>
+      <c r="AN181">
+        <v>1.15</v>
+      </c>
+      <c r="AO181">
+        <v>1.24</v>
+      </c>
+      <c r="AP181">
+        <v>2.25</v>
+      </c>
+      <c r="AQ181">
+        <v>2.11</v>
+      </c>
+      <c r="AR181">
+        <v>0.8</v>
+      </c>
+      <c r="AS181">
+        <v>2.2</v>
+      </c>
+      <c r="AT181">
+        <v>0.73</v>
+      </c>
+      <c r="AU181">
+        <v>1.85</v>
+      </c>
+      <c r="AV181">
+        <v>1.13</v>
+      </c>
+      <c r="AW181">
+        <v>2.98</v>
+      </c>
+      <c r="AX181">
+        <v>1.26</v>
+      </c>
+      <c r="AY181">
+        <v>9.4</v>
+      </c>
+      <c r="AZ181">
+        <v>5.25</v>
+      </c>
+      <c r="BA181">
+        <v>1.21</v>
+      </c>
+      <c r="BB181">
+        <v>1.4</v>
+      </c>
+      <c r="BC181">
+        <v>1.66</v>
+      </c>
+      <c r="BD181">
+        <v>2.07</v>
+      </c>
+      <c r="BE181">
+        <v>2.7</v>
+      </c>
+      <c r="BF181">
+        <v>9</v>
+      </c>
+      <c r="BG181">
+        <v>2</v>
+      </c>
+      <c r="BH181">
+        <v>17</v>
+      </c>
+      <c r="BI181">
+        <v>5</v>
+      </c>
+      <c r="BJ181">
+        <v>26</v>
+      </c>
+      <c r="BK181">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,12 @@
     <t>['85', '88']</t>
   </si>
   <si>
+    <t>['57', '69']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -904,9 +910,6 @@
     <t>['15']</t>
   </si>
   <si>
-    <t>['78']</t>
-  </si>
-  <si>
     <t>['50', '90+6']</t>
   </si>
   <si>
@@ -956,6 +959,9 @@
   </si>
   <si>
     <t>['72', '79', '88']</t>
+  </si>
+  <si>
+    <t>['14', '22', '48']</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1567,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1752,7 +1758,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1842,7 +1848,7 @@
         <v>1.7</v>
       </c>
       <c r="AT3">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1943,7 +1949,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2134,7 +2140,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2516,7 +2522,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2794,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT8">
         <v>0.89</v>
@@ -3089,7 +3095,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3176,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT10">
         <v>2.2</v>
@@ -3471,7 +3477,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4044,7 +4050,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4134,7 +4140,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4235,7 +4241,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4426,7 +4432,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4808,7 +4814,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4999,7 +5005,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5572,7 +5578,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5659,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT23">
         <v>1.1</v>
@@ -6145,7 +6151,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6235,7 +6241,7 @@
         <v>0.89</v>
       </c>
       <c r="AT26">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU26">
         <v>1.69</v>
@@ -6336,7 +6342,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6423,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT27">
         <v>2.22</v>
@@ -6527,7 +6533,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6718,7 +6724,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6909,7 +6915,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7100,7 +7106,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7482,7 +7488,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -8055,7 +8061,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8437,7 +8443,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8628,7 +8634,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8819,7 +8825,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8906,10 +8912,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT40">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU40">
         <v>2.68</v>
@@ -9010,7 +9016,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9201,7 +9207,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9392,7 +9398,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9479,7 +9485,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -9583,7 +9589,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9965,7 +9971,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10055,7 +10061,7 @@
         <v>1.7</v>
       </c>
       <c r="AT46">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU46">
         <v>1.96</v>
@@ -10156,7 +10162,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10538,7 +10544,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10729,7 +10735,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11111,7 +11117,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11302,7 +11308,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11493,7 +11499,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11875,7 +11881,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11962,7 +11968,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT56">
         <v>0.9</v>
@@ -12066,7 +12072,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12257,7 +12263,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12538,7 +12544,7 @@
         <v>1.3</v>
       </c>
       <c r="AT59">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU59">
         <v>1.15</v>
@@ -12726,7 +12732,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT60">
         <v>1.18</v>
@@ -13021,7 +13027,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13493,7 +13499,7 @@
         <v>1.22</v>
       </c>
       <c r="AT64">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU64">
         <v>1.15</v>
@@ -13785,7 +13791,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14063,7 +14069,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT67">
         <v>0.6</v>
@@ -14549,7 +14555,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14740,7 +14746,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -15122,7 +15128,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15313,7 +15319,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15504,7 +15510,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15591,7 +15597,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT75">
         <v>0.89</v>
@@ -15886,7 +15892,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15976,7 +15982,7 @@
         <v>1.2</v>
       </c>
       <c r="AT77">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU77">
         <v>1.52</v>
@@ -16549,7 +16555,7 @@
         <v>2.4</v>
       </c>
       <c r="AT80">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU80">
         <v>1.9</v>
@@ -16841,7 +16847,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17032,7 +17038,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17119,7 +17125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT83">
         <v>2.22</v>
@@ -17223,7 +17229,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17414,7 +17420,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17605,7 +17611,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17796,7 +17802,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18751,7 +18757,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18942,7 +18948,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19133,7 +19139,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19602,7 +19608,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT96">
         <v>0.6</v>
@@ -19706,7 +19712,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19796,7 +19802,7 @@
         <v>1.9</v>
       </c>
       <c r="AT97">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU97">
         <v>1.56</v>
@@ -20088,7 +20094,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20279,7 +20285,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20369,7 +20375,7 @@
         <v>1.3</v>
       </c>
       <c r="AT100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU100">
         <v>1.7</v>
@@ -20470,7 +20476,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20852,7 +20858,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21043,7 +21049,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21234,7 +21240,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21616,7 +21622,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21894,7 +21900,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT108">
         <v>0.73</v>
@@ -21998,7 +22004,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22189,7 +22195,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22279,7 +22285,7 @@
         <v>2.27</v>
       </c>
       <c r="AT110">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU110">
         <v>1.62</v>
@@ -22380,7 +22386,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22470,7 +22476,7 @@
         <v>1</v>
       </c>
       <c r="AT111">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU111">
         <v>1.61</v>
@@ -22571,7 +22577,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23040,7 +23046,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT114">
         <v>1.4</v>
@@ -23335,7 +23341,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23717,7 +23723,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23908,7 +23914,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24290,7 +24296,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24481,7 +24487,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24863,7 +24869,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25054,7 +25060,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25141,7 +25147,7 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT125">
         <v>2.2</v>
@@ -25436,7 +25442,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25818,7 +25824,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -26391,7 +26397,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26481,7 +26487,7 @@
         <v>1.27</v>
       </c>
       <c r="AT132">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU132">
         <v>2.06</v>
@@ -26582,7 +26588,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26672,7 +26678,7 @@
         <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU133">
         <v>1.48</v>
@@ -26773,7 +26779,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26860,7 +26866,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT134">
         <v>0.6</v>
@@ -26964,7 +26970,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27155,7 +27161,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27436,7 +27442,7 @@
         <v>2</v>
       </c>
       <c r="AT137">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU137">
         <v>2.18</v>
@@ -27537,7 +27543,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27624,7 +27630,7 @@
         <v>0.25</v>
       </c>
       <c r="AS138">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT138">
         <v>0.8</v>
@@ -28301,7 +28307,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28492,7 +28498,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28683,7 +28689,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28874,7 +28880,7 @@
         <v>90</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29065,7 +29071,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29155,7 +29161,7 @@
         <v>2.2</v>
       </c>
       <c r="AT146">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU146">
         <v>1.72</v>
@@ -29256,7 +29262,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29447,7 +29453,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29638,7 +29644,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29829,7 +29835,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30020,7 +30026,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30107,7 +30113,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT151">
         <v>1.4</v>
@@ -30402,7 +30408,7 @@
         <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30784,7 +30790,7 @@
         <v>90</v>
       </c>
       <c r="P155" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30975,7 +30981,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31739,7 +31745,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31829,7 +31835,7 @@
         <v>1.7</v>
       </c>
       <c r="AT160">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU160">
         <v>1.5</v>
@@ -32121,7 +32127,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32312,7 +32318,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32503,7 +32509,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32694,7 +32700,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32781,7 +32787,7 @@
         <v>1.11</v>
       </c>
       <c r="AS165">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT165">
         <v>1</v>
@@ -32975,7 +32981,7 @@
         <v>1.6</v>
       </c>
       <c r="AT166">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU166">
         <v>1.51</v>
@@ -33163,7 +33169,7 @@
         <v>1.44</v>
       </c>
       <c r="AS167">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT167">
         <v>1.3</v>
@@ -33267,7 +33273,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33840,7 +33846,7 @@
         <v>90</v>
       </c>
       <c r="P171" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34222,7 +34228,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34413,7 +34419,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34795,7 +34801,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34986,7 +34992,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35177,7 +35183,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35649,7 +35655,7 @@
         <v>2</v>
       </c>
       <c r="AT180">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU180">
         <v>2.11</v>
@@ -35892,6 +35898,388 @@
       </c>
       <c r="BK181">
         <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2467768</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44974.60416666666</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s">
+        <v>78</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>3</v>
+      </c>
+      <c r="N182">
+        <v>5</v>
+      </c>
+      <c r="O182" t="s">
+        <v>216</v>
+      </c>
+      <c r="P182" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q182">
+        <v>12</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>15</v>
+      </c>
+      <c r="T182">
+        <v>3.2</v>
+      </c>
+      <c r="U182">
+        <v>2.15</v>
+      </c>
+      <c r="V182">
+        <v>2.87</v>
+      </c>
+      <c r="W182">
+        <v>1.33</v>
+      </c>
+      <c r="X182">
+        <v>3</v>
+      </c>
+      <c r="Y182">
+        <v>2.5</v>
+      </c>
+      <c r="Z182">
+        <v>1.46</v>
+      </c>
+      <c r="AA182">
+        <v>6</v>
+      </c>
+      <c r="AB182">
+        <v>1.11</v>
+      </c>
+      <c r="AC182">
+        <v>2.74</v>
+      </c>
+      <c r="AD182">
+        <v>3.62</v>
+      </c>
+      <c r="AE182">
+        <v>2.4</v>
+      </c>
+      <c r="AF182">
+        <v>1.04</v>
+      </c>
+      <c r="AG182">
+        <v>11.5</v>
+      </c>
+      <c r="AH182">
+        <v>1.21</v>
+      </c>
+      <c r="AI182">
+        <v>3.9</v>
+      </c>
+      <c r="AJ182">
+        <v>1.67</v>
+      </c>
+      <c r="AK182">
+        <v>2.1</v>
+      </c>
+      <c r="AL182">
+        <v>1.58</v>
+      </c>
+      <c r="AM182">
+        <v>2.2</v>
+      </c>
+      <c r="AN182">
+        <v>1.47</v>
+      </c>
+      <c r="AO182">
+        <v>1.22</v>
+      </c>
+      <c r="AP182">
+        <v>1.45</v>
+      </c>
+      <c r="AQ182">
+        <v>1.4</v>
+      </c>
+      <c r="AR182">
+        <v>1.3</v>
+      </c>
+      <c r="AS182">
+        <v>1.27</v>
+      </c>
+      <c r="AT182">
+        <v>1.45</v>
+      </c>
+      <c r="AU182">
+        <v>1.65</v>
+      </c>
+      <c r="AV182">
+        <v>1.71</v>
+      </c>
+      <c r="AW182">
+        <v>3.36</v>
+      </c>
+      <c r="AX182">
+        <v>2.1</v>
+      </c>
+      <c r="AY182">
+        <v>8</v>
+      </c>
+      <c r="AZ182">
+        <v>1.91</v>
+      </c>
+      <c r="BA182">
+        <v>1.16</v>
+      </c>
+      <c r="BB182">
+        <v>1.31</v>
+      </c>
+      <c r="BC182">
+        <v>1.65</v>
+      </c>
+      <c r="BD182">
+        <v>2</v>
+      </c>
+      <c r="BE182">
+        <v>2.5</v>
+      </c>
+      <c r="BF182">
+        <v>6</v>
+      </c>
+      <c r="BG182">
+        <v>6</v>
+      </c>
+      <c r="BH182">
+        <v>10</v>
+      </c>
+      <c r="BI182">
+        <v>2</v>
+      </c>
+      <c r="BJ182">
+        <v>16</v>
+      </c>
+      <c r="BK182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2467763</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44974.60416666666</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>65</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>217</v>
+      </c>
+      <c r="P183" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>6</v>
+      </c>
+      <c r="S183">
+        <v>9</v>
+      </c>
+      <c r="T183">
+        <v>2.45</v>
+      </c>
+      <c r="U183">
+        <v>2.2</v>
+      </c>
+      <c r="V183">
+        <v>3.9</v>
+      </c>
+      <c r="W183">
+        <v>1.33</v>
+      </c>
+      <c r="X183">
+        <v>3</v>
+      </c>
+      <c r="Y183">
+        <v>2.45</v>
+      </c>
+      <c r="Z183">
+        <v>1.47</v>
+      </c>
+      <c r="AA183">
+        <v>6</v>
+      </c>
+      <c r="AB183">
+        <v>1.11</v>
+      </c>
+      <c r="AC183">
+        <v>2.04</v>
+      </c>
+      <c r="AD183">
+        <v>3.72</v>
+      </c>
+      <c r="AE183">
+        <v>3.38</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>10</v>
+      </c>
+      <c r="AH183">
+        <v>1.22</v>
+      </c>
+      <c r="AI183">
+        <v>4</v>
+      </c>
+      <c r="AJ183">
+        <v>1.6</v>
+      </c>
+      <c r="AK183">
+        <v>2.2</v>
+      </c>
+      <c r="AL183">
+        <v>1.6</v>
+      </c>
+      <c r="AM183">
+        <v>2.15</v>
+      </c>
+      <c r="AN183">
+        <v>1.26</v>
+      </c>
+      <c r="AO183">
+        <v>1.26</v>
+      </c>
+      <c r="AP183">
+        <v>1.85</v>
+      </c>
+      <c r="AQ183">
+        <v>2.1</v>
+      </c>
+      <c r="AR183">
+        <v>1.9</v>
+      </c>
+      <c r="AS183">
+        <v>2.18</v>
+      </c>
+      <c r="AT183">
+        <v>1.73</v>
+      </c>
+      <c r="AU183">
+        <v>2.29</v>
+      </c>
+      <c r="AV183">
+        <v>1.37</v>
+      </c>
+      <c r="AW183">
+        <v>3.66</v>
+      </c>
+      <c r="AX183">
+        <v>1.82</v>
+      </c>
+      <c r="AY183">
+        <v>8</v>
+      </c>
+      <c r="AZ183">
+        <v>2.33</v>
+      </c>
+      <c r="BA183">
+        <v>1.16</v>
+      </c>
+      <c r="BB183">
+        <v>1.32</v>
+      </c>
+      <c r="BC183">
+        <v>1.65</v>
+      </c>
+      <c r="BD183">
+        <v>2</v>
+      </c>
+      <c r="BE183">
+        <v>2.5</v>
+      </c>
+      <c r="BF183">
+        <v>7</v>
+      </c>
+      <c r="BG183">
+        <v>2</v>
+      </c>
+      <c r="BH183">
+        <v>5</v>
+      </c>
+      <c r="BI183">
+        <v>9</v>
+      </c>
+      <c r="BJ183">
+        <v>12</v>
+      </c>
+      <c r="BK183">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,21 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['28', '57']</t>
+  </si>
+  <si>
+    <t>['26', '57']</t>
+  </si>
+  <si>
+    <t>['18', '23', '38', '81', '86']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -907,9 +922,6 @@
     <t>['31', '40', '48', '73']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['50', '90+6']</t>
   </si>
   <si>
@@ -962,6 +974,15 @@
   </si>
   <si>
     <t>['14', '22', '48']</t>
+  </si>
+  <si>
+    <t>['74', '88']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['8', '52', '73']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1588,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1657,7 +1678,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1758,7 +1779,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1845,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT3">
         <v>1.45</v>
@@ -1949,7 +1970,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2039,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2140,7 +2161,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2227,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT5">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2418,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT6">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2522,7 +2543,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2609,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2803,7 +2824,7 @@
         <v>2.18</v>
       </c>
       <c r="AT8">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2991,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT9">
         <v>1.3</v>
@@ -3095,7 +3116,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3477,7 +3498,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3755,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT13">
         <v>0.7</v>
@@ -4050,7 +4071,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4241,7 +4262,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4331,7 +4352,7 @@
         <v>1.7</v>
       </c>
       <c r="AT16">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4432,7 +4453,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4710,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>1.4</v>
@@ -4814,7 +4835,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5005,7 +5026,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5092,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT20">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU20">
         <v>2.61</v>
@@ -5283,10 +5304,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU21">
         <v>1.65</v>
@@ -5474,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT22">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU22">
         <v>1.38</v>
@@ -5578,7 +5599,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5668,7 +5689,7 @@
         <v>2.18</v>
       </c>
       <c r="AT23">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU23">
         <v>2.05</v>
@@ -5856,7 +5877,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT24">
         <v>1.3</v>
@@ -6047,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT25">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU25">
         <v>1.57</v>
@@ -6151,7 +6172,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6238,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT26">
         <v>1.45</v>
@@ -6342,7 +6363,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6432,7 +6453,7 @@
         <v>1.27</v>
       </c>
       <c r="AT27">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6533,7 +6554,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6623,7 +6644,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU28">
         <v>1.36</v>
@@ -6724,7 +6745,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6915,7 +6936,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7106,7 +7127,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7488,7 +7509,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -8061,7 +8082,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8443,7 +8464,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8530,10 +8551,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU38">
         <v>1.68</v>
@@ -8634,7 +8655,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8721,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT39">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU39">
         <v>1.5</v>
@@ -8825,7 +8846,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9016,7 +9037,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9103,10 +9124,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT41">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU41">
         <v>1.34</v>
@@ -9207,7 +9228,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9294,10 +9315,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT42">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU42">
         <v>1.3</v>
@@ -9398,7 +9419,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9488,7 +9509,7 @@
         <v>1.27</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU43">
         <v>1.57</v>
@@ -9589,7 +9610,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9676,10 +9697,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT44">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -9867,10 +9888,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT45">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU45">
         <v>1.61</v>
@@ -9971,7 +9992,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10058,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT46">
         <v>1.73</v>
@@ -10162,7 +10183,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10544,7 +10565,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10735,7 +10756,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11117,7 +11138,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11308,7 +11329,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11499,7 +11520,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11881,7 +11902,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11971,7 +11992,7 @@
         <v>1.27</v>
       </c>
       <c r="AT56">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU56">
         <v>1.59</v>
@@ -12072,7 +12093,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12159,10 +12180,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU57">
         <v>2.18</v>
@@ -12263,7 +12284,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12350,10 +12371,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT58">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU58">
         <v>2.14</v>
@@ -12541,7 +12562,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT59">
         <v>1.45</v>
@@ -12923,10 +12944,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT61">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU61">
         <v>1.67</v>
@@ -13027,7 +13048,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13114,10 +13135,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT62">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -13308,7 +13329,7 @@
         <v>2.27</v>
       </c>
       <c r="AT63">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU63">
         <v>1.68</v>
@@ -13496,7 +13517,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT64">
         <v>1.73</v>
@@ -13690,7 +13711,7 @@
         <v>1.3</v>
       </c>
       <c r="AT65">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU65">
         <v>1.51</v>
@@ -13791,7 +13812,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14555,7 +14576,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14746,7 +14767,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -15024,7 +15045,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT72">
         <v>0.6</v>
@@ -15128,7 +15149,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15218,7 +15239,7 @@
         <v>1.6</v>
       </c>
       <c r="AT73">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU73">
         <v>1.23</v>
@@ -15319,7 +15340,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15406,10 +15427,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT74">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU74">
         <v>1.22</v>
@@ -15510,7 +15531,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15600,7 +15621,7 @@
         <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU75">
         <v>1.73</v>
@@ -15791,7 +15812,7 @@
         <v>2.27</v>
       </c>
       <c r="AT76">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU76">
         <v>1.68</v>
@@ -15892,7 +15913,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16170,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT78">
         <v>1.18</v>
@@ -16361,10 +16382,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU79">
         <v>1.76</v>
@@ -16552,7 +16573,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT80">
         <v>1.73</v>
@@ -16743,10 +16764,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT81">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU81">
         <v>1.13</v>
@@ -16847,7 +16868,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16934,7 +16955,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT82">
         <v>1.4</v>
@@ -17038,7 +17059,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17128,7 +17149,7 @@
         <v>2.18</v>
       </c>
       <c r="AT83">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU83">
         <v>2.6</v>
@@ -17229,7 +17250,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17420,7 +17441,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17507,7 +17528,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT85">
         <v>0.73</v>
@@ -17611,7 +17632,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17802,7 +17823,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17892,7 +17913,7 @@
         <v>2.2</v>
       </c>
       <c r="AT87">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU87">
         <v>1.61</v>
@@ -18465,7 +18486,7 @@
         <v>1.27</v>
       </c>
       <c r="AT90">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU90">
         <v>2.36</v>
@@ -18653,7 +18674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT91">
         <v>0.6</v>
@@ -18757,7 +18778,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18847,7 +18868,7 @@
         <v>1.2</v>
       </c>
       <c r="AT92">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18948,7 +18969,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19035,7 +19056,7 @@
         <v>0.25</v>
       </c>
       <c r="AS93">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT93">
         <v>0.6</v>
@@ -19139,7 +19160,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19226,7 +19247,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT94">
         <v>1.4</v>
@@ -19420,7 +19441,7 @@
         <v>2.27</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU95">
         <v>1.59</v>
@@ -19611,7 +19632,7 @@
         <v>1.27</v>
       </c>
       <c r="AT96">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU96">
         <v>1.83</v>
@@ -19712,7 +19733,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19799,7 +19820,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>1.73</v>
@@ -19990,7 +20011,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT98">
         <v>1.18</v>
@@ -20094,7 +20115,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20181,10 +20202,10 @@
         <v>1.8</v>
       </c>
       <c r="AS99">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT99">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -20285,7 +20306,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20476,7 +20497,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20563,7 +20584,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT101">
         <v>1.4</v>
@@ -20858,7 +20879,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20948,7 +20969,7 @@
         <v>2.2</v>
       </c>
       <c r="AT103">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU103">
         <v>1.78</v>
@@ -21049,7 +21070,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21139,7 +21160,7 @@
         <v>1.27</v>
       </c>
       <c r="AT104">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU104">
         <v>2.36</v>
@@ -21240,7 +21261,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21327,7 +21348,7 @@
         <v>0.4</v>
       </c>
       <c r="AS105">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT105">
         <v>0.7</v>
@@ -21521,7 +21542,7 @@
         <v>1.7</v>
       </c>
       <c r="AT106">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21622,7 +21643,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -22004,7 +22025,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22195,7 +22216,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22386,7 +22407,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22473,7 +22494,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT111">
         <v>1.73</v>
@@ -22577,7 +22598,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22664,7 +22685,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT112">
         <v>0.73</v>
@@ -22858,7 +22879,7 @@
         <v>1.3</v>
       </c>
       <c r="AT113">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU113">
         <v>1.91</v>
@@ -23240,7 +23261,7 @@
         <v>1.2</v>
       </c>
       <c r="AT115">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU115">
         <v>1.51</v>
@@ -23341,7 +23362,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23431,7 +23452,7 @@
         <v>1.27</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU116">
         <v>2.15</v>
@@ -23619,7 +23640,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT117">
         <v>0.6</v>
@@ -23723,7 +23744,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23810,7 +23831,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT118">
         <v>1.18</v>
@@ -23914,7 +23935,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24001,7 +24022,7 @@
         <v>1.29</v>
       </c>
       <c r="AS119">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT119">
         <v>1.3</v>
@@ -24192,10 +24213,10 @@
         <v>0.29</v>
       </c>
       <c r="AS120">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT120">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU120">
         <v>1.86</v>
@@ -24296,7 +24317,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24386,7 +24407,7 @@
         <v>1.5</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU121">
         <v>1.92</v>
@@ -24487,7 +24508,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24574,7 +24595,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
         <v>1.4</v>
@@ -24768,7 +24789,7 @@
         <v>1.6</v>
       </c>
       <c r="AT123">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -24869,7 +24890,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24959,7 +24980,7 @@
         <v>2</v>
       </c>
       <c r="AT124">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU124">
         <v>2.13</v>
@@ -25060,7 +25081,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25341,7 +25362,7 @@
         <v>1.7</v>
       </c>
       <c r="AT126">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -25442,7 +25463,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25529,7 +25550,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT127">
         <v>0.7</v>
@@ -25723,7 +25744,7 @@
         <v>2.27</v>
       </c>
       <c r="AT128">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -25824,7 +25845,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25911,7 +25932,7 @@
         <v>0.29</v>
       </c>
       <c r="AS129">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT129">
         <v>0.73</v>
@@ -26105,7 +26126,7 @@
         <v>2.2</v>
       </c>
       <c r="AT130">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU130">
         <v>1.74</v>
@@ -26293,7 +26314,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT131">
         <v>1.4</v>
@@ -26397,7 +26418,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26588,7 +26609,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26779,7 +26800,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26970,7 +26991,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27161,7 +27182,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27248,7 +27269,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT136">
         <v>0.6</v>
@@ -27543,7 +27564,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27633,7 +27654,7 @@
         <v>2.18</v>
       </c>
       <c r="AT138">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU138">
         <v>2.36</v>
@@ -27824,7 +27845,7 @@
         <v>1.7</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU139">
         <v>1.49</v>
@@ -28015,7 +28036,7 @@
         <v>1.6</v>
       </c>
       <c r="AT140">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU140">
         <v>1.57</v>
@@ -28203,7 +28224,7 @@
         <v>2.57</v>
       </c>
       <c r="AS141">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT141">
         <v>2.2</v>
@@ -28307,7 +28328,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28394,10 +28415,10 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT142">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU142">
         <v>1.6</v>
@@ -28498,7 +28519,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28585,7 +28606,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT143">
         <v>1.3</v>
@@ -28689,7 +28710,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -28776,7 +28797,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT144">
         <v>0.7</v>
@@ -28967,10 +28988,10 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT145">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU145">
         <v>1.69</v>
@@ -29071,7 +29092,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29262,7 +29283,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29352,7 +29373,7 @@
         <v>1.5</v>
       </c>
       <c r="AT147">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU147">
         <v>1.84</v>
@@ -29453,7 +29474,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29543,7 +29564,7 @@
         <v>1.27</v>
       </c>
       <c r="AT148">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU148">
         <v>2.02</v>
@@ -29644,7 +29665,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29731,7 +29752,7 @@
         <v>0.63</v>
       </c>
       <c r="AS149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT149">
         <v>0.73</v>
@@ -29835,7 +29856,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29922,7 +29943,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT150">
         <v>0.6</v>
@@ -30026,7 +30047,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30408,7 +30429,7 @@
         <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30790,7 +30811,7 @@
         <v>90</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30981,7 +31002,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31259,7 +31280,7 @@
         <v>1.38</v>
       </c>
       <c r="AS157">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT157">
         <v>1.4</v>
@@ -31745,7 +31766,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32026,7 +32047,7 @@
         <v>1.3</v>
       </c>
       <c r="AT161">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU161">
         <v>1.71</v>
@@ -32127,7 +32148,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32214,7 +32235,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT162">
         <v>0.7</v>
@@ -32318,7 +32339,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32509,7 +32530,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32596,10 +32617,10 @@
         <v>2.13</v>
       </c>
       <c r="AS164">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT164">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU164">
         <v>1.52</v>
@@ -32700,7 +32721,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32790,7 +32811,7 @@
         <v>2.18</v>
       </c>
       <c r="AT165">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU165">
         <v>2.28</v>
@@ -33273,7 +33294,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33360,10 +33381,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS168">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT168">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU168">
         <v>1.37</v>
@@ -33551,10 +33572,10 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT169">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU169">
         <v>1.84</v>
@@ -33745,7 +33766,7 @@
         <v>2</v>
       </c>
       <c r="AT170">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU170">
         <v>2.11</v>
@@ -33846,7 +33867,7 @@
         <v>90</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33933,7 +33954,7 @@
         <v>2.25</v>
       </c>
       <c r="AS171">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT171">
         <v>2.2</v>
@@ -34124,10 +34145,10 @@
         <v>0.88</v>
       </c>
       <c r="AS172">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT172">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU172">
         <v>1.61</v>
@@ -34228,7 +34249,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34419,7 +34440,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34801,7 +34822,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34992,7 +35013,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35183,7 +35204,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35270,7 +35291,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT178">
         <v>2.2</v>
@@ -35947,7 +35968,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36280,6 +36301,1343 @@
       </c>
       <c r="BK183">
         <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2467767</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44975.375</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>70</v>
+      </c>
+      <c r="H184" t="s">
+        <v>67</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>218</v>
+      </c>
+      <c r="P184" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q184">
+        <v>3</v>
+      </c>
+      <c r="R184">
+        <v>9</v>
+      </c>
+      <c r="S184">
+        <v>12</v>
+      </c>
+      <c r="T184">
+        <v>3.2</v>
+      </c>
+      <c r="U184">
+        <v>2.3</v>
+      </c>
+      <c r="V184">
+        <v>2.8</v>
+      </c>
+      <c r="W184">
+        <v>1.3</v>
+      </c>
+      <c r="X184">
+        <v>3.2</v>
+      </c>
+      <c r="Y184">
+        <v>2.45</v>
+      </c>
+      <c r="Z184">
+        <v>1.47</v>
+      </c>
+      <c r="AA184">
+        <v>5.75</v>
+      </c>
+      <c r="AB184">
+        <v>1.11</v>
+      </c>
+      <c r="AC184">
+        <v>2.9</v>
+      </c>
+      <c r="AD184">
+        <v>3.35</v>
+      </c>
+      <c r="AE184">
+        <v>2.25</v>
+      </c>
+      <c r="AF184">
+        <v>1.03</v>
+      </c>
+      <c r="AG184">
+        <v>11</v>
+      </c>
+      <c r="AH184">
+        <v>1.22</v>
+      </c>
+      <c r="AI184">
+        <v>4</v>
+      </c>
+      <c r="AJ184">
+        <v>1.72</v>
+      </c>
+      <c r="AK184">
+        <v>2.12</v>
+      </c>
+      <c r="AL184">
+        <v>1.52</v>
+      </c>
+      <c r="AM184">
+        <v>2.35</v>
+      </c>
+      <c r="AN184">
+        <v>1.62</v>
+      </c>
+      <c r="AO184">
+        <v>1.33</v>
+      </c>
+      <c r="AP184">
+        <v>1.32</v>
+      </c>
+      <c r="AQ184">
+        <v>0.89</v>
+      </c>
+      <c r="AR184">
+        <v>0.6</v>
+      </c>
+      <c r="AS184">
+        <v>0.8</v>
+      </c>
+      <c r="AT184">
+        <v>0.82</v>
+      </c>
+      <c r="AU184">
+        <v>1.66</v>
+      </c>
+      <c r="AV184">
+        <v>1.64</v>
+      </c>
+      <c r="AW184">
+        <v>3.3</v>
+      </c>
+      <c r="AX184">
+        <v>2.28</v>
+      </c>
+      <c r="AY184">
+        <v>8</v>
+      </c>
+      <c r="AZ184">
+        <v>1.85</v>
+      </c>
+      <c r="BA184">
+        <v>1.18</v>
+      </c>
+      <c r="BB184">
+        <v>1.43</v>
+      </c>
+      <c r="BC184">
+        <v>1.67</v>
+      </c>
+      <c r="BD184">
+        <v>2.05</v>
+      </c>
+      <c r="BE184">
+        <v>2.6</v>
+      </c>
+      <c r="BF184">
+        <v>5</v>
+      </c>
+      <c r="BG184">
+        <v>4</v>
+      </c>
+      <c r="BH184">
+        <v>6</v>
+      </c>
+      <c r="BI184">
+        <v>9</v>
+      </c>
+      <c r="BJ184">
+        <v>11</v>
+      </c>
+      <c r="BK184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2467766</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44975.375</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>69</v>
+      </c>
+      <c r="H185" t="s">
+        <v>79</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>219</v>
+      </c>
+      <c r="P185" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q185">
+        <v>9</v>
+      </c>
+      <c r="R185">
+        <v>6</v>
+      </c>
+      <c r="S185">
+        <v>15</v>
+      </c>
+      <c r="T185">
+        <v>3.3</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>3</v>
+      </c>
+      <c r="W185">
+        <v>1.39</v>
+      </c>
+      <c r="X185">
+        <v>2.8</v>
+      </c>
+      <c r="Y185">
+        <v>2.7</v>
+      </c>
+      <c r="Z185">
+        <v>1.41</v>
+      </c>
+      <c r="AA185">
+        <v>6.45</v>
+      </c>
+      <c r="AB185">
+        <v>1.09</v>
+      </c>
+      <c r="AC185">
+        <v>2.8</v>
+      </c>
+      <c r="AD185">
+        <v>3.15</v>
+      </c>
+      <c r="AE185">
+        <v>2.43</v>
+      </c>
+      <c r="AF185">
+        <v>1.05</v>
+      </c>
+      <c r="AG185">
+        <v>9</v>
+      </c>
+      <c r="AH185">
+        <v>1.28</v>
+      </c>
+      <c r="AI185">
+        <v>3.5</v>
+      </c>
+      <c r="AJ185">
+        <v>1.9</v>
+      </c>
+      <c r="AK185">
+        <v>1.9</v>
+      </c>
+      <c r="AL185">
+        <v>1.68</v>
+      </c>
+      <c r="AM185">
+        <v>2.15</v>
+      </c>
+      <c r="AN185">
+        <v>1.45</v>
+      </c>
+      <c r="AO185">
+        <v>1.25</v>
+      </c>
+      <c r="AP185">
+        <v>1.42</v>
+      </c>
+      <c r="AQ185">
+        <v>1.3</v>
+      </c>
+      <c r="AR185">
+        <v>1.1</v>
+      </c>
+      <c r="AS185">
+        <v>1.27</v>
+      </c>
+      <c r="AT185">
+        <v>1.09</v>
+      </c>
+      <c r="AU185">
+        <v>1.39</v>
+      </c>
+      <c r="AV185">
+        <v>1.48</v>
+      </c>
+      <c r="AW185">
+        <v>2.87</v>
+      </c>
+      <c r="AX185">
+        <v>1.85</v>
+      </c>
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
+        <v>2.28</v>
+      </c>
+      <c r="BA185">
+        <v>1.2</v>
+      </c>
+      <c r="BB185">
+        <v>1.48</v>
+      </c>
+      <c r="BC185">
+        <v>1.73</v>
+      </c>
+      <c r="BD185">
+        <v>2.1</v>
+      </c>
+      <c r="BE185">
+        <v>2.7</v>
+      </c>
+      <c r="BF185">
+        <v>11</v>
+      </c>
+      <c r="BG185">
+        <v>8</v>
+      </c>
+      <c r="BH185">
+        <v>4</v>
+      </c>
+      <c r="BI185">
+        <v>2</v>
+      </c>
+      <c r="BJ185">
+        <v>15</v>
+      </c>
+      <c r="BK185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2467760</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44975.375</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>66</v>
+      </c>
+      <c r="H186" t="s">
+        <v>75</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>220</v>
+      </c>
+      <c r="P186" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q186">
+        <v>5</v>
+      </c>
+      <c r="R186">
+        <v>4</v>
+      </c>
+      <c r="S186">
+        <v>9</v>
+      </c>
+      <c r="T186">
+        <v>3.1</v>
+      </c>
+      <c r="U186">
+        <v>2.1</v>
+      </c>
+      <c r="V186">
+        <v>3.3</v>
+      </c>
+      <c r="W186">
+        <v>1.4</v>
+      </c>
+      <c r="X186">
+        <v>2.7</v>
+      </c>
+      <c r="Y186">
+        <v>2.8</v>
+      </c>
+      <c r="Z186">
+        <v>1.37</v>
+      </c>
+      <c r="AA186">
+        <v>7.25</v>
+      </c>
+      <c r="AB186">
+        <v>1.08</v>
+      </c>
+      <c r="AC186">
+        <v>2.4</v>
+      </c>
+      <c r="AD186">
+        <v>3.2</v>
+      </c>
+      <c r="AE186">
+        <v>2.8</v>
+      </c>
+      <c r="AF186">
+        <v>1.04</v>
+      </c>
+      <c r="AG186">
+        <v>9.5</v>
+      </c>
+      <c r="AH186">
+        <v>1.3</v>
+      </c>
+      <c r="AI186">
+        <v>3.4</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.81</v>
+      </c>
+      <c r="AL186">
+        <v>1.67</v>
+      </c>
+      <c r="AM186">
+        <v>2.05</v>
+      </c>
+      <c r="AN186">
+        <v>1.42</v>
+      </c>
+      <c r="AO186">
+        <v>1.35</v>
+      </c>
+      <c r="AP186">
+        <v>1.47</v>
+      </c>
+      <c r="AQ186">
+        <v>1.7</v>
+      </c>
+      <c r="AR186">
+        <v>1</v>
+      </c>
+      <c r="AS186">
+        <v>1.82</v>
+      </c>
+      <c r="AT186">
+        <v>0.91</v>
+      </c>
+      <c r="AU186">
+        <v>1.87</v>
+      </c>
+      <c r="AV186">
+        <v>1.63</v>
+      </c>
+      <c r="AW186">
+        <v>3.5</v>
+      </c>
+      <c r="AX186">
+        <v>1.69</v>
+      </c>
+      <c r="AY186">
+        <v>8</v>
+      </c>
+      <c r="AZ186">
+        <v>2.54</v>
+      </c>
+      <c r="BA186">
+        <v>1.18</v>
+      </c>
+      <c r="BB186">
+        <v>1.43</v>
+      </c>
+      <c r="BC186">
+        <v>1.67</v>
+      </c>
+      <c r="BD186">
+        <v>2.05</v>
+      </c>
+      <c r="BE186">
+        <v>2.6</v>
+      </c>
+      <c r="BF186">
+        <v>6</v>
+      </c>
+      <c r="BG186">
+        <v>3</v>
+      </c>
+      <c r="BH186">
+        <v>7</v>
+      </c>
+      <c r="BI186">
+        <v>5</v>
+      </c>
+      <c r="BJ186">
+        <v>13</v>
+      </c>
+      <c r="BK186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2467764</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44975.6875</v>
+      </c>
+      <c r="F187">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>72</v>
+      </c>
+      <c r="H187" t="s">
+        <v>74</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>90</v>
+      </c>
+      <c r="P187" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q187">
+        <v>9</v>
+      </c>
+      <c r="R187">
+        <v>5</v>
+      </c>
+      <c r="S187">
+        <v>14</v>
+      </c>
+      <c r="T187">
+        <v>3.75</v>
+      </c>
+      <c r="U187">
+        <v>2.1</v>
+      </c>
+      <c r="V187">
+        <v>2.7</v>
+      </c>
+      <c r="W187">
+        <v>1.39</v>
+      </c>
+      <c r="X187">
+        <v>2.8</v>
+      </c>
+      <c r="Y187">
+        <v>2.8</v>
+      </c>
+      <c r="Z187">
+        <v>1.39</v>
+      </c>
+      <c r="AA187">
+        <v>6.95</v>
+      </c>
+      <c r="AB187">
+        <v>1.07</v>
+      </c>
+      <c r="AC187">
+        <v>3.5</v>
+      </c>
+      <c r="AD187">
+        <v>3.42</v>
+      </c>
+      <c r="AE187">
+        <v>2.1</v>
+      </c>
+      <c r="AF187">
+        <v>1.04</v>
+      </c>
+      <c r="AG187">
+        <v>9.5</v>
+      </c>
+      <c r="AH187">
+        <v>1.3</v>
+      </c>
+      <c r="AI187">
+        <v>3.3</v>
+      </c>
+      <c r="AJ187">
+        <v>1.93</v>
+      </c>
+      <c r="AK187">
+        <v>1.87</v>
+      </c>
+      <c r="AL187">
+        <v>1.75</v>
+      </c>
+      <c r="AM187">
+        <v>2</v>
+      </c>
+      <c r="AN187">
+        <v>1.75</v>
+      </c>
+      <c r="AO187">
+        <v>1.25</v>
+      </c>
+      <c r="AP187">
+        <v>1.3</v>
+      </c>
+      <c r="AQ187">
+        <v>1</v>
+      </c>
+      <c r="AR187">
+        <v>2.22</v>
+      </c>
+      <c r="AS187">
+        <v>0.91</v>
+      </c>
+      <c r="AT187">
+        <v>2.3</v>
+      </c>
+      <c r="AU187">
+        <v>1.66</v>
+      </c>
+      <c r="AV187">
+        <v>1.71</v>
+      </c>
+      <c r="AW187">
+        <v>3.37</v>
+      </c>
+      <c r="AX187">
+        <v>2.64</v>
+      </c>
+      <c r="AY187">
+        <v>8.5</v>
+      </c>
+      <c r="AZ187">
+        <v>1.64</v>
+      </c>
+      <c r="BA187">
+        <v>1.21</v>
+      </c>
+      <c r="BB187">
+        <v>1.48</v>
+      </c>
+      <c r="BC187">
+        <v>1.73</v>
+      </c>
+      <c r="BD187">
+        <v>2.1</v>
+      </c>
+      <c r="BE187">
+        <v>2.7</v>
+      </c>
+      <c r="BF187">
+        <v>0</v>
+      </c>
+      <c r="BG187">
+        <v>8</v>
+      </c>
+      <c r="BH187">
+        <v>7</v>
+      </c>
+      <c r="BI187">
+        <v>4</v>
+      </c>
+      <c r="BJ187">
+        <v>7</v>
+      </c>
+      <c r="BK187">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2467765</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44976.39583333334</v>
+      </c>
+      <c r="F188">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>68</v>
+      </c>
+      <c r="H188" t="s">
+        <v>80</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>3</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>90</v>
+      </c>
+      <c r="P188" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q188">
+        <v>4</v>
+      </c>
+      <c r="R188">
+        <v>6</v>
+      </c>
+      <c r="S188">
+        <v>10</v>
+      </c>
+      <c r="T188">
+        <v>3.6</v>
+      </c>
+      <c r="U188">
+        <v>2.2</v>
+      </c>
+      <c r="V188">
+        <v>2.88</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>2.75</v>
+      </c>
+      <c r="Y188">
+        <v>2.75</v>
+      </c>
+      <c r="Z188">
+        <v>1.4</v>
+      </c>
+      <c r="AA188">
+        <v>8</v>
+      </c>
+      <c r="AB188">
+        <v>1.08</v>
+      </c>
+      <c r="AC188">
+        <v>3</v>
+      </c>
+      <c r="AD188">
+        <v>3.5</v>
+      </c>
+      <c r="AE188">
+        <v>2.28</v>
+      </c>
+      <c r="AF188">
+        <v>1.06</v>
+      </c>
+      <c r="AG188">
+        <v>8</v>
+      </c>
+      <c r="AH188">
+        <v>1.28</v>
+      </c>
+      <c r="AI188">
+        <v>3.5</v>
+      </c>
+      <c r="AJ188">
+        <v>1.83</v>
+      </c>
+      <c r="AK188">
+        <v>1.8</v>
+      </c>
+      <c r="AL188">
+        <v>1.67</v>
+      </c>
+      <c r="AM188">
+        <v>2.1</v>
+      </c>
+      <c r="AN188">
+        <v>1.6</v>
+      </c>
+      <c r="AO188">
+        <v>1.31</v>
+      </c>
+      <c r="AP188">
+        <v>1.36</v>
+      </c>
+      <c r="AQ188">
+        <v>1.22</v>
+      </c>
+      <c r="AR188">
+        <v>0.89</v>
+      </c>
+      <c r="AS188">
+        <v>1.1</v>
+      </c>
+      <c r="AT188">
+        <v>1.1</v>
+      </c>
+      <c r="AU188">
+        <v>1.58</v>
+      </c>
+      <c r="AV188">
+        <v>1.63</v>
+      </c>
+      <c r="AW188">
+        <v>3.21</v>
+      </c>
+      <c r="AX188">
+        <v>2.85</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>1.64</v>
+      </c>
+      <c r="BA188">
+        <v>1.2</v>
+      </c>
+      <c r="BB188">
+        <v>1.4</v>
+      </c>
+      <c r="BC188">
+        <v>1.73</v>
+      </c>
+      <c r="BD188">
+        <v>2.17</v>
+      </c>
+      <c r="BE188">
+        <v>2.88</v>
+      </c>
+      <c r="BF188">
+        <v>0</v>
+      </c>
+      <c r="BG188">
+        <v>9</v>
+      </c>
+      <c r="BH188">
+        <v>5</v>
+      </c>
+      <c r="BI188">
+        <v>7</v>
+      </c>
+      <c r="BJ188">
+        <v>5</v>
+      </c>
+      <c r="BK188">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2467761</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44976.39583333334</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>81</v>
+      </c>
+      <c r="H189" t="s">
+        <v>82</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189" t="s">
+        <v>221</v>
+      </c>
+      <c r="P189" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q189">
+        <v>2</v>
+      </c>
+      <c r="R189">
+        <v>4</v>
+      </c>
+      <c r="S189">
+        <v>6</v>
+      </c>
+      <c r="T189">
+        <v>1.95</v>
+      </c>
+      <c r="U189">
+        <v>2.5</v>
+      </c>
+      <c r="V189">
+        <v>5.5</v>
+      </c>
+      <c r="W189">
+        <v>1.29</v>
+      </c>
+      <c r="X189">
+        <v>3.5</v>
+      </c>
+      <c r="Y189">
+        <v>2.25</v>
+      </c>
+      <c r="Z189">
+        <v>1.57</v>
+      </c>
+      <c r="AA189">
+        <v>5.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.14</v>
+      </c>
+      <c r="AC189">
+        <v>1.47</v>
+      </c>
+      <c r="AD189">
+        <v>4.6</v>
+      </c>
+      <c r="AE189">
+        <v>6.3</v>
+      </c>
+      <c r="AF189">
+        <v>1.02</v>
+      </c>
+      <c r="AG189">
+        <v>12</v>
+      </c>
+      <c r="AH189">
+        <v>1.16</v>
+      </c>
+      <c r="AI189">
+        <v>4.75</v>
+      </c>
+      <c r="AJ189">
+        <v>1.57</v>
+      </c>
+      <c r="AK189">
+        <v>2.15</v>
+      </c>
+      <c r="AL189">
+        <v>1.67</v>
+      </c>
+      <c r="AM189">
+        <v>2.1</v>
+      </c>
+      <c r="AN189">
+        <v>1.13</v>
+      </c>
+      <c r="AO189">
+        <v>1.19</v>
+      </c>
+      <c r="AP189">
+        <v>2.55</v>
+      </c>
+      <c r="AQ189">
+        <v>1.9</v>
+      </c>
+      <c r="AR189">
+        <v>0.8</v>
+      </c>
+      <c r="AS189">
+        <v>2</v>
+      </c>
+      <c r="AT189">
+        <v>0.73</v>
+      </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>1.49</v>
+      </c>
+      <c r="AW189">
+        <v>3.49</v>
+      </c>
+      <c r="AX189">
+        <v>1.23</v>
+      </c>
+      <c r="AY189">
+        <v>11</v>
+      </c>
+      <c r="AZ189">
+        <v>5.1</v>
+      </c>
+      <c r="BA189">
+        <v>1.14</v>
+      </c>
+      <c r="BB189">
+        <v>1.28</v>
+      </c>
+      <c r="BC189">
+        <v>1.57</v>
+      </c>
+      <c r="BD189">
+        <v>2</v>
+      </c>
+      <c r="BE189">
+        <v>2.4</v>
+      </c>
+      <c r="BF189">
+        <v>5</v>
+      </c>
+      <c r="BG189">
+        <v>6</v>
+      </c>
+      <c r="BH189">
+        <v>5</v>
+      </c>
+      <c r="BI189">
+        <v>5</v>
+      </c>
+      <c r="BJ189">
+        <v>10</v>
+      </c>
+      <c r="BK189">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2467762</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44976.39583333334</v>
+      </c>
+      <c r="F190">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>76</v>
+      </c>
+      <c r="H190" t="s">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>3</v>
+      </c>
+      <c r="L190">
+        <v>5</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>5</v>
+      </c>
+      <c r="O190" t="s">
+        <v>222</v>
+      </c>
+      <c r="P190" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q190">
+        <v>5</v>
+      </c>
+      <c r="R190">
+        <v>5</v>
+      </c>
+      <c r="S190">
+        <v>10</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>2.2</v>
+      </c>
+      <c r="V190">
+        <v>4.5</v>
+      </c>
+      <c r="W190">
+        <v>1.4</v>
+      </c>
+      <c r="X190">
+        <v>2.75</v>
+      </c>
+      <c r="Y190">
+        <v>3</v>
+      </c>
+      <c r="Z190">
+        <v>1.36</v>
+      </c>
+      <c r="AA190">
+        <v>8</v>
+      </c>
+      <c r="AB190">
+        <v>1.08</v>
+      </c>
+      <c r="AC190">
+        <v>1.82</v>
+      </c>
+      <c r="AD190">
+        <v>3.6</v>
+      </c>
+      <c r="AE190">
+        <v>4.4</v>
+      </c>
+      <c r="AF190">
+        <v>1.06</v>
+      </c>
+      <c r="AG190">
+        <v>8</v>
+      </c>
+      <c r="AH190">
+        <v>1.33</v>
+      </c>
+      <c r="AI190">
+        <v>3.2</v>
+      </c>
+      <c r="AJ190">
+        <v>1.73</v>
+      </c>
+      <c r="AK190">
+        <v>1.91</v>
+      </c>
+      <c r="AL190">
+        <v>1.83</v>
+      </c>
+      <c r="AM190">
+        <v>1.83</v>
+      </c>
+      <c r="AN190">
+        <v>1.24</v>
+      </c>
+      <c r="AO190">
+        <v>1.29</v>
+      </c>
+      <c r="AP190">
+        <v>1.85</v>
+      </c>
+      <c r="AQ190">
+        <v>2.4</v>
+      </c>
+      <c r="AR190">
+        <v>0.9</v>
+      </c>
+      <c r="AS190">
+        <v>2.45</v>
+      </c>
+      <c r="AT190">
+        <v>0.82</v>
+      </c>
+      <c r="AU190">
+        <v>1.84</v>
+      </c>
+      <c r="AV190">
+        <v>1.26</v>
+      </c>
+      <c r="AW190">
+        <v>3.1</v>
+      </c>
+      <c r="AX190">
+        <v>1.45</v>
+      </c>
+      <c r="AY190">
+        <v>9</v>
+      </c>
+      <c r="AZ190">
+        <v>3.3</v>
+      </c>
+      <c r="BA190">
+        <v>1.2</v>
+      </c>
+      <c r="BB190">
+        <v>1.43</v>
+      </c>
+      <c r="BC190">
+        <v>1.7</v>
+      </c>
+      <c r="BD190">
+        <v>2.1</v>
+      </c>
+      <c r="BE190">
+        <v>2.63</v>
+      </c>
+      <c r="BF190">
+        <v>8</v>
+      </c>
+      <c r="BG190">
+        <v>3</v>
+      </c>
+      <c r="BH190">
+        <v>7</v>
+      </c>
+      <c r="BI190">
+        <v>1</v>
+      </c>
+      <c r="BJ190">
+        <v>15</v>
+      </c>
+      <c r="BK190">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,18 @@
     <t>['18', '23', '38', '81', '86']</t>
   </si>
   <si>
+    <t>['1', '25', '85']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['22', '66', '68']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -718,16 +730,10 @@
     <t>['45+3', '56', '90+1']</t>
   </si>
   <si>
-    <t>['66']</t>
-  </si>
-  <si>
     <t>['12', '37']</t>
   </si>
   <si>
     <t>['17', '59']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['88']</t>
@@ -1344,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +1594,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1675,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT2">
         <v>1.09</v>
@@ -1779,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1970,7 +1976,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2161,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2543,7 +2549,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3116,7 +3122,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3397,7 +3403,7 @@
         <v>2.27</v>
       </c>
       <c r="AT11">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3498,7 +3504,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3585,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT12">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3779,7 +3785,7 @@
         <v>2.45</v>
       </c>
       <c r="AT13">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3967,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT14">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4071,7 +4077,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4158,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT15">
         <v>1.73</v>
@@ -4262,7 +4268,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4453,7 +4459,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4540,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT17">
         <v>1.18</v>
@@ -4835,7 +4841,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4925,7 +4931,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5026,7 +5032,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5599,7 +5605,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6172,7 +6178,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6363,7 +6369,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6554,7 +6560,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6641,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT28">
         <v>0.82</v>
@@ -6745,7 +6751,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6832,7 +6838,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT29">
         <v>1.3</v>
@@ -6936,7 +6942,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7023,10 +7029,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT30">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU30">
         <v>1.3</v>
@@ -7127,7 +7133,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7214,10 +7220,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT31">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU31">
         <v>2.53</v>
@@ -7405,10 +7411,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT32">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU32">
         <v>1.39</v>
@@ -7509,7 +7515,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -8082,7 +8088,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8169,10 +8175,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT36">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU36">
         <v>1.07</v>
@@ -8363,7 +8369,7 @@
         <v>1.7</v>
       </c>
       <c r="AT37">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8464,7 +8470,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8655,7 +8661,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8846,7 +8852,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9037,7 +9043,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9228,7 +9234,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9419,7 +9425,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9610,7 +9616,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9992,7 +9998,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10183,7 +10189,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10273,7 +10279,7 @@
         <v>1.2</v>
       </c>
       <c r="AT47">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU47">
         <v>1.44</v>
@@ -10461,10 +10467,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT48">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -10565,7 +10571,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10756,7 +10762,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10846,7 +10852,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU50">
         <v>2.15</v>
@@ -11034,7 +11040,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT51">
         <v>1.4</v>
@@ -11138,7 +11144,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11225,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT52">
         <v>2.2</v>
@@ -11329,7 +11335,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11416,7 +11422,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT53">
         <v>1.18</v>
@@ -11520,7 +11526,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -11610,7 +11616,7 @@
         <v>1.7</v>
       </c>
       <c r="AT54">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU54">
         <v>1.75</v>
@@ -11798,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT55">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU55">
         <v>1.78</v>
@@ -11902,7 +11908,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12093,7 +12099,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12284,7 +12290,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -13048,7 +13054,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13708,7 +13714,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT65">
         <v>0.73</v>
@@ -13812,7 +13818,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13899,7 +13905,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT66">
         <v>2.2</v>
@@ -14093,7 +14099,7 @@
         <v>2.18</v>
       </c>
       <c r="AT67">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU67">
         <v>2.64</v>
@@ -14284,7 +14290,7 @@
         <v>1.7</v>
       </c>
       <c r="AT68">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU68">
         <v>1.63</v>
@@ -14472,7 +14478,7 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT69">
         <v>1.3</v>
@@ -14576,7 +14582,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14663,7 +14669,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT70">
         <v>1.4</v>
@@ -14767,7 +14773,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -14857,7 +14863,7 @@
         <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU71">
         <v>2.15</v>
@@ -15048,7 +15054,7 @@
         <v>0.8</v>
       </c>
       <c r="AT72">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU72">
         <v>1.7</v>
@@ -15149,7 +15155,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15236,7 +15242,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT73">
         <v>2.3</v>
@@ -15340,7 +15346,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15531,7 +15537,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15913,7 +15919,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16868,7 +16874,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16958,7 +16964,7 @@
         <v>1.82</v>
       </c>
       <c r="AT82">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU82">
         <v>1.98</v>
@@ -17059,7 +17065,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17250,7 +17256,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17441,7 +17447,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17531,7 +17537,7 @@
         <v>1.82</v>
       </c>
       <c r="AT85">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17632,7 +17638,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17719,7 +17725,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT86">
         <v>1.4</v>
@@ -17823,7 +17829,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17910,7 +17916,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT87">
         <v>0.73</v>
@@ -18292,10 +18298,10 @@
         <v>0.25</v>
       </c>
       <c r="AS89">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT89">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU89">
         <v>1.36</v>
@@ -18483,7 +18489,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT90">
         <v>0.82</v>
@@ -18677,7 +18683,7 @@
         <v>0.8</v>
       </c>
       <c r="AT91">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU91">
         <v>1.73</v>
@@ -18778,7 +18784,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18969,7 +18975,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19059,7 +19065,7 @@
         <v>1.27</v>
       </c>
       <c r="AT93">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU93">
         <v>1.11</v>
@@ -19160,7 +19166,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19250,7 +19256,7 @@
         <v>0.91</v>
       </c>
       <c r="AT94">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU94">
         <v>1.72</v>
@@ -19733,7 +19739,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20115,7 +20121,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20306,7 +20312,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20393,7 +20399,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT100">
         <v>1.45</v>
@@ -20497,7 +20503,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20879,7 +20885,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20966,7 +20972,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT103">
         <v>0.82</v>
@@ -21070,7 +21076,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21157,7 +21163,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT104">
         <v>2.3</v>
@@ -21261,7 +21267,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21351,7 +21357,7 @@
         <v>0.8</v>
       </c>
       <c r="AT105">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU105">
         <v>1.78</v>
@@ -21643,7 +21649,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21730,10 +21736,10 @@
         <v>0.6</v>
       </c>
       <c r="AS107">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT107">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -21924,7 +21930,7 @@
         <v>2.18</v>
       </c>
       <c r="AT108">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU108">
         <v>2.51</v>
@@ -22025,7 +22031,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22112,7 +22118,7 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT109">
         <v>1.3</v>
@@ -22216,7 +22222,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22407,7 +22413,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22598,7 +22604,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22688,7 +22694,7 @@
         <v>1.27</v>
       </c>
       <c r="AT112">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU112">
         <v>1.19</v>
@@ -22876,7 +22882,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT113">
         <v>1.09</v>
@@ -23070,7 +23076,7 @@
         <v>1.27</v>
       </c>
       <c r="AT114">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -23362,7 +23368,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23449,7 +23455,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT116">
         <v>0.91</v>
@@ -23643,7 +23649,7 @@
         <v>2.45</v>
       </c>
       <c r="AT117">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU117">
         <v>1.86</v>
@@ -23744,7 +23750,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23935,7 +23941,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24317,7 +24323,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24404,7 +24410,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT121">
         <v>0.91</v>
@@ -24508,7 +24514,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24786,7 +24792,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT123">
         <v>0.82</v>
@@ -24890,7 +24896,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25081,7 +25087,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25463,7 +25469,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25553,7 +25559,7 @@
         <v>1.1</v>
       </c>
       <c r="AT127">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU127">
         <v>1.42</v>
@@ -25845,7 +25851,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25935,7 +25941,7 @@
         <v>0.91</v>
       </c>
       <c r="AT129">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU129">
         <v>1.54</v>
@@ -26123,7 +26129,7 @@
         <v>0.29</v>
       </c>
       <c r="AS130">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT130">
         <v>0.82</v>
@@ -26317,7 +26323,7 @@
         <v>2.45</v>
       </c>
       <c r="AT131">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU131">
         <v>1.8</v>
@@ -26418,7 +26424,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26505,7 +26511,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT132">
         <v>1.45</v>
@@ -26609,7 +26615,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26800,7 +26806,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26890,7 +26896,7 @@
         <v>1.27</v>
       </c>
       <c r="AT134">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU134">
         <v>1.75</v>
@@ -26991,7 +26997,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27078,7 +27084,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT135">
         <v>1.18</v>
@@ -27182,7 +27188,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27272,7 +27278,7 @@
         <v>2</v>
       </c>
       <c r="AT136">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU136">
         <v>1.85</v>
@@ -27564,7 +27570,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28033,7 +28039,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT140">
         <v>1.1</v>
@@ -28328,7 +28334,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28519,7 +28525,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28800,7 +28806,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU144">
         <v>1.29</v>
@@ -29092,7 +29098,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29179,7 +29185,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT146">
         <v>1.73</v>
@@ -29283,7 +29289,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29370,7 +29376,7 @@
         <v>1.25</v>
       </c>
       <c r="AS147">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT147">
         <v>1.09</v>
@@ -29474,7 +29480,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29561,7 +29567,7 @@
         <v>0.25</v>
       </c>
       <c r="AS148">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT148">
         <v>0.82</v>
@@ -29665,7 +29671,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29755,7 +29761,7 @@
         <v>2</v>
       </c>
       <c r="AT149">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU149">
         <v>1.97</v>
@@ -29856,7 +29862,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29946,7 +29952,7 @@
         <v>2.45</v>
       </c>
       <c r="AT150">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU150">
         <v>1.78</v>
@@ -30047,7 +30053,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30328,7 +30334,7 @@
         <v>2.27</v>
       </c>
       <c r="AT152">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU152">
         <v>1.75</v>
@@ -30429,7 +30435,7 @@
         <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30707,10 +30713,10 @@
         <v>1.14</v>
       </c>
       <c r="AS154">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT154">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU154">
         <v>1.68</v>
@@ -30811,7 +30817,7 @@
         <v>90</v>
       </c>
       <c r="P155" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30898,10 +30904,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT155">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU155">
         <v>1.94</v>
@@ -31002,7 +31008,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31089,7 +31095,7 @@
         <v>1.11</v>
       </c>
       <c r="AS156">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT156">
         <v>1.18</v>
@@ -31471,10 +31477,10 @@
         <v>0.75</v>
       </c>
       <c r="AS158">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT158">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU158">
         <v>1.8</v>
@@ -31665,7 +31671,7 @@
         <v>2.27</v>
       </c>
       <c r="AT159">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU159">
         <v>1.72</v>
@@ -31766,7 +31772,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32044,7 +32050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS161">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT161">
         <v>0.82</v>
@@ -32148,7 +32154,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32238,7 +32244,7 @@
         <v>2</v>
       </c>
       <c r="AT162">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU162">
         <v>2.01</v>
@@ -32339,7 +32345,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32429,7 +32435,7 @@
         <v>1.2</v>
       </c>
       <c r="AT163">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU163">
         <v>1.55</v>
@@ -32530,7 +32536,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32721,7 +32727,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32999,7 +33005,7 @@
         <v>1.44</v>
       </c>
       <c r="AS166">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT166">
         <v>1.45</v>
@@ -33294,7 +33300,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33867,7 +33873,7 @@
         <v>90</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34249,7 +34255,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34440,7 +34446,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34527,10 +34533,10 @@
         <v>0.67</v>
       </c>
       <c r="AS174">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT174">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU174">
         <v>1.92</v>
@@ -34718,10 +34724,10 @@
         <v>0.67</v>
       </c>
       <c r="AS175">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT175">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU175">
         <v>1.79</v>
@@ -34822,7 +34828,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34912,7 +34918,7 @@
         <v>1.7</v>
       </c>
       <c r="AT176">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU176">
         <v>1.51</v>
@@ -35013,7 +35019,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35100,7 +35106,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT177">
         <v>1.18</v>
@@ -35204,7 +35210,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35485,7 +35491,7 @@
         <v>2.27</v>
       </c>
       <c r="AT179">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU179">
         <v>1.72</v>
@@ -35864,10 +35870,10 @@
         <v>0.8</v>
       </c>
       <c r="AS181">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT181">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU181">
         <v>1.85</v>
@@ -35968,7 +35974,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36350,7 +36356,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36541,7 +36547,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -36732,7 +36738,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37114,7 +37120,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37305,7 +37311,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q189">
         <v>2</v>
@@ -37638,6 +37644,961 @@
       </c>
       <c r="BK190">
         <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2467776</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44981.60416666666</v>
+      </c>
+      <c r="F191">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>80</v>
+      </c>
+      <c r="H191" t="s">
+        <v>69</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>158</v>
+      </c>
+      <c r="P191" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q191">
+        <v>2</v>
+      </c>
+      <c r="R191">
+        <v>4</v>
+      </c>
+      <c r="S191">
+        <v>6</v>
+      </c>
+      <c r="T191">
+        <v>2.35</v>
+      </c>
+      <c r="U191">
+        <v>2.15</v>
+      </c>
+      <c r="V191">
+        <v>4.2</v>
+      </c>
+      <c r="W191">
+        <v>1.35</v>
+      </c>
+      <c r="X191">
+        <v>3.05</v>
+      </c>
+      <c r="Y191">
+        <v>2.64</v>
+      </c>
+      <c r="Z191">
+        <v>1.45</v>
+      </c>
+      <c r="AA191">
+        <v>6.5</v>
+      </c>
+      <c r="AB191">
+        <v>1.09</v>
+      </c>
+      <c r="AC191">
+        <v>1.75</v>
+      </c>
+      <c r="AD191">
+        <v>3.6</v>
+      </c>
+      <c r="AE191">
+        <v>4.2</v>
+      </c>
+      <c r="AF191">
+        <v>1.05</v>
+      </c>
+      <c r="AG191">
+        <v>9</v>
+      </c>
+      <c r="AH191">
+        <v>1.29</v>
+      </c>
+      <c r="AI191">
+        <v>3.5</v>
+      </c>
+      <c r="AJ191">
+        <v>1.72</v>
+      </c>
+      <c r="AK191">
+        <v>1.89</v>
+      </c>
+      <c r="AL191">
+        <v>1.73</v>
+      </c>
+      <c r="AM191">
+        <v>1.95</v>
+      </c>
+      <c r="AN191">
+        <v>1.22</v>
+      </c>
+      <c r="AO191">
+        <v>1.26</v>
+      </c>
+      <c r="AP191">
+        <v>1.95</v>
+      </c>
+      <c r="AQ191">
+        <v>1.27</v>
+      </c>
+      <c r="AR191">
+        <v>0.6</v>
+      </c>
+      <c r="AS191">
+        <v>1.42</v>
+      </c>
+      <c r="AT191">
+        <v>0.55</v>
+      </c>
+      <c r="AU191">
+        <v>1.96</v>
+      </c>
+      <c r="AV191">
+        <v>1.35</v>
+      </c>
+      <c r="AW191">
+        <v>3.31</v>
+      </c>
+      <c r="AX191">
+        <v>1.45</v>
+      </c>
+      <c r="AY191">
+        <v>9</v>
+      </c>
+      <c r="AZ191">
+        <v>3.3</v>
+      </c>
+      <c r="BA191">
+        <v>1.2</v>
+      </c>
+      <c r="BB191">
+        <v>1.48</v>
+      </c>
+      <c r="BC191">
+        <v>1.73</v>
+      </c>
+      <c r="BD191">
+        <v>2.1</v>
+      </c>
+      <c r="BE191">
+        <v>2.7</v>
+      </c>
+      <c r="BF191">
+        <v>5</v>
+      </c>
+      <c r="BG191">
+        <v>5</v>
+      </c>
+      <c r="BH191">
+        <v>13</v>
+      </c>
+      <c r="BI191">
+        <v>11</v>
+      </c>
+      <c r="BJ191">
+        <v>18</v>
+      </c>
+      <c r="BK191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2467774</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44981.60416666666</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>75</v>
+      </c>
+      <c r="H192" t="s">
+        <v>73</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>223</v>
+      </c>
+      <c r="P192" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q192">
+        <v>6</v>
+      </c>
+      <c r="R192">
+        <v>3</v>
+      </c>
+      <c r="S192">
+        <v>9</v>
+      </c>
+      <c r="T192">
+        <v>2.2</v>
+      </c>
+      <c r="U192">
+        <v>2.2</v>
+      </c>
+      <c r="V192">
+        <v>4.75</v>
+      </c>
+      <c r="W192">
+        <v>1.34</v>
+      </c>
+      <c r="X192">
+        <v>3.1</v>
+      </c>
+      <c r="Y192">
+        <v>2.61</v>
+      </c>
+      <c r="Z192">
+        <v>1.46</v>
+      </c>
+      <c r="AA192">
+        <v>6.3</v>
+      </c>
+      <c r="AB192">
+        <v>1.1</v>
+      </c>
+      <c r="AC192">
+        <v>1.65</v>
+      </c>
+      <c r="AD192">
+        <v>3.75</v>
+      </c>
+      <c r="AE192">
+        <v>4.75</v>
+      </c>
+      <c r="AF192">
+        <v>1.05</v>
+      </c>
+      <c r="AG192">
+        <v>9</v>
+      </c>
+      <c r="AH192">
+        <v>1.25</v>
+      </c>
+      <c r="AI192">
+        <v>3.75</v>
+      </c>
+      <c r="AJ192">
+        <v>1.72</v>
+      </c>
+      <c r="AK192">
+        <v>1.89</v>
+      </c>
+      <c r="AL192">
+        <v>1.77</v>
+      </c>
+      <c r="AM192">
+        <v>1.9</v>
+      </c>
+      <c r="AN192">
+        <v>1.17</v>
+      </c>
+      <c r="AO192">
+        <v>1.25</v>
+      </c>
+      <c r="AP192">
+        <v>2.15</v>
+      </c>
+      <c r="AQ192">
+        <v>2.2</v>
+      </c>
+      <c r="AR192">
+        <v>0.7</v>
+      </c>
+      <c r="AS192">
+        <v>2.27</v>
+      </c>
+      <c r="AT192">
+        <v>0.64</v>
+      </c>
+      <c r="AU192">
+        <v>1.94</v>
+      </c>
+      <c r="AV192">
+        <v>1.44</v>
+      </c>
+      <c r="AW192">
+        <v>3.38</v>
+      </c>
+      <c r="AX192">
+        <v>1.41</v>
+      </c>
+      <c r="AY192">
+        <v>9</v>
+      </c>
+      <c r="AZ192">
+        <v>3.48</v>
+      </c>
+      <c r="BA192">
+        <v>1.2</v>
+      </c>
+      <c r="BB192">
+        <v>1.43</v>
+      </c>
+      <c r="BC192">
+        <v>1.7</v>
+      </c>
+      <c r="BD192">
+        <v>2.1</v>
+      </c>
+      <c r="BE192">
+        <v>2.63</v>
+      </c>
+      <c r="BF192">
+        <v>8</v>
+      </c>
+      <c r="BG192">
+        <v>5</v>
+      </c>
+      <c r="BH192">
+        <v>7</v>
+      </c>
+      <c r="BI192">
+        <v>15</v>
+      </c>
+      <c r="BJ192">
+        <v>15</v>
+      </c>
+      <c r="BK192">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2467773</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44982.375</v>
+      </c>
+      <c r="F193">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>78</v>
+      </c>
+      <c r="H193" t="s">
+        <v>71</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>224</v>
+      </c>
+      <c r="P193" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q193">
+        <v>4</v>
+      </c>
+      <c r="R193">
+        <v>3</v>
+      </c>
+      <c r="S193">
+        <v>7</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>2.4</v>
+      </c>
+      <c r="V193">
+        <v>3</v>
+      </c>
+      <c r="W193">
+        <v>1.25</v>
+      </c>
+      <c r="X193">
+        <v>3.75</v>
+      </c>
+      <c r="Y193">
+        <v>2.25</v>
+      </c>
+      <c r="Z193">
+        <v>1.57</v>
+      </c>
+      <c r="AA193">
+        <v>5.5</v>
+      </c>
+      <c r="AB193">
+        <v>1.14</v>
+      </c>
+      <c r="AC193">
+        <v>2.45</v>
+      </c>
+      <c r="AD193">
+        <v>3.6</v>
+      </c>
+      <c r="AE193">
+        <v>2.25</v>
+      </c>
+      <c r="AF193">
+        <v>1.02</v>
+      </c>
+      <c r="AG193">
+        <v>12</v>
+      </c>
+      <c r="AH193">
+        <v>1.18</v>
+      </c>
+      <c r="AI193">
+        <v>4.75</v>
+      </c>
+      <c r="AJ193">
+        <v>1.53</v>
+      </c>
+      <c r="AK193">
+        <v>2.2</v>
+      </c>
+      <c r="AL193">
+        <v>1.44</v>
+      </c>
+      <c r="AM193">
+        <v>2.63</v>
+      </c>
+      <c r="AN193">
+        <v>1.53</v>
+      </c>
+      <c r="AO193">
+        <v>1.26</v>
+      </c>
+      <c r="AP193">
+        <v>1.46</v>
+      </c>
+      <c r="AQ193">
+        <v>1.5</v>
+      </c>
+      <c r="AR193">
+        <v>1.4</v>
+      </c>
+      <c r="AS193">
+        <v>1.45</v>
+      </c>
+      <c r="AT193">
+        <v>1.36</v>
+      </c>
+      <c r="AU193">
+        <v>1.96</v>
+      </c>
+      <c r="AV193">
+        <v>1.59</v>
+      </c>
+      <c r="AW193">
+        <v>3.55</v>
+      </c>
+      <c r="AX193">
+        <v>1.69</v>
+      </c>
+      <c r="AY193">
+        <v>8.5</v>
+      </c>
+      <c r="AZ193">
+        <v>2.53</v>
+      </c>
+      <c r="BA193">
+        <v>1.18</v>
+      </c>
+      <c r="BB193">
+        <v>1.43</v>
+      </c>
+      <c r="BC193">
+        <v>1.65</v>
+      </c>
+      <c r="BD193">
+        <v>2</v>
+      </c>
+      <c r="BE193">
+        <v>2.55</v>
+      </c>
+      <c r="BF193">
+        <v>7</v>
+      </c>
+      <c r="BG193">
+        <v>3</v>
+      </c>
+      <c r="BH193">
+        <v>12</v>
+      </c>
+      <c r="BI193">
+        <v>4</v>
+      </c>
+      <c r="BJ193">
+        <v>19</v>
+      </c>
+      <c r="BK193">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2467777</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44982.375</v>
+      </c>
+      <c r="F194">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>65</v>
+      </c>
+      <c r="H194" t="s">
+        <v>66</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>225</v>
+      </c>
+      <c r="P194" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q194">
+        <v>2</v>
+      </c>
+      <c r="R194">
+        <v>7</v>
+      </c>
+      <c r="S194">
+        <v>9</v>
+      </c>
+      <c r="T194">
+        <v>3.4</v>
+      </c>
+      <c r="U194">
+        <v>2.1</v>
+      </c>
+      <c r="V194">
+        <v>3.4</v>
+      </c>
+      <c r="W194">
+        <v>1.44</v>
+      </c>
+      <c r="X194">
+        <v>2.63</v>
+      </c>
+      <c r="Y194">
+        <v>3.25</v>
+      </c>
+      <c r="Z194">
+        <v>1.33</v>
+      </c>
+      <c r="AA194">
+        <v>9</v>
+      </c>
+      <c r="AB194">
+        <v>1.07</v>
+      </c>
+      <c r="AC194">
+        <v>2.35</v>
+      </c>
+      <c r="AD194">
+        <v>3</v>
+      </c>
+      <c r="AE194">
+        <v>2.7</v>
+      </c>
+      <c r="AF194">
+        <v>1.07</v>
+      </c>
+      <c r="AG194">
+        <v>7.5</v>
+      </c>
+      <c r="AH194">
+        <v>1.33</v>
+      </c>
+      <c r="AI194">
+        <v>3.1</v>
+      </c>
+      <c r="AJ194">
+        <v>1.94</v>
+      </c>
+      <c r="AK194">
+        <v>1.8</v>
+      </c>
+      <c r="AL194">
+        <v>1.8</v>
+      </c>
+      <c r="AM194">
+        <v>1.91</v>
+      </c>
+      <c r="AN194">
+        <v>1.47</v>
+      </c>
+      <c r="AO194">
+        <v>1.32</v>
+      </c>
+      <c r="AP194">
+        <v>1.46</v>
+      </c>
+      <c r="AQ194">
+        <v>1.6</v>
+      </c>
+      <c r="AR194">
+        <v>0.6</v>
+      </c>
+      <c r="AS194">
+        <v>1.73</v>
+      </c>
+      <c r="AT194">
+        <v>0.55</v>
+      </c>
+      <c r="AU194">
+        <v>1.54</v>
+      </c>
+      <c r="AV194">
+        <v>1.3</v>
+      </c>
+      <c r="AW194">
+        <v>2.84</v>
+      </c>
+      <c r="AX194">
+        <v>1.85</v>
+      </c>
+      <c r="AY194">
+        <v>8</v>
+      </c>
+      <c r="AZ194">
+        <v>2.28</v>
+      </c>
+      <c r="BA194">
+        <v>1.22</v>
+      </c>
+      <c r="BB194">
+        <v>1.5</v>
+      </c>
+      <c r="BC194">
+        <v>1.8</v>
+      </c>
+      <c r="BD194">
+        <v>2.25</v>
+      </c>
+      <c r="BE194">
+        <v>3.1</v>
+      </c>
+      <c r="BF194">
+        <v>6</v>
+      </c>
+      <c r="BG194">
+        <v>3</v>
+      </c>
+      <c r="BH194">
+        <v>7</v>
+      </c>
+      <c r="BI194">
+        <v>12</v>
+      </c>
+      <c r="BJ194">
+        <v>13</v>
+      </c>
+      <c r="BK194">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2467772</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44982.375</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>77</v>
+      </c>
+      <c r="H195" t="s">
+        <v>68</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>226</v>
+      </c>
+      <c r="P195" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>3</v>
+      </c>
+      <c r="T195">
+        <v>2.6</v>
+      </c>
+      <c r="U195">
+        <v>2.1</v>
+      </c>
+      <c r="V195">
+        <v>4.33</v>
+      </c>
+      <c r="W195">
+        <v>1.4</v>
+      </c>
+      <c r="X195">
+        <v>2.75</v>
+      </c>
+      <c r="Y195">
+        <v>3</v>
+      </c>
+      <c r="Z195">
+        <v>1.36</v>
+      </c>
+      <c r="AA195">
+        <v>8</v>
+      </c>
+      <c r="AB195">
+        <v>1.08</v>
+      </c>
+      <c r="AC195">
+        <v>2</v>
+      </c>
+      <c r="AD195">
+        <v>3.3</v>
+      </c>
+      <c r="AE195">
+        <v>3.05</v>
+      </c>
+      <c r="AF195">
+        <v>1.06</v>
+      </c>
+      <c r="AG195">
+        <v>8</v>
+      </c>
+      <c r="AH195">
+        <v>1.33</v>
+      </c>
+      <c r="AI195">
+        <v>3.2</v>
+      </c>
+      <c r="AJ195">
+        <v>1.76</v>
+      </c>
+      <c r="AK195">
+        <v>1.89</v>
+      </c>
+      <c r="AL195">
+        <v>1.83</v>
+      </c>
+      <c r="AM195">
+        <v>1.83</v>
+      </c>
+      <c r="AN195">
+        <v>1.2</v>
+      </c>
+      <c r="AO195">
+        <v>1.25</v>
+      </c>
+      <c r="AP195">
+        <v>1.8</v>
+      </c>
+      <c r="AQ195">
+        <v>1.3</v>
+      </c>
+      <c r="AR195">
+        <v>0.73</v>
+      </c>
+      <c r="AS195">
+        <v>1.45</v>
+      </c>
+      <c r="AT195">
+        <v>0.67</v>
+      </c>
+      <c r="AU195">
+        <v>1.73</v>
+      </c>
+      <c r="AV195">
+        <v>1.1</v>
+      </c>
+      <c r="AW195">
+        <v>2.83</v>
+      </c>
+      <c r="AX195">
+        <v>1.45</v>
+      </c>
+      <c r="AY195">
+        <v>9</v>
+      </c>
+      <c r="AZ195">
+        <v>3.3</v>
+      </c>
+      <c r="BA195">
+        <v>1.2</v>
+      </c>
+      <c r="BB195">
+        <v>1.45</v>
+      </c>
+      <c r="BC195">
+        <v>1.72</v>
+      </c>
+      <c r="BD195">
+        <v>2.1</v>
+      </c>
+      <c r="BE195">
+        <v>2.7</v>
+      </c>
+      <c r="BF195">
+        <v>5</v>
+      </c>
+      <c r="BG195">
+        <v>4</v>
+      </c>
+      <c r="BH195">
+        <v>4</v>
+      </c>
+      <c r="BI195">
+        <v>9</v>
+      </c>
+      <c r="BJ195">
+        <v>9</v>
+      </c>
+      <c r="BK195">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -791,9 +794,6 @@
   </si>
   <si>
     <t>['11', '17', '22', '79']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['10', '29']</t>
@@ -1350,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1594,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1785,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1976,7 +1976,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2167,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2549,7 +2549,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3122,7 +3122,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3212,7 +3212,7 @@
         <v>1.27</v>
       </c>
       <c r="AT10">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT11">
         <v>0.67</v>
@@ -3504,7 +3504,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4077,7 +4077,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4268,7 +4268,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4459,7 +4459,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4841,7 +4841,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5605,7 +5605,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6178,7 +6178,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6560,7 +6560,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6751,7 +6751,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6942,7 +6942,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7133,7 +7133,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7515,7 +7515,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7605,7 +7605,7 @@
         <v>1.2</v>
       </c>
       <c r="AT33">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU33">
         <v>1.26</v>
@@ -7793,7 +7793,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT34">
         <v>1.4</v>
@@ -8088,7 +8088,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8470,7 +8470,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8661,7 +8661,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8852,7 +8852,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9043,7 +9043,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9234,7 +9234,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9425,7 +9425,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9616,7 +9616,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9998,7 +9998,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10189,7 +10189,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10571,7 +10571,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10658,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT49">
         <v>1.3</v>
@@ -10762,7 +10762,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11144,7 +11144,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11234,7 +11234,7 @@
         <v>1.45</v>
       </c>
       <c r="AT52">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU52">
         <v>1.36</v>
@@ -11335,7 +11335,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11526,7 +11526,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>2</v>
@@ -12099,7 +12099,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -13332,7 +13332,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT63">
         <v>0.73</v>
@@ -13908,7 +13908,7 @@
         <v>1.45</v>
       </c>
       <c r="AT66">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU66">
         <v>1.58</v>
@@ -15815,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT76">
         <v>0.82</v>
@@ -17346,7 +17346,7 @@
         <v>1.7</v>
       </c>
       <c r="AT84">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17638,7 +17638,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -19444,7 +19444,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT95">
         <v>0.91</v>
@@ -19739,7 +19739,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20784,7 +20784,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU102">
         <v>2.09</v>
@@ -22309,7 +22309,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT110">
         <v>1.45</v>
@@ -25177,7 +25177,7 @@
         <v>2.18</v>
       </c>
       <c r="AT125">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU125">
         <v>2.42</v>
@@ -25747,7 +25747,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT128">
         <v>1.09</v>
@@ -28233,7 +28233,7 @@
         <v>1.82</v>
       </c>
       <c r="AT141">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU141">
         <v>1.87</v>
@@ -30331,7 +30331,7 @@
         <v>0.71</v>
       </c>
       <c r="AS152">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT152">
         <v>0.55</v>
@@ -31668,7 +31668,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT159">
         <v>0.55</v>
@@ -32727,7 +32727,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33963,7 +33963,7 @@
         <v>0.91</v>
       </c>
       <c r="AT171">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU171">
         <v>1.64</v>
@@ -34446,7 +34446,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -35300,7 +35300,7 @@
         <v>2.45</v>
       </c>
       <c r="AT178">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AU178">
         <v>1.76</v>
@@ -35488,7 +35488,7 @@
         <v>0.78</v>
       </c>
       <c r="AS179">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT179">
         <v>0.64</v>
@@ -36547,7 +36547,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -38599,6 +38599,197 @@
       </c>
       <c r="BK195">
         <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2467770</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44982.6875</v>
+      </c>
+      <c r="F196">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>74</v>
+      </c>
+      <c r="H196" t="s">
+        <v>81</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>227</v>
+      </c>
+      <c r="P196" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q196">
+        <v>6</v>
+      </c>
+      <c r="R196">
+        <v>5</v>
+      </c>
+      <c r="S196">
+        <v>11</v>
+      </c>
+      <c r="T196">
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <v>2.3</v>
+      </c>
+      <c r="V196">
+        <v>3.2</v>
+      </c>
+      <c r="W196">
+        <v>1.3</v>
+      </c>
+      <c r="X196">
+        <v>3.4</v>
+      </c>
+      <c r="Y196">
+        <v>2.5</v>
+      </c>
+      <c r="Z196">
+        <v>1.5</v>
+      </c>
+      <c r="AA196">
+        <v>6</v>
+      </c>
+      <c r="AB196">
+        <v>1.13</v>
+      </c>
+      <c r="AC196">
+        <v>2.8</v>
+      </c>
+      <c r="AD196">
+        <v>3.4</v>
+      </c>
+      <c r="AE196">
+        <v>2.5</v>
+      </c>
+      <c r="AF196">
+        <v>1.04</v>
+      </c>
+      <c r="AG196">
+        <v>10</v>
+      </c>
+      <c r="AH196">
+        <v>1.2</v>
+      </c>
+      <c r="AI196">
+        <v>4.33</v>
+      </c>
+      <c r="AJ196">
+        <v>1.54</v>
+      </c>
+      <c r="AK196">
+        <v>2.17</v>
+      </c>
+      <c r="AL196">
+        <v>1.53</v>
+      </c>
+      <c r="AM196">
+        <v>2.38</v>
+      </c>
+      <c r="AN196">
+        <v>1.36</v>
+      </c>
+      <c r="AO196">
+        <v>1.22</v>
+      </c>
+      <c r="AP196">
+        <v>1.57</v>
+      </c>
+      <c r="AQ196">
+        <v>2.27</v>
+      </c>
+      <c r="AR196">
+        <v>2.2</v>
+      </c>
+      <c r="AS196">
+        <v>2.17</v>
+      </c>
+      <c r="AT196">
+        <v>2.09</v>
+      </c>
+      <c r="AU196">
+        <v>1.84</v>
+      </c>
+      <c r="AV196">
+        <v>1.8</v>
+      </c>
+      <c r="AW196">
+        <v>3.64</v>
+      </c>
+      <c r="AX196">
+        <v>1.69</v>
+      </c>
+      <c r="AY196">
+        <v>8.5</v>
+      </c>
+      <c r="AZ196">
+        <v>2.53</v>
+      </c>
+      <c r="BA196">
+        <v>1.18</v>
+      </c>
+      <c r="BB196">
+        <v>1.31</v>
+      </c>
+      <c r="BC196">
+        <v>1.65</v>
+      </c>
+      <c r="BD196">
+        <v>2</v>
+      </c>
+      <c r="BE196">
+        <v>2.5</v>
+      </c>
+      <c r="BF196">
+        <v>6</v>
+      </c>
+      <c r="BG196">
+        <v>3</v>
+      </c>
+      <c r="BH196">
+        <v>8</v>
+      </c>
+      <c r="BI196">
+        <v>11</v>
+      </c>
+      <c r="BJ196">
+        <v>14</v>
+      </c>
+      <c r="BK196">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -989,6 +992,9 @@
   </si>
   <si>
     <t>['8', '52', '73']</t>
+  </si>
+  <si>
+    <t>['48', '61']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK196"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1600,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1785,7 +1791,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1976,7 +1982,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2063,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT4">
         <v>0.82</v>
@@ -2167,7 +2173,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2549,7 +2555,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3021,7 +3027,7 @@
         <v>0.91</v>
       </c>
       <c r="AT9">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3122,7 +3128,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3504,7 +3510,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4077,7 +4083,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4268,7 +4274,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4355,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT16">
         <v>0.82</v>
@@ -4459,7 +4465,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4549,7 +4555,7 @@
         <v>1.42</v>
       </c>
       <c r="AT17">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4740,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="AT18">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4841,7 +4847,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4928,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT19">
         <v>0.55</v>
@@ -5605,7 +5611,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5886,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU24">
         <v>1.84</v>
@@ -6178,7 +6184,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6560,7 +6566,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6751,7 +6757,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6841,7 +6847,7 @@
         <v>1.45</v>
       </c>
       <c r="AT29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU29">
         <v>1.57</v>
@@ -6942,7 +6948,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7133,7 +7139,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7515,7 +7521,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7602,7 +7608,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT33">
         <v>2.09</v>
@@ -7796,7 +7802,7 @@
         <v>2.17</v>
       </c>
       <c r="AT34">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU34">
         <v>1.15</v>
@@ -7984,10 +7990,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU35">
         <v>1.9</v>
@@ -8088,7 +8094,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8366,7 +8372,7 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT37">
         <v>0.55</v>
@@ -8470,7 +8476,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8661,7 +8667,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8852,7 +8858,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9043,7 +9049,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9234,7 +9240,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9425,7 +9431,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9616,7 +9622,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9998,7 +10004,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10189,7 +10195,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10276,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT47">
         <v>0.64</v>
@@ -10571,7 +10577,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10661,7 +10667,7 @@
         <v>2.17</v>
       </c>
       <c r="AT49">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU49">
         <v>1.48</v>
@@ -10762,7 +10768,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10849,7 +10855,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT50">
         <v>1.36</v>
@@ -11043,7 +11049,7 @@
         <v>1.42</v>
       </c>
       <c r="AT51">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU51">
         <v>2.57</v>
@@ -11144,7 +11150,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11335,7 +11341,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11425,7 +11431,7 @@
         <v>1.73</v>
       </c>
       <c r="AT53">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>1.15</v>
@@ -11613,7 +11619,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT54">
         <v>0.55</v>
@@ -11908,7 +11914,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12099,7 +12105,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12290,7 +12296,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12762,7 +12768,7 @@
         <v>2.18</v>
       </c>
       <c r="AT60">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU60">
         <v>2.49</v>
@@ -13054,7 +13060,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13818,7 +13824,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14287,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT68">
         <v>0.64</v>
@@ -14481,7 +14487,7 @@
         <v>1.42</v>
       </c>
       <c r="AT69">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU69">
         <v>2.53</v>
@@ -14582,7 +14588,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14672,7 +14678,7 @@
         <v>2.27</v>
       </c>
       <c r="AT70">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU70">
         <v>1.62</v>
@@ -14773,7 +14779,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -14860,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT71">
         <v>0.67</v>
@@ -15155,7 +15161,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15346,7 +15352,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15537,7 +15543,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15919,7 +15925,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16006,7 +16012,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT77">
         <v>1.45</v>
@@ -16200,7 +16206,7 @@
         <v>0.91</v>
       </c>
       <c r="AT78">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU78">
         <v>1.62</v>
@@ -16874,7 +16880,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17065,7 +17071,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17256,7 +17262,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17343,7 +17349,7 @@
         <v>3</v>
       </c>
       <c r="AS84">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT84">
         <v>2.09</v>
@@ -17447,7 +17453,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17638,7 +17644,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17728,7 +17734,7 @@
         <v>1.45</v>
       </c>
       <c r="AT86">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU86">
         <v>1.96</v>
@@ -17829,7 +17835,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18107,10 +18113,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT88">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU88">
         <v>2.32</v>
@@ -18784,7 +18790,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18871,7 +18877,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT92">
         <v>1.1</v>
@@ -18975,7 +18981,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19166,7 +19172,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19739,7 +19745,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20020,7 +20026,7 @@
         <v>1.1</v>
       </c>
       <c r="AT98">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU98">
         <v>1.45</v>
@@ -20121,7 +20127,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20312,7 +20318,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20503,7 +20509,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20593,7 +20599,7 @@
         <v>1.82</v>
       </c>
       <c r="AT101">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU101">
         <v>1.81</v>
@@ -20781,7 +20787,7 @@
         <v>3</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT102">
         <v>2.09</v>
@@ -20885,7 +20891,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21076,7 +21082,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21267,7 +21273,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21545,7 +21551,7 @@
         <v>0.33</v>
       </c>
       <c r="AS106">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT106">
         <v>0.73</v>
@@ -21649,7 +21655,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -22031,7 +22037,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22121,7 +22127,7 @@
         <v>1.45</v>
       </c>
       <c r="AT109">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU109">
         <v>1.99</v>
@@ -22222,7 +22228,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22413,7 +22419,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22604,7 +22610,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23264,7 +23270,7 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT115">
         <v>0.82</v>
@@ -23368,7 +23374,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23750,7 +23756,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23840,7 +23846,7 @@
         <v>2</v>
       </c>
       <c r="AT118">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU118">
         <v>1.67</v>
@@ -23941,7 +23947,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24031,7 +24037,7 @@
         <v>0.8</v>
       </c>
       <c r="AT119">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU119">
         <v>1.7</v>
@@ -24323,7 +24329,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24514,7 +24520,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24604,7 +24610,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU122">
         <v>1.23</v>
@@ -24896,7 +24902,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24983,7 +24989,7 @@
         <v>2.17</v>
       </c>
       <c r="AS124">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT124">
         <v>2.3</v>
@@ -25087,7 +25093,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25365,7 +25371,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT126">
         <v>1.1</v>
@@ -25469,7 +25475,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25851,7 +25857,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -26424,7 +26430,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26615,7 +26621,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26702,7 +26708,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT133">
         <v>1.73</v>
@@ -26806,7 +26812,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26997,7 +27003,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27087,7 +27093,7 @@
         <v>1.45</v>
       </c>
       <c r="AT135">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU135">
         <v>1.77</v>
@@ -27188,7 +27194,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27466,7 +27472,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT137">
         <v>1.45</v>
@@ -27570,7 +27576,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27848,7 +27854,7 @@
         <v>1.25</v>
       </c>
       <c r="AS139">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT139">
         <v>0.91</v>
@@ -28334,7 +28340,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28525,7 +28531,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28615,7 +28621,7 @@
         <v>1.1</v>
       </c>
       <c r="AT143">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU143">
         <v>1.49</v>
@@ -29098,7 +29104,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29289,7 +29295,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29480,7 +29486,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29671,7 +29677,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29862,7 +29868,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30053,7 +30059,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30143,7 +30149,7 @@
         <v>1.27</v>
       </c>
       <c r="AT151">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU151">
         <v>1.66</v>
@@ -30435,7 +30441,7 @@
         <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30522,10 +30528,10 @@
         <v>1.25</v>
       </c>
       <c r="AS153">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT153">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU153">
         <v>1.53</v>
@@ -30817,7 +30823,7 @@
         <v>90</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31008,7 +31014,7 @@
         <v>198</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>11</v>
@@ -31098,7 +31104,7 @@
         <v>2.27</v>
       </c>
       <c r="AT156">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU156">
         <v>1.78</v>
@@ -31289,7 +31295,7 @@
         <v>2.45</v>
       </c>
       <c r="AT157">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31772,7 +31778,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31859,7 +31865,7 @@
         <v>2</v>
       </c>
       <c r="AS160">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT160">
         <v>1.73</v>
@@ -32154,7 +32160,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32345,7 +32351,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32432,7 +32438,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT163">
         <v>0.67</v>
@@ -32536,7 +32542,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q164">
         <v>3</v>
@@ -32727,7 +32733,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33199,7 +33205,7 @@
         <v>1.27</v>
       </c>
       <c r="AT167">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU167">
         <v>1.69</v>
@@ -33300,7 +33306,7 @@
         <v>195</v>
       </c>
       <c r="P168" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33769,7 +33775,7 @@
         <v>1.22</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT170">
         <v>1.09</v>
@@ -33873,7 +33879,7 @@
         <v>90</v>
       </c>
       <c r="P171" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34255,7 +34261,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34342,10 +34348,10 @@
         <v>1.22</v>
       </c>
       <c r="AS173">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT173">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU173">
         <v>1.62</v>
@@ -34446,7 +34452,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34828,7 +34834,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34915,7 +34921,7 @@
         <v>1.22</v>
       </c>
       <c r="AS176">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT176">
         <v>1.36</v>
@@ -35019,7 +35025,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35109,7 +35115,7 @@
         <v>1.45</v>
       </c>
       <c r="AT177">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU177">
         <v>1.86</v>
@@ -35210,7 +35216,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35679,7 +35685,7 @@
         <v>2.11</v>
       </c>
       <c r="AS180">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT180">
         <v>1.73</v>
@@ -35974,7 +35980,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36356,7 +36362,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36547,7 +36553,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -36738,7 +36744,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37120,7 +37126,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37311,7 +37317,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q189">
         <v>2</v>
@@ -38075,7 +38081,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38790,6 +38796,579 @@
       </c>
       <c r="BK196">
         <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2467769</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44983.39583333334</v>
+      </c>
+      <c r="F197">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>82</v>
+      </c>
+      <c r="H197" t="s">
+        <v>76</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>90</v>
+      </c>
+      <c r="P197" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q197">
+        <v>6</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>6</v>
+      </c>
+      <c r="T197">
+        <v>3.5</v>
+      </c>
+      <c r="U197">
+        <v>2.2</v>
+      </c>
+      <c r="V197">
+        <v>3.1</v>
+      </c>
+      <c r="W197">
+        <v>1.4</v>
+      </c>
+      <c r="X197">
+        <v>2.75</v>
+      </c>
+      <c r="Y197">
+        <v>2.75</v>
+      </c>
+      <c r="Z197">
+        <v>1.4</v>
+      </c>
+      <c r="AA197">
+        <v>8</v>
+      </c>
+      <c r="AB197">
+        <v>1.08</v>
+      </c>
+      <c r="AC197">
+        <v>2.8</v>
+      </c>
+      <c r="AD197">
+        <v>3.3</v>
+      </c>
+      <c r="AE197">
+        <v>2.4</v>
+      </c>
+      <c r="AF197">
+        <v>1.05</v>
+      </c>
+      <c r="AG197">
+        <v>9</v>
+      </c>
+      <c r="AH197">
+        <v>1.29</v>
+      </c>
+      <c r="AI197">
+        <v>3.3</v>
+      </c>
+      <c r="AJ197">
+        <v>1.97</v>
+      </c>
+      <c r="AK197">
+        <v>1.84</v>
+      </c>
+      <c r="AL197">
+        <v>1.73</v>
+      </c>
+      <c r="AM197">
+        <v>2</v>
+      </c>
+      <c r="AN197">
+        <v>1.53</v>
+      </c>
+      <c r="AO197">
+        <v>1.32</v>
+      </c>
+      <c r="AP197">
+        <v>1.4</v>
+      </c>
+      <c r="AQ197">
+        <v>1.2</v>
+      </c>
+      <c r="AR197">
+        <v>1.3</v>
+      </c>
+      <c r="AS197">
+        <v>1.09</v>
+      </c>
+      <c r="AT197">
+        <v>1.45</v>
+      </c>
+      <c r="AU197">
+        <v>1.62</v>
+      </c>
+      <c r="AV197">
+        <v>1.54</v>
+      </c>
+      <c r="AW197">
+        <v>3.16</v>
+      </c>
+      <c r="AX197">
+        <v>2.52</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>1.75</v>
+      </c>
+      <c r="BA197">
+        <v>1.18</v>
+      </c>
+      <c r="BB197">
+        <v>1.35</v>
+      </c>
+      <c r="BC197">
+        <v>1.63</v>
+      </c>
+      <c r="BD197">
+        <v>2.1</v>
+      </c>
+      <c r="BE197">
+        <v>2.8</v>
+      </c>
+      <c r="BF197">
+        <v>5</v>
+      </c>
+      <c r="BG197">
+        <v>5</v>
+      </c>
+      <c r="BH197">
+        <v>10</v>
+      </c>
+      <c r="BI197">
+        <v>2</v>
+      </c>
+      <c r="BJ197">
+        <v>15</v>
+      </c>
+      <c r="BK197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2467771</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44983.39583333334</v>
+      </c>
+      <c r="F198">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>67</v>
+      </c>
+      <c r="H198" t="s">
+        <v>72</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>228</v>
+      </c>
+      <c r="P198" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q198">
+        <v>4</v>
+      </c>
+      <c r="R198">
+        <v>4</v>
+      </c>
+      <c r="S198">
+        <v>8</v>
+      </c>
+      <c r="T198">
+        <v>2.38</v>
+      </c>
+      <c r="U198">
+        <v>2.2</v>
+      </c>
+      <c r="V198">
+        <v>5</v>
+      </c>
+      <c r="W198">
+        <v>1.4</v>
+      </c>
+      <c r="X198">
+        <v>2.75</v>
+      </c>
+      <c r="Y198">
+        <v>2.75</v>
+      </c>
+      <c r="Z198">
+        <v>1.4</v>
+      </c>
+      <c r="AA198">
+        <v>8</v>
+      </c>
+      <c r="AB198">
+        <v>1.08</v>
+      </c>
+      <c r="AC198">
+        <v>1.7</v>
+      </c>
+      <c r="AD198">
+        <v>3.7</v>
+      </c>
+      <c r="AE198">
+        <v>4.6</v>
+      </c>
+      <c r="AF198">
+        <v>1.02</v>
+      </c>
+      <c r="AG198">
+        <v>9.1</v>
+      </c>
+      <c r="AH198">
+        <v>1.28</v>
+      </c>
+      <c r="AI198">
+        <v>3.26</v>
+      </c>
+      <c r="AJ198">
+        <v>1.97</v>
+      </c>
+      <c r="AK198">
+        <v>1.84</v>
+      </c>
+      <c r="AL198">
+        <v>1.83</v>
+      </c>
+      <c r="AM198">
+        <v>1.83</v>
+      </c>
+      <c r="AN198">
+        <v>1.15</v>
+      </c>
+      <c r="AO198">
+        <v>1.22</v>
+      </c>
+      <c r="AP198">
+        <v>1.95</v>
+      </c>
+      <c r="AQ198">
+        <v>2</v>
+      </c>
+      <c r="AR198">
+        <v>1.4</v>
+      </c>
+      <c r="AS198">
+        <v>2.09</v>
+      </c>
+      <c r="AT198">
+        <v>1.27</v>
+      </c>
+      <c r="AU198">
+        <v>2.09</v>
+      </c>
+      <c r="AV198">
+        <v>1.3</v>
+      </c>
+      <c r="AW198">
+        <v>3.39</v>
+      </c>
+      <c r="AX198">
+        <v>1.34</v>
+      </c>
+      <c r="AY198">
+        <v>9.5</v>
+      </c>
+      <c r="AZ198">
+        <v>4.06</v>
+      </c>
+      <c r="BA198">
+        <v>1.2</v>
+      </c>
+      <c r="BB198">
+        <v>1.39</v>
+      </c>
+      <c r="BC198">
+        <v>1.7</v>
+      </c>
+      <c r="BD198">
+        <v>2.2</v>
+      </c>
+      <c r="BE198">
+        <v>3</v>
+      </c>
+      <c r="BF198">
+        <v>8</v>
+      </c>
+      <c r="BG198">
+        <v>4</v>
+      </c>
+      <c r="BH198">
+        <v>11</v>
+      </c>
+      <c r="BI198">
+        <v>8</v>
+      </c>
+      <c r="BJ198">
+        <v>19</v>
+      </c>
+      <c r="BK198">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2467775</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44983.39583333334</v>
+      </c>
+      <c r="F199">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>79</v>
+      </c>
+      <c r="H199" t="s">
+        <v>70</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>175</v>
+      </c>
+      <c r="P199" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q199">
+        <v>8</v>
+      </c>
+      <c r="R199">
+        <v>6</v>
+      </c>
+      <c r="S199">
+        <v>14</v>
+      </c>
+      <c r="T199">
+        <v>2.4</v>
+      </c>
+      <c r="U199">
+        <v>2.4</v>
+      </c>
+      <c r="V199">
+        <v>4</v>
+      </c>
+      <c r="W199">
+        <v>1.29</v>
+      </c>
+      <c r="X199">
+        <v>3.5</v>
+      </c>
+      <c r="Y199">
+        <v>2.38</v>
+      </c>
+      <c r="Z199">
+        <v>1.53</v>
+      </c>
+      <c r="AA199">
+        <v>5.5</v>
+      </c>
+      <c r="AB199">
+        <v>1.14</v>
+      </c>
+      <c r="AC199">
+        <v>1.87</v>
+      </c>
+      <c r="AD199">
+        <v>3.8</v>
+      </c>
+      <c r="AE199">
+        <v>3.6</v>
+      </c>
+      <c r="AF199">
+        <v>1</v>
+      </c>
+      <c r="AG199">
+        <v>10.5</v>
+      </c>
+      <c r="AH199">
+        <v>1.16</v>
+      </c>
+      <c r="AI199">
+        <v>4.45</v>
+      </c>
+      <c r="AJ199">
+        <v>1.64</v>
+      </c>
+      <c r="AK199">
+        <v>2.25</v>
+      </c>
+      <c r="AL199">
+        <v>1.57</v>
+      </c>
+      <c r="AM199">
+        <v>2.25</v>
+      </c>
+      <c r="AN199">
+        <v>1.28</v>
+      </c>
+      <c r="AO199">
+        <v>1.26</v>
+      </c>
+      <c r="AP199">
+        <v>1.88</v>
+      </c>
+      <c r="AQ199">
+        <v>1.7</v>
+      </c>
+      <c r="AR199">
+        <v>1.18</v>
+      </c>
+      <c r="AS199">
+        <v>1.55</v>
+      </c>
+      <c r="AT199">
+        <v>1.33</v>
+      </c>
+      <c r="AU199">
+        <v>1.52</v>
+      </c>
+      <c r="AV199">
+        <v>1.55</v>
+      </c>
+      <c r="AW199">
+        <v>3.07</v>
+      </c>
+      <c r="AX199">
+        <v>1.75</v>
+      </c>
+      <c r="AY199">
+        <v>8</v>
+      </c>
+      <c r="AZ199">
+        <v>2.42</v>
+      </c>
+      <c r="BA199">
+        <v>1.2</v>
+      </c>
+      <c r="BB199">
+        <v>1.39</v>
+      </c>
+      <c r="BC199">
+        <v>1.68</v>
+      </c>
+      <c r="BD199">
+        <v>2.2</v>
+      </c>
+      <c r="BE199">
+        <v>2.95</v>
+      </c>
+      <c r="BF199">
+        <v>7</v>
+      </c>
+      <c r="BG199">
+        <v>6</v>
+      </c>
+      <c r="BH199">
+        <v>11</v>
+      </c>
+      <c r="BI199">
+        <v>14</v>
+      </c>
+      <c r="BJ199">
+        <v>18</v>
+      </c>
+      <c r="BK199">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,13 +604,16 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['36', '55']</t>
+  </si>
+  <si>
     <t>['30', '65', '72']</t>
   </si>
   <si>
-    <t>['36', '55']</t>
+    <t>['9', '34', '84']</t>
   </si>
   <si>
-    <t>['9', '34', '84']</t>
+    <t>['18', '29']</t>
   </si>
   <si>
     <t>['80', '88']</t>
@@ -619,16 +622,13 @@
     <t>['46', '84']</t>
   </si>
   <si>
-    <t>['18', '29']</t>
-  </si>
-  <si>
     <t>['17']</t>
   </si>
   <si>
-    <t>['3', '17', '49', '90+2']</t>
+    <t>['45+1']</t>
   </si>
   <si>
-    <t>['45+1']</t>
+    <t>['3', '17', '49', '90+2']</t>
   </si>
   <si>
     <t>['37', '62', '68', '81']</t>
@@ -670,10 +670,10 @@
     <t>['78']</t>
   </si>
   <si>
-    <t>['39']</t>
+    <t>['15']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['39']</t>
   </si>
   <si>
     <t>['28', '57']</t>
@@ -688,10 +688,10 @@
     <t>['1', '25', '85']</t>
   </si>
   <si>
-    <t>['66']</t>
+    <t>['22', '66', '68']</t>
   </si>
   <si>
-    <t>['22', '66', '68']</t>
+    <t>['66']</t>
   </si>
   <si>
     <t>['86']</t>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['41', '65']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
   <si>
     <t>['80']</t>
@@ -955,10 +961,10 @@
     <t>['49', '66', '90+7']</t>
   </si>
   <si>
-    <t>['30', '81']</t>
+    <t>['13', '33']</t>
   </si>
   <si>
-    <t>['13', '33']</t>
+    <t>['30', '81']</t>
   </si>
   <si>
     <t>['6', '25', '55', '89']</t>
@@ -968,9 +974,6 @@
   </si>
   <si>
     <t>['40', '90+4']</t>
-  </si>
-  <si>
-    <t>['51']</t>
   </si>
   <si>
     <t>['6', '26', '55', '71']</t>
@@ -995,6 +998,9 @@
   </si>
   <si>
     <t>['48', '61']</t>
+  </si>
+  <si>
+    <t>['15', '42']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1606,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1791,7 +1797,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1982,7 +1988,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2173,7 +2179,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2555,7 +2561,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2642,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0.91</v>
@@ -2833,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>1.1</v>
@@ -3128,7 +3134,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3510,7 +3516,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4083,7 +4089,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4173,7 +4179,7 @@
         <v>1.45</v>
       </c>
       <c r="AT15">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4274,7 +4280,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4364,7 +4370,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4465,7 +4471,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4847,7 +4853,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5038,7 +5044,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5611,7 +5617,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5698,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>1.09</v>
@@ -6184,7 +6190,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6271,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT26">
         <v>1.45</v>
@@ -6566,7 +6572,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6656,7 +6662,7 @@
         <v>1.73</v>
       </c>
       <c r="AT28">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.36</v>
@@ -6757,7 +6763,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6948,7 +6954,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7139,7 +7145,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7521,7 +7527,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -8094,7 +8100,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8476,7 +8482,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8667,7 +8673,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8754,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>1.09</v>
@@ -8858,7 +8864,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8945,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>1.45</v>
@@ -9049,7 +9055,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9240,7 +9246,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9431,7 +9437,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9622,7 +9628,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9903,7 +9909,7 @@
         <v>0.91</v>
       </c>
       <c r="AT45">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>1.61</v>
@@ -10004,7 +10010,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10094,7 +10100,7 @@
         <v>1.82</v>
       </c>
       <c r="AT46">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU46">
         <v>1.96</v>
@@ -10195,7 +10201,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10577,7 +10583,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10768,7 +10774,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11150,7 +11156,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11341,7 +11347,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11914,7 +11920,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12105,7 +12111,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12296,7 +12302,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12386,7 +12392,7 @@
         <v>1.82</v>
       </c>
       <c r="AT58">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>2.14</v>
@@ -12765,7 +12771,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>1.33</v>
@@ -13060,7 +13066,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13532,7 +13538,7 @@
         <v>1.1</v>
       </c>
       <c r="AT64">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU64">
         <v>1.15</v>
@@ -13824,7 +13830,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14102,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>0.55</v>
@@ -14588,7 +14594,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14779,7 +14785,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -15057,7 +15063,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT72">
         <v>0.55</v>
@@ -15161,7 +15167,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15352,7 +15358,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15543,7 +15549,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15925,7 +15931,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16588,7 +16594,7 @@
         <v>2.45</v>
       </c>
       <c r="AT80">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU80">
         <v>1.9</v>
@@ -16779,7 +16785,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>1.13</v>
@@ -16880,7 +16886,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17071,7 +17077,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17158,7 +17164,7 @@
         <v>1.75</v>
       </c>
       <c r="AS83">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT83">
         <v>2.3</v>
@@ -17262,7 +17268,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17453,7 +17459,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17644,7 +17650,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17835,7 +17841,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18686,7 +18692,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT91">
         <v>0.55</v>
@@ -18790,7 +18796,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18981,7 +18987,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19172,7 +19178,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19644,7 +19650,7 @@
         <v>1.27</v>
       </c>
       <c r="AT96">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.83</v>
@@ -19745,7 +19751,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19835,7 +19841,7 @@
         <v>2</v>
       </c>
       <c r="AT97">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU97">
         <v>1.56</v>
@@ -20127,7 +20133,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20318,7 +20324,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20509,7 +20515,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20891,7 +20897,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21082,7 +21088,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21273,7 +21279,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21360,7 +21366,7 @@
         <v>0.4</v>
       </c>
       <c r="AS105">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT105">
         <v>0.64</v>
@@ -21655,7 +21661,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21933,7 +21939,7 @@
         <v>0.4</v>
       </c>
       <c r="AS108">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>0.67</v>
@@ -22037,7 +22043,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22228,7 +22234,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22419,7 +22425,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22509,7 +22515,7 @@
         <v>0.91</v>
       </c>
       <c r="AT111">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU111">
         <v>1.61</v>
@@ -22610,7 +22616,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23273,7 +23279,7 @@
         <v>1.09</v>
       </c>
       <c r="AT115">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>1.51</v>
@@ -23374,7 +23380,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23756,7 +23762,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23947,7 +23953,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24034,7 +24040,7 @@
         <v>1.29</v>
       </c>
       <c r="AS119">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT119">
         <v>1.45</v>
@@ -24329,7 +24335,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24520,7 +24526,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24902,7 +24908,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25093,7 +25099,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25180,7 +25186,7 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT125">
         <v>2.09</v>
@@ -25475,7 +25481,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25857,7 +25863,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -26138,7 +26144,7 @@
         <v>2.27</v>
       </c>
       <c r="AT130">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>1.74</v>
@@ -26430,7 +26436,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26621,7 +26627,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26711,7 +26717,7 @@
         <v>1.09</v>
       </c>
       <c r="AT133">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU133">
         <v>1.48</v>
@@ -26812,7 +26818,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27003,7 +27009,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27194,7 +27200,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27576,7 +27582,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27663,7 +27669,7 @@
         <v>0.25</v>
       </c>
       <c r="AS138">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT138">
         <v>0.73</v>
@@ -28340,7 +28346,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28531,7 +28537,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28722,7 +28728,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q144">
         <v>8</v>
@@ -29000,7 +29006,7 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT145">
         <v>2.3</v>
@@ -29104,7 +29110,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29194,7 +29200,7 @@
         <v>2.27</v>
       </c>
       <c r="AT146">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU146">
         <v>1.72</v>
@@ -29295,7 +29301,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29486,7 +29492,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29576,7 +29582,7 @@
         <v>1.42</v>
       </c>
       <c r="AT148">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>2.02</v>
@@ -29677,7 +29683,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29868,7 +29874,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30059,7 +30065,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30399,7 +30405,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2467724</v>
+        <v>2467728</v>
       </c>
       <c r="C153" t="s">
         <v>63</v>
@@ -30414,10 +30420,10 @@
         <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H153" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -30429,43 +30435,43 @@
         <v>1</v>
       </c>
       <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
         <v>3</v>
-      </c>
-      <c r="M153">
-        <v>1</v>
-      </c>
-      <c r="N153">
-        <v>4</v>
       </c>
       <c r="O153" t="s">
         <v>196</v>
       </c>
       <c r="P153" t="s">
-        <v>310</v>
+        <v>183</v>
       </c>
       <c r="Q153">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R153">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S153">
         <v>16</v>
       </c>
       <c r="T153">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="U153">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V153">
+        <v>2.63</v>
+      </c>
+      <c r="W153">
+        <v>1.3</v>
+      </c>
+      <c r="X153">
         <v>3.4</v>
-      </c>
-      <c r="W153">
-        <v>1.33</v>
-      </c>
-      <c r="X153">
-        <v>3.25</v>
       </c>
       <c r="Y153">
         <v>2.5</v>
@@ -30474,19 +30480,19 @@
         <v>1.5</v>
       </c>
       <c r="AA153">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB153">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AC153">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="AD153">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AE153">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="AF153">
         <v>1.04</v>
@@ -30495,94 +30501,94 @@
         <v>10</v>
       </c>
       <c r="AH153">
+        <v>1.2</v>
+      </c>
+      <c r="AI153">
+        <v>4.33</v>
+      </c>
+      <c r="AJ153">
+        <v>1.56</v>
+      </c>
+      <c r="AK153">
+        <v>2.15</v>
+      </c>
+      <c r="AL153">
+        <v>1.53</v>
+      </c>
+      <c r="AM153">
+        <v>2.38</v>
+      </c>
+      <c r="AN153">
+        <v>1.6</v>
+      </c>
+      <c r="AO153">
         <v>1.22</v>
       </c>
-      <c r="AI153">
-        <v>4</v>
-      </c>
-      <c r="AJ153">
-        <v>1.63</v>
-      </c>
-      <c r="AK153">
-        <v>2.04</v>
-      </c>
-      <c r="AL153">
-        <v>1.57</v>
-      </c>
-      <c r="AM153">
+      <c r="AP153">
+        <v>1.36</v>
+      </c>
+      <c r="AQ153">
+        <v>1</v>
+      </c>
+      <c r="AR153">
+        <v>1.14</v>
+      </c>
+      <c r="AS153">
+        <v>1.45</v>
+      </c>
+      <c r="AT153">
+        <v>1.36</v>
+      </c>
+      <c r="AU153">
+        <v>1.68</v>
+      </c>
+      <c r="AV153">
+        <v>1.53</v>
+      </c>
+      <c r="AW153">
+        <v>3.21</v>
+      </c>
+      <c r="AX153">
         <v>2.25</v>
       </c>
-      <c r="AN153">
-        <v>1.35</v>
-      </c>
-      <c r="AO153">
-        <v>1.25</v>
-      </c>
-      <c r="AP153">
-        <v>1.57</v>
-      </c>
-      <c r="AQ153">
-        <v>1.29</v>
-      </c>
-      <c r="AR153">
-        <v>1.25</v>
-      </c>
-      <c r="AS153">
-        <v>1.09</v>
-      </c>
-      <c r="AT153">
-        <v>1.33</v>
-      </c>
-      <c r="AU153">
-        <v>1.53</v>
-      </c>
-      <c r="AV153">
-        <v>1.5</v>
-      </c>
-      <c r="AW153">
-        <v>3.03</v>
-      </c>
-      <c r="AX153">
-        <v>1.89</v>
-      </c>
       <c r="AY153">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="AZ153">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="BA153">
         <v>1.2</v>
       </c>
       <c r="BB153">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="BC153">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BD153">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BE153">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BF153">
         <v>5</v>
       </c>
       <c r="BG153">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BH153">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI153">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BJ153">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BK153">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:63">
@@ -30590,7 +30596,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2467728</v>
+        <v>2467724</v>
       </c>
       <c r="C154" t="s">
         <v>63</v>
@@ -30605,10 +30611,10 @@
         <v>17</v>
       </c>
       <c r="G154" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H154" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -30620,43 +30626,43 @@
         <v>1</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M154">
         <v>1</v>
       </c>
       <c r="N154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O154" t="s">
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="Q154">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R154">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S154">
         <v>16</v>
       </c>
       <c r="T154">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="U154">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V154">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="W154">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X154">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y154">
         <v>2.5</v>
@@ -30665,19 +30671,19 @@
         <v>1.5</v>
       </c>
       <c r="AA154">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB154">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC154">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="AD154">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AE154">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="AF154">
         <v>1.04</v>
@@ -30686,94 +30692,94 @@
         <v>10</v>
       </c>
       <c r="AH154">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI154">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AJ154">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AK154">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="AL154">
+        <v>1.57</v>
+      </c>
+      <c r="AM154">
+        <v>2.25</v>
+      </c>
+      <c r="AN154">
+        <v>1.35</v>
+      </c>
+      <c r="AO154">
+        <v>1.25</v>
+      </c>
+      <c r="AP154">
+        <v>1.57</v>
+      </c>
+      <c r="AQ154">
+        <v>1.29</v>
+      </c>
+      <c r="AR154">
+        <v>1.25</v>
+      </c>
+      <c r="AS154">
+        <v>1.09</v>
+      </c>
+      <c r="AT154">
+        <v>1.33</v>
+      </c>
+      <c r="AU154">
         <v>1.53</v>
       </c>
-      <c r="AM154">
-        <v>2.38</v>
-      </c>
-      <c r="AN154">
-        <v>1.6</v>
-      </c>
-      <c r="AO154">
-        <v>1.22</v>
-      </c>
-      <c r="AP154">
-        <v>1.36</v>
-      </c>
-      <c r="AQ154">
-        <v>1</v>
-      </c>
-      <c r="AR154">
-        <v>1.14</v>
-      </c>
-      <c r="AS154">
-        <v>1.45</v>
-      </c>
-      <c r="AT154">
-        <v>1.36</v>
-      </c>
-      <c r="AU154">
-        <v>1.68</v>
-      </c>
       <c r="AV154">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AW154">
-        <v>3.21</v>
+        <v>3.03</v>
       </c>
       <c r="AX154">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="AY154">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="AZ154">
-        <v>1.76</v>
+        <v>2.3</v>
       </c>
       <c r="BA154">
         <v>1.2</v>
       </c>
       <c r="BB154">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="BC154">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BD154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BE154">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BF154">
         <v>5</v>
       </c>
       <c r="BG154">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BH154">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BI154">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BJ154">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BK154">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:63">
@@ -30781,7 +30787,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2467741</v>
+        <v>2467739</v>
       </c>
       <c r="C155" t="s">
         <v>63</v>
@@ -30796,175 +30802,175 @@
         <v>18</v>
       </c>
       <c r="G155" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H155" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O155" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="Q155">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T155">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="U155">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V155">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="W155">
+        <v>1.29</v>
+      </c>
+      <c r="X155">
+        <v>3.5</v>
+      </c>
+      <c r="Y155">
+        <v>2.38</v>
+      </c>
+      <c r="Z155">
+        <v>1.53</v>
+      </c>
+      <c r="AA155">
+        <v>5.5</v>
+      </c>
+      <c r="AB155">
+        <v>1.14</v>
+      </c>
+      <c r="AC155">
+        <v>1.62</v>
+      </c>
+      <c r="AD155">
+        <v>3.6</v>
+      </c>
+      <c r="AE155">
+        <v>4.35</v>
+      </c>
+      <c r="AF155">
+        <v>1.03</v>
+      </c>
+      <c r="AG155">
+        <v>11</v>
+      </c>
+      <c r="AH155">
+        <v>1.18</v>
+      </c>
+      <c r="AI155">
+        <v>4.5</v>
+      </c>
+      <c r="AJ155">
+        <v>1.6</v>
+      </c>
+      <c r="AK155">
+        <v>2.09</v>
+      </c>
+      <c r="AL155">
+        <v>1.62</v>
+      </c>
+      <c r="AM155">
+        <v>2.2</v>
+      </c>
+      <c r="AN155">
+        <v>1.21</v>
+      </c>
+      <c r="AO155">
+        <v>1.23</v>
+      </c>
+      <c r="AP155">
+        <v>2.1</v>
+      </c>
+      <c r="AQ155">
+        <v>2</v>
+      </c>
+      <c r="AR155">
+        <v>1.11</v>
+      </c>
+      <c r="AS155">
+        <v>2.27</v>
+      </c>
+      <c r="AT155">
         <v>1.33</v>
       </c>
-      <c r="X155">
-        <v>3.25</v>
-      </c>
-      <c r="Y155">
-        <v>2.5</v>
-      </c>
-      <c r="Z155">
-        <v>1.5</v>
-      </c>
-      <c r="AA155">
-        <v>6</v>
-      </c>
-      <c r="AB155">
-        <v>1.13</v>
-      </c>
-      <c r="AC155">
-        <v>2.6</v>
-      </c>
-      <c r="AD155">
-        <v>3.3</v>
-      </c>
-      <c r="AE155">
-        <v>2.25</v>
-      </c>
-      <c r="AF155">
-        <v>1.04</v>
-      </c>
-      <c r="AG155">
-        <v>10</v>
-      </c>
-      <c r="AH155">
-        <v>1.2</v>
-      </c>
-      <c r="AI155">
-        <v>4.33</v>
-      </c>
-      <c r="AJ155">
-        <v>1.56</v>
-      </c>
-      <c r="AK155">
-        <v>2.16</v>
-      </c>
-      <c r="AL155">
-        <v>1.53</v>
-      </c>
-      <c r="AM155">
-        <v>2.38</v>
-      </c>
-      <c r="AN155">
-        <v>1.51</v>
-      </c>
-      <c r="AO155">
-        <v>1.27</v>
-      </c>
-      <c r="AP155">
-        <v>1.49</v>
-      </c>
-      <c r="AQ155">
-        <v>1.22</v>
-      </c>
-      <c r="AR155">
-        <v>1</v>
-      </c>
-      <c r="AS155">
-        <v>1.42</v>
-      </c>
-      <c r="AT155">
-        <v>1.36</v>
-      </c>
       <c r="AU155">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AV155">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AW155">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="AX155">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AY155">
         <v>8.5</v>
       </c>
       <c r="AZ155">
-        <v>2.53</v>
+        <v>2.76</v>
       </c>
       <c r="BA155">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB155">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BC155">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BD155">
         <v>2.1</v>
       </c>
       <c r="BE155">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="BF155">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH155">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BI155">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BJ155">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="BK155">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:63">
@@ -30972,7 +30978,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2467739</v>
+        <v>2467741</v>
       </c>
       <c r="C156" t="s">
         <v>63</v>
@@ -30987,175 +30993,175 @@
         <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>90</v>
+      </c>
+      <c r="P156" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q156">
         <v>5</v>
       </c>
-      <c r="O156" t="s">
-        <v>198</v>
-      </c>
-      <c r="P156" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q156">
-        <v>11</v>
-      </c>
       <c r="R156">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S156">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T156">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="U156">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V156">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="W156">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X156">
+        <v>3.25</v>
+      </c>
+      <c r="Y156">
+        <v>2.5</v>
+      </c>
+      <c r="Z156">
+        <v>1.5</v>
+      </c>
+      <c r="AA156">
+        <v>6</v>
+      </c>
+      <c r="AB156">
+        <v>1.13</v>
+      </c>
+      <c r="AC156">
+        <v>2.6</v>
+      </c>
+      <c r="AD156">
+        <v>3.3</v>
+      </c>
+      <c r="AE156">
+        <v>2.25</v>
+      </c>
+      <c r="AF156">
+        <v>1.04</v>
+      </c>
+      <c r="AG156">
+        <v>10</v>
+      </c>
+      <c r="AH156">
+        <v>1.2</v>
+      </c>
+      <c r="AI156">
+        <v>4.33</v>
+      </c>
+      <c r="AJ156">
+        <v>1.56</v>
+      </c>
+      <c r="AK156">
+        <v>2.16</v>
+      </c>
+      <c r="AL156">
+        <v>1.53</v>
+      </c>
+      <c r="AM156">
+        <v>2.38</v>
+      </c>
+      <c r="AN156">
+        <v>1.51</v>
+      </c>
+      <c r="AO156">
+        <v>1.27</v>
+      </c>
+      <c r="AP156">
+        <v>1.49</v>
+      </c>
+      <c r="AQ156">
+        <v>1.22</v>
+      </c>
+      <c r="AR156">
+        <v>1</v>
+      </c>
+      <c r="AS156">
+        <v>1.42</v>
+      </c>
+      <c r="AT156">
+        <v>1.36</v>
+      </c>
+      <c r="AU156">
+        <v>1.94</v>
+      </c>
+      <c r="AV156">
+        <v>1.56</v>
+      </c>
+      <c r="AW156">
         <v>3.5</v>
       </c>
-      <c r="Y156">
-        <v>2.38</v>
-      </c>
-      <c r="Z156">
-        <v>1.53</v>
-      </c>
-      <c r="AA156">
-        <v>5.5</v>
-      </c>
-      <c r="AB156">
-        <v>1.14</v>
-      </c>
-      <c r="AC156">
-        <v>1.62</v>
-      </c>
-      <c r="AD156">
-        <v>3.6</v>
-      </c>
-      <c r="AE156">
-        <v>4.35</v>
-      </c>
-      <c r="AF156">
-        <v>1.03</v>
-      </c>
-      <c r="AG156">
-        <v>11</v>
-      </c>
-      <c r="AH156">
-        <v>1.18</v>
-      </c>
-      <c r="AI156">
-        <v>4.5</v>
-      </c>
-      <c r="AJ156">
-        <v>1.6</v>
-      </c>
-      <c r="AK156">
-        <v>2.09</v>
-      </c>
-      <c r="AL156">
-        <v>1.62</v>
-      </c>
-      <c r="AM156">
-        <v>2.2</v>
-      </c>
-      <c r="AN156">
-        <v>1.21</v>
-      </c>
-      <c r="AO156">
-        <v>1.23</v>
-      </c>
-      <c r="AP156">
-        <v>2.1</v>
-      </c>
-      <c r="AQ156">
-        <v>2</v>
-      </c>
-      <c r="AR156">
-        <v>1.11</v>
-      </c>
-      <c r="AS156">
-        <v>2.27</v>
-      </c>
-      <c r="AT156">
-        <v>1.33</v>
-      </c>
-      <c r="AU156">
-        <v>1.78</v>
-      </c>
-      <c r="AV156">
-        <v>1.61</v>
-      </c>
-      <c r="AW156">
-        <v>3.39</v>
-      </c>
       <c r="AX156">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AY156">
         <v>8.5</v>
       </c>
       <c r="AZ156">
-        <v>2.76</v>
+        <v>2.53</v>
       </c>
       <c r="BA156">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB156">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BC156">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BD156">
         <v>2.1</v>
       </c>
       <c r="BE156">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="BF156">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH156">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BI156">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BJ156">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="BK156">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:63">
@@ -31163,7 +31169,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2467736</v>
+        <v>2467735</v>
       </c>
       <c r="C157" t="s">
         <v>63</v>
@@ -31178,19 +31184,19 @@
         <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H157" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L157">
         <v>2</v>
@@ -31208,145 +31214,145 @@
         <v>90</v>
       </c>
       <c r="Q157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S157">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T157">
+        <v>2.1</v>
+      </c>
+      <c r="U157">
+        <v>2.38</v>
+      </c>
+      <c r="V157">
+        <v>5.5</v>
+      </c>
+      <c r="W157">
+        <v>1.33</v>
+      </c>
+      <c r="X157">
+        <v>3.25</v>
+      </c>
+      <c r="Y157">
         <v>2.5</v>
       </c>
-      <c r="U157">
-        <v>2.2</v>
-      </c>
-      <c r="V157">
-        <v>4.75</v>
-      </c>
-      <c r="W157">
-        <v>1.4</v>
-      </c>
-      <c r="X157">
-        <v>2.75</v>
-      </c>
-      <c r="Y157">
-        <v>3</v>
-      </c>
       <c r="Z157">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AA157">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB157">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AC157">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="AD157">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AE157">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="AF157">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AG157">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH157">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AI157">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AJ157">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="AK157">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="AL157">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AM157">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AN157">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AO157">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AQ157">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AR157">
-        <v>1.38</v>
+        <v>0.75</v>
       </c>
       <c r="AS157">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="AT157">
-        <v>1.27</v>
+        <v>0.55</v>
       </c>
       <c r="AU157">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="AV157">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AW157">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="AX157">
         <v>1.41</v>
       </c>
       <c r="AY157">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ157">
         <v>3.56</v>
       </c>
       <c r="BA157">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BB157">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="BC157">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="BD157">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BE157">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="BF157">
+        <v>4</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>13</v>
+      </c>
+      <c r="BI157">
         <v>6</v>
       </c>
-      <c r="BG157">
-        <v>0</v>
-      </c>
-      <c r="BH157">
-        <v>9</v>
-      </c>
-      <c r="BI157">
-        <v>9</v>
-      </c>
       <c r="BJ157">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BK157">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:63">
@@ -31354,7 +31360,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2467738</v>
+        <v>2467736</v>
       </c>
       <c r="C158" t="s">
         <v>63</v>
@@ -31369,175 +31375,175 @@
         <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H158" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158">
         <v>2</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O158" t="s">
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="Q158">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>5</v>
+      </c>
+      <c r="T158">
+        <v>2.5</v>
+      </c>
+      <c r="U158">
+        <v>2.2</v>
+      </c>
+      <c r="V158">
+        <v>4.75</v>
+      </c>
+      <c r="W158">
+        <v>1.4</v>
+      </c>
+      <c r="X158">
+        <v>2.75</v>
+      </c>
+      <c r="Y158">
+        <v>3</v>
+      </c>
+      <c r="Z158">
+        <v>1.36</v>
+      </c>
+      <c r="AA158">
+        <v>8</v>
+      </c>
+      <c r="AB158">
+        <v>1.08</v>
+      </c>
+      <c r="AC158">
+        <v>1.86</v>
+      </c>
+      <c r="AD158">
+        <v>3.45</v>
+      </c>
+      <c r="AE158">
+        <v>3.65</v>
+      </c>
+      <c r="AF158">
+        <v>1.06</v>
+      </c>
+      <c r="AG158">
+        <v>8</v>
+      </c>
+      <c r="AH158">
+        <v>1.3</v>
+      </c>
+      <c r="AI158">
+        <v>3.3</v>
+      </c>
+      <c r="AJ158">
+        <v>1.97</v>
+      </c>
+      <c r="AK158">
+        <v>1.79</v>
+      </c>
+      <c r="AL158">
+        <v>1.83</v>
+      </c>
+      <c r="AM158">
+        <v>1.83</v>
+      </c>
+      <c r="AN158">
+        <v>1.21</v>
+      </c>
+      <c r="AO158">
+        <v>1.28</v>
+      </c>
+      <c r="AP158">
+        <v>1.95</v>
+      </c>
+      <c r="AQ158">
+        <v>2.5</v>
+      </c>
+      <c r="AR158">
+        <v>1.38</v>
+      </c>
+      <c r="AS158">
+        <v>2.45</v>
+      </c>
+      <c r="AT158">
+        <v>1.27</v>
+      </c>
+      <c r="AU158">
+        <v>1.74</v>
+      </c>
+      <c r="AV158">
+        <v>1.23</v>
+      </c>
+      <c r="AW158">
+        <v>2.97</v>
+      </c>
+      <c r="AX158">
+        <v>1.41</v>
+      </c>
+      <c r="AY158">
+        <v>9.5</v>
+      </c>
+      <c r="AZ158">
+        <v>3.56</v>
+      </c>
+      <c r="BA158">
+        <v>1.18</v>
+      </c>
+      <c r="BB158">
+        <v>1.3</v>
+      </c>
+      <c r="BC158">
+        <v>1.65</v>
+      </c>
+      <c r="BD158">
+        <v>2</v>
+      </c>
+      <c r="BE158">
+        <v>2.5</v>
+      </c>
+      <c r="BF158">
         <v>6</v>
       </c>
-      <c r="S158">
-        <v>18</v>
-      </c>
-      <c r="T158">
-        <v>2.75</v>
-      </c>
-      <c r="U158">
-        <v>2.25</v>
-      </c>
-      <c r="V158">
-        <v>3.5</v>
-      </c>
-      <c r="W158">
-        <v>1.33</v>
-      </c>
-      <c r="X158">
-        <v>3.25</v>
-      </c>
-      <c r="Y158">
-        <v>2.63</v>
-      </c>
-      <c r="Z158">
-        <v>1.44</v>
-      </c>
-      <c r="AA158">
-        <v>6.5</v>
-      </c>
-      <c r="AB158">
-        <v>1.11</v>
-      </c>
-      <c r="AC158">
-        <v>2.17</v>
-      </c>
-      <c r="AD158">
-        <v>3.25</v>
-      </c>
-      <c r="AE158">
-        <v>3</v>
-      </c>
-      <c r="AF158">
-        <v>1.04</v>
-      </c>
-      <c r="AG158">
-        <v>10</v>
-      </c>
-      <c r="AH158">
-        <v>1.22</v>
-      </c>
-      <c r="AI158">
-        <v>4</v>
-      </c>
-      <c r="AJ158">
-        <v>1.73</v>
-      </c>
-      <c r="AK158">
-        <v>2.05</v>
-      </c>
-      <c r="AL158">
-        <v>1.62</v>
-      </c>
-      <c r="AM158">
-        <v>2.2</v>
-      </c>
-      <c r="AN158">
-        <v>1.37</v>
-      </c>
-      <c r="AO158">
-        <v>1.3</v>
-      </c>
-      <c r="AP158">
-        <v>1.6</v>
-      </c>
-      <c r="AQ158">
-        <v>1.5</v>
-      </c>
-      <c r="AR158">
-        <v>0.75</v>
-      </c>
-      <c r="AS158">
-        <v>1.45</v>
-      </c>
-      <c r="AT158">
-        <v>0.55</v>
-      </c>
-      <c r="AU158">
-        <v>1.8</v>
-      </c>
-      <c r="AV158">
-        <v>1.2</v>
-      </c>
-      <c r="AW158">
-        <v>3</v>
-      </c>
-      <c r="AX158">
-        <v>1.82</v>
-      </c>
-      <c r="AY158">
-        <v>8</v>
-      </c>
-      <c r="AZ158">
-        <v>2.39</v>
-      </c>
-      <c r="BA158">
-        <v>1.2</v>
-      </c>
-      <c r="BB158">
-        <v>1.48</v>
-      </c>
-      <c r="BC158">
-        <v>1.73</v>
-      </c>
-      <c r="BD158">
-        <v>2.1</v>
-      </c>
-      <c r="BE158">
-        <v>2.7</v>
-      </c>
-      <c r="BF158">
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
         <v>9</v>
       </c>
-      <c r="BG158">
-        <v>4</v>
-      </c>
-      <c r="BH158">
-        <v>12</v>
-      </c>
       <c r="BI158">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BJ158">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BK158">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:63">
@@ -31545,7 +31551,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2467735</v>
+        <v>2467738</v>
       </c>
       <c r="C159" t="s">
         <v>63</v>
@@ -31560,52 +31566,52 @@
         <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H159" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L159">
         <v>2</v>
       </c>
       <c r="M159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O159" t="s">
         <v>201</v>
       </c>
       <c r="P159" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="Q159">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R159">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S159">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="T159">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V159">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="W159">
         <v>1.33</v>
@@ -31614,10 +31620,10 @@
         <v>3.25</v>
       </c>
       <c r="Y159">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z159">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA159">
         <v>6.5</v>
@@ -31626,13 +31632,13 @@
         <v>1.11</v>
       </c>
       <c r="AC159">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AD159">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="AE159">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="AF159">
         <v>1.04</v>
@@ -31647,88 +31653,88 @@
         <v>4</v>
       </c>
       <c r="AJ159">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AK159">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="AL159">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AM159">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN159">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="AO159">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AP159">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AQ159">
-        <v>2.11</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>2.17</v>
+        <v>1.45</v>
       </c>
       <c r="AT159">
         <v>0.55</v>
       </c>
       <c r="AU159">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AV159">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AW159">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="AX159">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>2.39</v>
+      </c>
+      <c r="BA159">
+        <v>1.2</v>
+      </c>
+      <c r="BB159">
+        <v>1.48</v>
+      </c>
+      <c r="BC159">
+        <v>1.73</v>
+      </c>
+      <c r="BD159">
+        <v>2.1</v>
+      </c>
+      <c r="BE159">
+        <v>2.7</v>
+      </c>
+      <c r="BF159">
         <v>9</v>
       </c>
-      <c r="AZ159">
-        <v>3.56</v>
-      </c>
-      <c r="BA159">
-        <v>1.25</v>
-      </c>
-      <c r="BB159">
-        <v>1.55</v>
-      </c>
-      <c r="BC159">
-        <v>1.85</v>
-      </c>
-      <c r="BD159">
-        <v>2.3</v>
-      </c>
-      <c r="BE159">
-        <v>3.4</v>
-      </c>
-      <c r="BF159">
+      <c r="BG159">
         <v>4</v>
       </c>
-      <c r="BG159">
-        <v>0</v>
-      </c>
       <c r="BH159">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BI159">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BJ159">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BK159">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:63">
@@ -31778,7 +31784,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31868,7 +31874,7 @@
         <v>1.55</v>
       </c>
       <c r="AT160">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU160">
         <v>1.5</v>
@@ -31927,7 +31933,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2467737</v>
+        <v>2467733</v>
       </c>
       <c r="C161" t="s">
         <v>63</v>
@@ -31942,58 +31948,58 @@
         <v>18</v>
       </c>
       <c r="G161" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H161" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O161" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="Q161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S161">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T161">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U161">
         <v>2.2</v>
       </c>
       <c r="V161">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="W161">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X161">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y161">
         <v>2.75</v>
@@ -32002,37 +32008,37 @@
         <v>1.4</v>
       </c>
       <c r="AA161">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB161">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC161">
-        <v>2.79</v>
+        <v>2</v>
       </c>
       <c r="AD161">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AE161">
-        <v>2.52</v>
+        <v>3.69</v>
       </c>
       <c r="AF161">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG161">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH161">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AI161">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AJ161">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AK161">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AL161">
         <v>1.73</v>
@@ -32041,76 +32047,76 @@
         <v>2</v>
       </c>
       <c r="AN161">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AO161">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AP161">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="AQ161">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AR161">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS161">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="AT161">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="AU161">
+        <v>1.55</v>
+      </c>
+      <c r="AV161">
+        <v>1.14</v>
+      </c>
+      <c r="AW161">
+        <v>2.69</v>
+      </c>
+      <c r="AX161">
+        <v>1.59</v>
+      </c>
+      <c r="AY161">
+        <v>8.5</v>
+      </c>
+      <c r="AZ161">
+        <v>2.89</v>
+      </c>
+      <c r="BA161">
+        <v>1.21</v>
+      </c>
+      <c r="BB161">
+        <v>1.4</v>
+      </c>
+      <c r="BC161">
         <v>1.71</v>
       </c>
-      <c r="AV161">
-        <v>1.69</v>
-      </c>
-      <c r="AW161">
-        <v>3.4</v>
-      </c>
-      <c r="AX161">
-        <v>2.1</v>
-      </c>
-      <c r="AY161">
+      <c r="BD161">
+        <v>2.2</v>
+      </c>
+      <c r="BE161">
+        <v>3</v>
+      </c>
+      <c r="BF161">
+        <v>7</v>
+      </c>
+      <c r="BG161">
+        <v>4</v>
+      </c>
+      <c r="BH161">
+        <v>13</v>
+      </c>
+      <c r="BI161">
+        <v>4</v>
+      </c>
+      <c r="BJ161">
+        <v>20</v>
+      </c>
+      <c r="BK161">
         <v>8</v>
-      </c>
-      <c r="AZ161">
-        <v>1.91</v>
-      </c>
-      <c r="BA161">
-        <v>1.18</v>
-      </c>
-      <c r="BB161">
-        <v>1.28</v>
-      </c>
-      <c r="BC161">
-        <v>1.51</v>
-      </c>
-      <c r="BD161">
-        <v>1.87</v>
-      </c>
-      <c r="BE161">
-        <v>2.45</v>
-      </c>
-      <c r="BF161">
-        <v>6</v>
-      </c>
-      <c r="BG161">
-        <v>3</v>
-      </c>
-      <c r="BH161">
-        <v>19</v>
-      </c>
-      <c r="BI161">
-        <v>7</v>
-      </c>
-      <c r="BJ161">
-        <v>25</v>
-      </c>
-      <c r="BK161">
-        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:63">
@@ -32157,10 +32163,10 @@
         <v>6</v>
       </c>
       <c r="O162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32309,7 +32315,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2467733</v>
+        <v>2467737</v>
       </c>
       <c r="C163" t="s">
         <v>63</v>
@@ -32324,58 +32330,58 @@
         <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H163" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O163" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="P163" t="s">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="Q163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
         <v>4</v>
       </c>
-      <c r="S163">
-        <v>7</v>
-      </c>
       <c r="T163">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U163">
         <v>2.2</v>
       </c>
       <c r="V163">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="W163">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X163">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y163">
         <v>2.75</v>
@@ -32384,37 +32390,37 @@
         <v>1.4</v>
       </c>
       <c r="AA163">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB163">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC163">
-        <v>2</v>
+        <v>2.79</v>
       </c>
       <c r="AD163">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="AE163">
-        <v>3.69</v>
+        <v>2.52</v>
       </c>
       <c r="AF163">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG163">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH163">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AI163">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AJ163">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AK163">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AL163">
         <v>1.73</v>
@@ -32423,76 +32429,76 @@
         <v>2</v>
       </c>
       <c r="AN163">
+        <v>1.47</v>
+      </c>
+      <c r="AO163">
+        <v>1.31</v>
+      </c>
+      <c r="AP163">
+        <v>1.47</v>
+      </c>
+      <c r="AQ163">
+        <v>1.25</v>
+      </c>
+      <c r="AR163">
+        <v>0.33</v>
+      </c>
+      <c r="AS163">
+        <v>1.45</v>
+      </c>
+      <c r="AT163">
+        <v>1</v>
+      </c>
+      <c r="AU163">
+        <v>1.71</v>
+      </c>
+      <c r="AV163">
+        <v>1.69</v>
+      </c>
+      <c r="AW163">
+        <v>3.4</v>
+      </c>
+      <c r="AX163">
+        <v>2.1</v>
+      </c>
+      <c r="AY163">
+        <v>8</v>
+      </c>
+      <c r="AZ163">
+        <v>1.91</v>
+      </c>
+      <c r="BA163">
+        <v>1.18</v>
+      </c>
+      <c r="BB163">
         <v>1.28</v>
       </c>
-      <c r="AO163">
-        <v>1.27</v>
-      </c>
-      <c r="AP163">
-        <v>1.8</v>
-      </c>
-      <c r="AQ163">
-        <v>1.5</v>
-      </c>
-      <c r="AR163">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS163">
-        <v>1.09</v>
-      </c>
-      <c r="AT163">
-        <v>0.67</v>
-      </c>
-      <c r="AU163">
-        <v>1.55</v>
-      </c>
-      <c r="AV163">
-        <v>1.14</v>
-      </c>
-      <c r="AW163">
-        <v>2.69</v>
-      </c>
-      <c r="AX163">
-        <v>1.59</v>
-      </c>
-      <c r="AY163">
-        <v>8.5</v>
-      </c>
-      <c r="AZ163">
-        <v>2.89</v>
-      </c>
-      <c r="BA163">
-        <v>1.21</v>
-      </c>
-      <c r="BB163">
-        <v>1.4</v>
-      </c>
       <c r="BC163">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="BD163">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="BE163">
+        <v>2.45</v>
+      </c>
+      <c r="BF163">
+        <v>6</v>
+      </c>
+      <c r="BG163">
         <v>3</v>
       </c>
-      <c r="BF163">
+      <c r="BH163">
+        <v>19</v>
+      </c>
+      <c r="BI163">
         <v>7</v>
       </c>
-      <c r="BG163">
-        <v>4</v>
-      </c>
-      <c r="BH163">
-        <v>13</v>
-      </c>
-      <c r="BI163">
-        <v>4</v>
-      </c>
       <c r="BJ163">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BK163">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:63">
@@ -32500,7 +32506,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2467746</v>
+        <v>2467744</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -32515,166 +32521,166 @@
         <v>19</v>
       </c>
       <c r="G164" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H164" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L164">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164" t="s">
+        <v>205</v>
+      </c>
+      <c r="P164" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q164">
+        <v>6</v>
+      </c>
+      <c r="R164">
         <v>4</v>
-      </c>
-      <c r="N164">
-        <v>4</v>
-      </c>
-      <c r="O164" t="s">
-        <v>90</v>
-      </c>
-      <c r="P164" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q164">
-        <v>3</v>
-      </c>
-      <c r="R164">
-        <v>7</v>
       </c>
       <c r="S164">
         <v>10</v>
       </c>
       <c r="T164">
-        <v>4</v>
+        <v>2.65</v>
       </c>
       <c r="U164">
         <v>2.15</v>
       </c>
       <c r="V164">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="W164">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X164">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Y164">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Z164">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AA164">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="AB164">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AC164">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="AD164">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AE164">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="AF164">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG164">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH164">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI164">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AJ164">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AK164">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AL164">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="AM164">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AN164">
-        <v>1.85</v>
+        <v>1.35</v>
       </c>
       <c r="AO164">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AP164">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="AQ164">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AR164">
-        <v>2.13</v>
+        <v>1.11</v>
       </c>
       <c r="AS164">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AT164">
-        <v>2.3</v>
+        <v>0.91</v>
       </c>
       <c r="AU164">
-        <v>1.52</v>
+        <v>2.28</v>
       </c>
       <c r="AV164">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AW164">
-        <v>3.25</v>
+        <v>3.89</v>
       </c>
       <c r="AX164">
-        <v>2.63</v>
+        <v>1.75</v>
       </c>
       <c r="AY164">
+        <v>8.5</v>
+      </c>
+      <c r="AZ164">
+        <v>2.41</v>
+      </c>
+      <c r="BA164">
+        <v>1.18</v>
+      </c>
+      <c r="BB164">
+        <v>1.31</v>
+      </c>
+      <c r="BC164">
+        <v>1.65</v>
+      </c>
+      <c r="BD164">
+        <v>2</v>
+      </c>
+      <c r="BE164">
+        <v>2.5</v>
+      </c>
+      <c r="BF164">
+        <v>12</v>
+      </c>
+      <c r="BG164">
         <v>8</v>
       </c>
-      <c r="AZ164">
-        <v>1.69</v>
-      </c>
-      <c r="BA164">
-        <v>1.2</v>
-      </c>
-      <c r="BB164">
-        <v>1.48</v>
-      </c>
-      <c r="BC164">
-        <v>1.73</v>
-      </c>
-      <c r="BD164">
-        <v>2.1</v>
-      </c>
-      <c r="BE164">
-        <v>2.7</v>
-      </c>
-      <c r="BF164">
+      <c r="BH164">
         <v>6</v>
-      </c>
-      <c r="BG164">
-        <v>6</v>
-      </c>
-      <c r="BH164">
-        <v>12</v>
       </c>
       <c r="BI164">
         <v>4</v>
@@ -32683,7 +32689,7 @@
         <v>18</v>
       </c>
       <c r="BK164">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:63">
@@ -32691,7 +32697,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2467744</v>
+        <v>2467746</v>
       </c>
       <c r="C165" t="s">
         <v>63</v>
@@ -32706,166 +32712,166 @@
         <v>19</v>
       </c>
       <c r="G165" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
         <v>4</v>
       </c>
-      <c r="M165">
-        <v>1</v>
-      </c>
       <c r="N165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O165" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="P165" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="Q165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R165">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S165">
         <v>10</v>
       </c>
       <c r="T165">
-        <v>2.65</v>
+        <v>4</v>
       </c>
       <c r="U165">
         <v>2.15</v>
       </c>
       <c r="V165">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="W165">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X165">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Y165">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Z165">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AA165">
+        <v>6.45</v>
+      </c>
+      <c r="AB165">
+        <v>1.09</v>
+      </c>
+      <c r="AC165">
+        <v>3.3</v>
+      </c>
+      <c r="AD165">
+        <v>3.3</v>
+      </c>
+      <c r="AE165">
+        <v>1.9</v>
+      </c>
+      <c r="AF165">
+        <v>1.05</v>
+      </c>
+      <c r="AG165">
+        <v>9</v>
+      </c>
+      <c r="AH165">
+        <v>1.25</v>
+      </c>
+      <c r="AI165">
+        <v>3.6</v>
+      </c>
+      <c r="AJ165">
+        <v>1.8</v>
+      </c>
+      <c r="AK165">
+        <v>1.9</v>
+      </c>
+      <c r="AL165">
+        <v>1.72</v>
+      </c>
+      <c r="AM165">
+        <v>2.05</v>
+      </c>
+      <c r="AN165">
+        <v>1.85</v>
+      </c>
+      <c r="AO165">
+        <v>1.22</v>
+      </c>
+      <c r="AP165">
+        <v>1.25</v>
+      </c>
+      <c r="AQ165">
+        <v>1.38</v>
+      </c>
+      <c r="AR165">
+        <v>2.13</v>
+      </c>
+      <c r="AS165">
+        <v>1.1</v>
+      </c>
+      <c r="AT165">
+        <v>2.3</v>
+      </c>
+      <c r="AU165">
+        <v>1.52</v>
+      </c>
+      <c r="AV165">
+        <v>1.73</v>
+      </c>
+      <c r="AW165">
+        <v>3.25</v>
+      </c>
+      <c r="AX165">
+        <v>2.63</v>
+      </c>
+      <c r="AY165">
+        <v>8</v>
+      </c>
+      <c r="AZ165">
+        <v>1.69</v>
+      </c>
+      <c r="BA165">
+        <v>1.2</v>
+      </c>
+      <c r="BB165">
+        <v>1.48</v>
+      </c>
+      <c r="BC165">
+        <v>1.73</v>
+      </c>
+      <c r="BD165">
+        <v>2.1</v>
+      </c>
+      <c r="BE165">
+        <v>2.7</v>
+      </c>
+      <c r="BF165">
         <v>6</v>
       </c>
-      <c r="AB165">
-        <v>1.11</v>
-      </c>
-      <c r="AC165">
-        <v>1.95</v>
-      </c>
-      <c r="AD165">
-        <v>3.5</v>
-      </c>
-      <c r="AE165">
-        <v>3.05</v>
-      </c>
-      <c r="AF165">
-        <v>1.04</v>
-      </c>
-      <c r="AG165">
-        <v>10</v>
-      </c>
-      <c r="AH165">
-        <v>1.22</v>
-      </c>
-      <c r="AI165">
-        <v>4</v>
-      </c>
-      <c r="AJ165">
-        <v>1.65</v>
-      </c>
-      <c r="AK165">
-        <v>2.1</v>
-      </c>
-      <c r="AL165">
-        <v>1.6</v>
-      </c>
-      <c r="AM165">
-        <v>2.2</v>
-      </c>
-      <c r="AN165">
-        <v>1.35</v>
-      </c>
-      <c r="AO165">
-        <v>1.28</v>
-      </c>
-      <c r="AP165">
-        <v>1.66</v>
-      </c>
-      <c r="AQ165">
-        <v>2</v>
-      </c>
-      <c r="AR165">
-        <v>1.11</v>
-      </c>
-      <c r="AS165">
-        <v>2.18</v>
-      </c>
-      <c r="AT165">
-        <v>0.91</v>
-      </c>
-      <c r="AU165">
-        <v>2.28</v>
-      </c>
-      <c r="AV165">
-        <v>1.61</v>
-      </c>
-      <c r="AW165">
-        <v>3.89</v>
-      </c>
-      <c r="AX165">
-        <v>1.75</v>
-      </c>
-      <c r="AY165">
-        <v>8.5</v>
-      </c>
-      <c r="AZ165">
-        <v>2.41</v>
-      </c>
-      <c r="BA165">
-        <v>1.18</v>
-      </c>
-      <c r="BB165">
-        <v>1.31</v>
-      </c>
-      <c r="BC165">
-        <v>1.65</v>
-      </c>
-      <c r="BD165">
-        <v>2</v>
-      </c>
-      <c r="BE165">
-        <v>2.5</v>
-      </c>
-      <c r="BF165">
+      <c r="BG165">
+        <v>6</v>
+      </c>
+      <c r="BH165">
         <v>12</v>
-      </c>
-      <c r="BG165">
-        <v>8</v>
-      </c>
-      <c r="BH165">
-        <v>6</v>
       </c>
       <c r="BI165">
         <v>4</v>
@@ -32874,7 +32880,7 @@
         <v>18</v>
       </c>
       <c r="BK165">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:63">
@@ -32882,7 +32888,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2467750</v>
+        <v>2467747</v>
       </c>
       <c r="C166" t="s">
         <v>63</v>
@@ -32897,10 +32903,10 @@
         <v>19</v>
       </c>
       <c r="G166" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H166" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -32912,64 +32918,64 @@
         <v>2</v>
       </c>
       <c r="L166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O166" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="Q166">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T166">
-        <v>2.99</v>
+        <v>2.8</v>
       </c>
       <c r="U166">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="V166">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="W166">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X166">
-        <v>3.23</v>
+        <v>2.8</v>
       </c>
       <c r="Y166">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="Z166">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AA166">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="AB166">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC166">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="AD166">
         <v>3.4</v>
       </c>
       <c r="AE166">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="AF166">
         <v>1.05</v>
@@ -32978,94 +32984,94 @@
         <v>9</v>
       </c>
       <c r="AH166">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AI166">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AJ166">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="AK166">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AL166">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AM166">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AN166">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AO166">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AP166">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AQ166">
         <v>1.44</v>
       </c>
       <c r="AR166">
-        <v>1.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS166">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="AT166">
+        <v>0.73</v>
+      </c>
+      <c r="AU166">
+        <v>1.37</v>
+      </c>
+      <c r="AV166">
         <v>1.45</v>
       </c>
-      <c r="AU166">
-        <v>1.51</v>
-      </c>
-      <c r="AV166">
+      <c r="AW166">
+        <v>2.82</v>
+      </c>
+      <c r="AX166">
         <v>1.75</v>
-      </c>
-      <c r="AW166">
-        <v>3.26</v>
-      </c>
-      <c r="AX166">
-        <v>1.91</v>
       </c>
       <c r="AY166">
         <v>8</v>
       </c>
       <c r="AZ166">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="BA166">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB166">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BC166">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BD166">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BE166">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BF166">
         <v>5</v>
       </c>
       <c r="BG166">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH166">
+        <v>8</v>
+      </c>
+      <c r="BI166">
+        <v>8</v>
+      </c>
+      <c r="BJ166">
         <v>13</v>
       </c>
-      <c r="BI166">
-        <v>9</v>
-      </c>
-      <c r="BJ166">
-        <v>18</v>
-      </c>
       <c r="BK166">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:63">
@@ -33073,7 +33079,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>2467749</v>
+        <v>2467750</v>
       </c>
       <c r="C167" t="s">
         <v>63</v>
@@ -33088,175 +33094,175 @@
         <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H167" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L167">
         <v>2</v>
       </c>
       <c r="M167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="Q167">
+        <v>8</v>
+      </c>
+      <c r="R167">
         <v>3</v>
       </c>
-      <c r="R167">
-        <v>6</v>
-      </c>
       <c r="S167">
+        <v>11</v>
+      </c>
+      <c r="T167">
+        <v>2.99</v>
+      </c>
+      <c r="U167">
+        <v>2.31</v>
+      </c>
+      <c r="V167">
+        <v>3.67</v>
+      </c>
+      <c r="W167">
+        <v>1.37</v>
+      </c>
+      <c r="X167">
+        <v>3.23</v>
+      </c>
+      <c r="Y167">
+        <v>2.73</v>
+      </c>
+      <c r="Z167">
+        <v>1.49</v>
+      </c>
+      <c r="AA167">
+        <v>6.25</v>
+      </c>
+      <c r="AB167">
+        <v>1.1</v>
+      </c>
+      <c r="AC167">
+        <v>2.36</v>
+      </c>
+      <c r="AD167">
+        <v>3.4</v>
+      </c>
+      <c r="AE167">
+        <v>2.85</v>
+      </c>
+      <c r="AF167">
+        <v>1.05</v>
+      </c>
+      <c r="AG167">
         <v>9</v>
       </c>
-      <c r="T167">
-        <v>3.3</v>
-      </c>
-      <c r="U167">
-        <v>2.05</v>
-      </c>
-      <c r="V167">
-        <v>2.95</v>
-      </c>
-      <c r="W167">
+      <c r="AH167">
+        <v>1.25</v>
+      </c>
+      <c r="AI167">
+        <v>3.6</v>
+      </c>
+      <c r="AJ167">
+        <v>1.62</v>
+      </c>
+      <c r="AK167">
+        <v>2.2</v>
+      </c>
+      <c r="AL167">
+        <v>1.68</v>
+      </c>
+      <c r="AM167">
+        <v>2.23</v>
+      </c>
+      <c r="AN167">
         <v>1.39</v>
       </c>
-      <c r="X167">
-        <v>2.75</v>
-      </c>
-      <c r="Y167">
-        <v>2.75</v>
-      </c>
-      <c r="Z167">
-        <v>1.39</v>
-      </c>
-      <c r="AA167">
-        <v>7</v>
-      </c>
-      <c r="AB167">
-        <v>1.08</v>
-      </c>
-      <c r="AC167">
-        <v>2.85</v>
-      </c>
-      <c r="AD167">
-        <v>3.3</v>
-      </c>
-      <c r="AE167">
-        <v>2.41</v>
-      </c>
-      <c r="AF167">
-        <v>1.06</v>
-      </c>
-      <c r="AG167">
-        <v>8</v>
-      </c>
-      <c r="AH167">
-        <v>1.3</v>
-      </c>
-      <c r="AI167">
-        <v>3.3</v>
-      </c>
-      <c r="AJ167">
-        <v>1.92</v>
-      </c>
-      <c r="AK167">
-        <v>1.86</v>
-      </c>
-      <c r="AL167">
-        <v>1.7</v>
-      </c>
-      <c r="AM167">
-        <v>2</v>
-      </c>
-      <c r="AN167">
-        <v>1.53</v>
-      </c>
       <c r="AO167">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AP167">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AQ167">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AR167">
         <v>1.44</v>
       </c>
       <c r="AS167">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="AT167">
         <v>1.45</v>
       </c>
       <c r="AU167">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="AV167">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AW167">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="AX167">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AY167">
         <v>8</v>
       </c>
       <c r="AZ167">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="BA167">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BB167">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="BC167">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="BD167">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BE167">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="BF167">
+        <v>5</v>
+      </c>
+      <c r="BG167">
         <v>4</v>
       </c>
-      <c r="BG167">
-        <v>5</v>
-      </c>
       <c r="BH167">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BI167">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BJ167">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK167">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:63">
@@ -33264,7 +33270,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2467747</v>
+        <v>2467749</v>
       </c>
       <c r="C168" t="s">
         <v>63</v>
@@ -33279,64 +33285,64 @@
         <v>19</v>
       </c>
       <c r="G168" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H168" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>207</v>
+      </c>
+      <c r="P168" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q168">
         <v>3</v>
       </c>
-      <c r="N168">
-        <v>4</v>
-      </c>
-      <c r="O168" t="s">
-        <v>195</v>
-      </c>
-      <c r="P168" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q168">
-        <v>2</v>
-      </c>
       <c r="R168">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S168">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T168">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="U168">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V168">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="W168">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X168">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y168">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Z168">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AA168">
         <v>7</v>
@@ -33345,31 +33351,31 @@
         <v>1.08</v>
       </c>
       <c r="AC168">
-        <v>2.28</v>
+        <v>2.85</v>
       </c>
       <c r="AD168">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE168">
-        <v>2.95</v>
+        <v>2.41</v>
       </c>
       <c r="AF168">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG168">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH168">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AI168">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AJ168">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="AK168">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AL168">
         <v>1.7</v>
@@ -33378,76 +33384,76 @@
         <v>2</v>
       </c>
       <c r="AN168">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="AO168">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AP168">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="AQ168">
+        <v>1.22</v>
+      </c>
+      <c r="AR168">
         <v>1.44</v>
-      </c>
-      <c r="AR168">
-        <v>0.5600000000000001</v>
       </c>
       <c r="AS168">
         <v>1.27</v>
       </c>
       <c r="AT168">
-        <v>0.73</v>
+        <v>1.45</v>
       </c>
       <c r="AU168">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AV168">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AW168">
-        <v>2.82</v>
+        <v>3.19</v>
       </c>
       <c r="AX168">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AY168">
         <v>8</v>
       </c>
       <c r="AZ168">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="BA168">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BB168">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="BC168">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="BD168">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="BE168">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BF168">
+        <v>4</v>
+      </c>
+      <c r="BG168">
         <v>5</v>
-      </c>
-      <c r="BG168">
-        <v>7</v>
       </c>
       <c r="BH168">
         <v>8</v>
       </c>
       <c r="BI168">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BJ168">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK168">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:63">
@@ -33646,7 +33652,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2467743</v>
+        <v>2467745</v>
       </c>
       <c r="C170" t="s">
         <v>63</v>
@@ -33661,175 +33667,175 @@
         <v>19</v>
       </c>
       <c r="G170" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H170" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N170">
         <v>2</v>
       </c>
       <c r="O170" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="P170" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="Q170">
+        <v>3</v>
+      </c>
+      <c r="R170">
+        <v>7</v>
+      </c>
+      <c r="S170">
+        <v>10</v>
+      </c>
+      <c r="T170">
+        <v>4</v>
+      </c>
+      <c r="U170">
+        <v>2.3</v>
+      </c>
+      <c r="V170">
+        <v>2.5</v>
+      </c>
+      <c r="W170">
+        <v>1.33</v>
+      </c>
+      <c r="X170">
+        <v>3.25</v>
+      </c>
+      <c r="Y170">
+        <v>2.5</v>
+      </c>
+      <c r="Z170">
+        <v>1.5</v>
+      </c>
+      <c r="AA170">
+        <v>6</v>
+      </c>
+      <c r="AB170">
+        <v>1.13</v>
+      </c>
+      <c r="AC170">
+        <v>3.32</v>
+      </c>
+      <c r="AD170">
+        <v>3.66</v>
+      </c>
+      <c r="AE170">
+        <v>2.04</v>
+      </c>
+      <c r="AF170">
+        <v>1</v>
+      </c>
+      <c r="AG170">
+        <v>10.5</v>
+      </c>
+      <c r="AH170">
+        <v>1.18</v>
+      </c>
+      <c r="AI170">
+        <v>4.1</v>
+      </c>
+      <c r="AJ170">
+        <v>1.66</v>
+      </c>
+      <c r="AK170">
+        <v>2.1</v>
+      </c>
+      <c r="AL170">
+        <v>1.62</v>
+      </c>
+      <c r="AM170">
+        <v>2.2</v>
+      </c>
+      <c r="AN170">
+        <v>1.85</v>
+      </c>
+      <c r="AO170">
+        <v>1.27</v>
+      </c>
+      <c r="AP170">
+        <v>1.29</v>
+      </c>
+      <c r="AQ170">
+        <v>1.11</v>
+      </c>
+      <c r="AR170">
+        <v>2.25</v>
+      </c>
+      <c r="AS170">
+        <v>0.91</v>
+      </c>
+      <c r="AT170">
+        <v>2.09</v>
+      </c>
+      <c r="AU170">
+        <v>1.64</v>
+      </c>
+      <c r="AV170">
+        <v>1.78</v>
+      </c>
+      <c r="AW170">
+        <v>3.42</v>
+      </c>
+      <c r="AX170">
+        <v>2.53</v>
+      </c>
+      <c r="AY170">
+        <v>8.5</v>
+      </c>
+      <c r="AZ170">
+        <v>1.69</v>
+      </c>
+      <c r="BA170">
+        <v>1.16</v>
+      </c>
+      <c r="BB170">
+        <v>1.27</v>
+      </c>
+      <c r="BC170">
+        <v>1.57</v>
+      </c>
+      <c r="BD170">
+        <v>2</v>
+      </c>
+      <c r="BE170">
+        <v>2.4</v>
+      </c>
+      <c r="BF170">
+        <v>7</v>
+      </c>
+      <c r="BG170">
+        <v>4</v>
+      </c>
+      <c r="BH170">
         <v>8</v>
       </c>
-      <c r="R170">
-        <v>3</v>
-      </c>
-      <c r="S170">
-        <v>11</v>
-      </c>
-      <c r="T170">
-        <v>2.6</v>
-      </c>
-      <c r="U170">
-        <v>2.25</v>
-      </c>
-      <c r="V170">
-        <v>4.33</v>
-      </c>
-      <c r="W170">
-        <v>1.36</v>
-      </c>
-      <c r="X170">
-        <v>3</v>
-      </c>
-      <c r="Y170">
-        <v>2.63</v>
-      </c>
-      <c r="Z170">
-        <v>1.44</v>
-      </c>
-      <c r="AA170">
-        <v>7</v>
-      </c>
-      <c r="AB170">
-        <v>1.1</v>
-      </c>
-      <c r="AC170">
-        <v>1.99</v>
-      </c>
-      <c r="AD170">
-        <v>3.5</v>
-      </c>
-      <c r="AE170">
-        <v>3.6</v>
-      </c>
-      <c r="AF170">
-        <v>1.01</v>
-      </c>
-      <c r="AG170">
-        <v>9.9</v>
-      </c>
-      <c r="AH170">
-        <v>1.25</v>
-      </c>
-      <c r="AI170">
-        <v>3.6</v>
-      </c>
-      <c r="AJ170">
-        <v>1.7</v>
-      </c>
-      <c r="AK170">
-        <v>2.04</v>
-      </c>
-      <c r="AL170">
-        <v>1.73</v>
-      </c>
-      <c r="AM170">
-        <v>2</v>
-      </c>
-      <c r="AN170">
-        <v>1.24</v>
-      </c>
-      <c r="AO170">
-        <v>1.25</v>
-      </c>
-      <c r="AP170">
-        <v>1.74</v>
-      </c>
-      <c r="AQ170">
-        <v>1.75</v>
-      </c>
-      <c r="AR170">
-        <v>1.22</v>
-      </c>
-      <c r="AS170">
-        <v>2.09</v>
-      </c>
-      <c r="AT170">
-        <v>1.09</v>
-      </c>
-      <c r="AU170">
-        <v>2.11</v>
-      </c>
-      <c r="AV170">
-        <v>1.51</v>
-      </c>
-      <c r="AW170">
-        <v>3.62</v>
-      </c>
-      <c r="AX170">
-        <v>1.41</v>
-      </c>
-      <c r="AY170">
-        <v>9</v>
-      </c>
-      <c r="AZ170">
-        <v>3.48</v>
-      </c>
-      <c r="BA170">
-        <v>1.2</v>
-      </c>
-      <c r="BB170">
-        <v>1.43</v>
-      </c>
-      <c r="BC170">
-        <v>1.7</v>
-      </c>
-      <c r="BD170">
-        <v>2.1</v>
-      </c>
-      <c r="BE170">
-        <v>2.63</v>
-      </c>
-      <c r="BF170">
-        <v>5</v>
-      </c>
-      <c r="BG170">
-        <v>3</v>
-      </c>
-      <c r="BH170">
-        <v>16</v>
-      </c>
       <c r="BI170">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="BJ170">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BK170">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:63">
@@ -33837,7 +33843,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>2467745</v>
+        <v>2467743</v>
       </c>
       <c r="C171" t="s">
         <v>63</v>
@@ -33852,175 +33858,175 @@
         <v>19</v>
       </c>
       <c r="G171" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H171" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N171">
         <v>2</v>
       </c>
       <c r="O171" t="s">
+        <v>208</v>
+      </c>
+      <c r="P171" t="s">
         <v>90</v>
       </c>
-      <c r="P171" t="s">
-        <v>317</v>
-      </c>
       <c r="Q171">
+        <v>8</v>
+      </c>
+      <c r="R171">
         <v>3</v>
       </c>
-      <c r="R171">
+      <c r="S171">
+        <v>11</v>
+      </c>
+      <c r="T171">
+        <v>2.6</v>
+      </c>
+      <c r="U171">
+        <v>2.25</v>
+      </c>
+      <c r="V171">
+        <v>4.33</v>
+      </c>
+      <c r="W171">
+        <v>1.36</v>
+      </c>
+      <c r="X171">
+        <v>3</v>
+      </c>
+      <c r="Y171">
+        <v>2.63</v>
+      </c>
+      <c r="Z171">
+        <v>1.44</v>
+      </c>
+      <c r="AA171">
         <v>7</v>
       </c>
-      <c r="S171">
+      <c r="AB171">
+        <v>1.1</v>
+      </c>
+      <c r="AC171">
+        <v>1.99</v>
+      </c>
+      <c r="AD171">
+        <v>3.5</v>
+      </c>
+      <c r="AE171">
+        <v>3.6</v>
+      </c>
+      <c r="AF171">
+        <v>1.01</v>
+      </c>
+      <c r="AG171">
+        <v>9.9</v>
+      </c>
+      <c r="AH171">
+        <v>1.25</v>
+      </c>
+      <c r="AI171">
+        <v>3.6</v>
+      </c>
+      <c r="AJ171">
+        <v>1.7</v>
+      </c>
+      <c r="AK171">
+        <v>2.04</v>
+      </c>
+      <c r="AL171">
+        <v>1.73</v>
+      </c>
+      <c r="AM171">
+        <v>2</v>
+      </c>
+      <c r="AN171">
+        <v>1.24</v>
+      </c>
+      <c r="AO171">
+        <v>1.25</v>
+      </c>
+      <c r="AP171">
+        <v>1.74</v>
+      </c>
+      <c r="AQ171">
+        <v>1.75</v>
+      </c>
+      <c r="AR171">
+        <v>1.22</v>
+      </c>
+      <c r="AS171">
+        <v>2.09</v>
+      </c>
+      <c r="AT171">
+        <v>1.09</v>
+      </c>
+      <c r="AU171">
+        <v>2.11</v>
+      </c>
+      <c r="AV171">
+        <v>1.51</v>
+      </c>
+      <c r="AW171">
+        <v>3.62</v>
+      </c>
+      <c r="AX171">
+        <v>1.41</v>
+      </c>
+      <c r="AY171">
+        <v>9</v>
+      </c>
+      <c r="AZ171">
+        <v>3.48</v>
+      </c>
+      <c r="BA171">
+        <v>1.2</v>
+      </c>
+      <c r="BB171">
+        <v>1.43</v>
+      </c>
+      <c r="BC171">
+        <v>1.7</v>
+      </c>
+      <c r="BD171">
+        <v>2.1</v>
+      </c>
+      <c r="BE171">
+        <v>2.63</v>
+      </c>
+      <c r="BF171">
+        <v>5</v>
+      </c>
+      <c r="BG171">
+        <v>3</v>
+      </c>
+      <c r="BH171">
+        <v>16</v>
+      </c>
+      <c r="BI171">
+        <v>7</v>
+      </c>
+      <c r="BJ171">
+        <v>21</v>
+      </c>
+      <c r="BK171">
         <v>10</v>
-      </c>
-      <c r="T171">
-        <v>4</v>
-      </c>
-      <c r="U171">
-        <v>2.3</v>
-      </c>
-      <c r="V171">
-        <v>2.5</v>
-      </c>
-      <c r="W171">
-        <v>1.33</v>
-      </c>
-      <c r="X171">
-        <v>3.25</v>
-      </c>
-      <c r="Y171">
-        <v>2.5</v>
-      </c>
-      <c r="Z171">
-        <v>1.5</v>
-      </c>
-      <c r="AA171">
-        <v>6</v>
-      </c>
-      <c r="AB171">
-        <v>1.13</v>
-      </c>
-      <c r="AC171">
-        <v>3.32</v>
-      </c>
-      <c r="AD171">
-        <v>3.66</v>
-      </c>
-      <c r="AE171">
-        <v>2.04</v>
-      </c>
-      <c r="AF171">
-        <v>1</v>
-      </c>
-      <c r="AG171">
-        <v>10.5</v>
-      </c>
-      <c r="AH171">
-        <v>1.18</v>
-      </c>
-      <c r="AI171">
-        <v>4.1</v>
-      </c>
-      <c r="AJ171">
-        <v>1.66</v>
-      </c>
-      <c r="AK171">
-        <v>2.1</v>
-      </c>
-      <c r="AL171">
-        <v>1.62</v>
-      </c>
-      <c r="AM171">
-        <v>2.2</v>
-      </c>
-      <c r="AN171">
-        <v>1.85</v>
-      </c>
-      <c r="AO171">
-        <v>1.27</v>
-      </c>
-      <c r="AP171">
-        <v>1.29</v>
-      </c>
-      <c r="AQ171">
-        <v>1.11</v>
-      </c>
-      <c r="AR171">
-        <v>2.25</v>
-      </c>
-      <c r="AS171">
-        <v>0.91</v>
-      </c>
-      <c r="AT171">
-        <v>2.09</v>
-      </c>
-      <c r="AU171">
-        <v>1.64</v>
-      </c>
-      <c r="AV171">
-        <v>1.78</v>
-      </c>
-      <c r="AW171">
-        <v>3.42</v>
-      </c>
-      <c r="AX171">
-        <v>2.53</v>
-      </c>
-      <c r="AY171">
-        <v>8.5</v>
-      </c>
-      <c r="AZ171">
-        <v>1.69</v>
-      </c>
-      <c r="BA171">
-        <v>1.16</v>
-      </c>
-      <c r="BB171">
-        <v>1.27</v>
-      </c>
-      <c r="BC171">
-        <v>1.57</v>
-      </c>
-      <c r="BD171">
-        <v>2</v>
-      </c>
-      <c r="BE171">
-        <v>2.4</v>
-      </c>
-      <c r="BF171">
-        <v>7</v>
-      </c>
-      <c r="BG171">
-        <v>4</v>
-      </c>
-      <c r="BH171">
-        <v>8</v>
-      </c>
-      <c r="BI171">
-        <v>18</v>
-      </c>
-      <c r="BJ171">
-        <v>15</v>
-      </c>
-      <c r="BK171">
-        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:63">
@@ -34157,7 +34163,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT172">
         <v>1.1</v>
@@ -34261,7 +34267,7 @@
         <v>90</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34452,7 +34458,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34601,7 +34607,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>2467755</v>
+        <v>2467758</v>
       </c>
       <c r="C175" t="s">
         <v>63</v>
@@ -34616,175 +34622,175 @@
         <v>20</v>
       </c>
       <c r="G175" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H175" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O175" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="P175" t="s">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="Q175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>5</v>
+      </c>
+      <c r="T175">
+        <v>3.25</v>
+      </c>
+      <c r="U175">
+        <v>2.2</v>
+      </c>
+      <c r="V175">
+        <v>2.9</v>
+      </c>
+      <c r="W175">
+        <v>1.34</v>
+      </c>
+      <c r="X175">
+        <v>3.05</v>
+      </c>
+      <c r="Y175">
+        <v>2.5</v>
+      </c>
+      <c r="Z175">
+        <v>1.47</v>
+      </c>
+      <c r="AA175">
+        <v>5.95</v>
+      </c>
+      <c r="AB175">
+        <v>1.1</v>
+      </c>
+      <c r="AC175">
+        <v>2.65</v>
+      </c>
+      <c r="AD175">
+        <v>3.48</v>
+      </c>
+      <c r="AE175">
+        <v>2.23</v>
+      </c>
+      <c r="AF175">
+        <v>1.04</v>
+      </c>
+      <c r="AG175">
+        <v>10</v>
+      </c>
+      <c r="AH175">
+        <v>1.22</v>
+      </c>
+      <c r="AI175">
         <v>4</v>
       </c>
-      <c r="S175">
-        <v>7</v>
-      </c>
-      <c r="T175">
-        <v>2.65</v>
-      </c>
-      <c r="U175">
-        <v>2.15</v>
-      </c>
-      <c r="V175">
-        <v>3.75</v>
-      </c>
-      <c r="W175">
-        <v>1.39</v>
-      </c>
-      <c r="X175">
-        <v>2.8</v>
-      </c>
-      <c r="Y175">
-        <v>2.75</v>
-      </c>
-      <c r="Z175">
-        <v>1.4</v>
-      </c>
-      <c r="AA175">
-        <v>6.95</v>
-      </c>
-      <c r="AB175">
-        <v>1.07</v>
-      </c>
-      <c r="AC175">
-        <v>1.95</v>
-      </c>
-      <c r="AD175">
-        <v>3.5</v>
-      </c>
-      <c r="AE175">
-        <v>3.17</v>
-      </c>
-      <c r="AF175">
-        <v>1.06</v>
-      </c>
-      <c r="AG175">
-        <v>8</v>
-      </c>
-      <c r="AH175">
-        <v>1.28</v>
-      </c>
-      <c r="AI175">
-        <v>3.5</v>
-      </c>
       <c r="AJ175">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="AK175">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="AL175">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AM175">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AN175">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AO175">
         <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AQ175">
-        <v>1.11</v>
+        <v>1.89</v>
       </c>
       <c r="AR175">
-        <v>0.67</v>
+        <v>1.22</v>
       </c>
       <c r="AS175">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AT175">
-        <v>0.55</v>
+        <v>1.36</v>
       </c>
       <c r="AU175">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="AV175">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="AW175">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="AX175">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AY175">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ175">
-        <v>2.51</v>
+        <v>2</v>
       </c>
       <c r="BA175">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BB175">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="BC175">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="BD175">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BE175">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BF175">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG175">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BH175">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI175">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ175">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK175">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:63">
@@ -34792,7 +34798,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>2467758</v>
+        <v>2467755</v>
       </c>
       <c r="C176" t="s">
         <v>63</v>
@@ -34807,175 +34813,175 @@
         <v>20</v>
       </c>
       <c r="G176" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H176" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>177</v>
+      </c>
+      <c r="P176" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176">
         <v>4</v>
       </c>
-      <c r="L176">
-        <v>3</v>
-      </c>
-      <c r="M176">
-        <v>4</v>
-      </c>
-      <c r="N176">
+      <c r="S176">
         <v>7</v>
       </c>
-      <c r="O176" t="s">
-        <v>211</v>
-      </c>
-      <c r="P176" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q176">
-        <v>4</v>
-      </c>
-      <c r="R176">
-        <v>1</v>
-      </c>
-      <c r="S176">
-        <v>5</v>
-      </c>
       <c r="T176">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="U176">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V176">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="W176">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="X176">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Y176">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z176">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AA176">
-        <v>5.95</v>
+        <v>6.95</v>
       </c>
       <c r="AB176">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AC176">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="AD176">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="AE176">
-        <v>2.23</v>
+        <v>3.17</v>
       </c>
       <c r="AF176">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AG176">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH176">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AI176">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ176">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AK176">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="AL176">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="AM176">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AN176">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AO176">
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AQ176">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="AR176">
-        <v>1.22</v>
+        <v>0.67</v>
       </c>
       <c r="AS176">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AT176">
-        <v>1.36</v>
+        <v>0.55</v>
       </c>
       <c r="AU176">
-        <v>1.51</v>
+        <v>1.79</v>
       </c>
       <c r="AV176">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="AW176">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="AX176">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AY176">
+        <v>8.5</v>
+      </c>
+      <c r="AZ176">
+        <v>2.51</v>
+      </c>
+      <c r="BA176">
+        <v>1.16</v>
+      </c>
+      <c r="BB176">
+        <v>1.31</v>
+      </c>
+      <c r="BC176">
+        <v>1.65</v>
+      </c>
+      <c r="BD176">
+        <v>2</v>
+      </c>
+      <c r="BE176">
+        <v>2.5</v>
+      </c>
+      <c r="BF176">
+        <v>5</v>
+      </c>
+      <c r="BG176">
+        <v>2</v>
+      </c>
+      <c r="BH176">
+        <v>3</v>
+      </c>
+      <c r="BI176">
         <v>8</v>
       </c>
-      <c r="AZ176">
-        <v>2</v>
-      </c>
-      <c r="BA176">
-        <v>1.18</v>
-      </c>
-      <c r="BB176">
-        <v>1.43</v>
-      </c>
-      <c r="BC176">
-        <v>1.67</v>
-      </c>
-      <c r="BD176">
-        <v>2.05</v>
-      </c>
-      <c r="BE176">
-        <v>2.6</v>
-      </c>
-      <c r="BF176">
-        <v>7</v>
-      </c>
-      <c r="BG176">
+      <c r="BJ176">
+        <v>8</v>
+      </c>
+      <c r="BK176">
         <v>10</v>
-      </c>
-      <c r="BH176">
-        <v>6</v>
-      </c>
-      <c r="BI176">
-        <v>4</v>
-      </c>
-      <c r="BJ176">
-        <v>13</v>
-      </c>
-      <c r="BK176">
-        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:63">
@@ -35025,7 +35031,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35216,7 +35222,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35688,7 +35694,7 @@
         <v>2.09</v>
       </c>
       <c r="AT180">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU180">
         <v>2.11</v>
@@ -35980,7 +35986,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36258,10 +36264,10 @@
         <v>1.9</v>
       </c>
       <c r="AS183">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AT183">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU183">
         <v>2.29</v>
@@ -36320,7 +36326,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>2467767</v>
+        <v>2467766</v>
       </c>
       <c r="C184" t="s">
         <v>63</v>
@@ -36335,10 +36341,10 @@
         <v>21</v>
       </c>
       <c r="G184" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H184" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -36353,157 +36359,157 @@
         <v>1</v>
       </c>
       <c r="M184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O184" t="s">
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
       <c r="Q184">
+        <v>9</v>
+      </c>
+      <c r="R184">
+        <v>6</v>
+      </c>
+      <c r="S184">
+        <v>15</v>
+      </c>
+      <c r="T184">
+        <v>3.3</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
         <v>3</v>
       </c>
-      <c r="R184">
+      <c r="W184">
+        <v>1.39</v>
+      </c>
+      <c r="X184">
+        <v>2.8</v>
+      </c>
+      <c r="Y184">
+        <v>2.7</v>
+      </c>
+      <c r="Z184">
+        <v>1.41</v>
+      </c>
+      <c r="AA184">
+        <v>6.45</v>
+      </c>
+      <c r="AB184">
+        <v>1.09</v>
+      </c>
+      <c r="AC184">
+        <v>2.8</v>
+      </c>
+      <c r="AD184">
+        <v>3.15</v>
+      </c>
+      <c r="AE184">
+        <v>2.43</v>
+      </c>
+      <c r="AF184">
+        <v>1.05</v>
+      </c>
+      <c r="AG184">
         <v>9</v>
       </c>
-      <c r="S184">
-        <v>12</v>
-      </c>
-      <c r="T184">
-        <v>3.2</v>
-      </c>
-      <c r="U184">
-        <v>2.3</v>
-      </c>
-      <c r="V184">
-        <v>2.8</v>
-      </c>
-      <c r="W184">
+      <c r="AH184">
+        <v>1.28</v>
+      </c>
+      <c r="AI184">
+        <v>3.5</v>
+      </c>
+      <c r="AJ184">
+        <v>1.9</v>
+      </c>
+      <c r="AK184">
+        <v>1.9</v>
+      </c>
+      <c r="AL184">
+        <v>1.68</v>
+      </c>
+      <c r="AM184">
+        <v>2.15</v>
+      </c>
+      <c r="AN184">
+        <v>1.45</v>
+      </c>
+      <c r="AO184">
+        <v>1.25</v>
+      </c>
+      <c r="AP184">
+        <v>1.42</v>
+      </c>
+      <c r="AQ184">
         <v>1.3</v>
       </c>
-      <c r="X184">
-        <v>3.2</v>
-      </c>
-      <c r="Y184">
-        <v>2.45</v>
-      </c>
-      <c r="Z184">
-        <v>1.47</v>
-      </c>
-      <c r="AA184">
-        <v>5.75</v>
-      </c>
-      <c r="AB184">
-        <v>1.11</v>
-      </c>
-      <c r="AC184">
-        <v>2.9</v>
-      </c>
-      <c r="AD184">
-        <v>3.35</v>
-      </c>
-      <c r="AE184">
-        <v>2.25</v>
-      </c>
-      <c r="AF184">
-        <v>1.03</v>
-      </c>
-      <c r="AG184">
-        <v>11</v>
-      </c>
-      <c r="AH184">
-        <v>1.22</v>
-      </c>
-      <c r="AI184">
-        <v>4</v>
-      </c>
-      <c r="AJ184">
-        <v>1.72</v>
-      </c>
-      <c r="AK184">
-        <v>2.12</v>
-      </c>
-      <c r="AL184">
-        <v>1.52</v>
-      </c>
-      <c r="AM184">
-        <v>2.35</v>
-      </c>
-      <c r="AN184">
-        <v>1.62</v>
-      </c>
-      <c r="AO184">
-        <v>1.33</v>
-      </c>
-      <c r="AP184">
-        <v>1.32</v>
-      </c>
-      <c r="AQ184">
-        <v>0.89</v>
-      </c>
       <c r="AR184">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AS184">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AT184">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="AU184">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="AV184">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="AW184">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="AX184">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="AY184">
         <v>8</v>
       </c>
       <c r="AZ184">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="BA184">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BB184">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BC184">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BD184">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BE184">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BF184">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BG184">
+        <v>8</v>
+      </c>
+      <c r="BH184">
         <v>4</v>
       </c>
-      <c r="BH184">
-        <v>6</v>
-      </c>
       <c r="BI184">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BJ184">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK184">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:63">
@@ -36511,7 +36517,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>2467766</v>
+        <v>2467767</v>
       </c>
       <c r="C185" t="s">
         <v>63</v>
@@ -36526,10 +36532,10 @@
         <v>21</v>
       </c>
       <c r="G185" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H185" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -36544,157 +36550,157 @@
         <v>1</v>
       </c>
       <c r="M185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O185" t="s">
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="R185">
         <v>9</v>
       </c>
-      <c r="R185">
-        <v>6</v>
-      </c>
       <c r="S185">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T185">
+        <v>3.2</v>
+      </c>
+      <c r="U185">
+        <v>2.3</v>
+      </c>
+      <c r="V185">
+        <v>2.8</v>
+      </c>
+      <c r="W185">
+        <v>1.3</v>
+      </c>
+      <c r="X185">
+        <v>3.2</v>
+      </c>
+      <c r="Y185">
+        <v>2.45</v>
+      </c>
+      <c r="Z185">
+        <v>1.47</v>
+      </c>
+      <c r="AA185">
+        <v>5.75</v>
+      </c>
+      <c r="AB185">
+        <v>1.11</v>
+      </c>
+      <c r="AC185">
+        <v>2.9</v>
+      </c>
+      <c r="AD185">
+        <v>3.35</v>
+      </c>
+      <c r="AE185">
+        <v>2.25</v>
+      </c>
+      <c r="AF185">
+        <v>1.03</v>
+      </c>
+      <c r="AG185">
+        <v>11</v>
+      </c>
+      <c r="AH185">
+        <v>1.22</v>
+      </c>
+      <c r="AI185">
+        <v>4</v>
+      </c>
+      <c r="AJ185">
+        <v>1.72</v>
+      </c>
+      <c r="AK185">
+        <v>2.12</v>
+      </c>
+      <c r="AL185">
+        <v>1.52</v>
+      </c>
+      <c r="AM185">
+        <v>2.35</v>
+      </c>
+      <c r="AN185">
+        <v>1.62</v>
+      </c>
+      <c r="AO185">
+        <v>1.33</v>
+      </c>
+      <c r="AP185">
+        <v>1.32</v>
+      </c>
+      <c r="AQ185">
+        <v>0.89</v>
+      </c>
+      <c r="AR185">
+        <v>0.6</v>
+      </c>
+      <c r="AS185">
+        <v>1</v>
+      </c>
+      <c r="AT185">
+        <v>1</v>
+      </c>
+      <c r="AU185">
+        <v>1.66</v>
+      </c>
+      <c r="AV185">
+        <v>1.64</v>
+      </c>
+      <c r="AW185">
         <v>3.3</v>
       </c>
-      <c r="U185">
-        <v>2.1</v>
-      </c>
-      <c r="V185">
-        <v>3</v>
-      </c>
-      <c r="W185">
-        <v>1.39</v>
-      </c>
-      <c r="X185">
-        <v>2.8</v>
-      </c>
-      <c r="Y185">
-        <v>2.7</v>
-      </c>
-      <c r="Z185">
-        <v>1.41</v>
-      </c>
-      <c r="AA185">
-        <v>6.45</v>
-      </c>
-      <c r="AB185">
-        <v>1.09</v>
-      </c>
-      <c r="AC185">
-        <v>2.8</v>
-      </c>
-      <c r="AD185">
-        <v>3.15</v>
-      </c>
-      <c r="AE185">
-        <v>2.43</v>
-      </c>
-      <c r="AF185">
-        <v>1.05</v>
-      </c>
-      <c r="AG185">
-        <v>9</v>
-      </c>
-      <c r="AH185">
-        <v>1.28</v>
-      </c>
-      <c r="AI185">
-        <v>3.5</v>
-      </c>
-      <c r="AJ185">
-        <v>1.9</v>
-      </c>
-      <c r="AK185">
-        <v>1.9</v>
-      </c>
-      <c r="AL185">
-        <v>1.68</v>
-      </c>
-      <c r="AM185">
-        <v>2.15</v>
-      </c>
-      <c r="AN185">
-        <v>1.45</v>
-      </c>
-      <c r="AO185">
-        <v>1.25</v>
-      </c>
-      <c r="AP185">
-        <v>1.42</v>
-      </c>
-      <c r="AQ185">
-        <v>1.3</v>
-      </c>
-      <c r="AR185">
-        <v>1.1</v>
-      </c>
-      <c r="AS185">
-        <v>1.27</v>
-      </c>
-      <c r="AT185">
-        <v>1.09</v>
-      </c>
-      <c r="AU185">
-        <v>1.39</v>
-      </c>
-      <c r="AV185">
-        <v>1.48</v>
-      </c>
-      <c r="AW185">
-        <v>2.87</v>
-      </c>
       <c r="AX185">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="AY185">
         <v>8</v>
       </c>
       <c r="AZ185">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="BA185">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BB185">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BC185">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BD185">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BE185">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BF185">
+        <v>5</v>
+      </c>
+      <c r="BG185">
+        <v>4</v>
+      </c>
+      <c r="BH185">
+        <v>6</v>
+      </c>
+      <c r="BI185">
+        <v>9</v>
+      </c>
+      <c r="BJ185">
         <v>11</v>
       </c>
-      <c r="BG185">
-        <v>8</v>
-      </c>
-      <c r="BH185">
-        <v>4</v>
-      </c>
-      <c r="BI185">
-        <v>2</v>
-      </c>
-      <c r="BJ185">
-        <v>15</v>
-      </c>
       <c r="BK185">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:63">
@@ -36744,7 +36750,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37126,7 +37132,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37317,7 +37323,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="Q189">
         <v>2</v>
@@ -38039,7 +38045,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2467773</v>
+        <v>2467777</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -38054,175 +38060,175 @@
         <v>22</v>
       </c>
       <c r="G193" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H193" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K193">
         <v>1</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M193">
         <v>1</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O193" t="s">
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="Q193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R193">
+        <v>7</v>
+      </c>
+      <c r="S193">
+        <v>9</v>
+      </c>
+      <c r="T193">
+        <v>3.4</v>
+      </c>
+      <c r="U193">
+        <v>2.1</v>
+      </c>
+      <c r="V193">
+        <v>3.4</v>
+      </c>
+      <c r="W193">
+        <v>1.44</v>
+      </c>
+      <c r="X193">
+        <v>2.63</v>
+      </c>
+      <c r="Y193">
+        <v>3.25</v>
+      </c>
+      <c r="Z193">
+        <v>1.33</v>
+      </c>
+      <c r="AA193">
+        <v>9</v>
+      </c>
+      <c r="AB193">
+        <v>1.07</v>
+      </c>
+      <c r="AC193">
+        <v>2.35</v>
+      </c>
+      <c r="AD193">
         <v>3</v>
       </c>
-      <c r="S193">
-        <v>7</v>
-      </c>
-      <c r="T193">
-        <v>3</v>
-      </c>
-      <c r="U193">
-        <v>2.4</v>
-      </c>
-      <c r="V193">
-        <v>3</v>
-      </c>
-      <c r="W193">
-        <v>1.25</v>
-      </c>
-      <c r="X193">
-        <v>3.75</v>
-      </c>
-      <c r="Y193">
-        <v>2.25</v>
-      </c>
-      <c r="Z193">
-        <v>1.57</v>
-      </c>
-      <c r="AA193">
-        <v>5.5</v>
-      </c>
-      <c r="AB193">
-        <v>1.14</v>
-      </c>
-      <c r="AC193">
-        <v>2.45</v>
-      </c>
-      <c r="AD193">
-        <v>3.6</v>
-      </c>
       <c r="AE193">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="AF193">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AG193">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AH193">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AI193">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="AJ193">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="AK193">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AL193">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AM193">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="AN193">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AO193">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AP193">
         <v>1.46</v>
       </c>
       <c r="AQ193">
+        <v>1.6</v>
+      </c>
+      <c r="AR193">
+        <v>0.6</v>
+      </c>
+      <c r="AS193">
+        <v>1.73</v>
+      </c>
+      <c r="AT193">
+        <v>0.55</v>
+      </c>
+      <c r="AU193">
+        <v>1.54</v>
+      </c>
+      <c r="AV193">
+        <v>1.3</v>
+      </c>
+      <c r="AW193">
+        <v>2.84</v>
+      </c>
+      <c r="AX193">
+        <v>1.85</v>
+      </c>
+      <c r="AY193">
+        <v>8</v>
+      </c>
+      <c r="AZ193">
+        <v>2.28</v>
+      </c>
+      <c r="BA193">
+        <v>1.22</v>
+      </c>
+      <c r="BB193">
         <v>1.5</v>
       </c>
-      <c r="AR193">
-        <v>1.4</v>
-      </c>
-      <c r="AS193">
-        <v>1.45</v>
-      </c>
-      <c r="AT193">
-        <v>1.36</v>
-      </c>
-      <c r="AU193">
-        <v>1.96</v>
-      </c>
-      <c r="AV193">
-        <v>1.59</v>
-      </c>
-      <c r="AW193">
-        <v>3.55</v>
-      </c>
-      <c r="AX193">
-        <v>1.69</v>
-      </c>
-      <c r="AY193">
-        <v>8.5</v>
-      </c>
-      <c r="AZ193">
-        <v>2.53</v>
-      </c>
-      <c r="BA193">
-        <v>1.18</v>
-      </c>
-      <c r="BB193">
-        <v>1.43</v>
-      </c>
       <c r="BC193">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BD193">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BE193">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="BF193">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG193">
         <v>3</v>
       </c>
       <c r="BH193">
+        <v>7</v>
+      </c>
+      <c r="BI193">
         <v>12</v>
       </c>
-      <c r="BI193">
-        <v>4</v>
-      </c>
       <c r="BJ193">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BK193">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:63">
@@ -38230,7 +38236,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2467777</v>
+        <v>2467773</v>
       </c>
       <c r="C194" t="s">
         <v>63</v>
@@ -38245,175 +38251,175 @@
         <v>22</v>
       </c>
       <c r="G194" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H194" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194">
         <v>1</v>
       </c>
       <c r="L194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M194">
         <v>1</v>
       </c>
       <c r="N194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O194" t="s">
         <v>225</v>
       </c>
       <c r="P194" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="Q194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R194">
+        <v>3</v>
+      </c>
+      <c r="S194">
         <v>7</v>
       </c>
-      <c r="S194">
-        <v>9</v>
-      </c>
       <c r="T194">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="V194">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W194">
+        <v>1.25</v>
+      </c>
+      <c r="X194">
+        <v>3.75</v>
+      </c>
+      <c r="Y194">
+        <v>2.25</v>
+      </c>
+      <c r="Z194">
+        <v>1.57</v>
+      </c>
+      <c r="AA194">
+        <v>5.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.14</v>
+      </c>
+      <c r="AC194">
+        <v>2.45</v>
+      </c>
+      <c r="AD194">
+        <v>3.6</v>
+      </c>
+      <c r="AE194">
+        <v>2.25</v>
+      </c>
+      <c r="AF194">
+        <v>1.02</v>
+      </c>
+      <c r="AG194">
+        <v>12</v>
+      </c>
+      <c r="AH194">
+        <v>1.18</v>
+      </c>
+      <c r="AI194">
+        <v>4.75</v>
+      </c>
+      <c r="AJ194">
+        <v>1.53</v>
+      </c>
+      <c r="AK194">
+        <v>2.2</v>
+      </c>
+      <c r="AL194">
         <v>1.44</v>
       </c>
-      <c r="X194">
+      <c r="AM194">
         <v>2.63</v>
       </c>
-      <c r="Y194">
-        <v>3.25</v>
-      </c>
-      <c r="Z194">
-        <v>1.33</v>
-      </c>
-      <c r="AA194">
-        <v>9</v>
-      </c>
-      <c r="AB194">
-        <v>1.07</v>
-      </c>
-      <c r="AC194">
-        <v>2.35</v>
-      </c>
-      <c r="AD194">
-        <v>3</v>
-      </c>
-      <c r="AE194">
-        <v>2.7</v>
-      </c>
-      <c r="AF194">
-        <v>1.07</v>
-      </c>
-      <c r="AG194">
-        <v>7.5</v>
-      </c>
-      <c r="AH194">
-        <v>1.33</v>
-      </c>
-      <c r="AI194">
-        <v>3.1</v>
-      </c>
-      <c r="AJ194">
-        <v>1.94</v>
-      </c>
-      <c r="AK194">
-        <v>1.8</v>
-      </c>
-      <c r="AL194">
-        <v>1.8</v>
-      </c>
-      <c r="AM194">
-        <v>1.91</v>
-      </c>
       <c r="AN194">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AO194">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AP194">
         <v>1.46</v>
       </c>
       <c r="AQ194">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR194">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AS194">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="AT194">
-        <v>0.55</v>
+        <v>1.36</v>
       </c>
       <c r="AU194">
-        <v>1.54</v>
+        <v>1.96</v>
       </c>
       <c r="AV194">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AW194">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="AX194">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AY194">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ194">
-        <v>2.28</v>
+        <v>2.53</v>
       </c>
       <c r="BA194">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BB194">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="BC194">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BD194">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BE194">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="BF194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG194">
         <v>3</v>
       </c>
       <c r="BH194">
+        <v>12</v>
+      </c>
+      <c r="BI194">
+        <v>4</v>
+      </c>
+      <c r="BJ194">
+        <v>19</v>
+      </c>
+      <c r="BK194">
         <v>7</v>
-      </c>
-      <c r="BI194">
-        <v>12</v>
-      </c>
-      <c r="BJ194">
-        <v>13</v>
-      </c>
-      <c r="BK194">
-        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:63">
@@ -38803,7 +38809,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>2467769</v>
+        <v>2467771</v>
       </c>
       <c r="C197" t="s">
         <v>63</v>
@@ -38818,52 +38824,52 @@
         <v>22</v>
       </c>
       <c r="G197" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H197" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N197">
         <v>1</v>
       </c>
       <c r="O197" t="s">
+        <v>228</v>
+      </c>
+      <c r="P197" t="s">
         <v>90</v>
       </c>
-      <c r="P197" t="s">
-        <v>174</v>
-      </c>
       <c r="Q197">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S197">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T197">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="U197">
         <v>2.2</v>
       </c>
       <c r="V197">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="W197">
         <v>1.4</v>
@@ -38884,25 +38890,25 @@
         <v>1.08</v>
       </c>
       <c r="AC197">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD197">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AE197">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="AF197">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG197">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AH197">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AI197">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="AJ197">
         <v>1.97</v>
@@ -38911,82 +38917,82 @@
         <v>1.84</v>
       </c>
       <c r="AL197">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AM197">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AN197">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="AO197">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AP197">
+        <v>1.95</v>
+      </c>
+      <c r="AQ197">
+        <v>2</v>
+      </c>
+      <c r="AR197">
         <v>1.4</v>
       </c>
-      <c r="AQ197">
+      <c r="AS197">
+        <v>2.09</v>
+      </c>
+      <c r="AT197">
+        <v>1.27</v>
+      </c>
+      <c r="AU197">
+        <v>2.09</v>
+      </c>
+      <c r="AV197">
+        <v>1.3</v>
+      </c>
+      <c r="AW197">
+        <v>3.39</v>
+      </c>
+      <c r="AX197">
+        <v>1.34</v>
+      </c>
+      <c r="AY197">
+        <v>9.5</v>
+      </c>
+      <c r="AZ197">
+        <v>4.06</v>
+      </c>
+      <c r="BA197">
         <v>1.2</v>
       </c>
-      <c r="AR197">
-        <v>1.3</v>
-      </c>
-      <c r="AS197">
-        <v>1.09</v>
-      </c>
-      <c r="AT197">
-        <v>1.45</v>
-      </c>
-      <c r="AU197">
-        <v>1.62</v>
-      </c>
-      <c r="AV197">
-        <v>1.54</v>
-      </c>
-      <c r="AW197">
-        <v>3.16</v>
-      </c>
-      <c r="AX197">
-        <v>2.52</v>
-      </c>
-      <c r="AY197">
+      <c r="BB197">
+        <v>1.39</v>
+      </c>
+      <c r="BC197">
+        <v>1.7</v>
+      </c>
+      <c r="BD197">
+        <v>2.2</v>
+      </c>
+      <c r="BE197">
+        <v>3</v>
+      </c>
+      <c r="BF197">
         <v>8</v>
       </c>
-      <c r="AZ197">
-        <v>1.75</v>
-      </c>
-      <c r="BA197">
-        <v>1.18</v>
-      </c>
-      <c r="BB197">
-        <v>1.35</v>
-      </c>
-      <c r="BC197">
-        <v>1.63</v>
-      </c>
-      <c r="BD197">
-        <v>2.1</v>
-      </c>
-      <c r="BE197">
-        <v>2.8</v>
-      </c>
-      <c r="BF197">
-        <v>5</v>
-      </c>
       <c r="BG197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH197">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI197">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ197">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BK197">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:63">
@@ -38994,7 +39000,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>2467771</v>
+        <v>2467775</v>
       </c>
       <c r="C198" t="s">
         <v>63</v>
@@ -39009,142 +39015,142 @@
         <v>22</v>
       </c>
       <c r="G198" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H198" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O198" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="P198" t="s">
-        <v>90</v>
+        <v>327</v>
       </c>
       <c r="Q198">
+        <v>8</v>
+      </c>
+      <c r="R198">
+        <v>6</v>
+      </c>
+      <c r="S198">
+        <v>14</v>
+      </c>
+      <c r="T198">
+        <v>2.4</v>
+      </c>
+      <c r="U198">
+        <v>2.4</v>
+      </c>
+      <c r="V198">
         <v>4</v>
       </c>
-      <c r="R198">
-        <v>4</v>
-      </c>
-      <c r="S198">
+      <c r="W198">
+        <v>1.29</v>
+      </c>
+      <c r="X198">
+        <v>3.5</v>
+      </c>
+      <c r="Y198">
+        <v>2.38</v>
+      </c>
+      <c r="Z198">
+        <v>1.53</v>
+      </c>
+      <c r="AA198">
+        <v>5.5</v>
+      </c>
+      <c r="AB198">
+        <v>1.14</v>
+      </c>
+      <c r="AC198">
+        <v>1.87</v>
+      </c>
+      <c r="AD198">
+        <v>3.8</v>
+      </c>
+      <c r="AE198">
+        <v>3.6</v>
+      </c>
+      <c r="AF198">
+        <v>1</v>
+      </c>
+      <c r="AG198">
+        <v>10.5</v>
+      </c>
+      <c r="AH198">
+        <v>1.16</v>
+      </c>
+      <c r="AI198">
+        <v>4.45</v>
+      </c>
+      <c r="AJ198">
+        <v>1.64</v>
+      </c>
+      <c r="AK198">
+        <v>2.25</v>
+      </c>
+      <c r="AL198">
+        <v>1.57</v>
+      </c>
+      <c r="AM198">
+        <v>2.25</v>
+      </c>
+      <c r="AN198">
+        <v>1.28</v>
+      </c>
+      <c r="AO198">
+        <v>1.26</v>
+      </c>
+      <c r="AP198">
+        <v>1.88</v>
+      </c>
+      <c r="AQ198">
+        <v>1.7</v>
+      </c>
+      <c r="AR198">
+        <v>1.18</v>
+      </c>
+      <c r="AS198">
+        <v>1.55</v>
+      </c>
+      <c r="AT198">
+        <v>1.33</v>
+      </c>
+      <c r="AU198">
+        <v>1.52</v>
+      </c>
+      <c r="AV198">
+        <v>1.55</v>
+      </c>
+      <c r="AW198">
+        <v>3.07</v>
+      </c>
+      <c r="AX198">
+        <v>1.75</v>
+      </c>
+      <c r="AY198">
         <v>8</v>
       </c>
-      <c r="T198">
-        <v>2.38</v>
-      </c>
-      <c r="U198">
-        <v>2.2</v>
-      </c>
-      <c r="V198">
-        <v>5</v>
-      </c>
-      <c r="W198">
-        <v>1.4</v>
-      </c>
-      <c r="X198">
-        <v>2.75</v>
-      </c>
-      <c r="Y198">
-        <v>2.75</v>
-      </c>
-      <c r="Z198">
-        <v>1.4</v>
-      </c>
-      <c r="AA198">
-        <v>8</v>
-      </c>
-      <c r="AB198">
-        <v>1.08</v>
-      </c>
-      <c r="AC198">
-        <v>1.7</v>
-      </c>
-      <c r="AD198">
-        <v>3.7</v>
-      </c>
-      <c r="AE198">
-        <v>4.6</v>
-      </c>
-      <c r="AF198">
-        <v>1.02</v>
-      </c>
-      <c r="AG198">
-        <v>9.1</v>
-      </c>
-      <c r="AH198">
-        <v>1.28</v>
-      </c>
-      <c r="AI198">
-        <v>3.26</v>
-      </c>
-      <c r="AJ198">
-        <v>1.97</v>
-      </c>
-      <c r="AK198">
-        <v>1.84</v>
-      </c>
-      <c r="AL198">
-        <v>1.83</v>
-      </c>
-      <c r="AM198">
-        <v>1.83</v>
-      </c>
-      <c r="AN198">
-        <v>1.15</v>
-      </c>
-      <c r="AO198">
-        <v>1.22</v>
-      </c>
-      <c r="AP198">
-        <v>1.95</v>
-      </c>
-      <c r="AQ198">
-        <v>2</v>
-      </c>
-      <c r="AR198">
-        <v>1.4</v>
-      </c>
-      <c r="AS198">
-        <v>2.09</v>
-      </c>
-      <c r="AT198">
-        <v>1.27</v>
-      </c>
-      <c r="AU198">
-        <v>2.09</v>
-      </c>
-      <c r="AV198">
-        <v>1.3</v>
-      </c>
-      <c r="AW198">
-        <v>3.39</v>
-      </c>
-      <c r="AX198">
-        <v>1.34</v>
-      </c>
-      <c r="AY198">
-        <v>9.5</v>
-      </c>
       <c r="AZ198">
-        <v>4.06</v>
+        <v>2.42</v>
       </c>
       <c r="BA198">
         <v>1.2</v>
@@ -39153,31 +39159,31 @@
         <v>1.39</v>
       </c>
       <c r="BC198">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="BD198">
         <v>2.2</v>
       </c>
       <c r="BE198">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="BF198">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG198">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH198">
         <v>11</v>
       </c>
       <c r="BI198">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BJ198">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BK198">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:63">
@@ -39185,7 +39191,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>2467775</v>
+        <v>2467769</v>
       </c>
       <c r="C199" t="s">
         <v>63</v>
@@ -39200,10 +39206,10 @@
         <v>22</v>
       </c>
       <c r="G199" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H199" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -39215,160 +39221,542 @@
         <v>0</v>
       </c>
       <c r="L199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O199" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="Q199">
+        <v>6</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>6</v>
+      </c>
+      <c r="T199">
+        <v>3.5</v>
+      </c>
+      <c r="U199">
+        <v>2.2</v>
+      </c>
+      <c r="V199">
+        <v>3.1</v>
+      </c>
+      <c r="W199">
+        <v>1.4</v>
+      </c>
+      <c r="X199">
+        <v>2.75</v>
+      </c>
+      <c r="Y199">
+        <v>2.75</v>
+      </c>
+      <c r="Z199">
+        <v>1.4</v>
+      </c>
+      <c r="AA199">
         <v>8</v>
       </c>
-      <c r="R199">
-        <v>6</v>
-      </c>
-      <c r="S199">
-        <v>14</v>
-      </c>
-      <c r="T199">
+      <c r="AB199">
+        <v>1.08</v>
+      </c>
+      <c r="AC199">
+        <v>2.8</v>
+      </c>
+      <c r="AD199">
+        <v>3.3</v>
+      </c>
+      <c r="AE199">
         <v>2.4</v>
       </c>
-      <c r="U199">
-        <v>2.4</v>
-      </c>
-      <c r="V199">
-        <v>4</v>
-      </c>
-      <c r="W199">
+      <c r="AF199">
+        <v>1.05</v>
+      </c>
+      <c r="AG199">
+        <v>9</v>
+      </c>
+      <c r="AH199">
         <v>1.29</v>
       </c>
-      <c r="X199">
-        <v>3.5</v>
-      </c>
-      <c r="Y199">
-        <v>2.38</v>
-      </c>
-      <c r="Z199">
+      <c r="AI199">
+        <v>3.3</v>
+      </c>
+      <c r="AJ199">
+        <v>1.97</v>
+      </c>
+      <c r="AK199">
+        <v>1.84</v>
+      </c>
+      <c r="AL199">
+        <v>1.73</v>
+      </c>
+      <c r="AM199">
+        <v>2</v>
+      </c>
+      <c r="AN199">
         <v>1.53</v>
       </c>
-      <c r="AA199">
-        <v>5.5</v>
-      </c>
-      <c r="AB199">
-        <v>1.14</v>
-      </c>
-      <c r="AC199">
-        <v>1.87</v>
-      </c>
-      <c r="AD199">
-        <v>3.8</v>
-      </c>
-      <c r="AE199">
-        <v>3.6</v>
-      </c>
-      <c r="AF199">
-        <v>1</v>
-      </c>
-      <c r="AG199">
-        <v>10.5</v>
-      </c>
-      <c r="AH199">
-        <v>1.16</v>
-      </c>
-      <c r="AI199">
-        <v>4.45</v>
-      </c>
-      <c r="AJ199">
-        <v>1.64</v>
-      </c>
-      <c r="AK199">
-        <v>2.25</v>
-      </c>
-      <c r="AL199">
-        <v>1.57</v>
-      </c>
-      <c r="AM199">
-        <v>2.25</v>
-      </c>
-      <c r="AN199">
-        <v>1.28</v>
-      </c>
       <c r="AO199">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AP199">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="AQ199">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AR199">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AS199">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="AT199">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AU199">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AV199">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AW199">
-        <v>3.07</v>
+        <v>3.16</v>
       </c>
       <c r="AX199">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="AY199">
         <v>8</v>
       </c>
       <c r="AZ199">
-        <v>2.42</v>
+        <v>1.75</v>
       </c>
       <c r="BA199">
+        <v>1.18</v>
+      </c>
+      <c r="BB199">
+        <v>1.35</v>
+      </c>
+      <c r="BC199">
+        <v>1.63</v>
+      </c>
+      <c r="BD199">
+        <v>2.1</v>
+      </c>
+      <c r="BE199">
+        <v>2.8</v>
+      </c>
+      <c r="BF199">
+        <v>5</v>
+      </c>
+      <c r="BG199">
+        <v>5</v>
+      </c>
+      <c r="BH199">
+        <v>10</v>
+      </c>
+      <c r="BI199">
+        <v>2</v>
+      </c>
+      <c r="BJ199">
+        <v>15</v>
+      </c>
+      <c r="BK199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2467785</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44988.60416666666</v>
+      </c>
+      <c r="F200">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>70</v>
+      </c>
+      <c r="H200" t="s">
+        <v>65</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>229</v>
+      </c>
+      <c r="P200" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q200">
+        <v>4</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>5</v>
+      </c>
+      <c r="T200">
+        <v>3.3</v>
+      </c>
+      <c r="U200">
+        <v>2.2</v>
+      </c>
+      <c r="V200">
+        <v>2.85</v>
+      </c>
+      <c r="W200">
+        <v>1.34</v>
+      </c>
+      <c r="X200">
+        <v>3</v>
+      </c>
+      <c r="Y200">
+        <v>2.6</v>
+      </c>
+      <c r="Z200">
+        <v>1.44</v>
+      </c>
+      <c r="AA200">
+        <v>6</v>
+      </c>
+      <c r="AB200">
+        <v>1.1</v>
+      </c>
+      <c r="AC200">
+        <v>2.71</v>
+      </c>
+      <c r="AD200">
+        <v>3.4</v>
+      </c>
+      <c r="AE200">
+        <v>2.23</v>
+      </c>
+      <c r="AF200">
+        <v>1.04</v>
+      </c>
+      <c r="AG200">
+        <v>10</v>
+      </c>
+      <c r="AH200">
+        <v>1.25</v>
+      </c>
+      <c r="AI200">
+        <v>3.75</v>
+      </c>
+      <c r="AJ200">
+        <v>1.68</v>
+      </c>
+      <c r="AK200">
+        <v>2.1</v>
+      </c>
+      <c r="AL200">
+        <v>1.62</v>
+      </c>
+      <c r="AM200">
+        <v>2.2</v>
+      </c>
+      <c r="AN200">
+        <v>1.5</v>
+      </c>
+      <c r="AO200">
+        <v>1.22</v>
+      </c>
+      <c r="AP200">
+        <v>1.42</v>
+      </c>
+      <c r="AQ200">
+        <v>0.8</v>
+      </c>
+      <c r="AR200">
+        <v>1.73</v>
+      </c>
+      <c r="AS200">
+        <v>1</v>
+      </c>
+      <c r="AT200">
+        <v>1.58</v>
+      </c>
+      <c r="AU200">
+        <v>1.63</v>
+      </c>
+      <c r="AV200">
+        <v>1.34</v>
+      </c>
+      <c r="AW200">
+        <v>2.97</v>
+      </c>
+      <c r="AX200">
+        <v>2.05</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>1.95</v>
+      </c>
+      <c r="BA200">
+        <v>1.22</v>
+      </c>
+      <c r="BB200">
+        <v>1.48</v>
+      </c>
+      <c r="BC200">
+        <v>1.73</v>
+      </c>
+      <c r="BD200">
+        <v>2.1</v>
+      </c>
+      <c r="BE200">
+        <v>2.7</v>
+      </c>
+      <c r="BF200">
+        <v>11</v>
+      </c>
+      <c r="BG200">
+        <v>7</v>
+      </c>
+      <c r="BH200">
+        <v>5</v>
+      </c>
+      <c r="BI200">
+        <v>4</v>
+      </c>
+      <c r="BJ200">
+        <v>16</v>
+      </c>
+      <c r="BK200">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2467781</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44988.60416666666</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>71</v>
+      </c>
+      <c r="H201" t="s">
+        <v>67</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>230</v>
+      </c>
+      <c r="P201" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q201">
+        <v>5</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>6</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>2.2</v>
+      </c>
+      <c r="V201">
+        <v>3.4</v>
+      </c>
+      <c r="W201">
+        <v>1.33</v>
+      </c>
+      <c r="X201">
+        <v>3.05</v>
+      </c>
+      <c r="Y201">
+        <v>2.5</v>
+      </c>
+      <c r="Z201">
+        <v>1.47</v>
+      </c>
+      <c r="AA201">
+        <v>5.95</v>
+      </c>
+      <c r="AB201">
+        <v>1.1</v>
+      </c>
+      <c r="AC201">
+        <v>2.2</v>
+      </c>
+      <c r="AD201">
+        <v>3.58</v>
+      </c>
+      <c r="AE201">
+        <v>2.62</v>
+      </c>
+      <c r="AF201">
+        <v>1.04</v>
+      </c>
+      <c r="AG201">
+        <v>10</v>
+      </c>
+      <c r="AH201">
+        <v>1.22</v>
+      </c>
+      <c r="AI201">
+        <v>4</v>
+      </c>
+      <c r="AJ201">
+        <v>1.8</v>
+      </c>
+      <c r="AK201">
+        <v>1.9</v>
+      </c>
+      <c r="AL201">
+        <v>1.57</v>
+      </c>
+      <c r="AM201">
+        <v>2.3</v>
+      </c>
+      <c r="AN201">
+        <v>1.33</v>
+      </c>
+      <c r="AO201">
+        <v>1.22</v>
+      </c>
+      <c r="AP201">
+        <v>1.65</v>
+      </c>
+      <c r="AQ201">
+        <v>2.18</v>
+      </c>
+      <c r="AR201">
+        <v>0.82</v>
+      </c>
+      <c r="AS201">
+        <v>2</v>
+      </c>
+      <c r="AT201">
+        <v>1</v>
+      </c>
+      <c r="AU201">
+        <v>2.25</v>
+      </c>
+      <c r="AV201">
+        <v>1.63</v>
+      </c>
+      <c r="AW201">
+        <v>3.88</v>
+      </c>
+      <c r="AX201">
+        <v>2.1</v>
+      </c>
+      <c r="AY201">
+        <v>8</v>
+      </c>
+      <c r="AZ201">
+        <v>1.91</v>
+      </c>
+      <c r="BA201">
         <v>1.2</v>
       </c>
-      <c r="BB199">
-        <v>1.39</v>
-      </c>
-      <c r="BC199">
-        <v>1.68</v>
-      </c>
-      <c r="BD199">
-        <v>2.2</v>
-      </c>
-      <c r="BE199">
-        <v>2.95</v>
-      </c>
-      <c r="BF199">
-        <v>7</v>
-      </c>
-      <c r="BG199">
+      <c r="BB201">
+        <v>1.43</v>
+      </c>
+      <c r="BC201">
+        <v>1.7</v>
+      </c>
+      <c r="BD201">
+        <v>2.1</v>
+      </c>
+      <c r="BE201">
+        <v>2.63</v>
+      </c>
+      <c r="BF201">
         <v>6</v>
       </c>
-      <c r="BH199">
+      <c r="BG201">
+        <v>8</v>
+      </c>
+      <c r="BH201">
+        <v>10</v>
+      </c>
+      <c r="BI201">
+        <v>3</v>
+      </c>
+      <c r="BJ201">
+        <v>16</v>
+      </c>
+      <c r="BK201">
         <v>11</v>
-      </c>
-      <c r="BI199">
-        <v>14</v>
-      </c>
-      <c r="BJ199">
-        <v>18</v>
-      </c>
-      <c r="BK199">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,18 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['19', '52', '90+5']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['22', '34', '72']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -1001,6 +1013,12 @@
   </si>
   <si>
     <t>['15', '42']</t>
+  </si>
+  <si>
+    <t>['16', '25']</t>
+  </si>
+  <si>
+    <t>['6', '11', '20']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1624,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1696,7 +1714,7 @@
         <v>1.73</v>
       </c>
       <c r="AT2">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1797,7 +1815,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -1884,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1988,7 +2006,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2078,7 +2096,7 @@
         <v>2.09</v>
       </c>
       <c r="AT4">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2179,7 +2197,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2266,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT5">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2457,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT6">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2561,7 +2579,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2651,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2842,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3030,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT9">
         <v>1.45</v>
@@ -3134,7 +3152,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3221,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT10">
         <v>2.09</v>
@@ -3516,7 +3534,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3794,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
         <v>0.64</v>
@@ -4089,7 +4107,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4280,7 +4298,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4471,7 +4489,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4749,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT18">
         <v>1.27</v>
@@ -4853,7 +4871,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5131,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT20">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU20">
         <v>2.61</v>
@@ -5322,10 +5340,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT21">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU21">
         <v>1.65</v>
@@ -5513,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU22">
         <v>1.38</v>
@@ -5617,7 +5635,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5707,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU23">
         <v>2.05</v>
@@ -5895,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT24">
         <v>1.45</v>
@@ -6086,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT25">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU25">
         <v>1.57</v>
@@ -6190,7 +6208,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6280,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="AT26">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU26">
         <v>1.69</v>
@@ -6468,10 +6486,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT27">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6572,7 +6590,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6763,7 +6781,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6954,7 +6972,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7145,7 +7163,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7527,7 +7545,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -8100,7 +8118,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8482,7 +8500,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8569,10 +8587,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT38">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU38">
         <v>1.68</v>
@@ -8673,7 +8691,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8763,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU39">
         <v>1.5</v>
@@ -8864,7 +8882,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8954,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="AT40">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU40">
         <v>2.68</v>
@@ -9055,7 +9073,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9142,10 +9160,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
+        <v>1.17</v>
+      </c>
+      <c r="AT41">
         <v>1.27</v>
-      </c>
-      <c r="AT41">
-        <v>1.1</v>
       </c>
       <c r="AU41">
         <v>1.34</v>
@@ -9246,7 +9264,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9333,10 +9351,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT42">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
         <v>1.3</v>
@@ -9437,7 +9455,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9524,10 +9542,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU43">
         <v>1.57</v>
@@ -9628,7 +9646,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9715,10 +9733,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -9906,7 +9924,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -10010,7 +10028,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10097,7 +10115,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT46">
         <v>1.58</v>
@@ -10201,7 +10219,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10583,7 +10601,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10774,7 +10792,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11156,7 +11174,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11347,7 +11365,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11920,7 +11938,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12007,10 +12025,10 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU56">
         <v>1.59</v>
@@ -12111,7 +12129,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12198,10 +12216,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT57">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU57">
         <v>2.18</v>
@@ -12302,7 +12320,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12389,7 +12407,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12580,10 +12598,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT59">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU59">
         <v>1.15</v>
@@ -12962,10 +12980,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT61">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU61">
         <v>1.67</v>
@@ -13066,7 +13084,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13153,10 +13171,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT62">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU62">
         <v>1.54</v>
@@ -13347,7 +13365,7 @@
         <v>2.17</v>
       </c>
       <c r="AT63">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.68</v>
@@ -13535,7 +13553,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT64">
         <v>1.58</v>
@@ -13729,7 +13747,7 @@
         <v>1.45</v>
       </c>
       <c r="AT65">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU65">
         <v>1.51</v>
@@ -13830,7 +13848,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14594,7 +14612,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14785,7 +14803,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -15167,7 +15185,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15257,7 +15275,7 @@
         <v>1.73</v>
       </c>
       <c r="AT73">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU73">
         <v>1.23</v>
@@ -15358,7 +15376,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15445,10 +15463,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT74">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU74">
         <v>1.22</v>
@@ -15549,7 +15567,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15636,10 +15654,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
+        <v>1.25</v>
+      </c>
+      <c r="AT75">
         <v>1.27</v>
-      </c>
-      <c r="AT75">
-        <v>1.1</v>
       </c>
       <c r="AU75">
         <v>1.73</v>
@@ -15830,7 +15848,7 @@
         <v>2.17</v>
       </c>
       <c r="AT76">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU76">
         <v>1.68</v>
@@ -15931,7 +15949,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16021,7 +16039,7 @@
         <v>1.09</v>
       </c>
       <c r="AT77">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU77">
         <v>1.52</v>
@@ -16209,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT78">
         <v>1.33</v>
@@ -16400,10 +16418,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT79">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU79">
         <v>1.76</v>
@@ -16591,7 +16609,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT80">
         <v>1.58</v>
@@ -16782,7 +16800,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT81">
         <v>1</v>
@@ -16886,7 +16904,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16973,7 +16991,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT82">
         <v>1.36</v>
@@ -17077,7 +17095,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17167,7 +17185,7 @@
         <v>2</v>
       </c>
       <c r="AT83">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU83">
         <v>2.6</v>
@@ -17268,7 +17286,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17459,7 +17477,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17546,7 +17564,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT85">
         <v>0.67</v>
@@ -17650,7 +17668,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17841,7 +17859,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17931,7 +17949,7 @@
         <v>2.27</v>
       </c>
       <c r="AT87">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU87">
         <v>1.61</v>
@@ -18504,7 +18522,7 @@
         <v>1.42</v>
       </c>
       <c r="AT90">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU90">
         <v>2.36</v>
@@ -18796,7 +18814,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18886,7 +18904,7 @@
         <v>1.09</v>
       </c>
       <c r="AT92">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18987,7 +19005,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19074,7 +19092,7 @@
         <v>0.25</v>
       </c>
       <c r="AS93">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT93">
         <v>0.55</v>
@@ -19178,7 +19196,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19265,7 +19283,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT94">
         <v>1.36</v>
@@ -19459,7 +19477,7 @@
         <v>2.17</v>
       </c>
       <c r="AT95">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU95">
         <v>1.59</v>
@@ -19647,7 +19665,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -19751,7 +19769,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19838,7 +19856,7 @@
         <v>1.5</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT97">
         <v>1.58</v>
@@ -20029,7 +20047,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT98">
         <v>1.33</v>
@@ -20133,7 +20151,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20220,10 +20238,10 @@
         <v>1.8</v>
       </c>
       <c r="AS99">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT99">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -20324,7 +20342,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20414,7 +20432,7 @@
         <v>1.45</v>
       </c>
       <c r="AT100">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU100">
         <v>1.7</v>
@@ -20515,7 +20533,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20602,7 +20620,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
         <v>1.27</v>
@@ -20897,7 +20915,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20987,7 +21005,7 @@
         <v>2.27</v>
       </c>
       <c r="AT103">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU103">
         <v>1.78</v>
@@ -21088,7 +21106,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21178,7 +21196,7 @@
         <v>1.42</v>
       </c>
       <c r="AT104">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU104">
         <v>2.36</v>
@@ -21279,7 +21297,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21560,7 +21578,7 @@
         <v>1.55</v>
       </c>
       <c r="AT106">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21661,7 +21679,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -22043,7 +22061,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22234,7 +22252,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22324,7 +22342,7 @@
         <v>2.17</v>
       </c>
       <c r="AT110">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU110">
         <v>1.62</v>
@@ -22425,7 +22443,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22512,7 +22530,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT111">
         <v>1.58</v>
@@ -22616,7 +22634,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22703,7 +22721,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT112">
         <v>0.67</v>
@@ -22897,7 +22915,7 @@
         <v>1.45</v>
       </c>
       <c r="AT113">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU113">
         <v>1.91</v>
@@ -23085,7 +23103,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT114">
         <v>1.36</v>
@@ -23380,7 +23398,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23470,7 +23488,7 @@
         <v>1.42</v>
       </c>
       <c r="AT116">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU116">
         <v>2.15</v>
@@ -23658,7 +23676,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT117">
         <v>0.55</v>
@@ -23762,7 +23780,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23849,7 +23867,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT118">
         <v>1.33</v>
@@ -23953,7 +23971,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24231,10 +24249,10 @@
         <v>0.29</v>
       </c>
       <c r="AS120">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT120">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU120">
         <v>1.86</v>
@@ -24335,7 +24353,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24425,7 +24443,7 @@
         <v>1.45</v>
       </c>
       <c r="AT121">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU121">
         <v>1.92</v>
@@ -24526,7 +24544,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24613,7 +24631,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT122">
         <v>1.27</v>
@@ -24807,7 +24825,7 @@
         <v>1.73</v>
       </c>
       <c r="AT123">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -24908,7 +24926,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24998,7 +25016,7 @@
         <v>2.09</v>
       </c>
       <c r="AT124">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU124">
         <v>2.13</v>
@@ -25099,7 +25117,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25380,7 +25398,7 @@
         <v>1.55</v>
       </c>
       <c r="AT126">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -25481,7 +25499,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25568,7 +25586,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT127">
         <v>0.64</v>
@@ -25762,7 +25780,7 @@
         <v>2.17</v>
       </c>
       <c r="AT128">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU128">
         <v>1.68</v>
@@ -25863,7 +25881,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25950,7 +25968,7 @@
         <v>0.29</v>
       </c>
       <c r="AS129">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT129">
         <v>0.67</v>
@@ -26332,7 +26350,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT131">
         <v>1.36</v>
@@ -26436,7 +26454,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26526,7 +26544,7 @@
         <v>1.42</v>
       </c>
       <c r="AT132">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU132">
         <v>2.06</v>
@@ -26627,7 +26645,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26818,7 +26836,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26905,7 +26923,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT134">
         <v>0.55</v>
@@ -27009,7 +27027,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27200,7 +27218,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27287,7 +27305,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT136">
         <v>0.55</v>
@@ -27481,7 +27499,7 @@
         <v>2.09</v>
       </c>
       <c r="AT137">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU137">
         <v>2.18</v>
@@ -27582,7 +27600,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27672,7 +27690,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU138">
         <v>2.36</v>
@@ -27863,7 +27881,7 @@
         <v>1.55</v>
       </c>
       <c r="AT139">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU139">
         <v>1.49</v>
@@ -28054,7 +28072,7 @@
         <v>1.73</v>
       </c>
       <c r="AT140">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU140">
         <v>1.57</v>
@@ -28242,7 +28260,7 @@
         <v>2.57</v>
       </c>
       <c r="AS141">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT141">
         <v>2.09</v>
@@ -28346,7 +28364,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28433,10 +28451,10 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT142">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU142">
         <v>1.6</v>
@@ -28537,7 +28555,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28624,7 +28642,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT143">
         <v>1.45</v>
@@ -28815,7 +28833,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT144">
         <v>0.64</v>
@@ -29009,7 +29027,7 @@
         <v>1</v>
       </c>
       <c r="AT145">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU145">
         <v>1.69</v>
@@ -29110,7 +29128,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29301,7 +29319,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29391,7 +29409,7 @@
         <v>1.45</v>
       </c>
       <c r="AT147">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU147">
         <v>1.84</v>
@@ -29492,7 +29510,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29683,7 +29701,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29770,7 +29788,7 @@
         <v>0.63</v>
       </c>
       <c r="AS149">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT149">
         <v>0.67</v>
@@ -29874,7 +29892,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29961,7 +29979,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT150">
         <v>0.55</v>
@@ -30065,7 +30083,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30152,7 +30170,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT151">
         <v>1.27</v>
@@ -30638,7 +30656,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30829,7 +30847,7 @@
         <v>198</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>11</v>
@@ -31020,7 +31038,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31489,7 +31507,7 @@
         <v>1.38</v>
       </c>
       <c r="AS158">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT158">
         <v>1.27</v>
@@ -31784,7 +31802,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31975,7 +31993,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32166,7 +32184,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32253,7 +32271,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT162">
         <v>0.64</v>
@@ -32548,7 +32566,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32638,7 +32656,7 @@
         <v>2</v>
       </c>
       <c r="AT164">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU164">
         <v>2.28</v>
@@ -32739,7 +32757,7 @@
         <v>90</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -32826,10 +32844,10 @@
         <v>2.13</v>
       </c>
       <c r="AS165">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT165">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU165">
         <v>1.52</v>
@@ -32930,7 +32948,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33017,10 +33035,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS166">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT166">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU166">
         <v>1.37</v>
@@ -33211,7 +33229,7 @@
         <v>1.73</v>
       </c>
       <c r="AT167">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU167">
         <v>1.51</v>
@@ -33399,7 +33417,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT168">
         <v>1.45</v>
@@ -33590,10 +33608,10 @@
         <v>1</v>
       </c>
       <c r="AS169">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT169">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU169">
         <v>1.84</v>
@@ -33694,7 +33712,7 @@
         <v>90</v>
       </c>
       <c r="P170" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33781,7 +33799,7 @@
         <v>2.25</v>
       </c>
       <c r="AS170">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT170">
         <v>2.09</v>
@@ -33975,7 +33993,7 @@
         <v>2.09</v>
       </c>
       <c r="AT171">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU171">
         <v>2.11</v>
@@ -34166,7 +34184,7 @@
         <v>1</v>
       </c>
       <c r="AT172">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU172">
         <v>1.61</v>
@@ -34458,7 +34476,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34649,7 +34667,7 @@
         <v>211</v>
       </c>
       <c r="P175" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -35031,7 +35049,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35222,7 +35240,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35309,7 +35327,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT178">
         <v>2.09</v>
@@ -35986,7 +36004,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36073,10 +36091,10 @@
         <v>1.3</v>
       </c>
       <c r="AS182">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT182">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU182">
         <v>1.65</v>
@@ -36368,7 +36386,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q184">
         <v>9</v>
@@ -36455,10 +36473,10 @@
         <v>1.1</v>
       </c>
       <c r="AS184">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT184">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU184">
         <v>1.39</v>
@@ -36559,7 +36577,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36750,7 +36768,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -36837,10 +36855,10 @@
         <v>1</v>
       </c>
       <c r="AS186">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT186">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU186">
         <v>1.87</v>
@@ -37028,10 +37046,10 @@
         <v>2.22</v>
       </c>
       <c r="AS187">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT187">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AU187">
         <v>1.66</v>
@@ -37132,7 +37150,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37219,10 +37237,10 @@
         <v>0.89</v>
       </c>
       <c r="AS188">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT188">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU188">
         <v>1.58</v>
@@ -37410,10 +37428,10 @@
         <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT189">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU189">
         <v>2</v>
@@ -37601,10 +37619,10 @@
         <v>0.9</v>
       </c>
       <c r="AS190">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT190">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU190">
         <v>1.84</v>
@@ -38278,7 +38296,7 @@
         <v>225</v>
       </c>
       <c r="P194" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -39042,7 +39060,7 @@
         <v>175</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39430,10 +39448,10 @@
         <v>4</v>
       </c>
       <c r="R200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T200">
         <v>3.3</v>
@@ -39615,7 +39633,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39757,6 +39775,1343 @@
       </c>
       <c r="BK201">
         <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2467783</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44989.375</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>68</v>
+      </c>
+      <c r="H202" t="s">
+        <v>78</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>231</v>
+      </c>
+      <c r="P202" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q202">
+        <v>9</v>
+      </c>
+      <c r="R202">
+        <v>4</v>
+      </c>
+      <c r="S202">
+        <v>13</v>
+      </c>
+      <c r="T202">
+        <v>3.6</v>
+      </c>
+      <c r="U202">
+        <v>2.15</v>
+      </c>
+      <c r="V202">
+        <v>2.75</v>
+      </c>
+      <c r="W202">
+        <v>1.32</v>
+      </c>
+      <c r="X202">
+        <v>3.1</v>
+      </c>
+      <c r="Y202">
+        <v>2.55</v>
+      </c>
+      <c r="Z202">
+        <v>1.45</v>
+      </c>
+      <c r="AA202">
+        <v>6</v>
+      </c>
+      <c r="AB202">
+        <v>1.1</v>
+      </c>
+      <c r="AC202">
+        <v>2.9</v>
+      </c>
+      <c r="AD202">
+        <v>3.25</v>
+      </c>
+      <c r="AE202">
+        <v>2.1</v>
+      </c>
+      <c r="AF202">
+        <v>1.03</v>
+      </c>
+      <c r="AG202">
+        <v>11</v>
+      </c>
+      <c r="AH202">
+        <v>1.25</v>
+      </c>
+      <c r="AI202">
+        <v>3.8</v>
+      </c>
+      <c r="AJ202">
+        <v>1.67</v>
+      </c>
+      <c r="AK202">
+        <v>2</v>
+      </c>
+      <c r="AL202">
+        <v>1.6</v>
+      </c>
+      <c r="AM202">
+        <v>2.2</v>
+      </c>
+      <c r="AN202">
+        <v>1.72</v>
+      </c>
+      <c r="AO202">
+        <v>1.32</v>
+      </c>
+      <c r="AP202">
+        <v>1.27</v>
+      </c>
+      <c r="AQ202">
+        <v>1.1</v>
+      </c>
+      <c r="AR202">
+        <v>1.45</v>
+      </c>
+      <c r="AS202">
+        <v>1.09</v>
+      </c>
+      <c r="AT202">
+        <v>1.42</v>
+      </c>
+      <c r="AU202">
+        <v>1.47</v>
+      </c>
+      <c r="AV202">
+        <v>1.66</v>
+      </c>
+      <c r="AW202">
+        <v>3.13</v>
+      </c>
+      <c r="AX202">
+        <v>2.62</v>
+      </c>
+      <c r="AY202">
+        <v>8.5</v>
+      </c>
+      <c r="AZ202">
+        <v>1.69</v>
+      </c>
+      <c r="BA202">
+        <v>1.2</v>
+      </c>
+      <c r="BB202">
+        <v>1.43</v>
+      </c>
+      <c r="BC202">
+        <v>1.67</v>
+      </c>
+      <c r="BD202">
+        <v>2.05</v>
+      </c>
+      <c r="BE202">
+        <v>2.6</v>
+      </c>
+      <c r="BF202">
+        <v>6</v>
+      </c>
+      <c r="BG202">
+        <v>7</v>
+      </c>
+      <c r="BH202">
+        <v>3</v>
+      </c>
+      <c r="BI202">
+        <v>4</v>
+      </c>
+      <c r="BJ202">
+        <v>9</v>
+      </c>
+      <c r="BK202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2467784</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44989.375</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>69</v>
+      </c>
+      <c r="H203" t="s">
+        <v>75</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>90</v>
+      </c>
+      <c r="P203" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q203">
+        <v>4</v>
+      </c>
+      <c r="R203">
+        <v>3</v>
+      </c>
+      <c r="S203">
+        <v>7</v>
+      </c>
+      <c r="T203">
+        <v>3.6</v>
+      </c>
+      <c r="U203">
+        <v>2.15</v>
+      </c>
+      <c r="V203">
+        <v>2.7</v>
+      </c>
+      <c r="W203">
+        <v>1.37</v>
+      </c>
+      <c r="X203">
+        <v>2.9</v>
+      </c>
+      <c r="Y203">
+        <v>2.7</v>
+      </c>
+      <c r="Z203">
+        <v>1.41</v>
+      </c>
+      <c r="AA203">
+        <v>6.45</v>
+      </c>
+      <c r="AB203">
+        <v>1.09</v>
+      </c>
+      <c r="AC203">
+        <v>3.3</v>
+      </c>
+      <c r="AD203">
+        <v>3.25</v>
+      </c>
+      <c r="AE203">
+        <v>2</v>
+      </c>
+      <c r="AF203">
+        <v>1.05</v>
+      </c>
+      <c r="AG203">
+        <v>9</v>
+      </c>
+      <c r="AH203">
+        <v>1.28</v>
+      </c>
+      <c r="AI203">
+        <v>3.5</v>
+      </c>
+      <c r="AJ203">
+        <v>1.75</v>
+      </c>
+      <c r="AK203">
+        <v>1.91</v>
+      </c>
+      <c r="AL203">
+        <v>1.7</v>
+      </c>
+      <c r="AM203">
+        <v>2.1</v>
+      </c>
+      <c r="AN203">
+        <v>1.72</v>
+      </c>
+      <c r="AO203">
+        <v>1.25</v>
+      </c>
+      <c r="AP203">
+        <v>1.33</v>
+      </c>
+      <c r="AQ203">
+        <v>1.27</v>
+      </c>
+      <c r="AR203">
+        <v>0.91</v>
+      </c>
+      <c r="AS203">
+        <v>1.17</v>
+      </c>
+      <c r="AT203">
+        <v>1.08</v>
+      </c>
+      <c r="AU203">
+        <v>1.45</v>
+      </c>
+      <c r="AV203">
+        <v>1.58</v>
+      </c>
+      <c r="AW203">
+        <v>3.03</v>
+      </c>
+      <c r="AX203">
+        <v>2.1</v>
+      </c>
+      <c r="AY203">
+        <v>8</v>
+      </c>
+      <c r="AZ203">
+        <v>1.91</v>
+      </c>
+      <c r="BA203">
+        <v>1.22</v>
+      </c>
+      <c r="BB203">
+        <v>1.48</v>
+      </c>
+      <c r="BC203">
+        <v>1.73</v>
+      </c>
+      <c r="BD203">
+        <v>2.1</v>
+      </c>
+      <c r="BE203">
+        <v>2.7</v>
+      </c>
+      <c r="BF203">
+        <v>5</v>
+      </c>
+      <c r="BG203">
+        <v>4</v>
+      </c>
+      <c r="BH203">
+        <v>5</v>
+      </c>
+      <c r="BI203">
+        <v>5</v>
+      </c>
+      <c r="BJ203">
+        <v>10</v>
+      </c>
+      <c r="BK203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2467779</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44989.375</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>81</v>
+      </c>
+      <c r="H204" t="s">
+        <v>77</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204" t="s">
+        <v>232</v>
+      </c>
+      <c r="P204" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q204">
+        <v>4</v>
+      </c>
+      <c r="R204">
+        <v>4</v>
+      </c>
+      <c r="S204">
+        <v>8</v>
+      </c>
+      <c r="T204">
+        <v>2.05</v>
+      </c>
+      <c r="U204">
+        <v>2.35</v>
+      </c>
+      <c r="V204">
+        <v>5</v>
+      </c>
+      <c r="W204">
+        <v>1.32</v>
+      </c>
+      <c r="X204">
+        <v>3.1</v>
+      </c>
+      <c r="Y204">
+        <v>2.45</v>
+      </c>
+      <c r="Z204">
+        <v>1.47</v>
+      </c>
+      <c r="AA204">
+        <v>6</v>
+      </c>
+      <c r="AB204">
+        <v>1.11</v>
+      </c>
+      <c r="AC204">
+        <v>1.58</v>
+      </c>
+      <c r="AD204">
+        <v>3.9</v>
+      </c>
+      <c r="AE204">
+        <v>4.3</v>
+      </c>
+      <c r="AF204">
+        <v>1.04</v>
+      </c>
+      <c r="AG204">
+        <v>10</v>
+      </c>
+      <c r="AH204">
+        <v>1.2</v>
+      </c>
+      <c r="AI204">
+        <v>4.2</v>
+      </c>
+      <c r="AJ204">
+        <v>1.63</v>
+      </c>
+      <c r="AK204">
+        <v>2.2</v>
+      </c>
+      <c r="AL204">
+        <v>1.72</v>
+      </c>
+      <c r="AM204">
+        <v>2.05</v>
+      </c>
+      <c r="AN204">
+        <v>1.11</v>
+      </c>
+      <c r="AO204">
+        <v>1.17</v>
+      </c>
+      <c r="AP204">
+        <v>2.35</v>
+      </c>
+      <c r="AQ204">
+        <v>2</v>
+      </c>
+      <c r="AR204">
+        <v>0.82</v>
+      </c>
+      <c r="AS204">
+        <v>2.08</v>
+      </c>
+      <c r="AT204">
+        <v>0.75</v>
+      </c>
+      <c r="AU204">
+        <v>1.93</v>
+      </c>
+      <c r="AV204">
+        <v>1.2</v>
+      </c>
+      <c r="AW204">
+        <v>3.13</v>
+      </c>
+      <c r="AX204">
+        <v>1.37</v>
+      </c>
+      <c r="AY204">
+        <v>9.5</v>
+      </c>
+      <c r="AZ204">
+        <v>3.8</v>
+      </c>
+      <c r="BA204">
+        <v>1.13</v>
+      </c>
+      <c r="BB204">
+        <v>1.3</v>
+      </c>
+      <c r="BC204">
+        <v>1.57</v>
+      </c>
+      <c r="BD204">
+        <v>2</v>
+      </c>
+      <c r="BE204">
+        <v>2.4</v>
+      </c>
+      <c r="BF204">
+        <v>8</v>
+      </c>
+      <c r="BG204">
+        <v>5</v>
+      </c>
+      <c r="BH204">
+        <v>7</v>
+      </c>
+      <c r="BI204">
+        <v>7</v>
+      </c>
+      <c r="BJ204">
+        <v>15</v>
+      </c>
+      <c r="BK204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2467780</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44989.6875</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>76</v>
+      </c>
+      <c r="H205" t="s">
+        <v>74</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>233</v>
+      </c>
+      <c r="P205" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q205">
+        <v>9</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>11</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>2.15</v>
+      </c>
+      <c r="V205">
+        <v>3.3</v>
+      </c>
+      <c r="W205">
+        <v>1.36</v>
+      </c>
+      <c r="X205">
+        <v>2.88</v>
+      </c>
+      <c r="Y205">
+        <v>2.62</v>
+      </c>
+      <c r="Z205">
+        <v>1.42</v>
+      </c>
+      <c r="AA205">
+        <v>6</v>
+      </c>
+      <c r="AB205">
+        <v>1.09</v>
+      </c>
+      <c r="AC205">
+        <v>2.45</v>
+      </c>
+      <c r="AD205">
+        <v>3.35</v>
+      </c>
+      <c r="AE205">
+        <v>2.85</v>
+      </c>
+      <c r="AF205">
+        <v>1.05</v>
+      </c>
+      <c r="AG205">
+        <v>9</v>
+      </c>
+      <c r="AH205">
+        <v>1.29</v>
+      </c>
+      <c r="AI205">
+        <v>3.4</v>
+      </c>
+      <c r="AJ205">
+        <v>1.85</v>
+      </c>
+      <c r="AK205">
+        <v>1.83</v>
+      </c>
+      <c r="AL205">
+        <v>1.67</v>
+      </c>
+      <c r="AM205">
+        <v>2.1</v>
+      </c>
+      <c r="AN205">
+        <v>1.44</v>
+      </c>
+      <c r="AO205">
+        <v>1.31</v>
+      </c>
+      <c r="AP205">
+        <v>1.54</v>
+      </c>
+      <c r="AQ205">
+        <v>2.45</v>
+      </c>
+      <c r="AR205">
+        <v>2.3</v>
+      </c>
+      <c r="AS205">
+        <v>2.5</v>
+      </c>
+      <c r="AT205">
+        <v>2.09</v>
+      </c>
+      <c r="AU205">
+        <v>1.85</v>
+      </c>
+      <c r="AV205">
+        <v>1.7</v>
+      </c>
+      <c r="AW205">
+        <v>3.55</v>
+      </c>
+      <c r="AX205">
+        <v>1.85</v>
+      </c>
+      <c r="AY205">
+        <v>8</v>
+      </c>
+      <c r="AZ205">
+        <v>2.28</v>
+      </c>
+      <c r="BA205">
+        <v>1.25</v>
+      </c>
+      <c r="BB205">
+        <v>1.5</v>
+      </c>
+      <c r="BC205">
+        <v>1.8</v>
+      </c>
+      <c r="BD205">
+        <v>2.25</v>
+      </c>
+      <c r="BE205">
+        <v>3.25</v>
+      </c>
+      <c r="BF205">
+        <v>8</v>
+      </c>
+      <c r="BG205">
+        <v>3</v>
+      </c>
+      <c r="BH205">
+        <v>9</v>
+      </c>
+      <c r="BI205">
+        <v>4</v>
+      </c>
+      <c r="BJ205">
+        <v>17</v>
+      </c>
+      <c r="BK205">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2467782</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44990.39583333334</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>72</v>
+      </c>
+      <c r="H206" t="s">
+        <v>80</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>90</v>
+      </c>
+      <c r="P206" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q206">
+        <v>6</v>
+      </c>
+      <c r="R206">
+        <v>5</v>
+      </c>
+      <c r="S206">
+        <v>11</v>
+      </c>
+      <c r="T206">
+        <v>3.4</v>
+      </c>
+      <c r="U206">
+        <v>2.1</v>
+      </c>
+      <c r="V206">
+        <v>3.2</v>
+      </c>
+      <c r="W206">
+        <v>1.44</v>
+      </c>
+      <c r="X206">
+        <v>2.63</v>
+      </c>
+      <c r="Y206">
+        <v>3.25</v>
+      </c>
+      <c r="Z206">
+        <v>1.33</v>
+      </c>
+      <c r="AA206">
+        <v>9</v>
+      </c>
+      <c r="AB206">
+        <v>1.07</v>
+      </c>
+      <c r="AC206">
+        <v>2.53</v>
+      </c>
+      <c r="AD206">
+        <v>3.47</v>
+      </c>
+      <c r="AE206">
+        <v>2.63</v>
+      </c>
+      <c r="AF206">
+        <v>1.05</v>
+      </c>
+      <c r="AG206">
+        <v>8</v>
+      </c>
+      <c r="AH206">
+        <v>1.33</v>
+      </c>
+      <c r="AI206">
+        <v>3</v>
+      </c>
+      <c r="AJ206">
+        <v>1.87</v>
+      </c>
+      <c r="AK206">
+        <v>1.87</v>
+      </c>
+      <c r="AL206">
+        <v>1.8</v>
+      </c>
+      <c r="AM206">
+        <v>1.91</v>
+      </c>
+      <c r="AN206">
+        <v>1.51</v>
+      </c>
+      <c r="AO206">
+        <v>1.32</v>
+      </c>
+      <c r="AP206">
+        <v>1.41</v>
+      </c>
+      <c r="AQ206">
+        <v>0.91</v>
+      </c>
+      <c r="AR206">
+        <v>1.1</v>
+      </c>
+      <c r="AS206">
+        <v>0.83</v>
+      </c>
+      <c r="AT206">
+        <v>1.27</v>
+      </c>
+      <c r="AU206">
+        <v>1.58</v>
+      </c>
+      <c r="AV206">
+        <v>1.68</v>
+      </c>
+      <c r="AW206">
+        <v>3.26</v>
+      </c>
+      <c r="AX206">
+        <v>2.47</v>
+      </c>
+      <c r="AY206">
+        <v>7.8</v>
+      </c>
+      <c r="AZ206">
+        <v>1.81</v>
+      </c>
+      <c r="BA206">
+        <v>1.18</v>
+      </c>
+      <c r="BB206">
+        <v>1.38</v>
+      </c>
+      <c r="BC206">
+        <v>1.7</v>
+      </c>
+      <c r="BD206">
+        <v>2.12</v>
+      </c>
+      <c r="BE206">
+        <v>2.79</v>
+      </c>
+      <c r="BF206">
+        <v>5</v>
+      </c>
+      <c r="BG206">
+        <v>7</v>
+      </c>
+      <c r="BH206">
+        <v>5</v>
+      </c>
+      <c r="BI206">
+        <v>5</v>
+      </c>
+      <c r="BJ206">
+        <v>10</v>
+      </c>
+      <c r="BK206">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2467778</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44990.39583333334</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>66</v>
+      </c>
+      <c r="H207" t="s">
+        <v>79</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>98</v>
+      </c>
+      <c r="P207" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q207">
+        <v>4</v>
+      </c>
+      <c r="R207">
+        <v>5</v>
+      </c>
+      <c r="S207">
+        <v>9</v>
+      </c>
+      <c r="T207">
+        <v>2.6</v>
+      </c>
+      <c r="U207">
+        <v>2.25</v>
+      </c>
+      <c r="V207">
+        <v>4.33</v>
+      </c>
+      <c r="W207">
+        <v>1.36</v>
+      </c>
+      <c r="X207">
+        <v>3</v>
+      </c>
+      <c r="Y207">
+        <v>2.63</v>
+      </c>
+      <c r="Z207">
+        <v>1.44</v>
+      </c>
+      <c r="AA207">
+        <v>7</v>
+      </c>
+      <c r="AB207">
+        <v>1.1</v>
+      </c>
+      <c r="AC207">
+        <v>2.04</v>
+      </c>
+      <c r="AD207">
+        <v>3.58</v>
+      </c>
+      <c r="AE207">
+        <v>3.38</v>
+      </c>
+      <c r="AF207">
+        <v>1.04</v>
+      </c>
+      <c r="AG207">
+        <v>9.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.25</v>
+      </c>
+      <c r="AI207">
+        <v>3.8</v>
+      </c>
+      <c r="AJ207">
+        <v>1.8</v>
+      </c>
+      <c r="AK207">
+        <v>1.94</v>
+      </c>
+      <c r="AL207">
+        <v>1.73</v>
+      </c>
+      <c r="AM207">
+        <v>2</v>
+      </c>
+      <c r="AN207">
+        <v>1.27</v>
+      </c>
+      <c r="AO207">
+        <v>1.3</v>
+      </c>
+      <c r="AP207">
+        <v>1.75</v>
+      </c>
+      <c r="AQ207">
+        <v>1.82</v>
+      </c>
+      <c r="AR207">
+        <v>1.09</v>
+      </c>
+      <c r="AS207">
+        <v>1.75</v>
+      </c>
+      <c r="AT207">
+        <v>1.08</v>
+      </c>
+      <c r="AU207">
+        <v>1.84</v>
+      </c>
+      <c r="AV207">
+        <v>1.49</v>
+      </c>
+      <c r="AW207">
+        <v>3.33</v>
+      </c>
+      <c r="AX207">
+        <v>1.36</v>
+      </c>
+      <c r="AY207">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ207">
+        <v>4.14</v>
+      </c>
+      <c r="BA207">
+        <v>1.18</v>
+      </c>
+      <c r="BB207">
+        <v>1.36</v>
+      </c>
+      <c r="BC207">
+        <v>1.68</v>
+      </c>
+      <c r="BD207">
+        <v>2.09</v>
+      </c>
+      <c r="BE207">
+        <v>2.75</v>
+      </c>
+      <c r="BF207">
+        <v>4</v>
+      </c>
+      <c r="BG207">
+        <v>6</v>
+      </c>
+      <c r="BH207">
+        <v>4</v>
+      </c>
+      <c r="BI207">
+        <v>5</v>
+      </c>
+      <c r="BJ207">
+        <v>8</v>
+      </c>
+      <c r="BK207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2467786</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44990.39583333334</v>
+      </c>
+      <c r="F208">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>73</v>
+      </c>
+      <c r="H208" t="s">
+        <v>82</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>3</v>
+      </c>
+      <c r="K208">
+        <v>5</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>3</v>
+      </c>
+      <c r="N208">
+        <v>6</v>
+      </c>
+      <c r="O208" t="s">
+        <v>234</v>
+      </c>
+      <c r="P208" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q208">
+        <v>7</v>
+      </c>
+      <c r="R208">
+        <v>1</v>
+      </c>
+      <c r="S208">
+        <v>8</v>
+      </c>
+      <c r="T208">
+        <v>3</v>
+      </c>
+      <c r="U208">
+        <v>2.2</v>
+      </c>
+      <c r="V208">
+        <v>3.5</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>3</v>
+      </c>
+      <c r="Y208">
+        <v>2.75</v>
+      </c>
+      <c r="Z208">
+        <v>1.4</v>
+      </c>
+      <c r="AA208">
+        <v>8</v>
+      </c>
+      <c r="AB208">
+        <v>1.08</v>
+      </c>
+      <c r="AC208">
+        <v>2.35</v>
+      </c>
+      <c r="AD208">
+        <v>3.67</v>
+      </c>
+      <c r="AE208">
+        <v>2.73</v>
+      </c>
+      <c r="AF208">
+        <v>1.05</v>
+      </c>
+      <c r="AG208">
+        <v>9</v>
+      </c>
+      <c r="AH208">
+        <v>1.28</v>
+      </c>
+      <c r="AI208">
+        <v>3.5</v>
+      </c>
+      <c r="AJ208">
+        <v>1.82</v>
+      </c>
+      <c r="AK208">
+        <v>1.92</v>
+      </c>
+      <c r="AL208">
+        <v>1.67</v>
+      </c>
+      <c r="AM208">
+        <v>2.1</v>
+      </c>
+      <c r="AN208">
+        <v>1.41</v>
+      </c>
+      <c r="AO208">
+        <v>1.29</v>
+      </c>
+      <c r="AP208">
+        <v>1.57</v>
+      </c>
+      <c r="AQ208">
+        <v>1.27</v>
+      </c>
+      <c r="AR208">
+        <v>0.73</v>
+      </c>
+      <c r="AS208">
+        <v>1.25</v>
+      </c>
+      <c r="AT208">
+        <v>0.75</v>
+      </c>
+      <c r="AU208">
+        <v>1.67</v>
+      </c>
+      <c r="AV208">
+        <v>1.47</v>
+      </c>
+      <c r="AW208">
+        <v>3.14</v>
+      </c>
+      <c r="AX208">
+        <v>1.6</v>
+      </c>
+      <c r="AY208">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ208">
+        <v>2.96</v>
+      </c>
+      <c r="BA208">
+        <v>1.16</v>
+      </c>
+      <c r="BB208">
+        <v>1.32</v>
+      </c>
+      <c r="BC208">
+        <v>1.6</v>
+      </c>
+      <c r="BD208">
+        <v>2.01</v>
+      </c>
+      <c r="BE208">
+        <v>2.62</v>
+      </c>
+      <c r="BF208">
+        <v>7</v>
+      </c>
+      <c r="BG208">
+        <v>8</v>
+      </c>
+      <c r="BH208">
+        <v>10</v>
+      </c>
+      <c r="BI208">
+        <v>2</v>
+      </c>
+      <c r="BJ208">
+        <v>17</v>
+      </c>
+      <c r="BK208">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,12 @@
     <t>['22', '34', '72']</t>
   </si>
   <si>
+    <t>['35', '76']</t>
+  </si>
+  <si>
+    <t>['69', '81']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -1019,6 +1025,9 @@
   </si>
   <si>
     <t>['6', '11', '20']</t>
+  </si>
+  <si>
+    <t>['8', '80']</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1624,7 +1633,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1711,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
         <v>1.08</v>
@@ -1815,7 +1824,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -2006,7 +2015,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2197,7 +2206,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2579,7 +2588,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3152,7 +3161,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3433,7 +3442,7 @@
         <v>2.17</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3534,7 +3543,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3815,7 +3824,7 @@
         <v>2.5</v>
       </c>
       <c r="AT13">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4003,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT14">
         <v>0.55</v>
@@ -4107,7 +4116,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4298,7 +4307,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4489,7 +4498,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4871,7 +4880,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5635,7 +5644,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6208,7 +6217,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6590,7 +6599,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6677,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -6781,7 +6790,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6868,7 +6877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
         <v>1.45</v>
@@ -6972,7 +6981,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7059,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
         <v>1.36</v>
@@ -7163,7 +7172,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7253,7 +7262,7 @@
         <v>1.42</v>
       </c>
       <c r="AT31">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU31">
         <v>2.53</v>
@@ -7444,7 +7453,7 @@
         <v>1.45</v>
       </c>
       <c r="AT32">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU32">
         <v>1.39</v>
@@ -7545,7 +7554,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -8118,7 +8127,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8500,7 +8509,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8691,7 +8700,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8882,7 +8891,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9073,7 +9082,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9264,7 +9273,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9455,7 +9464,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9646,7 +9655,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10028,7 +10037,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10219,7 +10228,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10309,7 +10318,7 @@
         <v>1.09</v>
       </c>
       <c r="AT47">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU47">
         <v>1.44</v>
@@ -10601,7 +10610,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10792,7 +10801,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11174,7 +11183,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11261,7 +11270,7 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT52">
         <v>2.09</v>
@@ -11365,7 +11374,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11452,7 +11461,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11837,7 +11846,7 @@
         <v>1.45</v>
       </c>
       <c r="AT55">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU55">
         <v>1.78</v>
@@ -11938,7 +11947,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12129,7 +12138,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12320,7 +12329,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -13084,7 +13093,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13744,7 +13753,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT65">
         <v>0.75</v>
@@ -13848,7 +13857,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14320,7 +14329,7 @@
         <v>1.55</v>
       </c>
       <c r="AT68">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU68">
         <v>1.63</v>
@@ -14612,7 +14621,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14803,7 +14812,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -14893,7 +14902,7 @@
         <v>2.09</v>
       </c>
       <c r="AT71">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU71">
         <v>2.15</v>
@@ -15185,7 +15194,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15272,7 +15281,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT73">
         <v>2.09</v>
@@ -15376,7 +15385,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15567,7 +15576,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15949,7 +15958,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16904,7 +16913,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17095,7 +17104,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17286,7 +17295,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17477,7 +17486,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17567,7 +17576,7 @@
         <v>1.75</v>
       </c>
       <c r="AT85">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17668,7 +17677,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17859,7 +17868,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18328,10 +18337,10 @@
         <v>0.25</v>
       </c>
       <c r="AS89">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT89">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU89">
         <v>1.36</v>
@@ -18814,7 +18823,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -19005,7 +19014,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19196,7 +19205,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19769,7 +19778,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20151,7 +20160,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20342,7 +20351,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20429,7 +20438,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT100">
         <v>1.42</v>
@@ -20533,7 +20542,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20915,7 +20924,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21106,7 +21115,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21297,7 +21306,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21387,7 +21396,7 @@
         <v>1</v>
       </c>
       <c r="AT105">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU105">
         <v>1.78</v>
@@ -21679,7 +21688,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21766,7 +21775,7 @@
         <v>0.6</v>
       </c>
       <c r="AS107">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT107">
         <v>0.55</v>
@@ -21960,7 +21969,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU108">
         <v>2.51</v>
@@ -22061,7 +22070,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22252,7 +22261,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22443,7 +22452,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22634,7 +22643,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22724,7 +22733,7 @@
         <v>1.17</v>
       </c>
       <c r="AT112">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU112">
         <v>1.19</v>
@@ -22912,7 +22921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT113">
         <v>1.08</v>
@@ -23398,7 +23407,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23780,7 +23789,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23971,7 +23980,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24353,7 +24362,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24544,7 +24553,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24822,7 +24831,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT123">
         <v>0.75</v>
@@ -24926,7 +24935,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25117,7 +25126,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25499,7 +25508,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25589,7 +25598,7 @@
         <v>1.09</v>
       </c>
       <c r="AT127">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU127">
         <v>1.42</v>
@@ -25881,7 +25890,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25971,7 +25980,7 @@
         <v>0.83</v>
       </c>
       <c r="AT129">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU129">
         <v>1.54</v>
@@ -26454,7 +26463,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26645,7 +26654,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26836,7 +26845,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27027,7 +27036,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27114,7 +27123,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT135">
         <v>1.33</v>
@@ -27218,7 +27227,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27600,7 +27609,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28069,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT140">
         <v>1.27</v>
@@ -28364,7 +28373,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28555,7 +28564,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28836,7 +28845,7 @@
         <v>1.17</v>
       </c>
       <c r="AT144">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU144">
         <v>1.29</v>
@@ -29128,7 +29137,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29319,7 +29328,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29510,7 +29519,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29701,7 +29710,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29791,7 +29800,7 @@
         <v>2.08</v>
       </c>
       <c r="AT149">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU149">
         <v>1.97</v>
@@ -29892,7 +29901,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30083,7 +30092,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30552,7 +30561,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT153">
         <v>1.36</v>
@@ -30656,7 +30665,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30847,7 +30856,7 @@
         <v>198</v>
       </c>
       <c r="P155" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q155">
         <v>11</v>
@@ -31038,7 +31047,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31802,7 +31811,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31993,7 +32002,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32083,7 +32092,7 @@
         <v>1.09</v>
       </c>
       <c r="AT161">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU161">
         <v>1.55</v>
@@ -32184,7 +32193,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32274,7 +32283,7 @@
         <v>2.08</v>
       </c>
       <c r="AT162">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU162">
         <v>2.01</v>
@@ -32462,7 +32471,7 @@
         <v>0.33</v>
       </c>
       <c r="AS163">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT163">
         <v>1</v>
@@ -32566,7 +32575,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32757,7 +32766,7 @@
         <v>90</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -32948,7 +32957,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33226,7 +33235,7 @@
         <v>1.44</v>
       </c>
       <c r="AS167">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT167">
         <v>1.42</v>
@@ -33712,7 +33721,7 @@
         <v>90</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -34476,7 +34485,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34667,7 +34676,7 @@
         <v>211</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -34945,7 +34954,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT176">
         <v>0.55</v>
@@ -35049,7 +35058,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35240,7 +35249,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35521,7 +35530,7 @@
         <v>2.17</v>
       </c>
       <c r="AT179">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU179">
         <v>1.72</v>
@@ -35903,7 +35912,7 @@
         <v>2.27</v>
       </c>
       <c r="AT181">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU181">
         <v>1.85</v>
@@ -36004,7 +36013,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36386,7 +36395,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q184">
         <v>9</v>
@@ -36577,7 +36586,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36768,7 +36777,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37150,7 +37159,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -38004,7 +38013,7 @@
         <v>2.27</v>
       </c>
       <c r="AT192">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU192">
         <v>1.94</v>
@@ -38192,7 +38201,7 @@
         <v>0.6</v>
       </c>
       <c r="AS193">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT193">
         <v>0.55</v>
@@ -38296,7 +38305,7 @@
         <v>225</v>
       </c>
       <c r="P194" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38574,10 +38583,10 @@
         <v>0.73</v>
       </c>
       <c r="AS195">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT195">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU195">
         <v>1.73</v>
@@ -39060,7 +39069,7 @@
         <v>175</v>
       </c>
       <c r="P198" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39633,7 +39642,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39824,7 +39833,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40588,7 +40597,7 @@
         <v>90</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40779,7 +40788,7 @@
         <v>98</v>
       </c>
       <c r="P207" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40970,7 +40979,7 @@
         <v>234</v>
       </c>
       <c r="P208" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q208">
         <v>7</v>
@@ -41112,6 +41121,388 @@
       </c>
       <c r="BK208">
         <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2467795</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44995.60416666666</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>65</v>
+      </c>
+      <c r="H209" t="s">
+        <v>68</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>235</v>
+      </c>
+      <c r="P209" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q209">
+        <v>8</v>
+      </c>
+      <c r="R209">
+        <v>5</v>
+      </c>
+      <c r="S209">
+        <v>13</v>
+      </c>
+      <c r="T209">
+        <v>2.3</v>
+      </c>
+      <c r="U209">
+        <v>2.1</v>
+      </c>
+      <c r="V209">
+        <v>4.6</v>
+      </c>
+      <c r="W209">
+        <v>1.39</v>
+      </c>
+      <c r="X209">
+        <v>2.75</v>
+      </c>
+      <c r="Y209">
+        <v>2.8</v>
+      </c>
+      <c r="Z209">
+        <v>1.38</v>
+      </c>
+      <c r="AA209">
+        <v>7.25</v>
+      </c>
+      <c r="AB209">
+        <v>1.08</v>
+      </c>
+      <c r="AC209">
+        <v>1.8</v>
+      </c>
+      <c r="AD209">
+        <v>3.9</v>
+      </c>
+      <c r="AE209">
+        <v>4.2</v>
+      </c>
+      <c r="AF209">
+        <v>1.05</v>
+      </c>
+      <c r="AG209">
+        <v>9</v>
+      </c>
+      <c r="AH209">
+        <v>1.28</v>
+      </c>
+      <c r="AI209">
+        <v>3.5</v>
+      </c>
+      <c r="AJ209">
+        <v>1.91</v>
+      </c>
+      <c r="AK209">
+        <v>1.95</v>
+      </c>
+      <c r="AL209">
+        <v>1.82</v>
+      </c>
+      <c r="AM209">
+        <v>1.87</v>
+      </c>
+      <c r="AN209">
+        <v>1.19</v>
+      </c>
+      <c r="AO209">
+        <v>1.26</v>
+      </c>
+      <c r="AP209">
+        <v>2.05</v>
+      </c>
+      <c r="AQ209">
+        <v>1.73</v>
+      </c>
+      <c r="AR209">
+        <v>0.67</v>
+      </c>
+      <c r="AS209">
+        <v>1.67</v>
+      </c>
+      <c r="AT209">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU209">
+        <v>1.53</v>
+      </c>
+      <c r="AV209">
+        <v>1.13</v>
+      </c>
+      <c r="AW209">
+        <v>2.66</v>
+      </c>
+      <c r="AX209">
+        <v>1.3</v>
+      </c>
+      <c r="AY209">
+        <v>9.5</v>
+      </c>
+      <c r="AZ209">
+        <v>4.44</v>
+      </c>
+      <c r="BA209">
+        <v>1.25</v>
+      </c>
+      <c r="BB209">
+        <v>1.55</v>
+      </c>
+      <c r="BC209">
+        <v>1.9</v>
+      </c>
+      <c r="BD209">
+        <v>2.3</v>
+      </c>
+      <c r="BE209">
+        <v>3.28</v>
+      </c>
+      <c r="BF209">
+        <v>6</v>
+      </c>
+      <c r="BG209">
+        <v>3</v>
+      </c>
+      <c r="BH209">
+        <v>2</v>
+      </c>
+      <c r="BI209">
+        <v>5</v>
+      </c>
+      <c r="BJ209">
+        <v>8</v>
+      </c>
+      <c r="BK209">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2467789</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44995.60416666666</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>77</v>
+      </c>
+      <c r="H210" t="s">
+        <v>73</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>236</v>
+      </c>
+      <c r="P210" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q210">
+        <v>5</v>
+      </c>
+      <c r="R210">
+        <v>3</v>
+      </c>
+      <c r="S210">
+        <v>8</v>
+      </c>
+      <c r="T210">
+        <v>2.6</v>
+      </c>
+      <c r="U210">
+        <v>2.05</v>
+      </c>
+      <c r="V210">
+        <v>3.9</v>
+      </c>
+      <c r="W210">
+        <v>1.4</v>
+      </c>
+      <c r="X210">
+        <v>2.7</v>
+      </c>
+      <c r="Y210">
+        <v>2.8</v>
+      </c>
+      <c r="Z210">
+        <v>1.38</v>
+      </c>
+      <c r="AA210">
+        <v>7.25</v>
+      </c>
+      <c r="AB210">
+        <v>1.08</v>
+      </c>
+      <c r="AC210">
+        <v>2</v>
+      </c>
+      <c r="AD210">
+        <v>3.5</v>
+      </c>
+      <c r="AE210">
+        <v>3.5</v>
+      </c>
+      <c r="AF210">
+        <v>1.05</v>
+      </c>
+      <c r="AG210">
+        <v>9</v>
+      </c>
+      <c r="AH210">
+        <v>1.3</v>
+      </c>
+      <c r="AI210">
+        <v>3.3</v>
+      </c>
+      <c r="AJ210">
+        <v>1.83</v>
+      </c>
+      <c r="AK210">
+        <v>1.9</v>
+      </c>
+      <c r="AL210">
+        <v>1.73</v>
+      </c>
+      <c r="AM210">
+        <v>1.95</v>
+      </c>
+      <c r="AN210">
+        <v>1.28</v>
+      </c>
+      <c r="AO210">
+        <v>1.29</v>
+      </c>
+      <c r="AP210">
+        <v>1.77</v>
+      </c>
+      <c r="AQ210">
+        <v>1.45</v>
+      </c>
+      <c r="AR210">
+        <v>0.64</v>
+      </c>
+      <c r="AS210">
+        <v>1.58</v>
+      </c>
+      <c r="AT210">
+        <v>0.58</v>
+      </c>
+      <c r="AU210">
+        <v>1.67</v>
+      </c>
+      <c r="AV210">
+        <v>1.48</v>
+      </c>
+      <c r="AW210">
+        <v>3.15</v>
+      </c>
+      <c r="AX210">
+        <v>1.75</v>
+      </c>
+      <c r="AY210">
+        <v>8.5</v>
+      </c>
+      <c r="AZ210">
+        <v>2.51</v>
+      </c>
+      <c r="BA210">
+        <v>1.18</v>
+      </c>
+      <c r="BB210">
+        <v>1.34</v>
+      </c>
+      <c r="BC210">
+        <v>1.65</v>
+      </c>
+      <c r="BD210">
+        <v>2</v>
+      </c>
+      <c r="BE210">
+        <v>2.5</v>
+      </c>
+      <c r="BF210">
+        <v>9</v>
+      </c>
+      <c r="BG210">
+        <v>3</v>
+      </c>
+      <c r="BH210">
+        <v>8</v>
+      </c>
+      <c r="BI210">
+        <v>3</v>
+      </c>
+      <c r="BJ210">
+        <v>17</v>
+      </c>
+      <c r="BK210">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,12 @@
     <t>['69', '81']</t>
   </si>
   <si>
+    <t>['72', '90+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['13', '55']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -1028,6 +1034,9 @@
   </si>
   <si>
     <t>['8', '80']</t>
+  </si>
+  <si>
+    <t>['6']</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1642,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1824,7 +1833,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -2015,7 +2024,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2102,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT4">
         <v>0.75</v>
@@ -2206,7 +2215,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2487,7 +2496,7 @@
         <v>1.17</v>
       </c>
       <c r="AT6">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2588,7 +2597,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3161,7 +3170,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3543,7 +3552,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3633,7 +3642,7 @@
         <v>2.27</v>
       </c>
       <c r="AT12">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4015,7 +4024,7 @@
         <v>1.58</v>
       </c>
       <c r="AT14">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4116,7 +4125,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4307,7 +4316,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4498,7 +4507,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4880,7 +4889,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4967,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT19">
         <v>0.55</v>
@@ -5644,7 +5653,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6217,7 +6226,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6498,7 +6507,7 @@
         <v>1.25</v>
       </c>
       <c r="AT27">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU27">
         <v>2.09</v>
@@ -6599,7 +6608,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6790,7 +6799,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6981,7 +6990,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7071,7 +7080,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>1.3</v>
@@ -7172,7 +7181,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7554,7 +7563,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7641,7 +7650,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT33">
         <v>2.09</v>
@@ -8023,7 +8032,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT35">
         <v>1.33</v>
@@ -8127,7 +8136,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8217,7 +8226,7 @@
         <v>2.27</v>
       </c>
       <c r="AT36">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>1.07</v>
@@ -8509,7 +8518,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8599,7 +8608,7 @@
         <v>2.08</v>
       </c>
       <c r="AT38">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU38">
         <v>1.68</v>
@@ -8700,7 +8709,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8891,7 +8900,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9082,7 +9091,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9273,7 +9282,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9464,7 +9473,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9655,7 +9664,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10037,7 +10046,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10228,7 +10237,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10315,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
         <v>0.58</v>
@@ -10610,7 +10619,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10801,7 +10810,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10888,10 +10897,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>2.15</v>
@@ -11183,7 +11192,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11374,7 +11383,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11655,7 +11664,7 @@
         <v>1.55</v>
       </c>
       <c r="AT54">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU54">
         <v>1.75</v>
@@ -11947,7 +11956,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12138,7 +12147,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12329,7 +12338,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -13093,7 +13102,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13857,7 +13866,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -14621,7 +14630,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14812,7 +14821,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -14899,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT71">
         <v>0.6899999999999999</v>
@@ -15093,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU72">
         <v>1.7</v>
@@ -15194,7 +15203,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15284,7 +15293,7 @@
         <v>1.67</v>
       </c>
       <c r="AT73">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU73">
         <v>1.23</v>
@@ -15385,7 +15394,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15576,7 +15585,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15958,7 +15967,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16045,7 +16054,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT77">
         <v>1.42</v>
@@ -16913,7 +16922,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17003,7 +17012,7 @@
         <v>1.75</v>
       </c>
       <c r="AT82">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>1.98</v>
@@ -17104,7 +17113,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17194,7 +17203,7 @@
         <v>2</v>
       </c>
       <c r="AT83">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU83">
         <v>2.6</v>
@@ -17295,7 +17304,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17486,7 +17495,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17677,7 +17686,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17868,7 +17877,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18146,7 +18155,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT88">
         <v>1.45</v>
@@ -18823,7 +18832,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18910,7 +18919,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT92">
         <v>1.27</v>
@@ -19014,7 +19023,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19104,7 +19113,7 @@
         <v>1.17</v>
       </c>
       <c r="AT93">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU93">
         <v>1.11</v>
@@ -19205,7 +19214,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19295,7 +19304,7 @@
         <v>0.83</v>
       </c>
       <c r="AT94">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU94">
         <v>1.72</v>
@@ -19778,7 +19787,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20160,7 +20169,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20351,7 +20360,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20542,7 +20551,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20820,7 +20829,7 @@
         <v>3</v>
       </c>
       <c r="AS102">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT102">
         <v>2.09</v>
@@ -20924,7 +20933,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21115,7 +21124,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21205,7 +21214,7 @@
         <v>1.42</v>
       </c>
       <c r="AT104">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU104">
         <v>2.36</v>
@@ -21306,7 +21315,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21688,7 +21697,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -22070,7 +22079,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22261,7 +22270,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22452,7 +22461,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22643,7 +22652,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23115,7 +23124,7 @@
         <v>1.25</v>
       </c>
       <c r="AT114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>1.75</v>
@@ -23303,7 +23312,7 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT115">
         <v>1</v>
@@ -23407,7 +23416,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23688,7 +23697,7 @@
         <v>2.5</v>
       </c>
       <c r="AT117">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU117">
         <v>1.86</v>
@@ -23789,7 +23798,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23980,7 +23989,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24362,7 +24371,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24553,7 +24562,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24935,7 +24944,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25022,10 +25031,10 @@
         <v>2.17</v>
       </c>
       <c r="AS124">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT124">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU124">
         <v>2.13</v>
@@ -25126,7 +25135,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25508,7 +25517,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25890,7 +25899,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -26362,7 +26371,7 @@
         <v>2.5</v>
       </c>
       <c r="AT131">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU131">
         <v>1.8</v>
@@ -26463,7 +26472,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26654,7 +26663,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26741,7 +26750,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT133">
         <v>1.58</v>
@@ -26845,7 +26854,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26935,7 +26944,7 @@
         <v>1.25</v>
       </c>
       <c r="AT134">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU134">
         <v>1.75</v>
@@ -27036,7 +27045,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27227,7 +27236,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27505,7 +27514,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT137">
         <v>1.42</v>
@@ -27609,7 +27618,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -28373,7 +28382,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28564,7 +28573,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29036,7 +29045,7 @@
         <v>1</v>
       </c>
       <c r="AT145">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU145">
         <v>1.69</v>
@@ -29137,7 +29146,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29328,7 +29337,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29519,7 +29528,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29710,7 +29719,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29901,7 +29910,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30092,7 +30101,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30373,7 +30382,7 @@
         <v>2.17</v>
       </c>
       <c r="AT152">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU152">
         <v>1.75</v>
@@ -30564,7 +30573,7 @@
         <v>1.58</v>
       </c>
       <c r="AT153">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU153">
         <v>1.68</v>
@@ -30665,7 +30674,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30752,7 +30761,7 @@
         <v>1.25</v>
       </c>
       <c r="AS154">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT154">
         <v>1.33</v>
@@ -30856,7 +30865,7 @@
         <v>198</v>
       </c>
       <c r="P155" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q155">
         <v>11</v>
@@ -31047,7 +31056,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31137,7 +31146,7 @@
         <v>1.42</v>
       </c>
       <c r="AT156">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU156">
         <v>1.94</v>
@@ -31710,7 +31719,7 @@
         <v>1.45</v>
       </c>
       <c r="AT159">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU159">
         <v>1.8</v>
@@ -31811,7 +31820,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32002,7 +32011,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32089,7 +32098,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS161">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT161">
         <v>0.6899999999999999</v>
@@ -32193,7 +32202,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32575,7 +32584,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32766,7 +32775,7 @@
         <v>90</v>
       </c>
       <c r="P165" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -32856,7 +32865,7 @@
         <v>1.09</v>
       </c>
       <c r="AT165">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU165">
         <v>1.52</v>
@@ -32957,7 +32966,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33721,7 +33730,7 @@
         <v>90</v>
       </c>
       <c r="P170" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33999,7 +34008,7 @@
         <v>1.22</v>
       </c>
       <c r="AS171">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT171">
         <v>1.08</v>
@@ -34381,7 +34390,7 @@
         <v>1.22</v>
       </c>
       <c r="AS173">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT173">
         <v>1.27</v>
@@ -34485,7 +34494,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34575,7 +34584,7 @@
         <v>1.42</v>
       </c>
       <c r="AT174">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU174">
         <v>1.92</v>
@@ -34676,7 +34685,7 @@
         <v>211</v>
       </c>
       <c r="P175" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -34766,7 +34775,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU175">
         <v>1.51</v>
@@ -35058,7 +35067,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35249,7 +35258,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35718,7 +35727,7 @@
         <v>2.11</v>
       </c>
       <c r="AS180">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT180">
         <v>1.58</v>
@@ -36013,7 +36022,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36395,7 +36404,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q184">
         <v>9</v>
@@ -36586,7 +36595,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36777,7 +36786,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37058,7 +37067,7 @@
         <v>0.83</v>
       </c>
       <c r="AT187">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU187">
         <v>1.66</v>
@@ -37159,7 +37168,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -38204,7 +38213,7 @@
         <v>1.67</v>
       </c>
       <c r="AT193">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU193">
         <v>1.54</v>
@@ -38305,7 +38314,7 @@
         <v>225</v>
       </c>
       <c r="P194" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38395,7 +38404,7 @@
         <v>1.45</v>
       </c>
       <c r="AT194">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU194">
         <v>1.96</v>
@@ -38965,7 +38974,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT197">
         <v>1.27</v>
@@ -39069,7 +39078,7 @@
         <v>175</v>
       </c>
       <c r="P198" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39347,7 +39356,7 @@
         <v>1.3</v>
       </c>
       <c r="AS199">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT199">
         <v>1.45</v>
@@ -39642,7 +39651,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39833,7 +39842,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40496,7 +40505,7 @@
         <v>2.5</v>
       </c>
       <c r="AT205">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU205">
         <v>1.85</v>
@@ -40597,7 +40606,7 @@
         <v>90</v>
       </c>
       <c r="P206" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40788,7 +40797,7 @@
         <v>98</v>
       </c>
       <c r="P207" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40979,7 +40988,7 @@
         <v>234</v>
       </c>
       <c r="P208" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q208">
         <v>7</v>
@@ -41170,7 +41179,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41503,6 +41512,579 @@
       </c>
       <c r="BK210">
         <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2467787</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44996.375</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>82</v>
+      </c>
+      <c r="H211" t="s">
+        <v>74</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" t="s">
+        <v>237</v>
+      </c>
+      <c r="P211" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q211">
+        <v>6</v>
+      </c>
+      <c r="R211">
+        <v>4</v>
+      </c>
+      <c r="S211">
+        <v>10</v>
+      </c>
+      <c r="T211">
+        <v>3.6</v>
+      </c>
+      <c r="U211">
+        <v>2.1</v>
+      </c>
+      <c r="V211">
+        <v>2.8</v>
+      </c>
+      <c r="W211">
+        <v>1.38</v>
+      </c>
+      <c r="X211">
+        <v>2.85</v>
+      </c>
+      <c r="Y211">
+        <v>2.75</v>
+      </c>
+      <c r="Z211">
+        <v>1.4</v>
+      </c>
+      <c r="AA211">
+        <v>6.95</v>
+      </c>
+      <c r="AB211">
+        <v>1.07</v>
+      </c>
+      <c r="AC211">
+        <v>3.26</v>
+      </c>
+      <c r="AD211">
+        <v>3.48</v>
+      </c>
+      <c r="AE211">
+        <v>2.25</v>
+      </c>
+      <c r="AF211">
+        <v>1.05</v>
+      </c>
+      <c r="AG211">
+        <v>9</v>
+      </c>
+      <c r="AH211">
+        <v>1.28</v>
+      </c>
+      <c r="AI211">
+        <v>3.5</v>
+      </c>
+      <c r="AJ211">
+        <v>1.88</v>
+      </c>
+      <c r="AK211">
+        <v>1.98</v>
+      </c>
+      <c r="AL211">
+        <v>1.72</v>
+      </c>
+      <c r="AM211">
+        <v>2.05</v>
+      </c>
+      <c r="AN211">
+        <v>1.66</v>
+      </c>
+      <c r="AO211">
+        <v>1.25</v>
+      </c>
+      <c r="AP211">
+        <v>1.35</v>
+      </c>
+      <c r="AQ211">
+        <v>1.09</v>
+      </c>
+      <c r="AR211">
+        <v>2.09</v>
+      </c>
+      <c r="AS211">
+        <v>1.25</v>
+      </c>
+      <c r="AT211">
+        <v>1.92</v>
+      </c>
+      <c r="AU211">
+        <v>1.63</v>
+      </c>
+      <c r="AV211">
+        <v>1.63</v>
+      </c>
+      <c r="AW211">
+        <v>3.26</v>
+      </c>
+      <c r="AX211">
+        <v>2.33</v>
+      </c>
+      <c r="AY211">
+        <v>8</v>
+      </c>
+      <c r="AZ211">
+        <v>1.82</v>
+      </c>
+      <c r="BA211">
+        <v>1.25</v>
+      </c>
+      <c r="BB211">
+        <v>1.5</v>
+      </c>
+      <c r="BC211">
+        <v>1.8</v>
+      </c>
+      <c r="BD211">
+        <v>2.25</v>
+      </c>
+      <c r="BE211">
+        <v>3.25</v>
+      </c>
+      <c r="BF211">
+        <v>7</v>
+      </c>
+      <c r="BG211">
+        <v>5</v>
+      </c>
+      <c r="BH211">
+        <v>10</v>
+      </c>
+      <c r="BI211">
+        <v>8</v>
+      </c>
+      <c r="BJ211">
+        <v>17</v>
+      </c>
+      <c r="BK211">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2467788</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44996.375</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>67</v>
+      </c>
+      <c r="H212" t="s">
+        <v>66</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>238</v>
+      </c>
+      <c r="P212" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q212">
+        <v>3</v>
+      </c>
+      <c r="R212">
+        <v>4</v>
+      </c>
+      <c r="S212">
+        <v>7</v>
+      </c>
+      <c r="T212">
+        <v>2.55</v>
+      </c>
+      <c r="U212">
+        <v>2.05</v>
+      </c>
+      <c r="V212">
+        <v>4</v>
+      </c>
+      <c r="W212">
+        <v>1.41</v>
+      </c>
+      <c r="X212">
+        <v>2.7</v>
+      </c>
+      <c r="Y212">
+        <v>2.87</v>
+      </c>
+      <c r="Z212">
+        <v>1.36</v>
+      </c>
+      <c r="AA212">
+        <v>7.5</v>
+      </c>
+      <c r="AB212">
+        <v>1.07</v>
+      </c>
+      <c r="AC212">
+        <v>2.03</v>
+      </c>
+      <c r="AD212">
+        <v>3.57</v>
+      </c>
+      <c r="AE212">
+        <v>3.86</v>
+      </c>
+      <c r="AF212">
+        <v>1.06</v>
+      </c>
+      <c r="AG212">
+        <v>8</v>
+      </c>
+      <c r="AH212">
+        <v>1.3</v>
+      </c>
+      <c r="AI212">
+        <v>3.3</v>
+      </c>
+      <c r="AJ212">
+        <v>1.93</v>
+      </c>
+      <c r="AK212">
+        <v>1.93</v>
+      </c>
+      <c r="AL212">
+        <v>1.77</v>
+      </c>
+      <c r="AM212">
+        <v>1.9</v>
+      </c>
+      <c r="AN212">
+        <v>1.27</v>
+      </c>
+      <c r="AO212">
+        <v>1.28</v>
+      </c>
+      <c r="AP212">
+        <v>1.8</v>
+      </c>
+      <c r="AQ212">
+        <v>2.09</v>
+      </c>
+      <c r="AR212">
+        <v>0.55</v>
+      </c>
+      <c r="AS212">
+        <v>2.17</v>
+      </c>
+      <c r="AT212">
+        <v>0.5</v>
+      </c>
+      <c r="AU212">
+        <v>2.09</v>
+      </c>
+      <c r="AV212">
+        <v>1.31</v>
+      </c>
+      <c r="AW212">
+        <v>3.4</v>
+      </c>
+      <c r="AX212">
+        <v>1.64</v>
+      </c>
+      <c r="AY212">
+        <v>8.5</v>
+      </c>
+      <c r="AZ212">
+        <v>2.76</v>
+      </c>
+      <c r="BA212">
+        <v>1.25</v>
+      </c>
+      <c r="BB212">
+        <v>1.5</v>
+      </c>
+      <c r="BC212">
+        <v>1.8</v>
+      </c>
+      <c r="BD212">
+        <v>2.25</v>
+      </c>
+      <c r="BE212">
+        <v>3.25</v>
+      </c>
+      <c r="BF212">
+        <v>7</v>
+      </c>
+      <c r="BG212">
+        <v>4</v>
+      </c>
+      <c r="BH212">
+        <v>5</v>
+      </c>
+      <c r="BI212">
+        <v>3</v>
+      </c>
+      <c r="BJ212">
+        <v>12</v>
+      </c>
+      <c r="BK212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2467794</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44996.375</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>70</v>
+      </c>
+      <c r="H213" t="s">
+        <v>71</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213" t="s">
+        <v>90</v>
+      </c>
+      <c r="P213" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q213">
+        <v>7</v>
+      </c>
+      <c r="R213">
+        <v>4</v>
+      </c>
+      <c r="S213">
+        <v>11</v>
+      </c>
+      <c r="T213">
+        <v>3.1</v>
+      </c>
+      <c r="U213">
+        <v>2.3</v>
+      </c>
+      <c r="V213">
+        <v>2.85</v>
+      </c>
+      <c r="W213">
+        <v>1.27</v>
+      </c>
+      <c r="X213">
+        <v>3.45</v>
+      </c>
+      <c r="Y213">
+        <v>2.29</v>
+      </c>
+      <c r="Z213">
+        <v>1.56</v>
+      </c>
+      <c r="AA213">
+        <v>4.95</v>
+      </c>
+      <c r="AB213">
+        <v>1.14</v>
+      </c>
+      <c r="AC213">
+        <v>3.08</v>
+      </c>
+      <c r="AD213">
+        <v>3.76</v>
+      </c>
+      <c r="AE213">
+        <v>2.23</v>
+      </c>
+      <c r="AF213">
+        <v>1.02</v>
+      </c>
+      <c r="AG213">
+        <v>12</v>
+      </c>
+      <c r="AH213">
+        <v>1.17</v>
+      </c>
+      <c r="AI213">
+        <v>4.75</v>
+      </c>
+      <c r="AJ213">
+        <v>1.56</v>
+      </c>
+      <c r="AK213">
+        <v>2.33</v>
+      </c>
+      <c r="AL213">
+        <v>1.47</v>
+      </c>
+      <c r="AM213">
+        <v>2.55</v>
+      </c>
+      <c r="AN213">
+        <v>1.47</v>
+      </c>
+      <c r="AO213">
+        <v>1.22</v>
+      </c>
+      <c r="AP213">
+        <v>1.45</v>
+      </c>
+      <c r="AQ213">
+        <v>1</v>
+      </c>
+      <c r="AR213">
+        <v>1.36</v>
+      </c>
+      <c r="AS213">
+        <v>1</v>
+      </c>
+      <c r="AT213">
+        <v>1.33</v>
+      </c>
+      <c r="AU213">
+        <v>1.67</v>
+      </c>
+      <c r="AV213">
+        <v>1.53</v>
+      </c>
+      <c r="AW213">
+        <v>3.2</v>
+      </c>
+      <c r="AX213">
+        <v>1.83</v>
+      </c>
+      <c r="AY213">
+        <v>8</v>
+      </c>
+      <c r="AZ213">
+        <v>2.2</v>
+      </c>
+      <c r="BA213">
+        <v>1.22</v>
+      </c>
+      <c r="BB213">
+        <v>1.48</v>
+      </c>
+      <c r="BC213">
+        <v>1.73</v>
+      </c>
+      <c r="BD213">
+        <v>2.1</v>
+      </c>
+      <c r="BE213">
+        <v>2.7</v>
+      </c>
+      <c r="BF213">
+        <v>0</v>
+      </c>
+      <c r="BG213">
+        <v>6</v>
+      </c>
+      <c r="BH213">
+        <v>14</v>
+      </c>
+      <c r="BI213">
+        <v>12</v>
+      </c>
+      <c r="BJ213">
+        <v>14</v>
+      </c>
+      <c r="BK213">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="348">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,18 @@
     <t>['13', '55']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['10', '17', '32', '89']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -839,9 +851,6 @@
   </si>
   <si>
     <t>['39', '69', '85']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['71']</t>
@@ -1037,6 +1046,18 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['50', '80']</t>
+  </si>
+  <si>
+    <t>['45', '87']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK213"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1642,7 +1663,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1833,7 +1854,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q3">
         <v>12</v>
@@ -2024,7 +2045,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2215,7 +2236,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2597,7 +2618,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3069,7 +3090,7 @@
         <v>0.83</v>
       </c>
       <c r="AT9">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3170,7 +3191,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3260,7 +3281,7 @@
         <v>1.25</v>
       </c>
       <c r="AT10">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3552,7 +3573,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3639,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT12">
         <v>1.33</v>
@@ -4125,7 +4146,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4212,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT15">
         <v>1.58</v>
@@ -4316,7 +4337,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4403,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4507,7 +4528,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4594,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT17">
         <v>1.33</v>
@@ -4788,7 +4809,7 @@
         <v>2.08</v>
       </c>
       <c r="AT18">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4889,7 +4910,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4979,7 +5000,7 @@
         <v>1.25</v>
       </c>
       <c r="AT19">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5653,7 +5674,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5934,7 +5955,7 @@
         <v>2.08</v>
       </c>
       <c r="AT24">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU24">
         <v>1.84</v>
@@ -6226,7 +6247,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6608,7 +6629,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6799,7 +6820,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6889,7 +6910,7 @@
         <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU29">
         <v>1.57</v>
@@ -6990,7 +7011,7 @@
         <v>90</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7181,7 +7202,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>10</v>
@@ -7268,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT31">
         <v>0.6899999999999999</v>
@@ -7459,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
         <v>0.58</v>
@@ -7563,7 +7584,7 @@
         <v>90</v>
       </c>
       <c r="P33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7653,7 +7674,7 @@
         <v>1.25</v>
       </c>
       <c r="AT33">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU33">
         <v>1.26</v>
@@ -7844,7 +7865,7 @@
         <v>2.17</v>
       </c>
       <c r="AT34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU34">
         <v>1.15</v>
@@ -8136,7 +8157,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8223,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT36">
         <v>0.5</v>
@@ -8414,10 +8435,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT37">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU37">
         <v>1.56</v>
@@ -8518,7 +8539,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8709,7 +8730,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8900,7 +8921,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -9091,7 +9112,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9282,7 +9303,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9473,7 +9494,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9664,7 +9685,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10046,7 +10067,7 @@
         <v>117</v>
       </c>
       <c r="P46" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10237,7 +10258,7 @@
         <v>118</v>
       </c>
       <c r="P47" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10515,10 +10536,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT48">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -10619,7 +10640,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>12</v>
@@ -10709,7 +10730,7 @@
         <v>2.17</v>
       </c>
       <c r="AT49">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU49">
         <v>1.48</v>
@@ -10810,7 +10831,7 @@
         <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11088,10 +11109,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT51">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU51">
         <v>2.57</v>
@@ -11192,7 +11213,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11282,7 +11303,7 @@
         <v>1.58</v>
       </c>
       <c r="AT52">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU52">
         <v>1.36</v>
@@ -11383,7 +11404,7 @@
         <v>123</v>
       </c>
       <c r="P53" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11661,7 +11682,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>0.5</v>
@@ -11852,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT55">
         <v>0.6899999999999999</v>
@@ -11956,7 +11977,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -12147,7 +12168,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12338,7 +12359,7 @@
         <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -13102,7 +13123,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q62">
         <v>10</v>
@@ -13866,7 +13887,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13953,10 +13974,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU66">
         <v>1.58</v>
@@ -14147,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>2.64</v>
@@ -14335,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT68">
         <v>0.58</v>
@@ -14526,10 +14547,10 @@
         <v>1.75</v>
       </c>
       <c r="AS69">
+        <v>1.54</v>
+      </c>
+      <c r="AT69">
         <v>1.42</v>
-      </c>
-      <c r="AT69">
-        <v>1.45</v>
       </c>
       <c r="AU69">
         <v>2.53</v>
@@ -14630,7 +14651,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14717,10 +14738,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT70">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU70">
         <v>1.62</v>
@@ -14821,7 +14842,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q71">
         <v>11</v>
@@ -15203,7 +15224,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -15394,7 +15415,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>9</v>
@@ -15585,7 +15606,7 @@
         <v>140</v>
       </c>
       <c r="P75" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15967,7 +15988,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16922,7 +16943,7 @@
         <v>147</v>
       </c>
       <c r="P82" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17113,7 +17134,7 @@
         <v>148</v>
       </c>
       <c r="P83" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17304,7 +17325,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17391,10 +17412,10 @@
         <v>3</v>
       </c>
       <c r="AS84">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17495,7 +17516,7 @@
         <v>149</v>
       </c>
       <c r="P85" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17686,7 +17707,7 @@
         <v>150</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17773,10 +17794,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU86">
         <v>1.96</v>
@@ -17877,7 +17898,7 @@
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17964,7 +17985,7 @@
         <v>0.4</v>
       </c>
       <c r="AS87">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT87">
         <v>0.75</v>
@@ -18158,7 +18179,7 @@
         <v>2.17</v>
       </c>
       <c r="AT88">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU88">
         <v>2.32</v>
@@ -18537,7 +18558,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT90">
         <v>0.75</v>
@@ -18731,7 +18752,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU91">
         <v>1.73</v>
@@ -18832,7 +18853,7 @@
         <v>155</v>
       </c>
       <c r="P92" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -19023,7 +19044,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19214,7 +19235,7 @@
         <v>90</v>
       </c>
       <c r="P94" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19787,7 +19808,7 @@
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20169,7 +20190,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20360,7 +20381,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -20551,7 +20572,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20641,7 +20662,7 @@
         <v>1.75</v>
       </c>
       <c r="AT101">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.81</v>
@@ -20832,7 +20853,7 @@
         <v>2.17</v>
       </c>
       <c r="AT102">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU102">
         <v>2.09</v>
@@ -20933,7 +20954,7 @@
         <v>90</v>
       </c>
       <c r="P103" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21020,7 +21041,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT103">
         <v>0.75</v>
@@ -21124,7 +21145,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21211,7 +21232,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT104">
         <v>1.92</v>
@@ -21315,7 +21336,7 @@
         <v>90</v>
       </c>
       <c r="P105" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21593,7 +21614,7 @@
         <v>0.33</v>
       </c>
       <c r="AS106">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
         <v>0.75</v>
@@ -21697,7 +21718,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -21787,7 +21808,7 @@
         <v>1.67</v>
       </c>
       <c r="AT107">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -22079,7 +22100,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22166,10 +22187,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU109">
         <v>1.99</v>
@@ -22270,7 +22291,7 @@
         <v>125</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22461,7 +22482,7 @@
         <v>90</v>
       </c>
       <c r="P111" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22652,7 +22673,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -23416,7 +23437,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23503,7 +23524,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT116">
         <v>1.08</v>
@@ -23798,7 +23819,7 @@
         <v>171</v>
       </c>
       <c r="P118" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>11</v>
@@ -23989,7 +24010,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24079,7 +24100,7 @@
         <v>1</v>
       </c>
       <c r="AT119">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU119">
         <v>1.7</v>
@@ -24371,7 +24392,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24458,7 +24479,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT121">
         <v>1.08</v>
@@ -24562,7 +24583,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q122">
         <v>9</v>
@@ -24652,7 +24673,7 @@
         <v>1.17</v>
       </c>
       <c r="AT122">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU122">
         <v>1.23</v>
@@ -24944,7 +24965,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25135,7 +25156,7 @@
         <v>176</v>
       </c>
       <c r="P125" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25225,7 +25246,7 @@
         <v>2</v>
       </c>
       <c r="AT125">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU125">
         <v>2.42</v>
@@ -25413,7 +25434,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT126">
         <v>1.27</v>
@@ -25517,7 +25538,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25899,7 +25920,7 @@
         <v>90</v>
       </c>
       <c r="P129" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -26177,7 +26198,7 @@
         <v>0.29</v>
       </c>
       <c r="AS130">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT130">
         <v>1</v>
@@ -26472,7 +26493,7 @@
         <v>125</v>
       </c>
       <c r="P132" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26559,7 +26580,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT132">
         <v>1.42</v>
@@ -26663,7 +26684,7 @@
         <v>182</v>
       </c>
       <c r="P133" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26854,7 +26875,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -27045,7 +27066,7 @@
         <v>183</v>
       </c>
       <c r="P135" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27236,7 +27257,7 @@
         <v>184</v>
       </c>
       <c r="P136" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q136">
         <v>8</v>
@@ -27326,7 +27347,7 @@
         <v>2.08</v>
       </c>
       <c r="AT136">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU136">
         <v>1.85</v>
@@ -27618,7 +27639,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27896,7 +27917,7 @@
         <v>1.25</v>
       </c>
       <c r="AS139">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT139">
         <v>1.08</v>
@@ -28281,7 +28302,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU141">
         <v>1.87</v>
@@ -28382,7 +28403,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28573,7 +28594,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28663,7 +28684,7 @@
         <v>1.09</v>
       </c>
       <c r="AT143">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU143">
         <v>1.49</v>
@@ -29146,7 +29167,7 @@
         <v>190</v>
       </c>
       <c r="P146" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29233,7 +29254,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT146">
         <v>1.58</v>
@@ -29337,7 +29358,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29424,7 +29445,7 @@
         <v>1.25</v>
       </c>
       <c r="AS147">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT147">
         <v>1.08</v>
@@ -29528,7 +29549,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29615,7 +29636,7 @@
         <v>0.25</v>
       </c>
       <c r="AS148">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29719,7 +29740,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29910,7 +29931,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30000,7 +30021,7 @@
         <v>2.5</v>
       </c>
       <c r="AT150">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU150">
         <v>1.78</v>
@@ -30101,7 +30122,7 @@
         <v>90</v>
       </c>
       <c r="P151" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30191,7 +30212,7 @@
         <v>1.25</v>
       </c>
       <c r="AT151">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU151">
         <v>1.66</v>
@@ -30674,7 +30695,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30865,7 +30886,7 @@
         <v>198</v>
       </c>
       <c r="P155" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q155">
         <v>11</v>
@@ -30952,7 +30973,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT155">
         <v>1.33</v>
@@ -31056,7 +31077,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31143,7 +31164,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT156">
         <v>1.33</v>
@@ -31337,7 +31358,7 @@
         <v>2.17</v>
       </c>
       <c r="AT157">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU157">
         <v>1.72</v>
@@ -31528,7 +31549,7 @@
         <v>2.5</v>
       </c>
       <c r="AT158">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU158">
         <v>1.74</v>
@@ -31716,7 +31737,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT159">
         <v>0.5</v>
@@ -31820,7 +31841,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -31907,7 +31928,7 @@
         <v>2</v>
       </c>
       <c r="AS160">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT160">
         <v>1.58</v>
@@ -32011,7 +32032,7 @@
         <v>203</v>
       </c>
       <c r="P161" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32202,7 +32223,7 @@
         <v>204</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32584,7 +32605,7 @@
         <v>205</v>
       </c>
       <c r="P164" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32775,7 +32796,7 @@
         <v>90</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -32966,7 +32987,7 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q166">
         <v>2</v>
@@ -33438,7 +33459,7 @@
         <v>1.25</v>
       </c>
       <c r="AT168">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU168">
         <v>1.69</v>
@@ -33730,7 +33751,7 @@
         <v>90</v>
       </c>
       <c r="P170" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33820,7 +33841,7 @@
         <v>0.83</v>
       </c>
       <c r="AT170">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU170">
         <v>1.64</v>
@@ -34393,7 +34414,7 @@
         <v>1.25</v>
       </c>
       <c r="AT173">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU173">
         <v>1.62</v>
@@ -34494,7 +34515,7 @@
         <v>210</v>
       </c>
       <c r="P174" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34581,7 +34602,7 @@
         <v>0.67</v>
       </c>
       <c r="AS174">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT174">
         <v>0.5</v>
@@ -34685,7 +34706,7 @@
         <v>211</v>
       </c>
       <c r="P175" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q175">
         <v>4</v>
@@ -34772,7 +34793,7 @@
         <v>1.22</v>
       </c>
       <c r="AS175">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT175">
         <v>1.33</v>
@@ -34966,7 +34987,7 @@
         <v>1.58</v>
       </c>
       <c r="AT176">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU176">
         <v>1.79</v>
@@ -35067,7 +35088,7 @@
         <v>212</v>
       </c>
       <c r="P177" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35154,7 +35175,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT177">
         <v>1.33</v>
@@ -35258,7 +35279,7 @@
         <v>213</v>
       </c>
       <c r="P178" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q178">
         <v>4</v>
@@ -35348,7 +35369,7 @@
         <v>2.5</v>
       </c>
       <c r="AT178">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU178">
         <v>1.76</v>
@@ -35918,7 +35939,7 @@
         <v>0.8</v>
       </c>
       <c r="AS181">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT181">
         <v>0.6899999999999999</v>
@@ -36022,7 +36043,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36404,7 +36425,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q184">
         <v>9</v>
@@ -36595,7 +36616,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36786,7 +36807,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37168,7 +37189,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37828,10 +37849,10 @@
         <v>0.6</v>
       </c>
       <c r="AS191">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT191">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU191">
         <v>1.96</v>
@@ -38019,7 +38040,7 @@
         <v>0.7</v>
       </c>
       <c r="AS192">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AT192">
         <v>0.58</v>
@@ -38314,7 +38335,7 @@
         <v>225</v>
       </c>
       <c r="P194" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38401,7 +38422,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT194">
         <v>1.33</v>
@@ -38786,7 +38807,7 @@
         <v>2.17</v>
       </c>
       <c r="AT196">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AU196">
         <v>1.84</v>
@@ -38977,7 +38998,7 @@
         <v>2.17</v>
       </c>
       <c r="AT197">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU197">
         <v>2.09</v>
@@ -39078,7 +39099,7 @@
         <v>175</v>
       </c>
       <c r="P198" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q198">
         <v>8</v>
@@ -39165,7 +39186,7 @@
         <v>1.18</v>
       </c>
       <c r="AS198">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT198">
         <v>1.33</v>
@@ -39359,7 +39380,7 @@
         <v>1.25</v>
       </c>
       <c r="AT199">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU199">
         <v>1.62</v>
@@ -39651,7 +39672,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39842,7 +39863,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40606,7 +40627,7 @@
         <v>90</v>
       </c>
       <c r="P206" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40797,7 +40818,7 @@
         <v>98</v>
       </c>
       <c r="P207" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -40988,7 +41009,7 @@
         <v>234</v>
       </c>
       <c r="P208" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q208">
         <v>7</v>
@@ -41179,7 +41200,7 @@
         <v>235</v>
       </c>
       <c r="P209" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q209">
         <v>8</v>
@@ -41561,7 +41582,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41752,7 +41773,7 @@
         <v>238</v>
       </c>
       <c r="P212" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42085,6 +42106,770 @@
       </c>
       <c r="BK213">
         <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2467791</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44996.6875</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>75</v>
+      </c>
+      <c r="H214" t="s">
+        <v>76</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>239</v>
+      </c>
+      <c r="P214" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q214">
+        <v>3</v>
+      </c>
+      <c r="R214">
+        <v>1</v>
+      </c>
+      <c r="S214">
+        <v>4</v>
+      </c>
+      <c r="T214">
+        <v>3.05</v>
+      </c>
+      <c r="U214">
+        <v>2.18</v>
+      </c>
+      <c r="V214">
+        <v>3.94</v>
+      </c>
+      <c r="W214">
+        <v>1.45</v>
+      </c>
+      <c r="X214">
+        <v>2.86</v>
+      </c>
+      <c r="Y214">
+        <v>3.21</v>
+      </c>
+      <c r="Z214">
+        <v>1.38</v>
+      </c>
+      <c r="AA214">
+        <v>7.25</v>
+      </c>
+      <c r="AB214">
+        <v>1.08</v>
+      </c>
+      <c r="AC214">
+        <v>2.07</v>
+      </c>
+      <c r="AD214">
+        <v>3.25</v>
+      </c>
+      <c r="AE214">
+        <v>3.15</v>
+      </c>
+      <c r="AF214">
+        <v>1.06</v>
+      </c>
+      <c r="AG214">
+        <v>8</v>
+      </c>
+      <c r="AH214">
+        <v>1.3</v>
+      </c>
+      <c r="AI214">
+        <v>3.3</v>
+      </c>
+      <c r="AJ214">
+        <v>1.73</v>
+      </c>
+      <c r="AK214">
+        <v>1.88</v>
+      </c>
+      <c r="AL214">
+        <v>1.72</v>
+      </c>
+      <c r="AM214">
+        <v>1.98</v>
+      </c>
+      <c r="AN214">
+        <v>1.36</v>
+      </c>
+      <c r="AO214">
+        <v>1.29</v>
+      </c>
+      <c r="AP214">
+        <v>1.63</v>
+      </c>
+      <c r="AQ214">
+        <v>2.27</v>
+      </c>
+      <c r="AR214">
+        <v>1.45</v>
+      </c>
+      <c r="AS214">
+        <v>2.17</v>
+      </c>
+      <c r="AT214">
+        <v>1.42</v>
+      </c>
+      <c r="AU214">
+        <v>1.93</v>
+      </c>
+      <c r="AV214">
+        <v>1.5</v>
+      </c>
+      <c r="AW214">
+        <v>3.43</v>
+      </c>
+      <c r="AX214">
+        <v>1.91</v>
+      </c>
+      <c r="AY214">
+        <v>8</v>
+      </c>
+      <c r="AZ214">
+        <v>2.2</v>
+      </c>
+      <c r="BA214">
+        <v>1.22</v>
+      </c>
+      <c r="BB214">
+        <v>1.48</v>
+      </c>
+      <c r="BC214">
+        <v>1.73</v>
+      </c>
+      <c r="BD214">
+        <v>2.1</v>
+      </c>
+      <c r="BE214">
+        <v>2.7</v>
+      </c>
+      <c r="BF214">
+        <v>6</v>
+      </c>
+      <c r="BG214">
+        <v>3</v>
+      </c>
+      <c r="BH214">
+        <v>7</v>
+      </c>
+      <c r="BI214">
+        <v>7</v>
+      </c>
+      <c r="BJ214">
+        <v>13</v>
+      </c>
+      <c r="BK214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2467793</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44997.39583333334</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>80</v>
+      </c>
+      <c r="H215" t="s">
+        <v>81</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>3</v>
+      </c>
+      <c r="L215">
+        <v>4</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>6</v>
+      </c>
+      <c r="O215" t="s">
+        <v>240</v>
+      </c>
+      <c r="P215" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q215">
+        <v>5</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>7</v>
+      </c>
+      <c r="T215">
+        <v>3.4</v>
+      </c>
+      <c r="U215">
+        <v>2.38</v>
+      </c>
+      <c r="V215">
+        <v>2.75</v>
+      </c>
+      <c r="W215">
+        <v>1.29</v>
+      </c>
+      <c r="X215">
+        <v>3.5</v>
+      </c>
+      <c r="Y215">
+        <v>2.38</v>
+      </c>
+      <c r="Z215">
+        <v>1.53</v>
+      </c>
+      <c r="AA215">
+        <v>5.5</v>
+      </c>
+      <c r="AB215">
+        <v>1.14</v>
+      </c>
+      <c r="AC215">
+        <v>2.6</v>
+      </c>
+      <c r="AD215">
+        <v>3.45</v>
+      </c>
+      <c r="AE215">
+        <v>2.2</v>
+      </c>
+      <c r="AF215">
+        <v>1.03</v>
+      </c>
+      <c r="AG215">
+        <v>13.5</v>
+      </c>
+      <c r="AH215">
+        <v>1.17</v>
+      </c>
+      <c r="AI215">
+        <v>4.6</v>
+      </c>
+      <c r="AJ215">
+        <v>1.53</v>
+      </c>
+      <c r="AK215">
+        <v>2.33</v>
+      </c>
+      <c r="AL215">
+        <v>1.5</v>
+      </c>
+      <c r="AM215">
+        <v>2.5</v>
+      </c>
+      <c r="AN215">
+        <v>1.68</v>
+      </c>
+      <c r="AO215">
+        <v>1.26</v>
+      </c>
+      <c r="AP215">
+        <v>1.37</v>
+      </c>
+      <c r="AQ215">
+        <v>1.42</v>
+      </c>
+      <c r="AR215">
+        <v>2.09</v>
+      </c>
+      <c r="AS215">
+        <v>1.54</v>
+      </c>
+      <c r="AT215">
+        <v>1.92</v>
+      </c>
+      <c r="AU215">
+        <v>1.96</v>
+      </c>
+      <c r="AV215">
+        <v>1.77</v>
+      </c>
+      <c r="AW215">
+        <v>3.73</v>
+      </c>
+      <c r="AX215">
+        <v>1.91</v>
+      </c>
+      <c r="AY215">
+        <v>8</v>
+      </c>
+      <c r="AZ215">
+        <v>2.1</v>
+      </c>
+      <c r="BA215">
+        <v>1.18</v>
+      </c>
+      <c r="BB215">
+        <v>1.34</v>
+      </c>
+      <c r="BC215">
+        <v>1.65</v>
+      </c>
+      <c r="BD215">
+        <v>2</v>
+      </c>
+      <c r="BE215">
+        <v>2.5</v>
+      </c>
+      <c r="BF215">
+        <v>9</v>
+      </c>
+      <c r="BG215">
+        <v>4</v>
+      </c>
+      <c r="BH215">
+        <v>6</v>
+      </c>
+      <c r="BI215">
+        <v>3</v>
+      </c>
+      <c r="BJ215">
+        <v>15</v>
+      </c>
+      <c r="BK215">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2467790</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44997.39583333334</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>78</v>
+      </c>
+      <c r="H216" t="s">
+        <v>69</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>241</v>
+      </c>
+      <c r="P216" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q216">
+        <v>9</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>9</v>
+      </c>
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
+        <v>2.3</v>
+      </c>
+      <c r="V216">
+        <v>4.75</v>
+      </c>
+      <c r="W216">
+        <v>1.33</v>
+      </c>
+      <c r="X216">
+        <v>3.25</v>
+      </c>
+      <c r="Y216">
+        <v>2.63</v>
+      </c>
+      <c r="Z216">
+        <v>1.44</v>
+      </c>
+      <c r="AA216">
+        <v>6.5</v>
+      </c>
+      <c r="AB216">
+        <v>1.11</v>
+      </c>
+      <c r="AC216">
+        <v>1.61</v>
+      </c>
+      <c r="AD216">
+        <v>3.6</v>
+      </c>
+      <c r="AE216">
+        <v>4.3</v>
+      </c>
+      <c r="AF216">
+        <v>1.04</v>
+      </c>
+      <c r="AG216">
+        <v>10.5</v>
+      </c>
+      <c r="AH216">
+        <v>1.23</v>
+      </c>
+      <c r="AI216">
+        <v>3.8</v>
+      </c>
+      <c r="AJ216">
+        <v>1.7</v>
+      </c>
+      <c r="AK216">
+        <v>2.02</v>
+      </c>
+      <c r="AL216">
+        <v>1.73</v>
+      </c>
+      <c r="AM216">
+        <v>2</v>
+      </c>
+      <c r="AN216">
+        <v>1.19</v>
+      </c>
+      <c r="AO216">
+        <v>1.26</v>
+      </c>
+      <c r="AP216">
+        <v>2.05</v>
+      </c>
+      <c r="AQ216">
+        <v>1.45</v>
+      </c>
+      <c r="AR216">
+        <v>0.55</v>
+      </c>
+      <c r="AS216">
+        <v>1.33</v>
+      </c>
+      <c r="AT216">
+        <v>0.75</v>
+      </c>
+      <c r="AU216">
+        <v>1.97</v>
+      </c>
+      <c r="AV216">
+        <v>1.38</v>
+      </c>
+      <c r="AW216">
+        <v>3.35</v>
+      </c>
+      <c r="AX216">
+        <v>1.51</v>
+      </c>
+      <c r="AY216">
+        <v>8.5</v>
+      </c>
+      <c r="AZ216">
+        <v>3.07</v>
+      </c>
+      <c r="BA216">
+        <v>1.22</v>
+      </c>
+      <c r="BB216">
+        <v>1.48</v>
+      </c>
+      <c r="BC216">
+        <v>1.73</v>
+      </c>
+      <c r="BD216">
+        <v>2.1</v>
+      </c>
+      <c r="BE216">
+        <v>2.7</v>
+      </c>
+      <c r="BF216">
+        <v>4</v>
+      </c>
+      <c r="BG216">
+        <v>5</v>
+      </c>
+      <c r="BH216">
+        <v>8</v>
+      </c>
+      <c r="BI216">
+        <v>6</v>
+      </c>
+      <c r="BJ216">
+        <v>12</v>
+      </c>
+      <c r="BK216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2467792</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44997.39583333334</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>79</v>
+      </c>
+      <c r="H217" t="s">
+        <v>72</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>242</v>
+      </c>
+      <c r="P217" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q217">
+        <v>5</v>
+      </c>
+      <c r="R217">
+        <v>6</v>
+      </c>
+      <c r="S217">
+        <v>11</v>
+      </c>
+      <c r="T217">
+        <v>2.75</v>
+      </c>
+      <c r="U217">
+        <v>2.2</v>
+      </c>
+      <c r="V217">
+        <v>4</v>
+      </c>
+      <c r="W217">
+        <v>1.4</v>
+      </c>
+      <c r="X217">
+        <v>2.75</v>
+      </c>
+      <c r="Y217">
+        <v>2.75</v>
+      </c>
+      <c r="Z217">
+        <v>1.4</v>
+      </c>
+      <c r="AA217">
+        <v>8</v>
+      </c>
+      <c r="AB217">
+        <v>1.08</v>
+      </c>
+      <c r="AC217">
+        <v>1.87</v>
+      </c>
+      <c r="AD217">
+        <v>3.25</v>
+      </c>
+      <c r="AE217">
+        <v>3.5</v>
+      </c>
+      <c r="AF217">
+        <v>1.05</v>
+      </c>
+      <c r="AG217">
+        <v>9.25</v>
+      </c>
+      <c r="AH217">
+        <v>1.29</v>
+      </c>
+      <c r="AI217">
+        <v>3.3</v>
+      </c>
+      <c r="AJ217">
+        <v>1.88</v>
+      </c>
+      <c r="AK217">
+        <v>1.82</v>
+      </c>
+      <c r="AL217">
+        <v>1.73</v>
+      </c>
+      <c r="AM217">
+        <v>2</v>
+      </c>
+      <c r="AN217">
+        <v>1.32</v>
+      </c>
+      <c r="AO217">
+        <v>1.29</v>
+      </c>
+      <c r="AP217">
+        <v>1.7</v>
+      </c>
+      <c r="AQ217">
+        <v>1.55</v>
+      </c>
+      <c r="AR217">
+        <v>1.27</v>
+      </c>
+      <c r="AS217">
+        <v>1.5</v>
+      </c>
+      <c r="AT217">
+        <v>1.25</v>
+      </c>
+      <c r="AU217">
+        <v>1.55</v>
+      </c>
+      <c r="AV217">
+        <v>1.3</v>
+      </c>
+      <c r="AW217">
+        <v>2.85</v>
+      </c>
+      <c r="AX217">
+        <v>1.75</v>
+      </c>
+      <c r="AY217">
+        <v>8</v>
+      </c>
+      <c r="AZ217">
+        <v>2.52</v>
+      </c>
+      <c r="BA217">
+        <v>1.22</v>
+      </c>
+      <c r="BB217">
+        <v>1.48</v>
+      </c>
+      <c r="BC217">
+        <v>1.73</v>
+      </c>
+      <c r="BD217">
+        <v>2.1</v>
+      </c>
+      <c r="BE217">
+        <v>2.7</v>
+      </c>
+      <c r="BF217">
+        <v>7</v>
+      </c>
+      <c r="BG217">
+        <v>8</v>
+      </c>
+      <c r="BH217">
+        <v>3</v>
+      </c>
+      <c r="BI217">
+        <v>7</v>
+      </c>
+      <c r="BJ217">
+        <v>10</v>
+      </c>
+      <c r="BK217">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.17</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT6" t="n">
         <v>1.92</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT11" t="n">
         <v>0.6899999999999999</v>
@@ -2933,7 +2933,7 @@
         <v>2.17</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT13" t="n">
         <v>0.58</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.54</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>1.25</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT19" t="n">
         <v>0.75</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU20" t="n">
         <v>2.61</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU22" t="n">
         <v>1.38</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.42</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU30" t="n">
         <v>1.3</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT33" t="n">
         <v>1.92</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT34" t="n">
         <v>1.25</v>
@@ -7602,7 +7602,7 @@
         <v>2.17</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU35" t="n">
         <v>1.9</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.92</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU40" t="n">
         <v>2.68</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT41" t="n">
         <v>1.17</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>1.27</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9023,7 +9023,7 @@
         <v>1.09</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU42" t="n">
         <v>1.3</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT44" t="n">
         <v>0.75</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT47" t="n">
         <v>0.58</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT49" t="n">
         <v>1.42</v>
@@ -10647,7 +10647,7 @@
         <v>2.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU50" t="n">
         <v>2.15</v>
@@ -11256,7 +11256,7 @@
         <v>1.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU53" t="n">
         <v>1.15</v>
@@ -11865,7 +11865,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU56" t="n">
         <v>1.59</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT57" t="n">
         <v>1.08</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU59" t="n">
         <v>1.15</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU60" t="n">
         <v>2.49</v>
@@ -12877,10 +12877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU61" t="n">
         <v>1.67</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT63" t="n">
         <v>0.75</v>
@@ -13489,7 +13489,7 @@
         <v>1.09</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU64" t="n">
         <v>1.15</v>
@@ -15722,7 +15722,7 @@
         <v>1.25</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.73</v>
@@ -15922,10 +15922,10 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU76" t="n">
         <v>1.68</v>
@@ -16125,10 +16125,10 @@
         <v>1.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16331,7 +16331,7 @@
         <v>0.83</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU78" t="n">
         <v>1.62</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>1.08</v>
@@ -16734,10 +16734,10 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -16937,7 +16937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17140,10 +17140,10 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU82" t="n">
         <v>1.98</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT85" t="n">
         <v>0.6899999999999999</v>
@@ -18767,7 +18767,7 @@
         <v>1.54</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU90" t="n">
         <v>2.36</v>
@@ -19170,10 +19170,10 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -19373,7 +19373,7 @@
         <v>0.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT93" t="n">
         <v>0.5</v>
@@ -19579,7 +19579,7 @@
         <v>0.83</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU94" t="n">
         <v>1.72</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT95" t="n">
         <v>1.08</v>
@@ -20185,10 +20185,10 @@
         <v>1.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU97" t="n">
         <v>1.56</v>
@@ -20391,7 +20391,7 @@
         <v>1.09</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT99" t="n">
         <v>1.08</v>
@@ -20797,7 +20797,7 @@
         <v>1.58</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU100" t="n">
         <v>1.7</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT101" t="n">
         <v>1.25</v>
@@ -21406,7 +21406,7 @@
         <v>2.17</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU103" t="n">
         <v>1.78</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23030,7 +23030,7 @@
         <v>0.83</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU111" t="n">
         <v>1.61</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT112" t="n">
         <v>0.6899999999999999</v>
@@ -23639,7 +23639,7 @@
         <v>1.25</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -23839,7 +23839,7 @@
         <v>0.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24448,10 +24448,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -24854,7 +24854,7 @@
         <v>0.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT120" t="n">
         <v>0.75</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT122" t="n">
         <v>1.25</v>
@@ -25466,7 +25466,7 @@
         <v>1.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26478,7 +26478,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT128" t="n">
         <v>1.08</v>
@@ -27087,10 +27087,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU131" t="n">
         <v>1.8</v>
@@ -27293,7 +27293,7 @@
         <v>1.54</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU132" t="n">
         <v>2.06</v>
@@ -27493,10 +27493,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU133" t="n">
         <v>1.48</v>
@@ -27902,7 +27902,7 @@
         <v>1.58</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU135" t="n">
         <v>1.77</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT136" t="n">
         <v>0.75</v>
@@ -28308,7 +28308,7 @@
         <v>2.17</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU137" t="n">
         <v>2.18</v>
@@ -28917,7 +28917,7 @@
         <v>1.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU140" t="n">
         <v>1.57</v>
@@ -29117,7 +29117,7 @@
         <v>2.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT141" t="n">
         <v>1.92</v>
@@ -29323,7 +29323,7 @@
         <v>0.83</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT144" t="n">
         <v>0.58</v>
@@ -30135,7 +30135,7 @@
         <v>2.17</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU146" t="n">
         <v>1.72</v>
@@ -30741,7 +30741,7 @@
         <v>0.63</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT149" t="n">
         <v>0.6899999999999999</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT150" t="n">
         <v>0.75</v>
@@ -31350,7 +31350,7 @@
         <v>0.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT152" t="n">
         <v>0.5</v>
@@ -31556,7 +31556,7 @@
         <v>1.58</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU153" t="n">
         <v>1.68</v>
@@ -31756,10 +31756,10 @@
         <v>1.25</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31962,7 +31962,7 @@
         <v>2.17</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU155" t="n">
         <v>1.78</v>
@@ -32165,7 +32165,7 @@
         <v>1.54</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU156" t="n">
         <v>1.94</v>
@@ -32365,7 +32365,7 @@
         <v>0.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT157" t="n">
         <v>0.75</v>
@@ -32568,7 +32568,7 @@
         <v>1.38</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT158" t="n">
         <v>1.25</v>
@@ -32977,7 +32977,7 @@
         <v>1.5</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU160" t="n">
         <v>1.5</v>
@@ -33177,7 +33177,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT161" t="n">
         <v>0.6899999999999999</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT162" t="n">
         <v>0.58</v>
@@ -34192,7 +34192,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT166" t="n">
         <v>0.75</v>
@@ -34398,7 +34398,7 @@
         <v>1.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU167" t="n">
         <v>1.51</v>
@@ -34801,10 +34801,10 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU169" t="n">
         <v>1.84</v>
@@ -35413,7 +35413,7 @@
         <v>1</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU172" t="n">
         <v>1.61</v>
@@ -35613,7 +35613,7 @@
         <v>1.22</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT173" t="n">
         <v>1.25</v>
@@ -36022,7 +36022,7 @@
         <v>1.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36428,7 +36428,7 @@
         <v>1.33</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU177" t="n">
         <v>1.86</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT178" t="n">
         <v>1.92</v>
@@ -36831,7 +36831,7 @@
         <v>0.78</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT179" t="n">
         <v>0.58</v>
@@ -37037,7 +37037,7 @@
         <v>2.17</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU180" t="n">
         <v>2.11</v>
@@ -37443,7 +37443,7 @@
         <v>1.25</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU182" t="n">
         <v>1.65</v>
@@ -37646,7 +37646,7 @@
         <v>2</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU183" t="n">
         <v>2.29</v>
@@ -37846,7 +37846,7 @@
         <v>1.1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT184" t="n">
         <v>1.08</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT186" t="n">
         <v>1.08</v>
@@ -38661,7 +38661,7 @@
         <v>1.09</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
         <v>0.75</v>
@@ -39064,10 +39064,10 @@
         <v>0.9</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU190" t="n">
         <v>1.84</v>
@@ -39879,7 +39879,7 @@
         <v>1.33</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU194" t="n">
         <v>1.96</v>
@@ -40282,7 +40282,7 @@
         <v>2.2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT196" t="n">
         <v>1.92</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU198" t="n">
         <v>1.52</v>
@@ -40891,7 +40891,7 @@
         <v>1.3</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT199" t="n">
         <v>1.42</v>
@@ -41097,7 +41097,7 @@
         <v>1</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU200" t="n">
         <v>1.63</v>
@@ -41503,7 +41503,7 @@
         <v>1.09</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU202" t="n">
         <v>1.47</v>
@@ -41703,7 +41703,7 @@
         <v>0.91</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT203" t="n">
         <v>1.08</v>
@@ -41906,10 +41906,10 @@
         <v>0.82</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU204" t="n">
         <v>1.93</v>
@@ -42109,7 +42109,7 @@
         <v>2.3</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT205" t="n">
         <v>1.92</v>
@@ -42315,7 +42315,7 @@
         <v>0.83</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU206" t="n">
         <v>1.58</v>
@@ -42515,7 +42515,7 @@
         <v>1.09</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT207" t="n">
         <v>1.08</v>
@@ -43327,7 +43327,7 @@
         <v>2.09</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT211" t="n">
         <v>1.92</v>
@@ -43736,7 +43736,7 @@
         <v>1</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU213" t="n">
         <v>1.67</v>
@@ -44600,6 +44600,1224 @@
       </c>
       <c r="BK217" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2467796</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45002.60416666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['6', '23']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['57', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>1</v>
+      </c>
+      <c r="R218" t="n">
+        <v>7</v>
+      </c>
+      <c r="S218" t="n">
+        <v>8</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2467800</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45002.60416666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2</v>
+      </c>
+      <c r="K219" t="n">
+        <v>4</v>
+      </c>
+      <c r="L219" t="n">
+        <v>5</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2</v>
+      </c>
+      <c r="N219" t="n">
+        <v>7</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['38', '45+1', '49', '62', '88']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['14', '23']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>4</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2</v>
+      </c>
+      <c r="S219" t="n">
+        <v>6</v>
+      </c>
+      <c r="T219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2467797</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>3</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['64', '69', '75']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>2</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2</v>
+      </c>
+      <c r="S220" t="n">
+        <v>4</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V220" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2467798</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>17</v>
+      </c>
+      <c r="R221" t="n">
+        <v>3</v>
+      </c>
+      <c r="S221" t="n">
+        <v>20</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X221" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2467803</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45003.375</v>
+      </c>
+      <c r="F222" t="n">
+        <v>25</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>4</v>
+      </c>
+      <c r="R222" t="n">
+        <v>7</v>
+      </c>
+      <c r="S222" t="n">
+        <v>11</v>
+      </c>
+      <c r="T222" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2467799</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45003.6875</v>
+      </c>
+      <c r="F223" t="n">
+        <v>25</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>2</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['36', '43']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>5</v>
+      </c>
+      <c r="R223" t="n">
+        <v>3</v>
+      </c>
+      <c r="S223" t="n">
+        <v>8</v>
+      </c>
+      <c r="T223" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V223" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X223" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT4" t="n">
         <v>0.77</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.31</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT7" t="n">
         <v>1.23</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2324,7 +2324,7 @@
         <v>0.77</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.38</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.23</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT12" t="n">
         <v>1.23</v>
@@ -3136,7 +3136,7 @@
         <v>2.54</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT15" t="n">
         <v>1.46</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT16" t="n">
         <v>1.15</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.23</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.23</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5572,7 +5572,7 @@
         <v>0.77</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU25" t="n">
         <v>1.57</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT26" t="n">
         <v>1.38</v>
@@ -5978,7 +5978,7 @@
         <v>1.38</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT28" t="n">
         <v>1.15</v>
@@ -6381,10 +6381,10 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.57</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT30" t="n">
         <v>1.23</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU31" t="n">
         <v>2.53</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU32" t="n">
         <v>1.39</v>
@@ -7196,7 +7196,7 @@
         <v>1.23</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU33" t="n">
         <v>1.26</v>
@@ -7399,7 +7399,7 @@
         <v>2.23</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT35" t="n">
         <v>1.23</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU36" t="n">
         <v>1.07</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU37" t="n">
         <v>1.56</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU38" t="n">
         <v>1.68</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT40" t="n">
         <v>1.38</v>
@@ -9429,7 +9429,7 @@
         <v>2.54</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU44" t="n">
         <v>2</v>
@@ -10038,7 +10038,7 @@
         <v>1.23</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU47" t="n">
         <v>1.44</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -10444,7 +10444,7 @@
         <v>2.23</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT50" t="n">
         <v>1.23</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU51" t="n">
         <v>2.57</v>
@@ -11050,10 +11050,10 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU52" t="n">
         <v>1.36</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT53" t="n">
         <v>1.23</v>
@@ -11456,10 +11456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU55" t="n">
         <v>1.78</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT60" t="n">
         <v>1.23</v>
@@ -13286,7 +13286,7 @@
         <v>2.23</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU63" t="n">
         <v>1.68</v>
@@ -13689,10 +13689,10 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU65" t="n">
         <v>1.51</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU66" t="n">
         <v>1.58</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU67" t="n">
         <v>2.64</v>
@@ -14298,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU68" t="n">
         <v>1.63</v>
@@ -14501,10 +14501,10 @@
         <v>1.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU69" t="n">
         <v>2.53</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU70" t="n">
         <v>1.62</v>
@@ -14907,10 +14907,10 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU71" t="n">
         <v>2.15</v>
@@ -15110,10 +15110,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU72" t="n">
         <v>1.7</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>1.23</v>
@@ -17343,10 +17343,10 @@
         <v>1.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU83" t="n">
         <v>2.6</v>
@@ -17546,10 +17546,10 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU84" t="n">
         <v>1.59</v>
@@ -17752,7 +17752,7 @@
         <v>1.85</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU86" t="n">
         <v>1.96</v>
@@ -18155,10 +18155,10 @@
         <v>0.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU87" t="n">
         <v>1.61</v>
@@ -18358,10 +18358,10 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU88" t="n">
         <v>2.32</v>
@@ -18561,10 +18561,10 @@
         <v>0.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU89" t="n">
         <v>1.36</v>
@@ -18764,7 +18764,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT90" t="n">
         <v>0.77</v>
@@ -18967,10 +18967,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19376,7 +19376,7 @@
         <v>1.31</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT100" t="n">
         <v>1.38</v>
@@ -21000,7 +21000,7 @@
         <v>1.85</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU101" t="n">
         <v>1.81</v>
@@ -21200,10 +21200,10 @@
         <v>3</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU102" t="n">
         <v>2.09</v>
@@ -21403,7 +21403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT103" t="n">
         <v>0.77</v>
@@ -21606,10 +21606,10 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU104" t="n">
         <v>2.36</v>
@@ -21809,10 +21809,10 @@
         <v>0.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU105" t="n">
         <v>1.78</v>
@@ -22012,10 +22012,10 @@
         <v>0.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22215,10 +22215,10 @@
         <v>0.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22418,10 +22418,10 @@
         <v>0.4</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU108" t="n">
         <v>2.51</v>
@@ -22621,10 +22621,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -23233,7 +23233,7 @@
         <v>1.31</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU112" t="n">
         <v>1.19</v>
@@ -23433,7 +23433,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>1.23</v>
@@ -24248,7 +24248,7 @@
         <v>2.54</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -24651,10 +24651,10 @@
         <v>1.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24857,7 +24857,7 @@
         <v>1.85</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU120" t="n">
         <v>1.86</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT121" t="n">
         <v>1.23</v>
@@ -25263,7 +25263,7 @@
         <v>1.31</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU122" t="n">
         <v>1.23</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT123" t="n">
         <v>0.77</v>
@@ -25666,10 +25666,10 @@
         <v>2.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -25869,10 +25869,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU125" t="n">
         <v>2.42</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT126" t="n">
         <v>1.17</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU127" t="n">
         <v>1.42</v>
@@ -26684,7 +26684,7 @@
         <v>0.77</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU129" t="n">
         <v>1.54</v>
@@ -26884,7 +26884,7 @@
         <v>0.29</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT130" t="n">
         <v>1.15</v>
@@ -27290,7 +27290,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
         <v>1.38</v>
@@ -27699,7 +27699,7 @@
         <v>1.38</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU134" t="n">
         <v>1.75</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT135" t="n">
         <v>1.23</v>
@@ -28105,7 +28105,7 @@
         <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28305,7 +28305,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT137" t="n">
         <v>1.38</v>
@@ -28508,10 +28508,10 @@
         <v>0.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU138" t="n">
         <v>2.36</v>
@@ -28711,7 +28711,7 @@
         <v>1.25</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT139" t="n">
         <v>1.23</v>
@@ -28914,7 +28914,7 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT140" t="n">
         <v>1.17</v>
@@ -29120,7 +29120,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU141" t="n">
         <v>1.87</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU143" t="n">
         <v>1.49</v>
@@ -29729,7 +29729,7 @@
         <v>1.31</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU144" t="n">
         <v>1.29</v>
@@ -29929,10 +29929,10 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -30132,7 +30132,7 @@
         <v>1.86</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT146" t="n">
         <v>1.46</v>
@@ -30335,7 +30335,7 @@
         <v>1.25</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>0.25</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
         <v>1.15</v>
@@ -30744,7 +30744,7 @@
         <v>2</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU149" t="n">
         <v>1.97</v>
@@ -30947,7 +30947,7 @@
         <v>2.54</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU150" t="n">
         <v>1.78</v>
@@ -31150,7 +31150,7 @@
         <v>1.38</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU151" t="n">
         <v>1.66</v>
@@ -31353,7 +31353,7 @@
         <v>2.23</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU152" t="n">
         <v>1.75</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT153" t="n">
         <v>1.23</v>
@@ -31959,7 +31959,7 @@
         <v>1.11</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT155" t="n">
         <v>1.23</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT156" t="n">
         <v>1.23</v>
@@ -32368,7 +32368,7 @@
         <v>2.23</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU157" t="n">
         <v>1.72</v>
@@ -32571,7 +32571,7 @@
         <v>2.54</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU158" t="n">
         <v>1.74</v>
@@ -32771,10 +32771,10 @@
         <v>0.75</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU159" t="n">
         <v>1.8</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT160" t="n">
         <v>1.46</v>
@@ -33180,7 +33180,7 @@
         <v>1.23</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU161" t="n">
         <v>1.55</v>
@@ -33383,7 +33383,7 @@
         <v>2</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU162" t="n">
         <v>2.01</v>
@@ -33583,7 +33583,7 @@
         <v>0.33</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT163" t="n">
         <v>1.15</v>
@@ -33786,7 +33786,7 @@
         <v>1.11</v>
       </c>
       <c r="AS164" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT164" t="n">
         <v>1.23</v>
@@ -33992,7 +33992,7 @@
         <v>1</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU165" t="n">
         <v>1.52</v>
@@ -34195,7 +34195,7 @@
         <v>1.31</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -34395,7 +34395,7 @@
         <v>1.44</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT167" t="n">
         <v>1.38</v>
@@ -34601,7 +34601,7 @@
         <v>1.38</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU168" t="n">
         <v>1.69</v>
@@ -35007,7 +35007,7 @@
         <v>0.77</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU170" t="n">
         <v>1.64</v>
@@ -35207,7 +35207,7 @@
         <v>1.22</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -35410,7 +35410,7 @@
         <v>0.88</v>
       </c>
       <c r="AS172" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT172" t="n">
         <v>1.17</v>
@@ -35616,7 +35616,7 @@
         <v>1.23</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU173" t="n">
         <v>1.62</v>
@@ -35816,10 +35816,10 @@
         <v>0.67</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU174" t="n">
         <v>1.92</v>
@@ -36019,7 +36019,7 @@
         <v>1.22</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT175" t="n">
         <v>1.23</v>
@@ -36222,10 +36222,10 @@
         <v>0.67</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU176" t="n">
         <v>1.79</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT177" t="n">
         <v>1.23</v>
@@ -36631,7 +36631,7 @@
         <v>2.54</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU178" t="n">
         <v>1.76</v>
@@ -36834,7 +36834,7 @@
         <v>2.23</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU179" t="n">
         <v>1.72</v>
@@ -37034,7 +37034,7 @@
         <v>2.11</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT180" t="n">
         <v>1.46</v>
@@ -37237,10 +37237,10 @@
         <v>0.8</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU181" t="n">
         <v>1.85</v>
@@ -37643,7 +37643,7 @@
         <v>1.9</v>
       </c>
       <c r="AS183" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT183" t="n">
         <v>1.46</v>
@@ -38049,7 +38049,7 @@
         <v>0.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT185" t="n">
         <v>1.15</v>
@@ -38458,7 +38458,7 @@
         <v>0.77</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU187" t="n">
         <v>1.66</v>
@@ -38864,7 +38864,7 @@
         <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU189" t="n">
         <v>2</v>
@@ -39267,10 +39267,10 @@
         <v>0.6</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU191" t="n">
         <v>1.96</v>
@@ -39470,10 +39470,10 @@
         <v>0.7</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU192" t="n">
         <v>1.94</v>
@@ -39673,10 +39673,10 @@
         <v>0.6</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU193" t="n">
         <v>1.54</v>
@@ -39876,7 +39876,7 @@
         <v>1.4</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT194" t="n">
         <v>1.23</v>
@@ -40079,10 +40079,10 @@
         <v>0.73</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU195" t="n">
         <v>1.73</v>
@@ -40285,7 +40285,7 @@
         <v>2.23</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU196" t="n">
         <v>1.84</v>
@@ -40485,10 +40485,10 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU197" t="n">
         <v>2.09</v>
@@ -40688,7 +40688,7 @@
         <v>1.18</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT198" t="n">
         <v>1.23</v>
@@ -40894,7 +40894,7 @@
         <v>1.23</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU199" t="n">
         <v>1.62</v>
@@ -41094,7 +41094,7 @@
         <v>1.73</v>
       </c>
       <c r="AS200" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT200" t="n">
         <v>1.46</v>
@@ -41297,7 +41297,7 @@
         <v>0.82</v>
       </c>
       <c r="AS201" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT201" t="n">
         <v>1.15</v>
@@ -42112,7 +42112,7 @@
         <v>2.54</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU205" t="n">
         <v>1.85</v>
@@ -42721,7 +42721,7 @@
         <v>1.38</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU208" t="n">
         <v>1.67</v>
@@ -42921,10 +42921,10 @@
         <v>0.67</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU209" t="n">
         <v>1.53</v>
@@ -43124,10 +43124,10 @@
         <v>0.64</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU210" t="n">
         <v>1.67</v>
@@ -43330,7 +43330,7 @@
         <v>1.23</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU211" t="n">
         <v>1.63</v>
@@ -43530,10 +43530,10 @@
         <v>0.55</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU212" t="n">
         <v>2.09</v>
@@ -43733,7 +43733,7 @@
         <v>1.36</v>
       </c>
       <c r="AS213" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT213" t="n">
         <v>1.23</v>
@@ -43936,10 +43936,10 @@
         <v>1.45</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU214" t="n">
         <v>1.93</v>
@@ -44139,10 +44139,10 @@
         <v>2.09</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU215" t="n">
         <v>1.96</v>
@@ -44342,10 +44342,10 @@
         <v>0.55</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU216" t="n">
         <v>1.97</v>
@@ -44545,10 +44545,10 @@
         <v>1.27</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU217" t="n">
         <v>1.55</v>
@@ -46427,6 +46427,1833 @@
       </c>
       <c r="BK226" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2467809</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45016.5625</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>3</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2</v>
+      </c>
+      <c r="N227" t="n">
+        <v>4</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['21', '28']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['5', '75']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>4</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1</v>
+      </c>
+      <c r="S227" t="n">
+        <v>5</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2467807</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45016.5625</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>9</v>
+      </c>
+      <c r="R228" t="n">
+        <v>3</v>
+      </c>
+      <c r="S228" t="n">
+        <v>12</v>
+      </c>
+      <c r="T228" t="n">
+        <v>4</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2467805</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" t="n">
+        <v>4</v>
+      </c>
+      <c r="S229" t="n">
+        <v>4</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V229" t="n">
+        <v>6</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X229" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2467810</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>4</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['45+2', '61', '88']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>7</v>
+      </c>
+      <c r="R230" t="n">
+        <v>9</v>
+      </c>
+      <c r="S230" t="n">
+        <v>16</v>
+      </c>
+      <c r="T230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V230" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2467811</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>26</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>13</v>
+      </c>
+      <c r="R231" t="n">
+        <v>1</v>
+      </c>
+      <c r="S231" t="n">
+        <v>14</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2467813</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45017.64583333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>26</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2</v>
+      </c>
+      <c r="N232" t="n">
+        <v>4</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['90+3', '90+5']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['53', '75']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>3</v>
+      </c>
+      <c r="R232" t="n">
+        <v>5</v>
+      </c>
+      <c r="S232" t="n">
+        <v>8</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2467812</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45018.35416666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>26</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>3</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>3</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['29', '60', '70']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>2</v>
+      </c>
+      <c r="R233" t="n">
+        <v>1</v>
+      </c>
+      <c r="S233" t="n">
+        <v>3</v>
+      </c>
+      <c r="T233" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2467806</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45018.35416666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>26</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>3</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>5</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['13', '61', '76']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['82', '87']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>2</v>
+      </c>
+      <c r="R234" t="n">
+        <v>3</v>
+      </c>
+      <c r="S234" t="n">
+        <v>5</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X234" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2467808</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45018.35416666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>26</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2</v>
+      </c>
+      <c r="K235" t="n">
+        <v>3</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>3</v>
+      </c>
+      <c r="N235" t="n">
+        <v>5</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['32', '67']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['11', '29', '55']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>4</v>
+      </c>
+      <c r="R235" t="n">
+        <v>8</v>
+      </c>
+      <c r="S235" t="n">
+        <v>12</v>
+      </c>
+      <c r="T235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.62</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.08</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
         <v>1.85</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT14" t="n">
         <v>0.46</v>
@@ -3542,7 +3542,7 @@
         <v>1.23</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT18" t="n">
         <v>1.15</v>
@@ -4557,7 +4557,7 @@
         <v>1.85</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU20" t="n">
         <v>2.61</v>
@@ -5166,7 +5166,7 @@
         <v>2.08</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU23" t="n">
         <v>2.05</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT24" t="n">
         <v>1.38</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>2</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT29" t="n">
         <v>1.38</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT38" t="n">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>1.15</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU39" t="n">
         <v>1.5</v>
@@ -8820,7 +8820,7 @@
         <v>1.31</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU41" t="n">
         <v>1.34</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>1.23</v>
@@ -9835,7 +9835,7 @@
         <v>1.85</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -11050,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT52" t="n">
         <v>1.85</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.77</v>
@@ -12877,10 +12877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU61" t="n">
         <v>1.67</v>
@@ -13083,7 +13083,7 @@
         <v>0.77</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU62" t="n">
         <v>1.54</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU64" t="n">
         <v>1.15</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT65" t="n">
         <v>0.92</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU74" t="n">
         <v>1.22</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU75" t="n">
         <v>1.73</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT79" t="n">
         <v>1.23</v>
@@ -16737,7 +16737,7 @@
         <v>2.54</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU80" t="n">
         <v>1.9</v>
@@ -19173,7 +19173,7 @@
         <v>1.23</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -19982,7 +19982,7 @@
         <v>0.4</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>1.15</v>
@@ -20185,10 +20185,10 @@
         <v>1.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU97" t="n">
         <v>1.56</v>
@@ -20594,7 +20594,7 @@
         <v>2.54</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT100" t="n">
         <v>1.38</v>
@@ -23030,7 +23030,7 @@
         <v>0.77</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU111" t="n">
         <v>1.61</v>
@@ -23433,10 +23433,10 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU113" t="n">
         <v>1.91</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT114" t="n">
         <v>1.23</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT118" t="n">
         <v>1.23</v>
@@ -26075,7 +26075,7 @@
         <v>1.62</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26481,7 +26481,7 @@
         <v>2.23</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU128" t="n">
         <v>1.68</v>
@@ -27496,7 +27496,7 @@
         <v>1.23</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU133" t="n">
         <v>1.48</v>
@@ -27696,7 +27696,7 @@
         <v>0.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
         <v>0.46</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT135" t="n">
         <v>1.23</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT136" t="n">
         <v>0.6899999999999999</v>
@@ -28917,7 +28917,7 @@
         <v>1.62</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU140" t="n">
         <v>1.57</v>
@@ -30135,7 +30135,7 @@
         <v>2.08</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU146" t="n">
         <v>1.72</v>
@@ -30338,7 +30338,7 @@
         <v>1.23</v>
       </c>
       <c r="AT147" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU147" t="n">
         <v>1.84</v>
@@ -30741,7 +30741,7 @@
         <v>0.63</v>
       </c>
       <c r="AS149" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT149" t="n">
         <v>0.64</v>
@@ -31147,7 +31147,7 @@
         <v>1.14</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT151" t="n">
         <v>1.15</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT153" t="n">
         <v>1.23</v>
@@ -32977,7 +32977,7 @@
         <v>1.62</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU160" t="n">
         <v>1.5</v>
@@ -33380,7 +33380,7 @@
         <v>0.88</v>
       </c>
       <c r="AS162" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT162" t="n">
         <v>0.62</v>
@@ -33583,7 +33583,7 @@
         <v>0.33</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT163" t="n">
         <v>1.15</v>
@@ -34598,7 +34598,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT168" t="n">
         <v>1.38</v>
@@ -35210,7 +35210,7 @@
         <v>2.23</v>
       </c>
       <c r="AT171" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU171" t="n">
         <v>2.11</v>
@@ -35413,7 +35413,7 @@
         <v>1.15</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU172" t="n">
         <v>1.61</v>
@@ -36222,7 +36222,7 @@
         <v>0.67</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT176" t="n">
         <v>0.6899999999999999</v>
@@ -37037,7 +37037,7 @@
         <v>2.23</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU180" t="n">
         <v>2.11</v>
@@ -37440,7 +37440,7 @@
         <v>1.3</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT182" t="n">
         <v>1.38</v>
@@ -37646,7 +37646,7 @@
         <v>2.08</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU183" t="n">
         <v>2.29</v>
@@ -37849,7 +37849,7 @@
         <v>1.31</v>
       </c>
       <c r="AT184" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU184" t="n">
         <v>1.39</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT189" t="n">
         <v>0.92</v>
@@ -40079,7 +40079,7 @@
         <v>0.73</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT195" t="n">
         <v>0.64</v>
@@ -41097,7 +41097,7 @@
         <v>1.15</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU200" t="n">
         <v>1.63</v>
@@ -41906,7 +41906,7 @@
         <v>0.82</v>
       </c>
       <c r="AS204" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT204" t="n">
         <v>0.77</v>
@@ -42315,7 +42315,7 @@
         <v>0.77</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU206" t="n">
         <v>1.58</v>
@@ -42518,7 +42518,7 @@
         <v>1.85</v>
       </c>
       <c r="AT207" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU207" t="n">
         <v>1.84</v>
@@ -42718,7 +42718,7 @@
         <v>0.73</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT208" t="n">
         <v>0.92</v>
@@ -43124,7 +43124,7 @@
         <v>0.64</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT210" t="n">
         <v>0.62</v>
@@ -44954,7 +44954,7 @@
         <v>2.54</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU219" t="n">
         <v>1.88</v>
@@ -45357,7 +45357,7 @@
         <v>1.42</v>
       </c>
       <c r="AS221" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT221" t="n">
         <v>1.38</v>
@@ -45766,7 +45766,7 @@
         <v>2.23</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU223" t="n">
         <v>1.83</v>
@@ -45966,10 +45966,10 @@
         <v>1.08</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT224" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU224" t="n">
         <v>1.7</v>
@@ -46778,7 +46778,7 @@
         <v>1.92</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT228" t="n">
         <v>2</v>
@@ -48254,6 +48254,615 @@
       </c>
       <c r="BK235" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2467815</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45024.33333333334</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>6</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>7</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['33', '40', '61', '65', '76', '87']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>6</v>
+      </c>
+      <c r="R236" t="n">
+        <v>3</v>
+      </c>
+      <c r="S236" t="n">
+        <v>9</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V236" t="n">
+        <v>5</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2467818</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45024.33333333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Nürnberg</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Karlsruher SC</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>10</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2</v>
+      </c>
+      <c r="S237" t="n">
+        <v>12</v>
+      </c>
+      <c r="T237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2467822</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45024.33333333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Eintracht Braunschweig</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>9</v>
+      </c>
+      <c r="R238" t="n">
+        <v>3</v>
+      </c>
+      <c r="S238" t="n">
+        <v>12</v>
+      </c>
+      <c r="T238" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK238"/>
+  <dimension ref="A1:BK244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.85</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT5" t="n">
         <v>0.92</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1918,7 +1918,7 @@
         <v>1.15</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT9" t="n">
         <v>1.38</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT11" t="n">
         <v>0.64</v>
@@ -2933,7 +2933,7 @@
         <v>2.08</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT13" t="n">
         <v>0.62</v>
@@ -3339,7 +3339,7 @@
         <v>1.43</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.62</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT19" t="n">
         <v>0.6899999999999999</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU21" t="n">
         <v>1.65</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT22" t="n">
         <v>0.77</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT25" t="n">
         <v>0.92</v>
@@ -5775,7 +5775,7 @@
         <v>1.15</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -6181,7 +6181,7 @@
         <v>1.62</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU28" t="n">
         <v>1.36</v>
@@ -6587,7 +6587,7 @@
         <v>1.62</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU30" t="n">
         <v>1.3</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT33" t="n">
         <v>1.85</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT34" t="n">
         <v>1.15</v>
@@ -7602,7 +7602,7 @@
         <v>2.23</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU35" t="n">
         <v>1.9</v>
@@ -7805,7 +7805,7 @@
         <v>2.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.07</v>
@@ -8617,7 +8617,7 @@
         <v>2.08</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
         <v>2.68</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT41" t="n">
         <v>1.15</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT42" t="n">
         <v>0.77</v>
@@ -9226,7 +9226,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU43" t="n">
         <v>1.57</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT44" t="n">
         <v>0.92</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU45" t="n">
         <v>1.61</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT47" t="n">
         <v>0.62</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT49" t="n">
         <v>1.38</v>
@@ -10647,7 +10647,7 @@
         <v>2.23</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU50" t="n">
         <v>2.15</v>
@@ -11256,7 +11256,7 @@
         <v>1.62</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU53" t="n">
         <v>1.15</v>
@@ -11459,7 +11459,7 @@
         <v>1.62</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -12065,10 +12065,10 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU57" t="n">
         <v>2.18</v>
@@ -12271,7 +12271,7 @@
         <v>1.85</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU58" t="n">
         <v>2.14</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.15</v>
@@ -12677,7 +12677,7 @@
         <v>2.08</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU60" t="n">
         <v>2.49</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT62" t="n">
         <v>0.93</v>
@@ -13283,7 +13283,7 @@
         <v>0.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT63" t="n">
         <v>0.92</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT64" t="n">
         <v>1.36</v>
@@ -15113,7 +15113,7 @@
         <v>1.15</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.7</v>
@@ -15516,7 +15516,7 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT74" t="n">
         <v>0.93</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT76" t="n">
         <v>0.77</v>
@@ -16125,10 +16125,10 @@
         <v>1.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU78" t="n">
         <v>1.62</v>
@@ -16534,7 +16534,7 @@
         <v>2.07</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU79" t="n">
         <v>1.76</v>
@@ -16734,7 +16734,7 @@
         <v>1.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT80" t="n">
         <v>1.36</v>
@@ -16937,10 +16937,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU81" t="n">
         <v>1.13</v>
@@ -17143,7 +17143,7 @@
         <v>1.85</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU82" t="n">
         <v>1.98</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT92" t="n">
         <v>1.15</v>
@@ -19373,10 +19373,10 @@
         <v>0.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19576,10 +19576,10 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU94" t="n">
         <v>1.72</v>
@@ -19779,10 +19779,10 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU95" t="n">
         <v>1.59</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU96" t="n">
         <v>1.83</v>
@@ -20388,10 +20388,10 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT99" t="n">
         <v>0.93</v>
@@ -20797,7 +20797,7 @@
         <v>1.43</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.7</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23027,7 +23027,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT111" t="n">
         <v>1.36</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT112" t="n">
         <v>0.64</v>
@@ -23639,7 +23639,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU114" t="n">
         <v>1.75</v>
@@ -23839,10 +23839,10 @@
         <v>0.33</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU115" t="n">
         <v>1.51</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU116" t="n">
         <v>2.15</v>
@@ -24245,10 +24245,10 @@
         <v>0.4</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -24451,7 +24451,7 @@
         <v>2.07</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -25060,7 +25060,7 @@
         <v>1.23</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU121" t="n">
         <v>1.92</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
         <v>1.15</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT127" t="n">
         <v>0.62</v>
@@ -26478,7 +26478,7 @@
         <v>1.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT128" t="n">
         <v>0.93</v>
@@ -26681,7 +26681,7 @@
         <v>0.29</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT129" t="n">
         <v>0.64</v>
@@ -26887,7 +26887,7 @@
         <v>2.08</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU130" t="n">
         <v>1.74</v>
@@ -27087,10 +27087,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU131" t="n">
         <v>1.8</v>
@@ -27293,7 +27293,7 @@
         <v>1.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
         <v>2.06</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT133" t="n">
         <v>1.36</v>
@@ -27699,7 +27699,7 @@
         <v>1.5</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU134" t="n">
         <v>1.75</v>
@@ -27902,7 +27902,7 @@
         <v>1.43</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU135" t="n">
         <v>1.77</v>
@@ -28308,7 +28308,7 @@
         <v>2.23</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU137" t="n">
         <v>2.18</v>
@@ -28714,7 +28714,7 @@
         <v>1.62</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU139" t="n">
         <v>1.49</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT142" t="n">
         <v>0.77</v>
@@ -29523,7 +29523,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT143" t="n">
         <v>1.38</v>
@@ -29726,7 +29726,7 @@
         <v>0.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT144" t="n">
         <v>0.62</v>
@@ -30541,7 +30541,7 @@
         <v>1.5</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU148" t="n">
         <v>2.02</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT150" t="n">
         <v>0.6899999999999999</v>
@@ -31350,10 +31350,10 @@
         <v>0.71</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU152" t="n">
         <v>1.75</v>
@@ -31556,7 +31556,7 @@
         <v>1.43</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU153" t="n">
         <v>1.68</v>
@@ -31756,10 +31756,10 @@
         <v>1.25</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU154" t="n">
         <v>1.53</v>
@@ -31962,7 +31962,7 @@
         <v>2.08</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU155" t="n">
         <v>1.78</v>
@@ -32165,7 +32165,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU156" t="n">
         <v>1.94</v>
@@ -32365,7 +32365,7 @@
         <v>0.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT157" t="n">
         <v>0.6899999999999999</v>
@@ -32568,7 +32568,7 @@
         <v>1.38</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT158" t="n">
         <v>1.15</v>
@@ -32774,7 +32774,7 @@
         <v>1.23</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU159" t="n">
         <v>1.8</v>
@@ -33177,7 +33177,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT161" t="n">
         <v>0.64</v>
@@ -33586,7 +33586,7 @@
         <v>1.43</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU163" t="n">
         <v>1.71</v>
@@ -33789,7 +33789,7 @@
         <v>2.08</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU164" t="n">
         <v>2.28</v>
@@ -33989,7 +33989,7 @@
         <v>2.13</v>
       </c>
       <c r="AS165" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT165" t="n">
         <v>2</v>
@@ -34192,7 +34192,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT166" t="n">
         <v>0.92</v>
@@ -34398,7 +34398,7 @@
         <v>1.62</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU167" t="n">
         <v>1.51</v>
@@ -35004,7 +35004,7 @@
         <v>2.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT170" t="n">
         <v>1.85</v>
@@ -35613,7 +35613,7 @@
         <v>1.22</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT173" t="n">
         <v>1.15</v>
@@ -35819,7 +35819,7 @@
         <v>1.5</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU174" t="n">
         <v>1.92</v>
@@ -36022,7 +36022,7 @@
         <v>1.62</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36428,7 +36428,7 @@
         <v>1.23</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU177" t="n">
         <v>1.86</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT178" t="n">
         <v>1.85</v>
@@ -36831,7 +36831,7 @@
         <v>0.78</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT179" t="n">
         <v>0.62</v>
@@ -37443,7 +37443,7 @@
         <v>1.5</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU182" t="n">
         <v>1.65</v>
@@ -37846,7 +37846,7 @@
         <v>1.1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT184" t="n">
         <v>0.93</v>
@@ -38052,7 +38052,7 @@
         <v>1.15</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU185" t="n">
         <v>1.66</v>
@@ -38255,7 +38255,7 @@
         <v>1.85</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU186" t="n">
         <v>1.87</v>
@@ -38455,7 +38455,7 @@
         <v>2.22</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT187" t="n">
         <v>2</v>
@@ -38658,7 +38658,7 @@
         <v>0.89</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT188" t="n">
         <v>1.15</v>
@@ -39064,7 +39064,7 @@
         <v>0.9</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT190" t="n">
         <v>0.77</v>
@@ -39676,7 +39676,7 @@
         <v>1.62</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU193" t="n">
         <v>1.54</v>
@@ -39879,7 +39879,7 @@
         <v>1.23</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU194" t="n">
         <v>1.96</v>
@@ -40282,7 +40282,7 @@
         <v>2.2</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT196" t="n">
         <v>1.85</v>
@@ -40691,7 +40691,7 @@
         <v>1.62</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU198" t="n">
         <v>1.52</v>
@@ -40891,7 +40891,7 @@
         <v>1.3</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT199" t="n">
         <v>1.38</v>
@@ -41300,7 +41300,7 @@
         <v>2.08</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU201" t="n">
         <v>2.25</v>
@@ -41500,10 +41500,10 @@
         <v>1.45</v>
       </c>
       <c r="AS202" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU202" t="n">
         <v>1.47</v>
@@ -41703,10 +41703,10 @@
         <v>0.91</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU203" t="n">
         <v>1.45</v>
@@ -42109,7 +42109,7 @@
         <v>2.3</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT205" t="n">
         <v>2</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT206" t="n">
         <v>1.15</v>
@@ -43327,7 +43327,7 @@
         <v>2.09</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT211" t="n">
         <v>2</v>
@@ -43533,7 +43533,7 @@
         <v>2.23</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU212" t="n">
         <v>2.09</v>
@@ -43736,7 +43736,7 @@
         <v>1.15</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU213" t="n">
         <v>1.67</v>
@@ -44748,7 +44748,7 @@
         <v>0.75</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT218" t="n">
         <v>0.77</v>
@@ -44951,7 +44951,7 @@
         <v>1.27</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AT219" t="n">
         <v>1.15</v>
@@ -45157,7 +45157,7 @@
         <v>1.85</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU220" t="n">
         <v>1.78</v>
@@ -45360,7 +45360,7 @@
         <v>2.07</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU221" t="n">
         <v>1.93</v>
@@ -45560,10 +45560,10 @@
         <v>1.33</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU222" t="n">
         <v>1.44</v>
@@ -45763,7 +45763,7 @@
         <v>1.58</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT223" t="n">
         <v>1.36</v>
@@ -46169,10 +46169,10 @@
         <v>1.08</v>
       </c>
       <c r="AS225" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -46372,10 +46372,10 @@
         <v>1</v>
       </c>
       <c r="AS226" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU226" t="n">
         <v>1.48</v>
@@ -47999,7 +47999,7 @@
         <v>2.08</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU234" t="n">
         <v>2.2</v>
@@ -48863,6 +48863,1224 @@
       </c>
       <c r="BK238" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2467817</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45024.64583333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>27</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>5</v>
+      </c>
+      <c r="R239" t="n">
+        <v>3</v>
+      </c>
+      <c r="S239" t="n">
+        <v>8</v>
+      </c>
+      <c r="T239" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V239" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2467814</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45025.35416666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>27</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Fortuna Düsseldorf</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>2</v>
+      </c>
+      <c r="N240" t="n">
+        <v>4</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['19', '84']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['48', '60']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>3</v>
+      </c>
+      <c r="R240" t="n">
+        <v>3</v>
+      </c>
+      <c r="S240" t="n">
+        <v>6</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X240" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2467816</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45025.35416666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Darmstadt 98</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Paderborn</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>3</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['35', '59']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>7</v>
+      </c>
+      <c r="R241" t="n">
+        <v>3</v>
+      </c>
+      <c r="S241" t="n">
+        <v>10</v>
+      </c>
+      <c r="T241" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X241" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2467819</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45025.35416666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>27</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>2</v>
+      </c>
+      <c r="K242" t="n">
+        <v>3</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2</v>
+      </c>
+      <c r="M242" t="n">
+        <v>3</v>
+      </c>
+      <c r="N242" t="n">
+        <v>5</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['12', '53']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['44', '45+2', '47']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>14</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2</v>
+      </c>
+      <c r="S242" t="n">
+        <v>16</v>
+      </c>
+      <c r="T242" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V242" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2467820</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45025.35416666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>2</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>2</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['9', '26']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>2</v>
+      </c>
+      <c r="R243" t="n">
+        <v>6</v>
+      </c>
+      <c r="S243" t="n">
+        <v>8</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V243" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2467821</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45025.35416666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>27</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Magdeburg</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>2</v>
+      </c>
+      <c r="N244" t="n">
+        <v>4</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['52', '89']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['10', '80']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>2</v>
+      </c>
+      <c r="R244" t="n">
+        <v>7</v>
+      </c>
+      <c r="S244" t="n">
+        <v>9</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X244" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Germany 2. Bundesliga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT3" t="n">
         <v>1.5</v>
@@ -2324,7 +2324,7 @@
         <v>0.71</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.29</v>
@@ -4354,7 +4354,7 @@
         <v>1.21</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT20" t="n">
         <v>1.15</v>
@@ -5369,7 +5369,7 @@
         <v>2.07</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -6384,7 +6384,7 @@
         <v>1.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.57</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU37" t="n">
         <v>1.56</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT46" t="n">
         <v>1.36</v>
@@ -10241,7 +10241,7 @@
         <v>2.08</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -10444,7 +10444,7 @@
         <v>2.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>0.64</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT58" t="n">
         <v>1.29</v>
@@ -14098,7 +14098,7 @@
         <v>2.08</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU67" t="n">
         <v>2.64</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
         <v>0.62</v>
@@ -14504,7 +14504,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>2.53</v>
@@ -17140,7 +17140,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT82" t="n">
         <v>1.14</v>
@@ -17546,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
         <v>1.85</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT85" t="n">
         <v>0.64</v>
@@ -18361,7 +18361,7 @@
         <v>2.23</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>2.32</v>
@@ -18970,7 +18970,7 @@
         <v>1.15</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -20997,7 +20997,7 @@
         <v>0.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT101" t="n">
         <v>1.15</v>
@@ -22012,7 +22012,7 @@
         <v>0.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>0.92</v>
@@ -22218,7 +22218,7 @@
         <v>1.62</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22624,7 +22624,7 @@
         <v>1.23</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -24654,7 +24654,7 @@
         <v>1.15</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24854,7 +24854,7 @@
         <v>0.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT120" t="n">
         <v>0.92</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
         <v>1.15</v>
@@ -28105,7 +28105,7 @@
         <v>2.07</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28711,7 +28711,7 @@
         <v>1.25</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
         <v>1.21</v>
@@ -29117,7 +29117,7 @@
         <v>2.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT141" t="n">
         <v>1.85</v>
@@ -29526,7 +29526,7 @@
         <v>0.92</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU143" t="n">
         <v>1.49</v>
@@ -30947,7 +30947,7 @@
         <v>2.36</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU150" t="n">
         <v>1.78</v>
@@ -32368,7 +32368,7 @@
         <v>2.29</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU157" t="n">
         <v>1.72</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT160" t="n">
         <v>1.36</v>
@@ -34601,7 +34601,7 @@
         <v>1.5</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU168" t="n">
         <v>1.69</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT169" t="n">
         <v>0.77</v>
@@ -36019,7 +36019,7 @@
         <v>1.22</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT175" t="n">
         <v>1.14</v>
@@ -36225,7 +36225,7 @@
         <v>1.43</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU176" t="n">
         <v>1.79</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT186" t="n">
         <v>1.21</v>
@@ -39270,7 +39270,7 @@
         <v>1.5</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU191" t="n">
         <v>1.96</v>
@@ -40688,7 +40688,7 @@
         <v>1.18</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT198" t="n">
         <v>1.21</v>
@@ -40894,7 +40894,7 @@
         <v>1.21</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU199" t="n">
         <v>1.62</v>
@@ -42515,7 +42515,7 @@
         <v>1.09</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT207" t="n">
         <v>0.93</v>
@@ -43939,7 +43939,7 @@
         <v>2.08</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU214" t="n">
         <v>1.93</v>
@@ -44345,7 +44345,7 @@
         <v>1.23</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU216" t="n">
         <v>1.97</v>
@@ -44545,7 +44545,7 @@
         <v>1.27</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT217" t="n">
         <v>1.15</v>
@@ -45154,7 +45154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT220" t="n">
         <v>1.21</v>
@@ -46984,7 +46984,7 @@
         <v>2.23</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU229" t="n">
         <v>2.04</v>
@@ -47184,7 +47184,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT230" t="n">
         <v>0.64</v>
@@ -47593,7 +47593,7 @@
         <v>1.62</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU232" t="n">
         <v>1.51</v>
@@ -50081,6 +50081,412 @@
       </c>
       <c r="BK244" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2467823</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45030.5625</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Greuther Fürth</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>3</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['66', '77']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>5</v>
+      </c>
+      <c r="R245" t="n">
+        <v>4</v>
+      </c>
+      <c r="S245" t="n">
+        <v>9</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2467828</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Germany 2. Bundesliga</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45030.5625</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Hannover 96</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>3</v>
+      </c>
+      <c r="K246" t="n">
+        <v>3</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>3</v>
+      </c>
+      <c r="N246" t="n">
+        <v>3</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['30', '35', '45+4']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>6</v>
+      </c>
+      <c r="R246" t="n">
+        <v>8</v>
+      </c>
+      <c r="S246" t="n">
+        <v>14</v>
+      </c>
+      <c r="T246" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V246" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
